--- a/HE/W_in_progress/AnalisiCodeGPT.xlsx
+++ b/HE/W_in_progress/AnalisiCodeGPT.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28224"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{561CBD5E-10F1-4724-8066-0EF58285E20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0804D0CF-96CB-4E46-B72E-A25F2A852A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="918">
   <si>
     <t>IN</t>
   </si>
@@ -414,6 +414,9 @@
     <t>signal i_sck_cpy : std_logic_vector(DOUT_LEN - 1 downto 0); i_cs &lt;= i_cs(i_sck_cpy) when i_sck_cpy = '0' else i_cs;</t>
   </si>
   <si>
+    <t>Codice in più, nome sbagliato, però va bene</t>
+  </si>
+  <si>
     <t>i_slc_counter is a signal of type integer with values in the range 0 to 100</t>
   </si>
   <si>
@@ -429,6 +432,9 @@
     <t>signal output : std_logic_vector(DOUT_LEN - 1 downto 0);</t>
   </si>
   <si>
+    <t>Non ho chiesto un vettore</t>
+  </si>
+  <si>
     <t>round_keys is a signal of type dataArrayType</t>
   </si>
   <si>
@@ -462,6 +468,9 @@
     <t>signal temp : std_logic := '0';</t>
   </si>
   <si>
+    <t>Non quello che ho chiesto</t>
+  </si>
+  <si>
     <t>t_btn_plaintext, t_switchdisplay and t_btn_key are three std_logic signals</t>
   </si>
   <si>
@@ -507,6 +516,9 @@
     <t>signal ytemp : std_logic;</t>
   </si>
   <si>
+    <t>Non è un vettore</t>
+  </si>
+  <si>
     <t>Define BTN_state as a signal of type stato and initialize it with NOT_PRESSED</t>
   </si>
   <si>
@@ -528,6 +540,9 @@
     <t>signal t_stb_counter : integer range 0 to 108; entity clock_process is port (clk : in std_logic; rst : in std_logic; clock : in std_logic; reset : in std_logic; clock_frequency : in std_logic_vector(7 downto 0); reset_frequency : in std_logic_vector(7 downto 0); clock_frequency_in : in std_logic_vector(7 downto 0); clock_frequency_out : out std_logic_vector(7 downto 0)); end clock_process;</t>
   </si>
   <si>
+    <t>Codice in più, però va bene</t>
+  </si>
+  <si>
     <t>output is a std_logic signal initialized to '0'</t>
   </si>
   <si>
@@ -537,6 +552,9 @@
     <t>signal signal_out : std_logic := '0';</t>
   </si>
   <si>
+    <t>Nomee sbaliato ma va bene</t>
+  </si>
+  <si>
     <t>i_data_5_out is a std_logic_vector signal with length DOUT_LEN bits, used for storing data from input</t>
   </si>
   <si>
@@ -600,6 +618,9 @@
     <t>signal plaintext64 : std_logic_vector(63 downto 0);</t>
   </si>
   <si>
+    <t>Non fa l'inizializzazione</t>
+  </si>
+  <si>
     <t>Define a type named 'direction' with two possible values, LITTLE_ENDIAN and BIG_ENDIAN</t>
   </si>
   <si>
@@ -618,6 +639,9 @@
     <t>type ciao is (constant: std_logic_vector(6 downto 0) := "00010000");</t>
   </si>
   <si>
+    <t xml:space="preserve">Completamente un altra cosa </t>
+  </si>
+  <si>
     <t>define an enumerative type named hex_number that is an array with a range of POSITIVE indices of type hex_digit</t>
   </si>
   <si>
@@ -633,6 +657,9 @@
     <t>if rising_edge(clock) then if( clock = '1') then ; end if;</t>
   </si>
   <si>
+    <t>Codice in più, ma ve bene</t>
+  </si>
+  <si>
     <t>sck_gen is a process that operates sequentially on the rising edges of the clk_i signal</t>
   </si>
   <si>
@@ -648,6 +675,9 @@
     <t>process(clk) begin if rising_edge(clk) then if rst = '1' then if start = '1' then if start = '0' then if start = '1' then if start = '0' then if start = '1' then if start = '0' then if start = '1' then if start = '0' then if start = '1' then if start = '0' then if start = '1' then if start = '0' then if start = '1' then if start = '0' then if start = '1' then if start = '0' then if start = '1' then if start = '0' then if start = '1' then if start = '0' then if start = '1' then if start = '0' then if start = '1' then if start = '0' then if start = '1' then if start = '0' then if start = '1' then if start = '0' then if start = '1' then if start = '0' then if start = '1' then if start = '0' then if start = '1' then if start = '0' then if start = '1' then if start = '0' then if start = '1' then if start = '0' then if start = '1' then if start = '0' then if start = '1' then if start = '0' then if start = '1' then if start = '0' then if start = '1' then if start = '0' then if start = '1' then if start = '0' then if start = '1' then if start = '0' then if start = '1' then if start = '1' then if start = '0'</t>
   </si>
   <si>
+    <t>Codice in più ma va bene</t>
+  </si>
+  <si>
     <t>if DSETS is greater than 1, if the integer conversion of signal r.rndcnt is equal to DSETS - 1 then set all elements of thr signal v.rndcnt equal to '0' otherwise set v.rndcnt equal to v.rndcnt + 1</t>
   </si>
   <si>
@@ -663,6 +693,9 @@
     <t>if sum = difference then ; end if;</t>
   </si>
   <si>
+    <t>La codizione era opposta</t>
+  </si>
+  <si>
     <t>when rst_n_i signal is '0', reset the state</t>
   </si>
   <si>
@@ -711,6 +744,9 @@
     <t>signal prova : std_logic_vector(15 downto 0);</t>
   </si>
   <si>
+    <t>Non fa la concatenazione</t>
+  </si>
+  <si>
     <t>set count to c</t>
   </si>
   <si>
@@ -733,6 +769,9 @@
   </si>
   <si>
     <t>i_cs &lt;= '1' when i_cs_cpy = '0' else '0';</t>
+  </si>
+  <si>
+    <t>Aggiunge delle condizioni non richieste</t>
   </si>
   <si>
     <t>set i_data_0 signal to all '0'</t>
@@ -3118,8 +3157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
+      <selection activeCell="H310" sqref="H310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3513,7 +3552,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3934,7 +3973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>105</v>
       </c>
@@ -3957,7 +3996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -3980,7 +4019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>109</v>
       </c>
@@ -4003,7 +4042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>111</v>
       </c>
@@ -4026,7 +4065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>114</v>
       </c>
@@ -4049,7 +4088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>116</v>
       </c>
@@ -4072,7 +4111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>118</v>
       </c>
@@ -4095,7 +4134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>121</v>
       </c>
@@ -4118,7 +4157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>124</v>
       </c>
@@ -4138,18 +4177,21 @@
         <v>0.70460622265435102</v>
       </c>
       <c r="G41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B42" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C42" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -4164,15 +4206,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B43" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C43" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -4186,16 +4228,19 @@
       <c r="G43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="H43" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B44" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C44" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -4207,18 +4252,18 @@
         <v>0.996</v>
       </c>
       <c r="G44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B45" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C45" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -4233,15 +4278,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B46" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C46" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -4253,18 +4298,21 @@
         <v>0.5731804852039456</v>
       </c>
       <c r="G46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H46" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B47" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C47" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -4278,13 +4326,16 @@
       <c r="G47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="H47" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B48" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C48" t="s">
         <v>53</v>
@@ -4301,16 +4352,19 @@
       <c r="G48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="H48" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B49" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C49" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -4322,18 +4376,18 @@
         <v>0.99950000000000006</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B50" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C50" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -4348,15 +4402,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B51" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C51" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -4368,18 +4422,18 @@
         <v>0.98943985307621674</v>
       </c>
       <c r="G51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B52" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C52" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -4391,18 +4445,18 @@
         <v>0.996</v>
       </c>
       <c r="G52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B53" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C53" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -4416,13 +4470,16 @@
       <c r="G53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="H53" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B54" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C54" t="s">
         <v>53</v>
@@ -4439,16 +4496,19 @@
       <c r="G54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="H54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B55" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C55" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -4463,15 +4523,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B56" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C56" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -4485,16 +4545,19 @@
       <c r="G56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="H56" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B57" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C57" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -4506,18 +4569,21 @@
         <v>0.89506172839506171</v>
       </c>
       <c r="G57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H57" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B58" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C58" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -4532,15 +4598,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B59" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C59" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -4555,15 +4621,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B60" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C60" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -4577,16 +4643,19 @@
       <c r="G60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="H60" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B61" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C61" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -4598,18 +4667,18 @@
         <v>0.9990234375</v>
       </c>
       <c r="G61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B62" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C62" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -4624,15 +4693,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B63" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C63" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -4647,15 +4716,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B64" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C64" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -4667,12 +4736,12 @@
         <v>0.99854227405247808</v>
       </c>
       <c r="G64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B65" t="s">
         <v>125</v>
@@ -4693,15 +4762,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B66" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C66" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -4715,16 +4784,19 @@
       <c r="G66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="H66" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B67" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C67" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -4736,18 +4808,18 @@
         <v>0.9993141289437586</v>
       </c>
       <c r="G67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B68" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C68" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -4761,13 +4833,16 @@
       <c r="G68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="H68" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="B69" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="C69" t="s">
         <v>53</v>
@@ -4784,16 +4859,19 @@
       <c r="G69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="H69" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="B70" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C70" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -4805,15 +4883,18 @@
         <v>0.69368131868131866</v>
       </c>
       <c r="G70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H70" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="B71" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C71" t="s">
         <v>53</v>
@@ -4830,16 +4911,19 @@
       <c r="G71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="H71" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="B72" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C72" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -4851,15 +4935,18 @@
         <v>3.5377358490566037E-2</v>
       </c>
       <c r="G72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H72" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="B73" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="C73" t="s">
         <v>53</v>
@@ -4877,15 +4964,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="B74" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="C74" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -4899,16 +4986,19 @@
       <c r="G74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="H74" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="B75" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="C75" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -4922,16 +5012,19 @@
       <c r="G75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="H75" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="B76" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="C76" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -4945,16 +5038,19 @@
       <c r="G76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="H76" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="B77" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="C77" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -4968,16 +5064,19 @@
       <c r="G77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="H77" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B78" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="C78" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -4992,12 +5091,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="B79" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="C79" t="s">
         <v>53</v>
@@ -5015,15 +5114,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="B80" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C80" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -5035,18 +5134,21 @@
         <v>3.5377358490566037E-2</v>
       </c>
       <c r="G80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H80" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="B81" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="C81" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="D81">
         <v>0</v>
@@ -5060,13 +5162,16 @@
       <c r="G81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:7">
+      <c r="H81" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="B82" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="C82" t="s">
         <v>53</v>
@@ -5084,15 +5189,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="B83" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="C83" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -5104,18 +5209,18 @@
         <v>0.87372448979591832</v>
       </c>
       <c r="G83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="B84" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="C84" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -5129,16 +5234,19 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="B85" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="C85" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -5153,15 +5261,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="B86" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="C86" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -5176,12 +5284,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="B87" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="C87" t="s">
         <v>53</v>
@@ -5198,16 +5306,19 @@
       <c r="G87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:7">
+      <c r="H87" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="B88" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="C88" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -5222,15 +5333,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="B89" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="C89" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -5245,15 +5356,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="B90" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="C90" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -5268,15 +5379,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="B91" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="C91" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -5291,15 +5402,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="B92" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="C92" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -5314,15 +5425,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="B93" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="C93" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -5337,15 +5448,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="B94" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="C94" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="D94">
         <v>1</v>
@@ -5360,15 +5471,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="B95" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="C95" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -5383,15 +5494,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="B96" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="C96" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="D96">
         <v>1</v>
@@ -5406,15 +5517,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="B97" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="C97" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -5429,15 +5540,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="B98" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="C98" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -5452,15 +5563,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="B99" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="C99" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -5475,15 +5586,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="B100" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="C100" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -5498,15 +5609,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="B101" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="C101" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -5521,15 +5632,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="B102" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="C102" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -5544,15 +5655,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="B103" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="C103" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -5567,15 +5678,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="B104" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="C104" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -5590,12 +5701,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="B105" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="C105" t="s">
         <v>53</v>
@@ -5612,16 +5723,19 @@
       <c r="G105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:7">
+      <c r="H105" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="B106" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="C106" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -5636,15 +5750,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:8">
       <c r="A107" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="B107" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="C107" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -5659,15 +5773,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="B108" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="C108" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -5682,15 +5796,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:8">
       <c r="A109" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="B109" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="C109" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -5705,15 +5819,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:8">
       <c r="A110" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="B110" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="C110" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -5728,15 +5842,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:8">
       <c r="A111" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="B111" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="C111" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -5751,15 +5865,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:8">
       <c r="A112" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="B112" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="C112" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -5774,15 +5888,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="B113" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="C113" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -5797,15 +5911,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:8">
       <c r="A114" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="B114" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="C114" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -5820,15 +5934,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:8">
       <c r="A115" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="B115" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="C115" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="D115">
         <v>1</v>
@@ -5843,15 +5957,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:8">
       <c r="A116" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="B116" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="C116" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -5866,12 +5980,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:8">
       <c r="A117" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="B117" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="C117" t="s">
         <v>53</v>
@@ -5888,16 +6002,19 @@
       <c r="G117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:7">
+      <c r="H117" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="B118" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="C118" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -5912,15 +6029,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:8">
       <c r="A119" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="B119" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="C119" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -5935,15 +6052,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:8">
       <c r="A120" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="B120" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="C120" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -5958,15 +6075,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:8">
       <c r="A121" t="s">
+        <v>339</v>
+      </c>
+      <c r="B121" t="s">
         <v>326</v>
       </c>
-      <c r="B121" t="s">
-        <v>313</v>
-      </c>
       <c r="C121" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -5981,15 +6098,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:8">
       <c r="A122" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="B122" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="C122" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -6004,12 +6121,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:8">
       <c r="A123" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="B123" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="C123" t="s">
         <v>53</v>
@@ -6026,16 +6143,19 @@
       <c r="G123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:7">
+      <c r="H123" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="B124" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="C124" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -6050,12 +6170,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:8">
       <c r="A125" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="B125" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="C125" t="s">
         <v>53</v>
@@ -6072,16 +6192,19 @@
       <c r="G125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:7">
+      <c r="H125" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="B126" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="C126" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -6096,15 +6219,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:8">
       <c r="A127" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="B127" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="C127" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -6119,15 +6242,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:8">
       <c r="A128" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="B128" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="C128" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -6142,15 +6265,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:8">
       <c r="A129" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="B129" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="C129" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -6165,15 +6288,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:8">
       <c r="A130" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="B130" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="C130" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -6188,15 +6311,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:8">
       <c r="A131" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="B131" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="C131" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -6211,15 +6334,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="B132" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="C132" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -6234,15 +6357,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:8">
       <c r="A133" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="B133" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="C133" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -6257,15 +6380,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:8">
       <c r="A134" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="B134" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="C134" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -6280,15 +6403,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:8">
       <c r="A135" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="B135" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="C135" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -6303,12 +6426,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:8">
       <c r="A136" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="B136" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="C136" t="s">
         <v>53</v>
@@ -6325,16 +6448,19 @@
       <c r="G136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:7">
+      <c r="H136" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="B137" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="C137" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -6349,15 +6475,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:8">
       <c r="A138" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="B138" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="C138" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -6372,15 +6498,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:8">
       <c r="A139" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="B139" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="C139" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -6395,15 +6521,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:8">
       <c r="A140" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="B140" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="C140" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -6418,15 +6544,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:8">
       <c r="A141" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="B141" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="C141" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -6441,15 +6567,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:8">
       <c r="A142" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="B142" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="C142" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="D142">
         <v>1</v>
@@ -6464,15 +6590,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:8">
       <c r="A143" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="B143" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="C143" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -6487,15 +6613,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:8">
       <c r="A144" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="B144" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="C144" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -6510,12 +6636,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:8">
       <c r="A145" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="B145" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="C145" t="s">
         <v>53</v>
@@ -6532,16 +6658,19 @@
       <c r="G145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:7">
+      <c r="H145" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="B146" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="C146" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -6556,15 +6685,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:8">
       <c r="A147" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="B147" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="C147" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="D147">
         <v>0</v>
@@ -6579,15 +6708,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:8">
       <c r="A148" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="B148" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="C148" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="D148">
         <v>0</v>
@@ -6602,15 +6731,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:8">
       <c r="A149" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="B149" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="C149" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -6625,15 +6754,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:8">
       <c r="A150" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="B150" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="C150" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -6648,12 +6777,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:8">
       <c r="A151" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="B151" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="C151" t="s">
         <v>53</v>
@@ -6670,16 +6799,19 @@
       <c r="G151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:7">
+      <c r="H151" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="B152" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="C152" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="D152">
         <v>0</v>
@@ -6694,15 +6826,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:8">
       <c r="A153" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="B153" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="C153" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="D153">
         <v>0</v>
@@ -6717,15 +6849,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:8">
       <c r="A154" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="B154" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="C154" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="D154">
         <v>0</v>
@@ -6740,15 +6872,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:8">
       <c r="A155" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="B155" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="C155" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="D155">
         <v>0</v>
@@ -6763,12 +6895,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:8">
       <c r="A156" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="B156" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="C156" t="s">
         <v>53</v>
@@ -6785,16 +6917,19 @@
       <c r="G156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:7">
+      <c r="H156" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="B157" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="C157" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="D157">
         <v>0</v>
@@ -6809,15 +6944,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:8">
       <c r="A158" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="B158" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="C158" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -6832,15 +6967,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:8">
       <c r="A159" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="B159" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="C159" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -6855,15 +6990,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:8">
       <c r="A160" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="B160" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="C160" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -6878,15 +7013,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:8">
       <c r="A161" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="B161" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="C161" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="D161">
         <v>0</v>
@@ -6901,15 +7036,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:8">
       <c r="A162" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="B162" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="C162" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="D162">
         <v>1</v>
@@ -6924,15 +7059,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:8">
       <c r="A163" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="B163" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="C163" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="D163">
         <v>0</v>
@@ -6947,12 +7082,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:8">
       <c r="A164" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="B164" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="C164" t="s">
         <v>53</v>
@@ -6969,13 +7104,16 @@
       <c r="G164">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:7">
+      <c r="H164" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="B165" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="C165" t="s">
         <v>53</v>
@@ -6992,16 +7130,19 @@
       <c r="G165">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:7">
+      <c r="H165" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="B166" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="C166" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -7016,15 +7157,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:8">
       <c r="A167" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="B167" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="C167" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="D167">
         <v>0</v>
@@ -7039,15 +7180,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:8">
       <c r="A168" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="B168" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="C168" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="D168">
         <v>1</v>
@@ -7062,15 +7203,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:8">
       <c r="A169" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="B169" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="C169" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="D169">
         <v>0</v>
@@ -7085,15 +7226,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:8">
       <c r="A170" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="B170" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="C170" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="D170">
         <v>1</v>
@@ -7108,15 +7249,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:8">
       <c r="A171" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="B171" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="C171" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="D171">
         <v>0</v>
@@ -7131,15 +7272,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:8">
       <c r="A172" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="B172" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="C172" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="D172">
         <v>0</v>
@@ -7154,15 +7295,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:8">
       <c r="A173" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="B173" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="C173" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="D173">
         <v>1</v>
@@ -7177,15 +7318,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:8">
       <c r="A174" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="B174" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="C174" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="D174">
         <v>0</v>
@@ -7200,15 +7341,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:8">
       <c r="A175" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="B175" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="C175" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="D175">
         <v>0</v>
@@ -7223,15 +7364,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:8">
       <c r="A176" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="B176" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="C176" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="D176">
         <v>0</v>
@@ -7248,13 +7389,13 @@
     </row>
     <row r="177" spans="1:7">
       <c r="A177" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="B177" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C177" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="D177">
         <v>0</v>
@@ -7271,13 +7412,13 @@
     </row>
     <row r="178" spans="1:7">
       <c r="A178" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="B178" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="C178" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="D178">
         <v>0</v>
@@ -7294,13 +7435,13 @@
     </row>
     <row r="179" spans="1:7">
       <c r="A179" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="B179" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="C179" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="D179">
         <v>0</v>
@@ -7317,13 +7458,13 @@
     </row>
     <row r="180" spans="1:7">
       <c r="A180" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="B180" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="C180" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -7340,13 +7481,13 @@
     </row>
     <row r="181" spans="1:7">
       <c r="A181" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="B181" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="C181" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="D181">
         <v>0</v>
@@ -7363,13 +7504,13 @@
     </row>
     <row r="182" spans="1:7">
       <c r="A182" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="B182" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="C182" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -7386,13 +7527,13 @@
     </row>
     <row r="183" spans="1:7">
       <c r="A183" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="B183" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="C183" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="D183">
         <v>1</v>
@@ -7409,13 +7550,13 @@
     </row>
     <row r="184" spans="1:7">
       <c r="A184" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="B184" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="C184" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="D184">
         <v>0</v>
@@ -7432,13 +7573,13 @@
     </row>
     <row r="185" spans="1:7">
       <c r="A185" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="B185" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="C185" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="D185">
         <v>0</v>
@@ -7455,13 +7596,13 @@
     </row>
     <row r="186" spans="1:7">
       <c r="A186" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="B186" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
       <c r="C186" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="D186">
         <v>0</v>
@@ -7478,13 +7619,13 @@
     </row>
     <row r="187" spans="1:7">
       <c r="A187" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="B187" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="C187" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
       <c r="D187">
         <v>0</v>
@@ -7501,13 +7642,13 @@
     </row>
     <row r="188" spans="1:7">
       <c r="A188" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="B188" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="C188" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
       <c r="D188">
         <v>0</v>
@@ -7524,13 +7665,13 @@
     </row>
     <row r="189" spans="1:7">
       <c r="A189" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="B189" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="C189" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="D189">
         <v>0</v>
@@ -7547,13 +7688,13 @@
     </row>
     <row r="190" spans="1:7">
       <c r="A190" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="B190" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="C190" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="D190">
         <v>0</v>
@@ -7570,13 +7711,13 @@
     </row>
     <row r="191" spans="1:7">
       <c r="A191" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="B191" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="C191" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="D191">
         <v>1</v>
@@ -7593,13 +7734,13 @@
     </row>
     <row r="192" spans="1:7">
       <c r="A192" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
       <c r="B192" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="C192" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="D192">
         <v>0</v>
@@ -7614,12 +7755,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:8">
       <c r="A193" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
       <c r="B193" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="C193" t="s">
         <v>53</v>
@@ -7636,16 +7777,19 @@
       <c r="G193">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:7">
+      <c r="H193" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
       <c r="A194" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="B194" t="s">
-        <v>524</v>
+        <v>537</v>
       </c>
       <c r="C194" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="D194">
         <v>0</v>
@@ -7660,12 +7804,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:8">
       <c r="A195" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="B195" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
       <c r="C195" t="s">
         <v>53</v>
@@ -7682,16 +7826,19 @@
       <c r="G195">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:7">
+      <c r="H195" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
       <c r="A196" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
       <c r="B196" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
       <c r="C196" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="D196">
         <v>0</v>
@@ -7706,15 +7853,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:8">
       <c r="A197" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
       <c r="B197" t="s">
-        <v>532</v>
+        <v>545</v>
       </c>
       <c r="C197" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="D197">
         <v>0</v>
@@ -7729,15 +7876,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:8">
       <c r="A198" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="B198" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="C198" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
       <c r="D198">
         <v>0</v>
@@ -7752,15 +7899,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:8">
       <c r="A199" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
       <c r="B199" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="C199" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c r="D199">
         <v>0</v>
@@ -7775,15 +7922,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:8">
       <c r="A200" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="B200" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="C200" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
       <c r="D200">
         <v>0</v>
@@ -7798,15 +7945,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:8">
       <c r="A201" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="B201" t="s">
-        <v>544</v>
+        <v>557</v>
       </c>
       <c r="C201" t="s">
-        <v>545</v>
+        <v>558</v>
       </c>
       <c r="D201">
         <v>0</v>
@@ -7821,15 +7968,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:8">
       <c r="A202" t="s">
-        <v>546</v>
+        <v>559</v>
       </c>
       <c r="B202" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="C202" t="s">
-        <v>548</v>
+        <v>561</v>
       </c>
       <c r="D202">
         <v>0</v>
@@ -7844,15 +7991,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:8">
       <c r="A203" t="s">
-        <v>549</v>
+        <v>562</v>
       </c>
       <c r="B203" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
       <c r="C203" t="s">
-        <v>551</v>
+        <v>564</v>
       </c>
       <c r="D203">
         <v>0</v>
@@ -7867,15 +8014,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:8">
       <c r="A204" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
       <c r="B204" t="s">
-        <v>553</v>
+        <v>566</v>
       </c>
       <c r="C204" t="s">
-        <v>554</v>
+        <v>567</v>
       </c>
       <c r="D204">
         <v>0</v>
@@ -7890,15 +8037,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:8">
       <c r="A205" t="s">
-        <v>555</v>
+        <v>568</v>
       </c>
       <c r="B205" t="s">
-        <v>556</v>
+        <v>569</v>
       </c>
       <c r="C205" t="s">
-        <v>557</v>
+        <v>570</v>
       </c>
       <c r="D205">
         <v>0</v>
@@ -7913,15 +8060,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:8">
       <c r="A206" t="s">
-        <v>558</v>
+        <v>571</v>
       </c>
       <c r="B206" t="s">
-        <v>559</v>
+        <v>572</v>
       </c>
       <c r="C206" t="s">
-        <v>560</v>
+        <v>573</v>
       </c>
       <c r="D206">
         <v>0</v>
@@ -7936,15 +8083,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:8">
       <c r="A207" t="s">
-        <v>561</v>
+        <v>574</v>
       </c>
       <c r="B207" t="s">
-        <v>559</v>
+        <v>572</v>
       </c>
       <c r="C207" t="s">
-        <v>560</v>
+        <v>573</v>
       </c>
       <c r="D207">
         <v>0</v>
@@ -7959,15 +8106,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:8">
       <c r="A208" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
       <c r="B208" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="C208" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
       <c r="D208">
         <v>0</v>
@@ -7982,15 +8129,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:8">
       <c r="A209" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
       <c r="B209" t="s">
-        <v>566</v>
+        <v>579</v>
       </c>
       <c r="C209" t="s">
-        <v>567</v>
+        <v>580</v>
       </c>
       <c r="D209">
         <v>0</v>
@@ -8005,15 +8152,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:8">
       <c r="A210" t="s">
-        <v>568</v>
+        <v>581</v>
       </c>
       <c r="B210" t="s">
-        <v>569</v>
+        <v>582</v>
       </c>
       <c r="C210" t="s">
-        <v>570</v>
+        <v>583</v>
       </c>
       <c r="D210">
         <v>0</v>
@@ -8028,15 +8175,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:8">
       <c r="A211" t="s">
-        <v>571</v>
+        <v>584</v>
       </c>
       <c r="B211" t="s">
-        <v>572</v>
+        <v>585</v>
       </c>
       <c r="C211" t="s">
-        <v>572</v>
+        <v>585</v>
       </c>
       <c r="D211">
         <v>1</v>
@@ -8051,15 +8198,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:8">
       <c r="A212" t="s">
-        <v>573</v>
+        <v>586</v>
       </c>
       <c r="B212" t="s">
-        <v>574</v>
+        <v>587</v>
       </c>
       <c r="C212" t="s">
-        <v>574</v>
+        <v>587</v>
       </c>
       <c r="D212">
         <v>1</v>
@@ -8074,15 +8221,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:8">
       <c r="A213" t="s">
-        <v>575</v>
+        <v>588</v>
       </c>
       <c r="B213" t="s">
-        <v>576</v>
+        <v>589</v>
       </c>
       <c r="C213" t="s">
-        <v>577</v>
+        <v>590</v>
       </c>
       <c r="D213">
         <v>0</v>
@@ -8097,15 +8244,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:8">
       <c r="A214" t="s">
-        <v>578</v>
+        <v>591</v>
       </c>
       <c r="B214" t="s">
-        <v>579</v>
+        <v>592</v>
       </c>
       <c r="C214" t="s">
-        <v>579</v>
+        <v>592</v>
       </c>
       <c r="D214">
         <v>1</v>
@@ -8120,15 +8267,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:8">
       <c r="A215" t="s">
-        <v>580</v>
+        <v>593</v>
       </c>
       <c r="B215" t="s">
-        <v>581</v>
+        <v>594</v>
       </c>
       <c r="C215" t="s">
-        <v>582</v>
+        <v>595</v>
       </c>
       <c r="D215">
         <v>0</v>
@@ -8143,15 +8290,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:8">
       <c r="A216" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="B216" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
       <c r="C216" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
       <c r="D216">
         <v>1</v>
@@ -8166,15 +8313,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:8">
       <c r="A217" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
       <c r="B217" t="s">
-        <v>586</v>
+        <v>599</v>
       </c>
       <c r="C217" t="s">
-        <v>587</v>
+        <v>600</v>
       </c>
       <c r="D217">
         <v>0</v>
@@ -8189,15 +8336,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:8">
       <c r="A218" t="s">
-        <v>588</v>
+        <v>601</v>
       </c>
       <c r="B218" t="s">
-        <v>589</v>
+        <v>602</v>
       </c>
       <c r="C218" t="s">
-        <v>589</v>
+        <v>602</v>
       </c>
       <c r="D218">
         <v>1</v>
@@ -8212,15 +8359,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:8">
       <c r="A219" t="s">
-        <v>590</v>
+        <v>603</v>
       </c>
       <c r="B219" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="C219" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="D219">
         <v>1</v>
@@ -8235,15 +8382,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:8">
       <c r="A220" t="s">
-        <v>592</v>
+        <v>605</v>
       </c>
       <c r="B220" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
       <c r="C220" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
       <c r="D220">
         <v>1</v>
@@ -8258,12 +8405,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:8">
       <c r="A221" t="s">
-        <v>594</v>
+        <v>607</v>
       </c>
       <c r="B221" t="s">
-        <v>595</v>
+        <v>608</v>
       </c>
       <c r="C221" t="s">
         <v>53</v>
@@ -8280,16 +8427,19 @@
       <c r="G221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:7">
+      <c r="H221" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
       <c r="A222" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="B222" t="s">
-        <v>597</v>
+        <v>610</v>
       </c>
       <c r="C222" t="s">
-        <v>598</v>
+        <v>611</v>
       </c>
       <c r="D222">
         <v>0</v>
@@ -8304,15 +8454,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:8">
       <c r="A223" t="s">
-        <v>599</v>
+        <v>612</v>
       </c>
       <c r="B223" t="s">
-        <v>600</v>
+        <v>613</v>
       </c>
       <c r="C223" t="s">
-        <v>601</v>
+        <v>614</v>
       </c>
       <c r="D223">
         <v>0</v>
@@ -8327,15 +8477,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:8">
       <c r="A224" t="s">
-        <v>602</v>
+        <v>615</v>
       </c>
       <c r="B224" t="s">
-        <v>603</v>
+        <v>616</v>
       </c>
       <c r="C224" t="s">
-        <v>604</v>
+        <v>617</v>
       </c>
       <c r="D224">
         <v>0</v>
@@ -8350,15 +8500,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:8">
       <c r="A225" t="s">
-        <v>605</v>
+        <v>618</v>
       </c>
       <c r="B225" t="s">
-        <v>606</v>
+        <v>619</v>
       </c>
       <c r="C225" t="s">
-        <v>607</v>
+        <v>620</v>
       </c>
       <c r="D225">
         <v>0</v>
@@ -8373,15 +8523,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:8">
       <c r="A226" t="s">
-        <v>608</v>
+        <v>621</v>
       </c>
       <c r="B226" t="s">
-        <v>609</v>
+        <v>622</v>
       </c>
       <c r="C226" t="s">
-        <v>610</v>
+        <v>623</v>
       </c>
       <c r="D226">
         <v>0</v>
@@ -8396,15 +8546,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:8">
       <c r="A227" t="s">
-        <v>611</v>
+        <v>624</v>
       </c>
       <c r="B227" t="s">
-        <v>612</v>
+        <v>625</v>
       </c>
       <c r="C227" t="s">
-        <v>613</v>
+        <v>626</v>
       </c>
       <c r="D227">
         <v>0</v>
@@ -8419,15 +8569,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:8">
       <c r="A228" t="s">
-        <v>614</v>
+        <v>627</v>
       </c>
       <c r="B228" t="s">
-        <v>615</v>
+        <v>628</v>
       </c>
       <c r="C228" t="s">
-        <v>616</v>
+        <v>629</v>
       </c>
       <c r="D228">
         <v>0</v>
@@ -8442,12 +8592,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:8">
       <c r="A229" t="s">
-        <v>617</v>
+        <v>630</v>
       </c>
       <c r="B229" t="s">
-        <v>618</v>
+        <v>631</v>
       </c>
       <c r="C229" t="s">
         <v>53</v>
@@ -8464,16 +8614,19 @@
       <c r="G229">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:7">
+      <c r="H229" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
       <c r="A230" t="s">
-        <v>619</v>
+        <v>632</v>
       </c>
       <c r="B230" t="s">
-        <v>620</v>
+        <v>633</v>
       </c>
       <c r="C230" t="s">
-        <v>621</v>
+        <v>634</v>
       </c>
       <c r="D230">
         <v>0</v>
@@ -8488,15 +8641,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:8">
       <c r="A231" t="s">
-        <v>622</v>
+        <v>635</v>
       </c>
       <c r="B231" t="s">
-        <v>623</v>
+        <v>636</v>
       </c>
       <c r="C231" t="s">
-        <v>624</v>
+        <v>637</v>
       </c>
       <c r="D231">
         <v>0</v>
@@ -8511,15 +8664,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:8">
       <c r="A232" t="s">
-        <v>625</v>
+        <v>638</v>
       </c>
       <c r="B232" t="s">
-        <v>626</v>
+        <v>639</v>
       </c>
       <c r="C232" t="s">
-        <v>627</v>
+        <v>640</v>
       </c>
       <c r="D232">
         <v>0</v>
@@ -8534,15 +8687,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:8">
       <c r="A233" t="s">
-        <v>628</v>
+        <v>641</v>
       </c>
       <c r="B233" t="s">
-        <v>629</v>
+        <v>642</v>
       </c>
       <c r="C233" t="s">
-        <v>630</v>
+        <v>643</v>
       </c>
       <c r="D233">
         <v>0</v>
@@ -8557,15 +8710,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:8">
       <c r="A234" t="s">
-        <v>631</v>
+        <v>644</v>
       </c>
       <c r="B234" t="s">
-        <v>632</v>
+        <v>645</v>
       </c>
       <c r="C234" t="s">
-        <v>633</v>
+        <v>646</v>
       </c>
       <c r="D234">
         <v>0</v>
@@ -8580,15 +8733,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:8">
       <c r="A235" t="s">
-        <v>634</v>
+        <v>647</v>
       </c>
       <c r="B235" t="s">
-        <v>635</v>
+        <v>648</v>
       </c>
       <c r="C235" t="s">
-        <v>636</v>
+        <v>649</v>
       </c>
       <c r="D235">
         <v>0</v>
@@ -8603,15 +8756,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:8">
       <c r="A236" t="s">
-        <v>637</v>
+        <v>650</v>
       </c>
       <c r="B236" t="s">
-        <v>638</v>
+        <v>651</v>
       </c>
       <c r="C236" t="s">
-        <v>639</v>
+        <v>652</v>
       </c>
       <c r="D236">
         <v>0</v>
@@ -8626,15 +8779,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:8">
       <c r="A237" t="s">
-        <v>640</v>
+        <v>653</v>
       </c>
       <c r="B237" t="s">
-        <v>641</v>
+        <v>654</v>
       </c>
       <c r="C237" t="s">
-        <v>642</v>
+        <v>655</v>
       </c>
       <c r="D237">
         <v>0</v>
@@ -8649,15 +8802,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:8">
       <c r="A238" t="s">
-        <v>643</v>
+        <v>656</v>
       </c>
       <c r="B238" t="s">
-        <v>644</v>
+        <v>657</v>
       </c>
       <c r="C238" t="s">
-        <v>645</v>
+        <v>658</v>
       </c>
       <c r="D238">
         <v>0</v>
@@ -8672,15 +8825,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:8">
       <c r="A239" t="s">
-        <v>646</v>
+        <v>659</v>
       </c>
       <c r="B239" t="s">
-        <v>647</v>
+        <v>660</v>
       </c>
       <c r="C239" t="s">
-        <v>648</v>
+        <v>661</v>
       </c>
       <c r="D239">
         <v>0</v>
@@ -8695,15 +8848,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:8">
       <c r="A240" t="s">
-        <v>649</v>
+        <v>662</v>
       </c>
       <c r="B240" t="s">
-        <v>650</v>
+        <v>663</v>
       </c>
       <c r="C240" t="s">
-        <v>651</v>
+        <v>664</v>
       </c>
       <c r="D240">
         <v>0</v>
@@ -8720,13 +8873,13 @@
     </row>
     <row r="241" spans="1:7">
       <c r="A241" t="s">
-        <v>652</v>
+        <v>665</v>
       </c>
       <c r="B241" t="s">
-        <v>653</v>
+        <v>666</v>
       </c>
       <c r="C241" t="s">
-        <v>654</v>
+        <v>667</v>
       </c>
       <c r="D241">
         <v>0</v>
@@ -8743,13 +8896,13 @@
     </row>
     <row r="242" spans="1:7">
       <c r="A242" t="s">
-        <v>655</v>
+        <v>668</v>
       </c>
       <c r="B242" t="s">
-        <v>656</v>
+        <v>669</v>
       </c>
       <c r="C242" t="s">
-        <v>657</v>
+        <v>670</v>
       </c>
       <c r="D242">
         <v>0</v>
@@ -8766,13 +8919,13 @@
     </row>
     <row r="243" spans="1:7">
       <c r="A243" t="s">
-        <v>658</v>
+        <v>671</v>
       </c>
       <c r="B243" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
       <c r="C243" t="s">
-        <v>660</v>
+        <v>673</v>
       </c>
       <c r="D243">
         <v>0</v>
@@ -8789,13 +8942,13 @@
     </row>
     <row r="244" spans="1:7">
       <c r="A244" t="s">
-        <v>661</v>
+        <v>674</v>
       </c>
       <c r="B244" t="s">
-        <v>662</v>
+        <v>675</v>
       </c>
       <c r="C244" t="s">
-        <v>663</v>
+        <v>676</v>
       </c>
       <c r="D244">
         <v>0</v>
@@ -8812,13 +8965,13 @@
     </row>
     <row r="245" spans="1:7">
       <c r="A245" t="s">
-        <v>664</v>
+        <v>677</v>
       </c>
       <c r="B245" t="s">
-        <v>665</v>
+        <v>678</v>
       </c>
       <c r="C245" t="s">
-        <v>666</v>
+        <v>679</v>
       </c>
       <c r="D245">
         <v>0</v>
@@ -8835,13 +8988,13 @@
     </row>
     <row r="246" spans="1:7">
       <c r="A246" t="s">
-        <v>667</v>
+        <v>680</v>
       </c>
       <c r="B246" t="s">
-        <v>668</v>
+        <v>681</v>
       </c>
       <c r="C246" t="s">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="D246">
         <v>0</v>
@@ -8858,13 +9011,13 @@
     </row>
     <row r="247" spans="1:7">
       <c r="A247" t="s">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="B247" t="s">
-        <v>671</v>
+        <v>684</v>
       </c>
       <c r="C247" t="s">
-        <v>672</v>
+        <v>685</v>
       </c>
       <c r="D247">
         <v>0</v>
@@ -8881,13 +9034,13 @@
     </row>
     <row r="248" spans="1:7">
       <c r="A248" t="s">
-        <v>673</v>
+        <v>686</v>
       </c>
       <c r="B248" t="s">
-        <v>674</v>
+        <v>687</v>
       </c>
       <c r="C248" t="s">
-        <v>675</v>
+        <v>688</v>
       </c>
       <c r="D248">
         <v>0</v>
@@ -8904,13 +9057,13 @@
     </row>
     <row r="249" spans="1:7">
       <c r="A249" t="s">
-        <v>676</v>
+        <v>689</v>
       </c>
       <c r="B249" t="s">
-        <v>677</v>
+        <v>690</v>
       </c>
       <c r="C249" t="s">
-        <v>678</v>
+        <v>691</v>
       </c>
       <c r="D249">
         <v>0</v>
@@ -8927,13 +9080,13 @@
     </row>
     <row r="250" spans="1:7">
       <c r="A250" t="s">
-        <v>679</v>
+        <v>692</v>
       </c>
       <c r="B250" t="s">
-        <v>680</v>
+        <v>693</v>
       </c>
       <c r="C250" t="s">
-        <v>681</v>
+        <v>694</v>
       </c>
       <c r="D250">
         <v>0</v>
@@ -8950,13 +9103,13 @@
     </row>
     <row r="251" spans="1:7">
       <c r="A251" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="B251" t="s">
-        <v>683</v>
+        <v>696</v>
       </c>
       <c r="C251" t="s">
-        <v>684</v>
+        <v>697</v>
       </c>
       <c r="D251">
         <v>0</v>
@@ -8973,13 +9126,13 @@
     </row>
     <row r="252" spans="1:7">
       <c r="A252" t="s">
-        <v>685</v>
+        <v>698</v>
       </c>
       <c r="B252" t="s">
-        <v>686</v>
+        <v>699</v>
       </c>
       <c r="C252" t="s">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="D252">
         <v>0</v>
@@ -8996,13 +9149,13 @@
     </row>
     <row r="253" spans="1:7">
       <c r="A253" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="B253" t="s">
-        <v>689</v>
+        <v>702</v>
       </c>
       <c r="C253" t="s">
-        <v>690</v>
+        <v>703</v>
       </c>
       <c r="D253">
         <v>0</v>
@@ -9019,13 +9172,13 @@
     </row>
     <row r="254" spans="1:7">
       <c r="A254" t="s">
-        <v>691</v>
+        <v>704</v>
       </c>
       <c r="B254" t="s">
-        <v>692</v>
+        <v>705</v>
       </c>
       <c r="C254" t="s">
-        <v>693</v>
+        <v>706</v>
       </c>
       <c r="D254">
         <v>0</v>
@@ -9042,13 +9195,13 @@
     </row>
     <row r="255" spans="1:7">
       <c r="A255" t="s">
-        <v>694</v>
+        <v>707</v>
       </c>
       <c r="B255" t="s">
-        <v>695</v>
+        <v>708</v>
       </c>
       <c r="C255" t="s">
-        <v>696</v>
+        <v>709</v>
       </c>
       <c r="D255">
         <v>0</v>
@@ -9065,13 +9218,13 @@
     </row>
     <row r="256" spans="1:7">
       <c r="A256" t="s">
-        <v>697</v>
+        <v>710</v>
       </c>
       <c r="B256" t="s">
-        <v>698</v>
+        <v>711</v>
       </c>
       <c r="C256" t="s">
-        <v>699</v>
+        <v>712</v>
       </c>
       <c r="D256">
         <v>0</v>
@@ -9088,13 +9241,13 @@
     </row>
     <row r="257" spans="1:7">
       <c r="A257" t="s">
-        <v>700</v>
+        <v>713</v>
       </c>
       <c r="B257" t="s">
-        <v>701</v>
+        <v>714</v>
       </c>
       <c r="C257" t="s">
-        <v>702</v>
+        <v>715</v>
       </c>
       <c r="D257">
         <v>0</v>
@@ -9111,13 +9264,13 @@
     </row>
     <row r="258" spans="1:7">
       <c r="A258" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
       <c r="B258" t="s">
-        <v>704</v>
+        <v>717</v>
       </c>
       <c r="C258" t="s">
-        <v>705</v>
+        <v>718</v>
       </c>
       <c r="D258">
         <v>0</v>
@@ -9134,13 +9287,13 @@
     </row>
     <row r="259" spans="1:7">
       <c r="A259" t="s">
-        <v>706</v>
+        <v>719</v>
       </c>
       <c r="B259" t="s">
-        <v>707</v>
+        <v>720</v>
       </c>
       <c r="C259" t="s">
-        <v>708</v>
+        <v>721</v>
       </c>
       <c r="D259">
         <v>0</v>
@@ -9157,13 +9310,13 @@
     </row>
     <row r="260" spans="1:7">
       <c r="A260" t="s">
-        <v>709</v>
+        <v>722</v>
       </c>
       <c r="B260" t="s">
-        <v>710</v>
+        <v>723</v>
       </c>
       <c r="C260" t="s">
-        <v>711</v>
+        <v>724</v>
       </c>
       <c r="D260">
         <v>0</v>
@@ -9180,13 +9333,13 @@
     </row>
     <row r="261" spans="1:7">
       <c r="A261" t="s">
-        <v>712</v>
+        <v>725</v>
       </c>
       <c r="B261" t="s">
-        <v>713</v>
+        <v>726</v>
       </c>
       <c r="C261" t="s">
-        <v>714</v>
+        <v>727</v>
       </c>
       <c r="D261">
         <v>0</v>
@@ -9203,13 +9356,13 @@
     </row>
     <row r="262" spans="1:7">
       <c r="A262" t="s">
-        <v>715</v>
+        <v>728</v>
       </c>
       <c r="B262" t="s">
-        <v>716</v>
+        <v>729</v>
       </c>
       <c r="C262" t="s">
-        <v>717</v>
+        <v>730</v>
       </c>
       <c r="D262">
         <v>0</v>
@@ -9226,13 +9379,13 @@
     </row>
     <row r="263" spans="1:7">
       <c r="A263" t="s">
-        <v>718</v>
+        <v>731</v>
       </c>
       <c r="B263" t="s">
-        <v>719</v>
+        <v>732</v>
       </c>
       <c r="C263" t="s">
-        <v>720</v>
+        <v>733</v>
       </c>
       <c r="D263">
         <v>0</v>
@@ -9249,13 +9402,13 @@
     </row>
     <row r="264" spans="1:7">
       <c r="A264" t="s">
-        <v>721</v>
+        <v>734</v>
       </c>
       <c r="B264" t="s">
-        <v>722</v>
+        <v>735</v>
       </c>
       <c r="C264" t="s">
-        <v>723</v>
+        <v>736</v>
       </c>
       <c r="D264">
         <v>0</v>
@@ -9272,13 +9425,13 @@
     </row>
     <row r="265" spans="1:7">
       <c r="A265" t="s">
-        <v>724</v>
+        <v>737</v>
       </c>
       <c r="B265" t="s">
-        <v>725</v>
+        <v>738</v>
       </c>
       <c r="C265" t="s">
-        <v>726</v>
+        <v>739</v>
       </c>
       <c r="D265">
         <v>0</v>
@@ -9295,13 +9448,13 @@
     </row>
     <row r="266" spans="1:7">
       <c r="A266" t="s">
-        <v>727</v>
+        <v>740</v>
       </c>
       <c r="B266" t="s">
-        <v>728</v>
+        <v>741</v>
       </c>
       <c r="C266" t="s">
-        <v>729</v>
+        <v>742</v>
       </c>
       <c r="D266">
         <v>0</v>
@@ -9318,13 +9471,13 @@
     </row>
     <row r="267" spans="1:7">
       <c r="A267" t="s">
-        <v>730</v>
+        <v>743</v>
       </c>
       <c r="B267" t="s">
-        <v>731</v>
+        <v>744</v>
       </c>
       <c r="C267" t="s">
-        <v>732</v>
+        <v>745</v>
       </c>
       <c r="D267">
         <v>0</v>
@@ -9341,13 +9494,13 @@
     </row>
     <row r="268" spans="1:7">
       <c r="A268" t="s">
-        <v>733</v>
+        <v>746</v>
       </c>
       <c r="B268" t="s">
-        <v>734</v>
+        <v>747</v>
       </c>
       <c r="C268" t="s">
-        <v>735</v>
+        <v>748</v>
       </c>
       <c r="D268">
         <v>0</v>
@@ -9364,13 +9517,13 @@
     </row>
     <row r="269" spans="1:7">
       <c r="A269" t="s">
-        <v>736</v>
+        <v>749</v>
       </c>
       <c r="B269" t="s">
-        <v>737</v>
+        <v>750</v>
       </c>
       <c r="C269" t="s">
-        <v>738</v>
+        <v>751</v>
       </c>
       <c r="D269">
         <v>0</v>
@@ -9387,13 +9540,13 @@
     </row>
     <row r="270" spans="1:7">
       <c r="A270" t="s">
-        <v>739</v>
+        <v>752</v>
       </c>
       <c r="B270" t="s">
-        <v>740</v>
+        <v>753</v>
       </c>
       <c r="C270" t="s">
-        <v>741</v>
+        <v>754</v>
       </c>
       <c r="D270">
         <v>0</v>
@@ -9410,13 +9563,13 @@
     </row>
     <row r="271" spans="1:7">
       <c r="A271" t="s">
-        <v>742</v>
+        <v>755</v>
       </c>
       <c r="B271" t="s">
-        <v>743</v>
+        <v>756</v>
       </c>
       <c r="C271" t="s">
-        <v>744</v>
+        <v>757</v>
       </c>
       <c r="D271">
         <v>0</v>
@@ -9433,13 +9586,13 @@
     </row>
     <row r="272" spans="1:7">
       <c r="A272" t="s">
-        <v>745</v>
+        <v>758</v>
       </c>
       <c r="B272" t="s">
-        <v>746</v>
+        <v>759</v>
       </c>
       <c r="C272" t="s">
-        <v>747</v>
+        <v>760</v>
       </c>
       <c r="D272">
         <v>0</v>
@@ -9454,15 +9607,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" spans="1:8">
       <c r="A273" t="s">
-        <v>748</v>
+        <v>761</v>
       </c>
       <c r="B273" t="s">
-        <v>749</v>
+        <v>762</v>
       </c>
       <c r="C273" t="s">
-        <v>750</v>
+        <v>763</v>
       </c>
       <c r="D273">
         <v>0</v>
@@ -9477,15 +9630,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" spans="1:8">
       <c r="A274" t="s">
-        <v>751</v>
+        <v>764</v>
       </c>
       <c r="B274" t="s">
-        <v>752</v>
+        <v>765</v>
       </c>
       <c r="C274" t="s">
-        <v>753</v>
+        <v>766</v>
       </c>
       <c r="D274">
         <v>0</v>
@@ -9500,15 +9653,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:8">
       <c r="A275" t="s">
-        <v>754</v>
+        <v>767</v>
       </c>
       <c r="B275" t="s">
-        <v>755</v>
+        <v>768</v>
       </c>
       <c r="C275" t="s">
-        <v>756</v>
+        <v>769</v>
       </c>
       <c r="D275">
         <v>0</v>
@@ -9523,15 +9676,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" spans="1:8">
       <c r="A276" t="s">
-        <v>757</v>
+        <v>770</v>
       </c>
       <c r="B276" t="s">
-        <v>758</v>
+        <v>771</v>
       </c>
       <c r="C276" t="s">
-        <v>759</v>
+        <v>772</v>
       </c>
       <c r="D276">
         <v>0</v>
@@ -9546,15 +9699,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:8">
       <c r="A277" t="s">
-        <v>760</v>
+        <v>773</v>
       </c>
       <c r="B277" t="s">
-        <v>761</v>
+        <v>774</v>
       </c>
       <c r="C277" t="s">
-        <v>762</v>
+        <v>775</v>
       </c>
       <c r="D277">
         <v>0</v>
@@ -9569,15 +9722,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:8">
       <c r="A278" t="s">
-        <v>763</v>
+        <v>776</v>
       </c>
       <c r="B278" t="s">
-        <v>764</v>
+        <v>777</v>
       </c>
       <c r="C278" t="s">
-        <v>765</v>
+        <v>778</v>
       </c>
       <c r="D278">
         <v>0</v>
@@ -9592,12 +9745,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:8">
       <c r="A279" t="s">
-        <v>766</v>
+        <v>779</v>
       </c>
       <c r="B279" t="s">
-        <v>767</v>
+        <v>780</v>
       </c>
       <c r="C279" t="s">
         <v>53</v>
@@ -9614,16 +9767,19 @@
       <c r="G279">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:7">
+      <c r="H279" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8">
       <c r="A280" t="s">
-        <v>768</v>
+        <v>781</v>
       </c>
       <c r="B280" t="s">
-        <v>769</v>
+        <v>782</v>
       </c>
       <c r="C280" t="s">
-        <v>770</v>
+        <v>783</v>
       </c>
       <c r="D280">
         <v>0</v>
@@ -9638,15 +9794,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:8">
       <c r="A281" t="s">
-        <v>771</v>
+        <v>784</v>
       </c>
       <c r="B281" t="s">
-        <v>772</v>
+        <v>785</v>
       </c>
       <c r="C281" t="s">
-        <v>773</v>
+        <v>786</v>
       </c>
       <c r="D281">
         <v>0</v>
@@ -9661,15 +9817,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" spans="1:8">
       <c r="A282" t="s">
-        <v>774</v>
+        <v>787</v>
       </c>
       <c r="B282" t="s">
-        <v>775</v>
+        <v>788</v>
       </c>
       <c r="C282" t="s">
-        <v>776</v>
+        <v>789</v>
       </c>
       <c r="D282">
         <v>0</v>
@@ -9684,15 +9840,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" spans="1:8">
       <c r="A283" t="s">
-        <v>777</v>
+        <v>790</v>
       </c>
       <c r="B283" t="s">
-        <v>778</v>
+        <v>791</v>
       </c>
       <c r="C283" t="s">
-        <v>779</v>
+        <v>792</v>
       </c>
       <c r="D283">
         <v>0</v>
@@ -9707,15 +9863,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:7">
+    <row r="284" spans="1:8">
       <c r="A284" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
       <c r="B284" t="s">
-        <v>781</v>
+        <v>794</v>
       </c>
       <c r="C284" t="s">
-        <v>782</v>
+        <v>795</v>
       </c>
       <c r="D284">
         <v>0</v>
@@ -9730,15 +9886,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:7">
+    <row r="285" spans="1:8">
       <c r="A285" t="s">
-        <v>783</v>
+        <v>796</v>
       </c>
       <c r="B285" t="s">
-        <v>784</v>
+        <v>797</v>
       </c>
       <c r="C285" t="s">
-        <v>785</v>
+        <v>798</v>
       </c>
       <c r="D285">
         <v>0</v>
@@ -9753,15 +9909,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" spans="1:8">
       <c r="A286" t="s">
-        <v>786</v>
+        <v>799</v>
       </c>
       <c r="B286" t="s">
-        <v>787</v>
+        <v>800</v>
       </c>
       <c r="C286" t="s">
-        <v>788</v>
+        <v>801</v>
       </c>
       <c r="D286">
         <v>0</v>
@@ -9776,15 +9932,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:8">
       <c r="A287" t="s">
-        <v>789</v>
+        <v>802</v>
       </c>
       <c r="B287" t="s">
-        <v>790</v>
+        <v>803</v>
       </c>
       <c r="C287" t="s">
-        <v>791</v>
+        <v>804</v>
       </c>
       <c r="D287">
         <v>0</v>
@@ -9799,15 +9955,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" spans="1:8">
       <c r="A288" t="s">
-        <v>792</v>
+        <v>805</v>
       </c>
       <c r="B288" t="s">
-        <v>793</v>
+        <v>806</v>
       </c>
       <c r="C288" t="s">
-        <v>794</v>
+        <v>807</v>
       </c>
       <c r="D288">
         <v>0</v>
@@ -9822,12 +9978,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:7">
+    <row r="289" spans="1:8">
       <c r="A289" t="s">
-        <v>795</v>
+        <v>808</v>
       </c>
       <c r="B289" t="s">
-        <v>796</v>
+        <v>809</v>
       </c>
       <c r="C289" t="s">
         <v>53</v>
@@ -9844,16 +10000,19 @@
       <c r="G289">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:7">
+      <c r="H289" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8">
       <c r="A290" t="s">
-        <v>797</v>
+        <v>810</v>
       </c>
       <c r="B290" t="s">
-        <v>798</v>
+        <v>811</v>
       </c>
       <c r="C290" t="s">
-        <v>799</v>
+        <v>812</v>
       </c>
       <c r="D290">
         <v>0</v>
@@ -9868,15 +10027,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" spans="1:8">
       <c r="A291" t="s">
-        <v>800</v>
+        <v>813</v>
       </c>
       <c r="B291" t="s">
-        <v>801</v>
+        <v>814</v>
       </c>
       <c r="C291" t="s">
-        <v>802</v>
+        <v>815</v>
       </c>
       <c r="D291">
         <v>0</v>
@@ -9891,15 +10050,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" spans="1:8">
       <c r="A292" t="s">
-        <v>803</v>
+        <v>816</v>
       </c>
       <c r="B292" t="s">
-        <v>804</v>
+        <v>817</v>
       </c>
       <c r="C292" t="s">
-        <v>805</v>
+        <v>818</v>
       </c>
       <c r="D292">
         <v>0</v>
@@ -9914,15 +10073,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:8">
       <c r="A293" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
       <c r="B293" t="s">
-        <v>807</v>
+        <v>820</v>
       </c>
       <c r="C293" t="s">
-        <v>807</v>
+        <v>820</v>
       </c>
       <c r="D293">
         <v>1</v>
@@ -9937,15 +10096,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" spans="1:8">
       <c r="A294" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
       <c r="B294" t="s">
-        <v>809</v>
+        <v>822</v>
       </c>
       <c r="C294" t="s">
-        <v>810</v>
+        <v>823</v>
       </c>
       <c r="D294">
         <v>0</v>
@@ -9960,15 +10119,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" spans="1:8">
       <c r="A295" t="s">
-        <v>811</v>
+        <v>824</v>
       </c>
       <c r="B295" t="s">
-        <v>812</v>
+        <v>825</v>
       </c>
       <c r="C295" t="s">
-        <v>813</v>
+        <v>826</v>
       </c>
       <c r="D295">
         <v>0</v>
@@ -9983,15 +10142,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296" spans="1:8">
       <c r="A296" t="s">
-        <v>814</v>
+        <v>827</v>
       </c>
       <c r="B296" t="s">
-        <v>815</v>
+        <v>828</v>
       </c>
       <c r="C296" t="s">
-        <v>816</v>
+        <v>829</v>
       </c>
       <c r="D296">
         <v>0</v>
@@ -10006,12 +10165,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" spans="1:8">
       <c r="A297" t="s">
-        <v>817</v>
+        <v>830</v>
       </c>
       <c r="B297" t="s">
-        <v>818</v>
+        <v>831</v>
       </c>
       <c r="C297" t="s">
         <v>53</v>
@@ -10028,16 +10187,19 @@
       <c r="G297">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:7">
+      <c r="H297" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8">
       <c r="A298" t="s">
-        <v>819</v>
+        <v>832</v>
       </c>
       <c r="B298" t="s">
-        <v>820</v>
+        <v>833</v>
       </c>
       <c r="C298" t="s">
-        <v>821</v>
+        <v>834</v>
       </c>
       <c r="D298">
         <v>0</v>
@@ -10052,12 +10214,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:7">
+    <row r="299" spans="1:8">
       <c r="A299" t="s">
-        <v>822</v>
+        <v>835</v>
       </c>
       <c r="B299" t="s">
-        <v>823</v>
+        <v>836</v>
       </c>
       <c r="C299" t="s">
         <v>53</v>
@@ -10074,16 +10236,19 @@
       <c r="G299">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:7">
+      <c r="H299" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8">
       <c r="A300" t="s">
-        <v>824</v>
+        <v>837</v>
       </c>
       <c r="B300" t="s">
-        <v>825</v>
+        <v>838</v>
       </c>
       <c r="C300" t="s">
-        <v>826</v>
+        <v>839</v>
       </c>
       <c r="D300">
         <v>0</v>
@@ -10098,15 +10263,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:7">
+    <row r="301" spans="1:8">
       <c r="A301" t="s">
-        <v>827</v>
+        <v>840</v>
       </c>
       <c r="B301" t="s">
-        <v>828</v>
+        <v>841</v>
       </c>
       <c r="C301" t="s">
-        <v>829</v>
+        <v>842</v>
       </c>
       <c r="D301">
         <v>0</v>
@@ -10121,12 +10286,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" spans="1:8">
       <c r="A302" t="s">
-        <v>830</v>
+        <v>843</v>
       </c>
       <c r="B302" t="s">
-        <v>831</v>
+        <v>844</v>
       </c>
       <c r="C302" t="s">
         <v>53</v>
@@ -10143,16 +10308,19 @@
       <c r="G302">
         <v>0</v>
       </c>
-    </row>
-    <row r="303" spans="1:7">
+      <c r="H302" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8">
       <c r="A303" t="s">
-        <v>832</v>
+        <v>845</v>
       </c>
       <c r="B303" t="s">
-        <v>833</v>
+        <v>846</v>
       </c>
       <c r="C303" t="s">
-        <v>834</v>
+        <v>847</v>
       </c>
       <c r="D303">
         <v>0</v>
@@ -10167,15 +10335,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:7">
+    <row r="304" spans="1:8">
       <c r="A304" t="s">
-        <v>835</v>
+        <v>848</v>
       </c>
       <c r="B304" t="s">
-        <v>836</v>
+        <v>849</v>
       </c>
       <c r="C304" t="s">
-        <v>837</v>
+        <v>850</v>
       </c>
       <c r="D304">
         <v>0</v>
@@ -10190,15 +10358,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:7">
+    <row r="305" spans="1:8">
       <c r="A305" t="s">
-        <v>838</v>
+        <v>851</v>
       </c>
       <c r="B305" t="s">
-        <v>839</v>
+        <v>852</v>
       </c>
       <c r="C305" t="s">
-        <v>840</v>
+        <v>853</v>
       </c>
       <c r="D305">
         <v>0</v>
@@ -10213,15 +10381,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:7">
+    <row r="306" spans="1:8">
       <c r="A306" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
       <c r="B306" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
       <c r="C306" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
       <c r="D306">
         <v>0</v>
@@ -10236,15 +10404,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:7">
+    <row r="307" spans="1:8">
       <c r="A307" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
       <c r="B307" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
       <c r="C307" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
       <c r="D307">
         <v>0</v>
@@ -10259,15 +10427,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:7">
+    <row r="308" spans="1:8">
       <c r="A308" t="s">
-        <v>847</v>
+        <v>860</v>
       </c>
       <c r="B308" t="s">
-        <v>848</v>
+        <v>861</v>
       </c>
       <c r="C308" t="s">
-        <v>849</v>
+        <v>862</v>
       </c>
       <c r="D308">
         <v>0</v>
@@ -10282,15 +10450,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:7">
+    <row r="309" spans="1:8">
       <c r="A309" t="s">
-        <v>850</v>
+        <v>863</v>
       </c>
       <c r="B309" t="s">
-        <v>851</v>
+        <v>864</v>
       </c>
       <c r="C309" t="s">
-        <v>852</v>
+        <v>865</v>
       </c>
       <c r="D309">
         <v>0</v>
@@ -10305,12 +10473,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:7">
+    <row r="310" spans="1:8">
       <c r="A310" t="s">
-        <v>853</v>
+        <v>866</v>
       </c>
       <c r="B310" t="s">
-        <v>854</v>
+        <v>867</v>
       </c>
       <c r="C310" t="s">
         <v>53</v>
@@ -10327,16 +10495,19 @@
       <c r="G310">
         <v>0</v>
       </c>
-    </row>
-    <row r="311" spans="1:7">
+      <c r="H310" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8">
       <c r="A311" t="s">
-        <v>855</v>
+        <v>868</v>
       </c>
       <c r="B311" t="s">
-        <v>856</v>
+        <v>869</v>
       </c>
       <c r="C311" t="s">
-        <v>857</v>
+        <v>870</v>
       </c>
       <c r="D311">
         <v>0</v>
@@ -10351,15 +10522,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:7">
+    <row r="312" spans="1:8">
       <c r="A312" t="s">
-        <v>858</v>
+        <v>871</v>
       </c>
       <c r="B312" t="s">
-        <v>859</v>
+        <v>872</v>
       </c>
       <c r="C312" t="s">
-        <v>860</v>
+        <v>873</v>
       </c>
       <c r="D312">
         <v>0</v>
@@ -10374,15 +10545,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:7">
+    <row r="313" spans="1:8">
       <c r="A313" t="s">
-        <v>861</v>
+        <v>874</v>
       </c>
       <c r="B313" t="s">
-        <v>862</v>
+        <v>875</v>
       </c>
       <c r="C313" t="s">
-        <v>863</v>
+        <v>876</v>
       </c>
       <c r="D313">
         <v>0</v>
@@ -10397,15 +10568,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:7">
+    <row r="314" spans="1:8">
       <c r="A314" t="s">
-        <v>864</v>
+        <v>877</v>
       </c>
       <c r="B314" t="s">
-        <v>865</v>
+        <v>878</v>
       </c>
       <c r="C314" t="s">
-        <v>866</v>
+        <v>879</v>
       </c>
       <c r="D314">
         <v>0</v>
@@ -10420,15 +10591,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:7">
+    <row r="315" spans="1:8">
       <c r="A315" t="s">
-        <v>867</v>
+        <v>880</v>
       </c>
       <c r="B315" t="s">
-        <v>868</v>
+        <v>881</v>
       </c>
       <c r="C315" t="s">
-        <v>869</v>
+        <v>882</v>
       </c>
       <c r="D315">
         <v>0</v>
@@ -10443,15 +10614,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:7">
+    <row r="316" spans="1:8">
       <c r="A316" t="s">
-        <v>870</v>
+        <v>883</v>
       </c>
       <c r="B316" t="s">
-        <v>871</v>
+        <v>884</v>
       </c>
       <c r="C316" t="s">
-        <v>872</v>
+        <v>885</v>
       </c>
       <c r="D316">
         <v>0</v>
@@ -10466,15 +10637,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:7">
+    <row r="317" spans="1:8">
       <c r="A317" t="s">
-        <v>873</v>
+        <v>886</v>
       </c>
       <c r="B317" t="s">
-        <v>874</v>
+        <v>887</v>
       </c>
       <c r="C317" t="s">
-        <v>875</v>
+        <v>888</v>
       </c>
       <c r="D317">
         <v>0</v>
@@ -10489,15 +10660,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:7">
+    <row r="318" spans="1:8">
       <c r="A318" t="s">
-        <v>876</v>
+        <v>889</v>
       </c>
       <c r="B318" t="s">
-        <v>877</v>
+        <v>890</v>
       </c>
       <c r="C318" t="s">
-        <v>878</v>
+        <v>891</v>
       </c>
       <c r="D318">
         <v>0</v>
@@ -10512,15 +10683,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:7">
+    <row r="319" spans="1:8">
       <c r="A319" t="s">
-        <v>879</v>
+        <v>892</v>
       </c>
       <c r="B319" t="s">
-        <v>880</v>
+        <v>893</v>
       </c>
       <c r="C319" t="s">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="D319">
         <v>0</v>
@@ -10535,15 +10706,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:7">
+    <row r="320" spans="1:8">
       <c r="A320" t="s">
-        <v>882</v>
+        <v>895</v>
       </c>
       <c r="B320" t="s">
-        <v>883</v>
+        <v>896</v>
       </c>
       <c r="C320" t="s">
-        <v>884</v>
+        <v>897</v>
       </c>
       <c r="D320">
         <v>0</v>
@@ -10560,13 +10731,13 @@
     </row>
     <row r="321" spans="1:7">
       <c r="A321" t="s">
-        <v>885</v>
+        <v>898</v>
       </c>
       <c r="B321" t="s">
-        <v>886</v>
+        <v>899</v>
       </c>
       <c r="C321" t="s">
-        <v>887</v>
+        <v>900</v>
       </c>
       <c r="D321">
         <v>0</v>
@@ -10583,13 +10754,13 @@
     </row>
     <row r="322" spans="1:7">
       <c r="A322" t="s">
-        <v>888</v>
+        <v>901</v>
       </c>
       <c r="B322" t="s">
-        <v>889</v>
+        <v>902</v>
       </c>
       <c r="C322" t="s">
-        <v>890</v>
+        <v>903</v>
       </c>
       <c r="D322">
         <v>0</v>
@@ -10606,13 +10777,13 @@
     </row>
     <row r="323" spans="1:7">
       <c r="A323" t="s">
-        <v>891</v>
+        <v>904</v>
       </c>
       <c r="B323" t="s">
-        <v>892</v>
+        <v>905</v>
       </c>
       <c r="C323" t="s">
-        <v>893</v>
+        <v>906</v>
       </c>
       <c r="D323">
         <v>0</v>
@@ -10629,13 +10800,13 @@
     </row>
     <row r="324" spans="1:7">
       <c r="A324" t="s">
-        <v>894</v>
+        <v>907</v>
       </c>
       <c r="B324" t="s">
-        <v>895</v>
+        <v>908</v>
       </c>
       <c r="C324" t="s">
-        <v>896</v>
+        <v>909</v>
       </c>
       <c r="D324">
         <v>0</v>
@@ -10652,13 +10823,13 @@
     </row>
     <row r="325" spans="1:7">
       <c r="A325" t="s">
-        <v>897</v>
+        <v>910</v>
       </c>
       <c r="B325" t="s">
-        <v>898</v>
+        <v>911</v>
       </c>
       <c r="C325" t="s">
-        <v>899</v>
+        <v>912</v>
       </c>
       <c r="D325">
         <v>0</v>
@@ -10675,13 +10846,13 @@
     </row>
     <row r="326" spans="1:7">
       <c r="A326" t="s">
-        <v>900</v>
+        <v>913</v>
       </c>
       <c r="B326" t="s">
-        <v>901</v>
+        <v>914</v>
       </c>
       <c r="C326" t="s">
-        <v>901</v>
+        <v>914</v>
       </c>
       <c r="D326">
         <v>1</v>
@@ -10698,13 +10869,13 @@
     </row>
     <row r="327" spans="1:7">
       <c r="A327" t="s">
-        <v>902</v>
+        <v>915</v>
       </c>
       <c r="B327" t="s">
-        <v>903</v>
+        <v>916</v>
       </c>
       <c r="C327" t="s">
-        <v>904</v>
+        <v>917</v>
       </c>
       <c r="D327">
         <v>0</v>

--- a/HE/W_in_progress/AnalisiCodeGPT.xlsx
+++ b/HE/W_in_progress/AnalisiCodeGPT.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28224"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0804D0CF-96CB-4E46-B72E-A25F2A852A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BD4C6E2-73BB-421E-85BD-A6B4966594FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="918">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="927">
   <si>
     <t>IN</t>
   </si>
@@ -870,12 +870,18 @@
     <t>out_signal &lt;= data1 or data2;</t>
   </si>
   <si>
+    <t>Non fa la nor</t>
+  </si>
+  <si>
     <t>set tempq0 signal to the first element of temp_p signal</t>
   </si>
   <si>
     <t>temp_p &lt;= temp_p(0); temp_q &lt;= temp_q(1);</t>
   </si>
   <si>
+    <t>Nomi sbagliati, ma bene o male fa quello richiesto</t>
+  </si>
+  <si>
     <t>the signal out_data is set to the OR operation between dividend and divisor</t>
   </si>
   <si>
@@ -906,6 +912,9 @@
     <t>output &lt;= operand1 or operand2;</t>
   </si>
   <si>
+    <t>Non fa la and</t>
+  </si>
+  <si>
     <t>define the signal TbClockB so that it changes its state after TbPeriodB</t>
   </si>
   <si>
@@ -939,6 +948,9 @@
     <t>FF_D &lt;= clock; if (rising_edge(clock)) then if (reset = '1') then y &lt;= '0'; else y &lt;= d; end if;</t>
   </si>
   <si>
+    <t>Non è un process</t>
+  </si>
+  <si>
     <t>generate the clock signal clk_tb with period clk_period</t>
   </si>
   <si>
@@ -957,6 +969,9 @@
     <t>if rising_edge(clk_in) then if( reset_n = '1') then temp := 25; start_sig &lt;= '1'; end if; end if;</t>
   </si>
   <si>
+    <t>Non fa il decremento</t>
+  </si>
+  <si>
     <t>on the rising edge of clk, if rst_n signal is '0', set tick_o_reg to '0', reset reg_count_reg signal to 0</t>
   </si>
   <si>
@@ -993,6 +1008,12 @@
     <t>i_start_counter &lt;= 0; t_start &lt;= '0'; t_stb &lt;= '0';</t>
   </si>
   <si>
+    <t>Non c'è l'if</t>
+  </si>
+  <si>
+    <t>Assegnazione invertita</t>
+  </si>
+  <si>
     <t>set sda_o signal to i_sda when rst_n_i signal is high, otherwise set it to low</t>
   </si>
   <si>
@@ -1173,6 +1194,9 @@
     <t>entity deglitcher_testbench is port (clk : in std_logic; rst : in std_logic; clkB : in std_logic; rstA : in std_logic; clkBB : in std_logic; rstA_in : in std_logic; rstB : in std_logic; sclk : in std_logic; sclkB : in std_logic; sclkB_in : in std_logic; sclkB_out : out std_logic); end deglitcher_testbench;</t>
   </si>
   <si>
+    <t>Definisce un entità, ha dei parametri a caso, ma tutto sommato va bene</t>
+  </si>
+  <si>
     <t>Encoder_onBoard is an entity with switch as input std_logic_vector of 10 bit, led as output std_logic_vector signal of 4 bit, catodi as output std_logic_vector signal of 8 bit, anodi as output std_logic_vector signal of 8 bit</t>
   </si>
   <si>
@@ -1186,6 +1210,9 @@
   </si>
   <si>
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; entity IEEE_STD_LOGIC_1164 is Generic (N : natural := 8); Port ( N : natural := 8 ); end IEEE_STD_LOGIC_1164; architecture Behavioral of IEEE_STD_LOGIC_1164 is begin process (N) begin if (N = '1') then ; end if ; end process ; end Behavioral;</t>
+  </si>
+  <si>
+    <t>Non include la libreria richiesta</t>
   </si>
   <si>
     <t>define the entity add_round_key with round_key_in, data_in as input 64 std_logic_vector, data_out as output 64 std_logic_vector</t>
@@ -3157,8 +3184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
-      <selection activeCell="H310" sqref="H310"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="G142" sqref="G142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5283,6 +5310,9 @@
       <c r="G86">
         <v>0</v>
       </c>
+      <c r="H86" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
@@ -5332,6 +5362,9 @@
       <c r="G88">
         <v>0</v>
       </c>
+      <c r="H88" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
@@ -5355,6 +5388,9 @@
       <c r="G89">
         <v>0</v>
       </c>
+      <c r="H89" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
@@ -5376,7 +5412,10 @@
         <v>0.52394366197183095</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H90" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -5399,7 +5438,10 @@
         <v>0.71556122448979587</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H91" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -5424,6 +5466,9 @@
       <c r="G92">
         <v>0</v>
       </c>
+      <c r="H92" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
@@ -5445,7 +5490,10 @@
         <v>0.52394366197183095</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H93" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -5491,7 +5539,10 @@
         <v>0.73390894819466246</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H95" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -5539,16 +5590,19 @@
       <c r="G97">
         <v>0</v>
       </c>
+      <c r="H97" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B98" t="s">
         <v>241</v>
       </c>
       <c r="C98" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -5560,12 +5614,15 @@
         <v>0.65051020408163263</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H98" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B99" t="s">
         <v>275</v>
@@ -5588,13 +5645,13 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B100" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C100" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -5608,16 +5665,19 @@
       <c r="G100">
         <v>0</v>
       </c>
+      <c r="H100" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B101" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C101" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D101">
         <v>0</v>
@@ -5629,18 +5689,21 @@
         <v>0.62</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H101" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B102" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C102" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -5654,16 +5717,19 @@
       <c r="G102">
         <v>0</v>
       </c>
+      <c r="H102" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B103" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C103" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D103">
         <v>0</v>
@@ -5677,16 +5743,19 @@
       <c r="G103">
         <v>0</v>
       </c>
+      <c r="H103" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B104" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C104" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -5698,15 +5767,18 @@
         <v>0.91496967882009439</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H104" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B105" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C105" t="s">
         <v>53</v>
@@ -5729,13 +5801,13 @@
     </row>
     <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B106" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C106" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -5749,16 +5821,19 @@
       <c r="G106">
         <v>0</v>
       </c>
+      <c r="H106" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B107" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C107" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -5772,16 +5847,19 @@
       <c r="G107">
         <v>0</v>
       </c>
+      <c r="H107" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B108" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C108" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -5795,16 +5873,19 @@
       <c r="G108">
         <v>0</v>
       </c>
+      <c r="H108" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="B109" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="C109" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -5816,18 +5897,21 @@
         <v>0.73081647940074912</v>
       </c>
       <c r="G109">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H109" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B110" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C110" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -5841,16 +5925,19 @@
       <c r="G110">
         <v>0</v>
       </c>
+      <c r="H110" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B111" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="C111" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -5862,18 +5949,18 @@
         <v>0.84378103858623321</v>
       </c>
       <c r="G111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="B112" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="C112" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -5887,16 +5974,19 @@
       <c r="G112">
         <v>0</v>
       </c>
+      <c r="H112" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B113" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="C113" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -5910,16 +6000,19 @@
       <c r="G113">
         <v>0</v>
       </c>
+      <c r="H113" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="B114" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="C114" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -5933,16 +6026,19 @@
       <c r="G114">
         <v>0</v>
       </c>
+      <c r="H114" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="B115" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="C115" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="D115">
         <v>1</v>
@@ -5959,13 +6055,13 @@
     </row>
     <row r="116" spans="1:8">
       <c r="A116" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="B116" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="C116" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -5979,13 +6075,16 @@
       <c r="G116">
         <v>0</v>
       </c>
+      <c r="H116" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="B117" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="C117" t="s">
         <v>53</v>
@@ -6008,13 +6107,13 @@
     </row>
     <row r="118" spans="1:8">
       <c r="A118" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="B118" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="C118" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -6028,16 +6127,19 @@
       <c r="G118">
         <v>0</v>
       </c>
+      <c r="H118" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="B119" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="C119" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -6051,16 +6153,19 @@
       <c r="G119">
         <v>0</v>
       </c>
+      <c r="H119" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="B120" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="C120" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -6072,18 +6177,18 @@
         <v>0.94993074792243781</v>
       </c>
       <c r="G120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="B121" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="C121" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -6097,16 +6202,19 @@
       <c r="G121">
         <v>0</v>
       </c>
+      <c r="H121" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="B122" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="C122" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -6118,15 +6226,15 @@
         <v>0.99997155211652256</v>
       </c>
       <c r="G122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="B123" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="C123" t="s">
         <v>53</v>
@@ -6149,13 +6257,13 @@
     </row>
     <row r="124" spans="1:8">
       <c r="A124" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="B124" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="C124" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -6169,13 +6277,16 @@
       <c r="G124">
         <v>0</v>
       </c>
+      <c r="H124" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="B125" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="C125" t="s">
         <v>53</v>
@@ -6198,13 +6309,13 @@
     </row>
     <row r="126" spans="1:8">
       <c r="A126" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="B126" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="C126" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -6216,18 +6327,21 @@
         <v>0.4508928571428571</v>
       </c>
       <c r="G126">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H126" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="B127" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C127" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -6241,16 +6355,19 @@
       <c r="G127">
         <v>0</v>
       </c>
+      <c r="H127" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="B128" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="C128" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -6264,16 +6381,19 @@
       <c r="G128">
         <v>0</v>
       </c>
+      <c r="H128" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="B129" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="C129" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -6287,16 +6407,19 @@
       <c r="G129">
         <v>0</v>
       </c>
+      <c r="H129" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="B130" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="C130" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -6310,16 +6433,19 @@
       <c r="G130">
         <v>0</v>
       </c>
+      <c r="H130" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="B131" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="C131" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -6333,16 +6459,19 @@
       <c r="G131">
         <v>0</v>
       </c>
+      <c r="H131" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="B132" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="C132" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -6356,16 +6485,19 @@
       <c r="G132">
         <v>0</v>
       </c>
+      <c r="H132" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="B133" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="C133" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -6379,16 +6511,19 @@
       <c r="G133">
         <v>0</v>
       </c>
+      <c r="H133" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="B134" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="C134" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -6402,16 +6537,19 @@
       <c r="G134">
         <v>0</v>
       </c>
+      <c r="H134" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="B135" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="C135" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -6423,15 +6561,18 @@
         <v>0.40244969378827639</v>
       </c>
       <c r="G135">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H135" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="B136" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="C136" t="s">
         <v>53</v>
@@ -6454,13 +6595,13 @@
     </row>
     <row r="137" spans="1:8">
       <c r="A137" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="B137" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="C137" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -6474,16 +6615,19 @@
       <c r="G137">
         <v>0</v>
       </c>
+      <c r="H137" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="B138" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="C138" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -6495,18 +6639,18 @@
         <v>0.99999157099748814</v>
       </c>
       <c r="G138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="B139" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="C139" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -6518,18 +6662,18 @@
         <v>0.63487544483985781</v>
       </c>
       <c r="G139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="B140" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="C140" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -6541,18 +6685,18 @@
         <v>0.94540816326530619</v>
       </c>
       <c r="G140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="B141" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="C141" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="D141">
         <v>0</v>
@@ -6564,18 +6708,18 @@
         <v>0.99999157099748814</v>
       </c>
       <c r="G141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="B142" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="C142" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="D142">
         <v>1</v>
@@ -6592,13 +6736,13 @@
     </row>
     <row r="143" spans="1:8">
       <c r="A143" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="B143" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="C143" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -6615,13 +6759,13 @@
     </row>
     <row r="144" spans="1:8">
       <c r="A144" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="B144" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="C144" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -6638,10 +6782,10 @@
     </row>
     <row r="145" spans="1:8">
       <c r="A145" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="B145" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="C145" t="s">
         <v>53</v>
@@ -6664,13 +6808,13 @@
     </row>
     <row r="146" spans="1:8">
       <c r="A146" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="B146" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="C146" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -6687,13 +6831,13 @@
     </row>
     <row r="147" spans="1:8">
       <c r="A147" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="B147" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="C147" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="D147">
         <v>0</v>
@@ -6710,13 +6854,13 @@
     </row>
     <row r="148" spans="1:8">
       <c r="A148" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="B148" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="C148" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="D148">
         <v>0</v>
@@ -6733,13 +6877,13 @@
     </row>
     <row r="149" spans="1:8">
       <c r="A149" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="B149" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="C149" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -6756,13 +6900,13 @@
     </row>
     <row r="150" spans="1:8">
       <c r="A150" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="B150" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="C150" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -6779,10 +6923,10 @@
     </row>
     <row r="151" spans="1:8">
       <c r="A151" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="B151" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="C151" t="s">
         <v>53</v>
@@ -6805,13 +6949,13 @@
     </row>
     <row r="152" spans="1:8">
       <c r="A152" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="B152" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="C152" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="D152">
         <v>0</v>
@@ -6828,13 +6972,13 @@
     </row>
     <row r="153" spans="1:8">
       <c r="A153" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="B153" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="C153" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="D153">
         <v>0</v>
@@ -6851,13 +6995,13 @@
     </row>
     <row r="154" spans="1:8">
       <c r="A154" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="B154" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="C154" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="D154">
         <v>0</v>
@@ -6874,13 +7018,13 @@
     </row>
     <row r="155" spans="1:8">
       <c r="A155" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="B155" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="C155" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="D155">
         <v>0</v>
@@ -6897,10 +7041,10 @@
     </row>
     <row r="156" spans="1:8">
       <c r="A156" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="B156" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="C156" t="s">
         <v>53</v>
@@ -6923,13 +7067,13 @@
     </row>
     <row r="157" spans="1:8">
       <c r="A157" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="B157" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="C157" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="D157">
         <v>0</v>
@@ -6946,13 +7090,13 @@
     </row>
     <row r="158" spans="1:8">
       <c r="A158" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="B158" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="C158" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -6969,13 +7113,13 @@
     </row>
     <row r="159" spans="1:8">
       <c r="A159" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="B159" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="C159" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -6992,13 +7136,13 @@
     </row>
     <row r="160" spans="1:8">
       <c r="A160" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="B160" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="C160" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -7015,13 +7159,13 @@
     </row>
     <row r="161" spans="1:8">
       <c r="A161" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="B161" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="C161" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="D161">
         <v>0</v>
@@ -7038,13 +7182,13 @@
     </row>
     <row r="162" spans="1:8">
       <c r="A162" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="B162" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="C162" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="D162">
         <v>1</v>
@@ -7061,13 +7205,13 @@
     </row>
     <row r="163" spans="1:8">
       <c r="A163" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="B163" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="C163" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="D163">
         <v>0</v>
@@ -7084,10 +7228,10 @@
     </row>
     <row r="164" spans="1:8">
       <c r="A164" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="B164" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="C164" t="s">
         <v>53</v>
@@ -7110,10 +7254,10 @@
     </row>
     <row r="165" spans="1:8">
       <c r="A165" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="B165" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="C165" t="s">
         <v>53</v>
@@ -7136,13 +7280,13 @@
     </row>
     <row r="166" spans="1:8">
       <c r="A166" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B166" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="C166" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -7159,13 +7303,13 @@
     </row>
     <row r="167" spans="1:8">
       <c r="A167" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="B167" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="C167" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="D167">
         <v>0</v>
@@ -7182,13 +7326,13 @@
     </row>
     <row r="168" spans="1:8">
       <c r="A168" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="B168" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="C168" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="D168">
         <v>1</v>
@@ -7205,13 +7349,13 @@
     </row>
     <row r="169" spans="1:8">
       <c r="A169" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="B169" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="C169" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="D169">
         <v>0</v>
@@ -7228,13 +7372,13 @@
     </row>
     <row r="170" spans="1:8">
       <c r="A170" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="B170" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="C170" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="D170">
         <v>1</v>
@@ -7251,13 +7395,13 @@
     </row>
     <row r="171" spans="1:8">
       <c r="A171" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="B171" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="C171" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="D171">
         <v>0</v>
@@ -7274,13 +7418,13 @@
     </row>
     <row r="172" spans="1:8">
       <c r="A172" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="B172" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="C172" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="D172">
         <v>0</v>
@@ -7297,13 +7441,13 @@
     </row>
     <row r="173" spans="1:8">
       <c r="A173" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="B173" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="C173" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="D173">
         <v>1</v>
@@ -7320,13 +7464,13 @@
     </row>
     <row r="174" spans="1:8">
       <c r="A174" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="B174" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="C174" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="D174">
         <v>0</v>
@@ -7343,13 +7487,13 @@
     </row>
     <row r="175" spans="1:8">
       <c r="A175" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="B175" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="C175" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="D175">
         <v>0</v>
@@ -7366,13 +7510,13 @@
     </row>
     <row r="176" spans="1:8">
       <c r="A176" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="B176" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="C176" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="D176">
         <v>0</v>
@@ -7389,13 +7533,13 @@
     </row>
     <row r="177" spans="1:7">
       <c r="A177" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="B177" t="s">
         <v>135</v>
       </c>
       <c r="C177" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="D177">
         <v>0</v>
@@ -7412,13 +7556,13 @@
     </row>
     <row r="178" spans="1:7">
       <c r="A178" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="B178" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="C178" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="D178">
         <v>0</v>
@@ -7435,13 +7579,13 @@
     </row>
     <row r="179" spans="1:7">
       <c r="A179" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="B179" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="C179" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="D179">
         <v>0</v>
@@ -7458,13 +7602,13 @@
     </row>
     <row r="180" spans="1:7">
       <c r="A180" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="B180" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="C180" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -7481,13 +7625,13 @@
     </row>
     <row r="181" spans="1:7">
       <c r="A181" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="B181" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="C181" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="D181">
         <v>0</v>
@@ -7504,13 +7648,13 @@
     </row>
     <row r="182" spans="1:7">
       <c r="A182" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="B182" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="C182" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -7527,13 +7671,13 @@
     </row>
     <row r="183" spans="1:7">
       <c r="A183" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="B183" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="C183" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="D183">
         <v>1</v>
@@ -7550,13 +7694,13 @@
     </row>
     <row r="184" spans="1:7">
       <c r="A184" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="B184" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="C184" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="D184">
         <v>0</v>
@@ -7573,13 +7717,13 @@
     </row>
     <row r="185" spans="1:7">
       <c r="A185" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="B185" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="C185" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="D185">
         <v>0</v>
@@ -7596,13 +7740,13 @@
     </row>
     <row r="186" spans="1:7">
       <c r="A186" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="B186" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="C186" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="D186">
         <v>0</v>
@@ -7619,13 +7763,13 @@
     </row>
     <row r="187" spans="1:7">
       <c r="A187" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="B187" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="C187" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="D187">
         <v>0</v>
@@ -7642,13 +7786,13 @@
     </row>
     <row r="188" spans="1:7">
       <c r="A188" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="B188" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="C188" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="D188">
         <v>0</v>
@@ -7665,13 +7809,13 @@
     </row>
     <row r="189" spans="1:7">
       <c r="A189" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="B189" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="C189" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="D189">
         <v>0</v>
@@ -7688,13 +7832,13 @@
     </row>
     <row r="190" spans="1:7">
       <c r="A190" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="B190" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="C190" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="D190">
         <v>0</v>
@@ -7711,13 +7855,13 @@
     </row>
     <row r="191" spans="1:7">
       <c r="A191" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="B191" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="C191" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="D191">
         <v>1</v>
@@ -7734,13 +7878,13 @@
     </row>
     <row r="192" spans="1:7">
       <c r="A192" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="B192" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="C192" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="D192">
         <v>0</v>
@@ -7757,10 +7901,10 @@
     </row>
     <row r="193" spans="1:8">
       <c r="A193" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="B193" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="C193" t="s">
         <v>53</v>
@@ -7783,13 +7927,13 @@
     </row>
     <row r="194" spans="1:8">
       <c r="A194" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="B194" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
       <c r="C194" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="D194">
         <v>0</v>
@@ -7806,10 +7950,10 @@
     </row>
     <row r="195" spans="1:8">
       <c r="A195" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="B195" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="C195" t="s">
         <v>53</v>
@@ -7832,13 +7976,13 @@
     </row>
     <row r="196" spans="1:8">
       <c r="A196" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="B196" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="C196" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="D196">
         <v>0</v>
@@ -7855,13 +7999,13 @@
     </row>
     <row r="197" spans="1:8">
       <c r="A197" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="B197" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="C197" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="D197">
         <v>0</v>
@@ -7878,13 +8022,13 @@
     </row>
     <row r="198" spans="1:8">
       <c r="A198" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="B198" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="C198" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="D198">
         <v>0</v>
@@ -7901,13 +8045,13 @@
     </row>
     <row r="199" spans="1:8">
       <c r="A199" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="B199" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="C199" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="D199">
         <v>0</v>
@@ -7924,13 +8068,13 @@
     </row>
     <row r="200" spans="1:8">
       <c r="A200" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="B200" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="C200" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="D200">
         <v>0</v>
@@ -7947,13 +8091,13 @@
     </row>
     <row r="201" spans="1:8">
       <c r="A201" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="B201" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="C201" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="D201">
         <v>0</v>
@@ -7970,13 +8114,13 @@
     </row>
     <row r="202" spans="1:8">
       <c r="A202" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="B202" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="C202" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="D202">
         <v>0</v>
@@ -7993,13 +8137,13 @@
     </row>
     <row r="203" spans="1:8">
       <c r="A203" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="B203" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="C203" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="D203">
         <v>0</v>
@@ -8016,13 +8160,13 @@
     </row>
     <row r="204" spans="1:8">
       <c r="A204" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="B204" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="C204" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="D204">
         <v>0</v>
@@ -8039,13 +8183,13 @@
     </row>
     <row r="205" spans="1:8">
       <c r="A205" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="B205" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="C205" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="D205">
         <v>0</v>
@@ -8062,13 +8206,13 @@
     </row>
     <row r="206" spans="1:8">
       <c r="A206" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="B206" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="C206" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="D206">
         <v>0</v>
@@ -8085,13 +8229,13 @@
     </row>
     <row r="207" spans="1:8">
       <c r="A207" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="B207" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="C207" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="D207">
         <v>0</v>
@@ -8108,13 +8252,13 @@
     </row>
     <row r="208" spans="1:8">
       <c r="A208" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="B208" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="C208" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="D208">
         <v>0</v>
@@ -8131,13 +8275,13 @@
     </row>
     <row r="209" spans="1:8">
       <c r="A209" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="B209" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="C209" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="D209">
         <v>0</v>
@@ -8154,13 +8298,13 @@
     </row>
     <row r="210" spans="1:8">
       <c r="A210" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="B210" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="C210" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="D210">
         <v>0</v>
@@ -8177,13 +8321,13 @@
     </row>
     <row r="211" spans="1:8">
       <c r="A211" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="B211" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="C211" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="D211">
         <v>1</v>
@@ -8200,13 +8344,13 @@
     </row>
     <row r="212" spans="1:8">
       <c r="A212" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="B212" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="C212" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="D212">
         <v>1</v>
@@ -8223,13 +8367,13 @@
     </row>
     <row r="213" spans="1:8">
       <c r="A213" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="B213" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="C213" t="s">
-        <v>590</v>
+        <v>599</v>
       </c>
       <c r="D213">
         <v>0</v>
@@ -8246,13 +8390,13 @@
     </row>
     <row r="214" spans="1:8">
       <c r="A214" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="B214" t="s">
-        <v>592</v>
+        <v>601</v>
       </c>
       <c r="C214" t="s">
-        <v>592</v>
+        <v>601</v>
       </c>
       <c r="D214">
         <v>1</v>
@@ -8269,13 +8413,13 @@
     </row>
     <row r="215" spans="1:8">
       <c r="A215" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
       <c r="B215" t="s">
-        <v>594</v>
+        <v>603</v>
       </c>
       <c r="C215" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="D215">
         <v>0</v>
@@ -8292,13 +8436,13 @@
     </row>
     <row r="216" spans="1:8">
       <c r="A216" t="s">
-        <v>596</v>
+        <v>605</v>
       </c>
       <c r="B216" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="C216" t="s">
-        <v>597</v>
+        <v>606</v>
       </c>
       <c r="D216">
         <v>1</v>
@@ -8315,13 +8459,13 @@
     </row>
     <row r="217" spans="1:8">
       <c r="A217" t="s">
-        <v>598</v>
+        <v>607</v>
       </c>
       <c r="B217" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="C217" t="s">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="D217">
         <v>0</v>
@@ -8338,13 +8482,13 @@
     </row>
     <row r="218" spans="1:8">
       <c r="A218" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="B218" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
       <c r="C218" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
       <c r="D218">
         <v>1</v>
@@ -8361,13 +8505,13 @@
     </row>
     <row r="219" spans="1:8">
       <c r="A219" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="B219" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="C219" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="D219">
         <v>1</v>
@@ -8384,13 +8528,13 @@
     </row>
     <row r="220" spans="1:8">
       <c r="A220" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="B220" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="C220" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="D220">
         <v>1</v>
@@ -8407,10 +8551,10 @@
     </row>
     <row r="221" spans="1:8">
       <c r="A221" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="B221" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="C221" t="s">
         <v>53</v>
@@ -8433,13 +8577,13 @@
     </row>
     <row r="222" spans="1:8">
       <c r="A222" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="B222" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="C222" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="D222">
         <v>0</v>
@@ -8456,13 +8600,13 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="B223" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="C223" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="D223">
         <v>0</v>
@@ -8479,13 +8623,13 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="B224" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="C224" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="D224">
         <v>0</v>
@@ -8502,13 +8646,13 @@
     </row>
     <row r="225" spans="1:8">
       <c r="A225" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="B225" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="C225" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="D225">
         <v>0</v>
@@ -8525,13 +8669,13 @@
     </row>
     <row r="226" spans="1:8">
       <c r="A226" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="B226" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="C226" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
       <c r="D226">
         <v>0</v>
@@ -8548,13 +8692,13 @@
     </row>
     <row r="227" spans="1:8">
       <c r="A227" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
       <c r="B227" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
       <c r="C227" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
       <c r="D227">
         <v>0</v>
@@ -8571,13 +8715,13 @@
     </row>
     <row r="228" spans="1:8">
       <c r="A228" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="B228" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="C228" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
       <c r="D228">
         <v>0</v>
@@ -8594,10 +8738,10 @@
     </row>
     <row r="229" spans="1:8">
       <c r="A229" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="B229" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
       <c r="C229" t="s">
         <v>53</v>
@@ -8620,13 +8764,13 @@
     </row>
     <row r="230" spans="1:8">
       <c r="A230" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
       <c r="B230" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
       <c r="C230" t="s">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="D230">
         <v>0</v>
@@ -8643,13 +8787,13 @@
     </row>
     <row r="231" spans="1:8">
       <c r="A231" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="B231" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="C231" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
       <c r="D231">
         <v>0</v>
@@ -8666,13 +8810,13 @@
     </row>
     <row r="232" spans="1:8">
       <c r="A232" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
       <c r="B232" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="C232" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="D232">
         <v>0</v>
@@ -8689,13 +8833,13 @@
     </row>
     <row r="233" spans="1:8">
       <c r="A233" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
       <c r="B233" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
       <c r="C233" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
       <c r="D233">
         <v>0</v>
@@ -8712,13 +8856,13 @@
     </row>
     <row r="234" spans="1:8">
       <c r="A234" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
       <c r="B234" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
       <c r="C234" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="D234">
         <v>0</v>
@@ -8735,13 +8879,13 @@
     </row>
     <row r="235" spans="1:8">
       <c r="A235" t="s">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="B235" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
       <c r="C235" t="s">
-        <v>649</v>
+        <v>658</v>
       </c>
       <c r="D235">
         <v>0</v>
@@ -8758,13 +8902,13 @@
     </row>
     <row r="236" spans="1:8">
       <c r="A236" t="s">
-        <v>650</v>
+        <v>659</v>
       </c>
       <c r="B236" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
       <c r="C236" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
       <c r="D236">
         <v>0</v>
@@ -8781,13 +8925,13 @@
     </row>
     <row r="237" spans="1:8">
       <c r="A237" t="s">
-        <v>653</v>
+        <v>662</v>
       </c>
       <c r="B237" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
       <c r="C237" t="s">
-        <v>655</v>
+        <v>664</v>
       </c>
       <c r="D237">
         <v>0</v>
@@ -8804,13 +8948,13 @@
     </row>
     <row r="238" spans="1:8">
       <c r="A238" t="s">
-        <v>656</v>
+        <v>665</v>
       </c>
       <c r="B238" t="s">
-        <v>657</v>
+        <v>666</v>
       </c>
       <c r="C238" t="s">
-        <v>658</v>
+        <v>667</v>
       </c>
       <c r="D238">
         <v>0</v>
@@ -8827,13 +8971,13 @@
     </row>
     <row r="239" spans="1:8">
       <c r="A239" t="s">
-        <v>659</v>
+        <v>668</v>
       </c>
       <c r="B239" t="s">
-        <v>660</v>
+        <v>669</v>
       </c>
       <c r="C239" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
       <c r="D239">
         <v>0</v>
@@ -8850,13 +8994,13 @@
     </row>
     <row r="240" spans="1:8">
       <c r="A240" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="B240" t="s">
-        <v>663</v>
+        <v>672</v>
       </c>
       <c r="C240" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="D240">
         <v>0</v>
@@ -8873,13 +9017,13 @@
     </row>
     <row r="241" spans="1:7">
       <c r="A241" t="s">
-        <v>665</v>
+        <v>674</v>
       </c>
       <c r="B241" t="s">
-        <v>666</v>
+        <v>675</v>
       </c>
       <c r="C241" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="D241">
         <v>0</v>
@@ -8896,13 +9040,13 @@
     </row>
     <row r="242" spans="1:7">
       <c r="A242" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
       <c r="B242" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="C242" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="D242">
         <v>0</v>
@@ -8919,13 +9063,13 @@
     </row>
     <row r="243" spans="1:7">
       <c r="A243" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
       <c r="B243" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="C243" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="D243">
         <v>0</v>
@@ -8942,13 +9086,13 @@
     </row>
     <row r="244" spans="1:7">
       <c r="A244" t="s">
-        <v>674</v>
+        <v>683</v>
       </c>
       <c r="B244" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
       <c r="C244" t="s">
-        <v>676</v>
+        <v>685</v>
       </c>
       <c r="D244">
         <v>0</v>
@@ -8965,13 +9109,13 @@
     </row>
     <row r="245" spans="1:7">
       <c r="A245" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="B245" t="s">
-        <v>678</v>
+        <v>687</v>
       </c>
       <c r="C245" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
       <c r="D245">
         <v>0</v>
@@ -8988,13 +9132,13 @@
     </row>
     <row r="246" spans="1:7">
       <c r="A246" t="s">
-        <v>680</v>
+        <v>689</v>
       </c>
       <c r="B246" t="s">
-        <v>681</v>
+        <v>690</v>
       </c>
       <c r="C246" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="D246">
         <v>0</v>
@@ -9011,13 +9155,13 @@
     </row>
     <row r="247" spans="1:7">
       <c r="A247" t="s">
-        <v>683</v>
+        <v>692</v>
       </c>
       <c r="B247" t="s">
-        <v>684</v>
+        <v>693</v>
       </c>
       <c r="C247" t="s">
-        <v>685</v>
+        <v>694</v>
       </c>
       <c r="D247">
         <v>0</v>
@@ -9034,13 +9178,13 @@
     </row>
     <row r="248" spans="1:7">
       <c r="A248" t="s">
-        <v>686</v>
+        <v>695</v>
       </c>
       <c r="B248" t="s">
-        <v>687</v>
+        <v>696</v>
       </c>
       <c r="C248" t="s">
-        <v>688</v>
+        <v>697</v>
       </c>
       <c r="D248">
         <v>0</v>
@@ -9057,13 +9201,13 @@
     </row>
     <row r="249" spans="1:7">
       <c r="A249" t="s">
-        <v>689</v>
+        <v>698</v>
       </c>
       <c r="B249" t="s">
-        <v>690</v>
+        <v>699</v>
       </c>
       <c r="C249" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
       <c r="D249">
         <v>0</v>
@@ -9080,13 +9224,13 @@
     </row>
     <row r="250" spans="1:7">
       <c r="A250" t="s">
-        <v>692</v>
+        <v>701</v>
       </c>
       <c r="B250" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="C250" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="D250">
         <v>0</v>
@@ -9103,13 +9247,13 @@
     </row>
     <row r="251" spans="1:7">
       <c r="A251" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
       <c r="B251" t="s">
-        <v>696</v>
+        <v>705</v>
       </c>
       <c r="C251" t="s">
-        <v>697</v>
+        <v>706</v>
       </c>
       <c r="D251">
         <v>0</v>
@@ -9126,13 +9270,13 @@
     </row>
     <row r="252" spans="1:7">
       <c r="A252" t="s">
-        <v>698</v>
+        <v>707</v>
       </c>
       <c r="B252" t="s">
-        <v>699</v>
+        <v>708</v>
       </c>
       <c r="C252" t="s">
-        <v>700</v>
+        <v>709</v>
       </c>
       <c r="D252">
         <v>0</v>
@@ -9149,13 +9293,13 @@
     </row>
     <row r="253" spans="1:7">
       <c r="A253" t="s">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="B253" t="s">
-        <v>702</v>
+        <v>711</v>
       </c>
       <c r="C253" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="D253">
         <v>0</v>
@@ -9172,13 +9316,13 @@
     </row>
     <row r="254" spans="1:7">
       <c r="A254" t="s">
-        <v>704</v>
+        <v>713</v>
       </c>
       <c r="B254" t="s">
-        <v>705</v>
+        <v>714</v>
       </c>
       <c r="C254" t="s">
-        <v>706</v>
+        <v>715</v>
       </c>
       <c r="D254">
         <v>0</v>
@@ -9195,13 +9339,13 @@
     </row>
     <row r="255" spans="1:7">
       <c r="A255" t="s">
-        <v>707</v>
+        <v>716</v>
       </c>
       <c r="B255" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="C255" t="s">
-        <v>709</v>
+        <v>718</v>
       </c>
       <c r="D255">
         <v>0</v>
@@ -9218,13 +9362,13 @@
     </row>
     <row r="256" spans="1:7">
       <c r="A256" t="s">
-        <v>710</v>
+        <v>719</v>
       </c>
       <c r="B256" t="s">
-        <v>711</v>
+        <v>720</v>
       </c>
       <c r="C256" t="s">
-        <v>712</v>
+        <v>721</v>
       </c>
       <c r="D256">
         <v>0</v>
@@ -9241,13 +9385,13 @@
     </row>
     <row r="257" spans="1:7">
       <c r="A257" t="s">
-        <v>713</v>
+        <v>722</v>
       </c>
       <c r="B257" t="s">
-        <v>714</v>
+        <v>723</v>
       </c>
       <c r="C257" t="s">
-        <v>715</v>
+        <v>724</v>
       </c>
       <c r="D257">
         <v>0</v>
@@ -9264,13 +9408,13 @@
     </row>
     <row r="258" spans="1:7">
       <c r="A258" t="s">
-        <v>716</v>
+        <v>725</v>
       </c>
       <c r="B258" t="s">
-        <v>717</v>
+        <v>726</v>
       </c>
       <c r="C258" t="s">
-        <v>718</v>
+        <v>727</v>
       </c>
       <c r="D258">
         <v>0</v>
@@ -9287,13 +9431,13 @@
     </row>
     <row r="259" spans="1:7">
       <c r="A259" t="s">
-        <v>719</v>
+        <v>728</v>
       </c>
       <c r="B259" t="s">
-        <v>720</v>
+        <v>729</v>
       </c>
       <c r="C259" t="s">
-        <v>721</v>
+        <v>730</v>
       </c>
       <c r="D259">
         <v>0</v>
@@ -9310,13 +9454,13 @@
     </row>
     <row r="260" spans="1:7">
       <c r="A260" t="s">
-        <v>722</v>
+        <v>731</v>
       </c>
       <c r="B260" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
       <c r="C260" t="s">
-        <v>724</v>
+        <v>733</v>
       </c>
       <c r="D260">
         <v>0</v>
@@ -9333,13 +9477,13 @@
     </row>
     <row r="261" spans="1:7">
       <c r="A261" t="s">
-        <v>725</v>
+        <v>734</v>
       </c>
       <c r="B261" t="s">
-        <v>726</v>
+        <v>735</v>
       </c>
       <c r="C261" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="D261">
         <v>0</v>
@@ -9356,13 +9500,13 @@
     </row>
     <row r="262" spans="1:7">
       <c r="A262" t="s">
-        <v>728</v>
+        <v>737</v>
       </c>
       <c r="B262" t="s">
-        <v>729</v>
+        <v>738</v>
       </c>
       <c r="C262" t="s">
-        <v>730</v>
+        <v>739</v>
       </c>
       <c r="D262">
         <v>0</v>
@@ -9379,13 +9523,13 @@
     </row>
     <row r="263" spans="1:7">
       <c r="A263" t="s">
-        <v>731</v>
+        <v>740</v>
       </c>
       <c r="B263" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
       <c r="C263" t="s">
-        <v>733</v>
+        <v>742</v>
       </c>
       <c r="D263">
         <v>0</v>
@@ -9402,13 +9546,13 @@
     </row>
     <row r="264" spans="1:7">
       <c r="A264" t="s">
-        <v>734</v>
+        <v>743</v>
       </c>
       <c r="B264" t="s">
-        <v>735</v>
+        <v>744</v>
       </c>
       <c r="C264" t="s">
-        <v>736</v>
+        <v>745</v>
       </c>
       <c r="D264">
         <v>0</v>
@@ -9425,13 +9569,13 @@
     </row>
     <row r="265" spans="1:7">
       <c r="A265" t="s">
-        <v>737</v>
+        <v>746</v>
       </c>
       <c r="B265" t="s">
-        <v>738</v>
+        <v>747</v>
       </c>
       <c r="C265" t="s">
-        <v>739</v>
+        <v>748</v>
       </c>
       <c r="D265">
         <v>0</v>
@@ -9448,13 +9592,13 @@
     </row>
     <row r="266" spans="1:7">
       <c r="A266" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="B266" t="s">
-        <v>741</v>
+        <v>750</v>
       </c>
       <c r="C266" t="s">
-        <v>742</v>
+        <v>751</v>
       </c>
       <c r="D266">
         <v>0</v>
@@ -9471,13 +9615,13 @@
     </row>
     <row r="267" spans="1:7">
       <c r="A267" t="s">
-        <v>743</v>
+        <v>752</v>
       </c>
       <c r="B267" t="s">
-        <v>744</v>
+        <v>753</v>
       </c>
       <c r="C267" t="s">
-        <v>745</v>
+        <v>754</v>
       </c>
       <c r="D267">
         <v>0</v>
@@ -9494,13 +9638,13 @@
     </row>
     <row r="268" spans="1:7">
       <c r="A268" t="s">
-        <v>746</v>
+        <v>755</v>
       </c>
       <c r="B268" t="s">
-        <v>747</v>
+        <v>756</v>
       </c>
       <c r="C268" t="s">
-        <v>748</v>
+        <v>757</v>
       </c>
       <c r="D268">
         <v>0</v>
@@ -9517,13 +9661,13 @@
     </row>
     <row r="269" spans="1:7">
       <c r="A269" t="s">
-        <v>749</v>
+        <v>758</v>
       </c>
       <c r="B269" t="s">
-        <v>750</v>
+        <v>759</v>
       </c>
       <c r="C269" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="D269">
         <v>0</v>
@@ -9540,13 +9684,13 @@
     </row>
     <row r="270" spans="1:7">
       <c r="A270" t="s">
-        <v>752</v>
+        <v>761</v>
       </c>
       <c r="B270" t="s">
-        <v>753</v>
+        <v>762</v>
       </c>
       <c r="C270" t="s">
-        <v>754</v>
+        <v>763</v>
       </c>
       <c r="D270">
         <v>0</v>
@@ -9563,13 +9707,13 @@
     </row>
     <row r="271" spans="1:7">
       <c r="A271" t="s">
-        <v>755</v>
+        <v>764</v>
       </c>
       <c r="B271" t="s">
-        <v>756</v>
+        <v>765</v>
       </c>
       <c r="C271" t="s">
-        <v>757</v>
+        <v>766</v>
       </c>
       <c r="D271">
         <v>0</v>
@@ -9586,13 +9730,13 @@
     </row>
     <row r="272" spans="1:7">
       <c r="A272" t="s">
-        <v>758</v>
+        <v>767</v>
       </c>
       <c r="B272" t="s">
-        <v>759</v>
+        <v>768</v>
       </c>
       <c r="C272" t="s">
-        <v>760</v>
+        <v>769</v>
       </c>
       <c r="D272">
         <v>0</v>
@@ -9609,13 +9753,13 @@
     </row>
     <row r="273" spans="1:8">
       <c r="A273" t="s">
-        <v>761</v>
+        <v>770</v>
       </c>
       <c r="B273" t="s">
-        <v>762</v>
+        <v>771</v>
       </c>
       <c r="C273" t="s">
-        <v>763</v>
+        <v>772</v>
       </c>
       <c r="D273">
         <v>0</v>
@@ -9632,13 +9776,13 @@
     </row>
     <row r="274" spans="1:8">
       <c r="A274" t="s">
-        <v>764</v>
+        <v>773</v>
       </c>
       <c r="B274" t="s">
-        <v>765</v>
+        <v>774</v>
       </c>
       <c r="C274" t="s">
-        <v>766</v>
+        <v>775</v>
       </c>
       <c r="D274">
         <v>0</v>
@@ -9655,13 +9799,13 @@
     </row>
     <row r="275" spans="1:8">
       <c r="A275" t="s">
-        <v>767</v>
+        <v>776</v>
       </c>
       <c r="B275" t="s">
-        <v>768</v>
+        <v>777</v>
       </c>
       <c r="C275" t="s">
-        <v>769</v>
+        <v>778</v>
       </c>
       <c r="D275">
         <v>0</v>
@@ -9678,13 +9822,13 @@
     </row>
     <row r="276" spans="1:8">
       <c r="A276" t="s">
-        <v>770</v>
+        <v>779</v>
       </c>
       <c r="B276" t="s">
-        <v>771</v>
+        <v>780</v>
       </c>
       <c r="C276" t="s">
-        <v>772</v>
+        <v>781</v>
       </c>
       <c r="D276">
         <v>0</v>
@@ -9701,13 +9845,13 @@
     </row>
     <row r="277" spans="1:8">
       <c r="A277" t="s">
-        <v>773</v>
+        <v>782</v>
       </c>
       <c r="B277" t="s">
-        <v>774</v>
+        <v>783</v>
       </c>
       <c r="C277" t="s">
-        <v>775</v>
+        <v>784</v>
       </c>
       <c r="D277">
         <v>0</v>
@@ -9724,13 +9868,13 @@
     </row>
     <row r="278" spans="1:8">
       <c r="A278" t="s">
-        <v>776</v>
+        <v>785</v>
       </c>
       <c r="B278" t="s">
-        <v>777</v>
+        <v>786</v>
       </c>
       <c r="C278" t="s">
-        <v>778</v>
+        <v>787</v>
       </c>
       <c r="D278">
         <v>0</v>
@@ -9747,10 +9891,10 @@
     </row>
     <row r="279" spans="1:8">
       <c r="A279" t="s">
-        <v>779</v>
+        <v>788</v>
       </c>
       <c r="B279" t="s">
-        <v>780</v>
+        <v>789</v>
       </c>
       <c r="C279" t="s">
         <v>53</v>
@@ -9773,13 +9917,13 @@
     </row>
     <row r="280" spans="1:8">
       <c r="A280" t="s">
-        <v>781</v>
+        <v>790</v>
       </c>
       <c r="B280" t="s">
-        <v>782</v>
+        <v>791</v>
       </c>
       <c r="C280" t="s">
-        <v>783</v>
+        <v>792</v>
       </c>
       <c r="D280">
         <v>0</v>
@@ -9796,13 +9940,13 @@
     </row>
     <row r="281" spans="1:8">
       <c r="A281" t="s">
-        <v>784</v>
+        <v>793</v>
       </c>
       <c r="B281" t="s">
-        <v>785</v>
+        <v>794</v>
       </c>
       <c r="C281" t="s">
-        <v>786</v>
+        <v>795</v>
       </c>
       <c r="D281">
         <v>0</v>
@@ -9819,13 +9963,13 @@
     </row>
     <row r="282" spans="1:8">
       <c r="A282" t="s">
-        <v>787</v>
+        <v>796</v>
       </c>
       <c r="B282" t="s">
-        <v>788</v>
+        <v>797</v>
       </c>
       <c r="C282" t="s">
-        <v>789</v>
+        <v>798</v>
       </c>
       <c r="D282">
         <v>0</v>
@@ -9842,13 +9986,13 @@
     </row>
     <row r="283" spans="1:8">
       <c r="A283" t="s">
-        <v>790</v>
+        <v>799</v>
       </c>
       <c r="B283" t="s">
-        <v>791</v>
+        <v>800</v>
       </c>
       <c r="C283" t="s">
-        <v>792</v>
+        <v>801</v>
       </c>
       <c r="D283">
         <v>0</v>
@@ -9865,13 +10009,13 @@
     </row>
     <row r="284" spans="1:8">
       <c r="A284" t="s">
-        <v>793</v>
+        <v>802</v>
       </c>
       <c r="B284" t="s">
-        <v>794</v>
+        <v>803</v>
       </c>
       <c r="C284" t="s">
-        <v>795</v>
+        <v>804</v>
       </c>
       <c r="D284">
         <v>0</v>
@@ -9888,13 +10032,13 @@
     </row>
     <row r="285" spans="1:8">
       <c r="A285" t="s">
-        <v>796</v>
+        <v>805</v>
       </c>
       <c r="B285" t="s">
-        <v>797</v>
+        <v>806</v>
       </c>
       <c r="C285" t="s">
-        <v>798</v>
+        <v>807</v>
       </c>
       <c r="D285">
         <v>0</v>
@@ -9911,13 +10055,13 @@
     </row>
     <row r="286" spans="1:8">
       <c r="A286" t="s">
-        <v>799</v>
+        <v>808</v>
       </c>
       <c r="B286" t="s">
-        <v>800</v>
+        <v>809</v>
       </c>
       <c r="C286" t="s">
-        <v>801</v>
+        <v>810</v>
       </c>
       <c r="D286">
         <v>0</v>
@@ -9934,13 +10078,13 @@
     </row>
     <row r="287" spans="1:8">
       <c r="A287" t="s">
-        <v>802</v>
+        <v>811</v>
       </c>
       <c r="B287" t="s">
-        <v>803</v>
+        <v>812</v>
       </c>
       <c r="C287" t="s">
-        <v>804</v>
+        <v>813</v>
       </c>
       <c r="D287">
         <v>0</v>
@@ -9957,13 +10101,13 @@
     </row>
     <row r="288" spans="1:8">
       <c r="A288" t="s">
-        <v>805</v>
+        <v>814</v>
       </c>
       <c r="B288" t="s">
-        <v>806</v>
+        <v>815</v>
       </c>
       <c r="C288" t="s">
-        <v>807</v>
+        <v>816</v>
       </c>
       <c r="D288">
         <v>0</v>
@@ -9980,10 +10124,10 @@
     </row>
     <row r="289" spans="1:8">
       <c r="A289" t="s">
-        <v>808</v>
+        <v>817</v>
       </c>
       <c r="B289" t="s">
-        <v>809</v>
+        <v>818</v>
       </c>
       <c r="C289" t="s">
         <v>53</v>
@@ -10006,13 +10150,13 @@
     </row>
     <row r="290" spans="1:8">
       <c r="A290" t="s">
-        <v>810</v>
+        <v>819</v>
       </c>
       <c r="B290" t="s">
-        <v>811</v>
+        <v>820</v>
       </c>
       <c r="C290" t="s">
-        <v>812</v>
+        <v>821</v>
       </c>
       <c r="D290">
         <v>0</v>
@@ -10029,13 +10173,13 @@
     </row>
     <row r="291" spans="1:8">
       <c r="A291" t="s">
-        <v>813</v>
+        <v>822</v>
       </c>
       <c r="B291" t="s">
-        <v>814</v>
+        <v>823</v>
       </c>
       <c r="C291" t="s">
-        <v>815</v>
+        <v>824</v>
       </c>
       <c r="D291">
         <v>0</v>
@@ -10052,13 +10196,13 @@
     </row>
     <row r="292" spans="1:8">
       <c r="A292" t="s">
-        <v>816</v>
+        <v>825</v>
       </c>
       <c r="B292" t="s">
-        <v>817</v>
+        <v>826</v>
       </c>
       <c r="C292" t="s">
-        <v>818</v>
+        <v>827</v>
       </c>
       <c r="D292">
         <v>0</v>
@@ -10075,13 +10219,13 @@
     </row>
     <row r="293" spans="1:8">
       <c r="A293" t="s">
-        <v>819</v>
+        <v>828</v>
       </c>
       <c r="B293" t="s">
-        <v>820</v>
+        <v>829</v>
       </c>
       <c r="C293" t="s">
-        <v>820</v>
+        <v>829</v>
       </c>
       <c r="D293">
         <v>1</v>
@@ -10098,13 +10242,13 @@
     </row>
     <row r="294" spans="1:8">
       <c r="A294" t="s">
-        <v>821</v>
+        <v>830</v>
       </c>
       <c r="B294" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="C294" t="s">
-        <v>823</v>
+        <v>832</v>
       </c>
       <c r="D294">
         <v>0</v>
@@ -10121,13 +10265,13 @@
     </row>
     <row r="295" spans="1:8">
       <c r="A295" t="s">
-        <v>824</v>
+        <v>833</v>
       </c>
       <c r="B295" t="s">
-        <v>825</v>
+        <v>834</v>
       </c>
       <c r="C295" t="s">
-        <v>826</v>
+        <v>835</v>
       </c>
       <c r="D295">
         <v>0</v>
@@ -10144,13 +10288,13 @@
     </row>
     <row r="296" spans="1:8">
       <c r="A296" t="s">
-        <v>827</v>
+        <v>836</v>
       </c>
       <c r="B296" t="s">
-        <v>828</v>
+        <v>837</v>
       </c>
       <c r="C296" t="s">
-        <v>829</v>
+        <v>838</v>
       </c>
       <c r="D296">
         <v>0</v>
@@ -10167,10 +10311,10 @@
     </row>
     <row r="297" spans="1:8">
       <c r="A297" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
       <c r="B297" t="s">
-        <v>831</v>
+        <v>840</v>
       </c>
       <c r="C297" t="s">
         <v>53</v>
@@ -10193,13 +10337,13 @@
     </row>
     <row r="298" spans="1:8">
       <c r="A298" t="s">
-        <v>832</v>
+        <v>841</v>
       </c>
       <c r="B298" t="s">
-        <v>833</v>
+        <v>842</v>
       </c>
       <c r="C298" t="s">
-        <v>834</v>
+        <v>843</v>
       </c>
       <c r="D298">
         <v>0</v>
@@ -10216,10 +10360,10 @@
     </row>
     <row r="299" spans="1:8">
       <c r="A299" t="s">
-        <v>835</v>
+        <v>844</v>
       </c>
       <c r="B299" t="s">
-        <v>836</v>
+        <v>845</v>
       </c>
       <c r="C299" t="s">
         <v>53</v>
@@ -10242,13 +10386,13 @@
     </row>
     <row r="300" spans="1:8">
       <c r="A300" t="s">
-        <v>837</v>
+        <v>846</v>
       </c>
       <c r="B300" t="s">
-        <v>838</v>
+        <v>847</v>
       </c>
       <c r="C300" t="s">
-        <v>839</v>
+        <v>848</v>
       </c>
       <c r="D300">
         <v>0</v>
@@ -10265,13 +10409,13 @@
     </row>
     <row r="301" spans="1:8">
       <c r="A301" t="s">
-        <v>840</v>
+        <v>849</v>
       </c>
       <c r="B301" t="s">
-        <v>841</v>
+        <v>850</v>
       </c>
       <c r="C301" t="s">
-        <v>842</v>
+        <v>851</v>
       </c>
       <c r="D301">
         <v>0</v>
@@ -10288,10 +10432,10 @@
     </row>
     <row r="302" spans="1:8">
       <c r="A302" t="s">
-        <v>843</v>
+        <v>852</v>
       </c>
       <c r="B302" t="s">
-        <v>844</v>
+        <v>853</v>
       </c>
       <c r="C302" t="s">
         <v>53</v>
@@ -10314,13 +10458,13 @@
     </row>
     <row r="303" spans="1:8">
       <c r="A303" t="s">
-        <v>845</v>
+        <v>854</v>
       </c>
       <c r="B303" t="s">
-        <v>846</v>
+        <v>855</v>
       </c>
       <c r="C303" t="s">
-        <v>847</v>
+        <v>856</v>
       </c>
       <c r="D303">
         <v>0</v>
@@ -10337,13 +10481,13 @@
     </row>
     <row r="304" spans="1:8">
       <c r="A304" t="s">
-        <v>848</v>
+        <v>857</v>
       </c>
       <c r="B304" t="s">
-        <v>849</v>
+        <v>858</v>
       </c>
       <c r="C304" t="s">
-        <v>850</v>
+        <v>859</v>
       </c>
       <c r="D304">
         <v>0</v>
@@ -10360,13 +10504,13 @@
     </row>
     <row r="305" spans="1:8">
       <c r="A305" t="s">
-        <v>851</v>
+        <v>860</v>
       </c>
       <c r="B305" t="s">
-        <v>852</v>
+        <v>861</v>
       </c>
       <c r="C305" t="s">
-        <v>853</v>
+        <v>862</v>
       </c>
       <c r="D305">
         <v>0</v>
@@ -10383,13 +10527,13 @@
     </row>
     <row r="306" spans="1:8">
       <c r="A306" t="s">
-        <v>854</v>
+        <v>863</v>
       </c>
       <c r="B306" t="s">
-        <v>855</v>
+        <v>864</v>
       </c>
       <c r="C306" t="s">
-        <v>856</v>
+        <v>865</v>
       </c>
       <c r="D306">
         <v>0</v>
@@ -10406,13 +10550,13 @@
     </row>
     <row r="307" spans="1:8">
       <c r="A307" t="s">
-        <v>857</v>
+        <v>866</v>
       </c>
       <c r="B307" t="s">
-        <v>858</v>
+        <v>867</v>
       </c>
       <c r="C307" t="s">
-        <v>859</v>
+        <v>868</v>
       </c>
       <c r="D307">
         <v>0</v>
@@ -10429,13 +10573,13 @@
     </row>
     <row r="308" spans="1:8">
       <c r="A308" t="s">
-        <v>860</v>
+        <v>869</v>
       </c>
       <c r="B308" t="s">
-        <v>861</v>
+        <v>870</v>
       </c>
       <c r="C308" t="s">
-        <v>862</v>
+        <v>871</v>
       </c>
       <c r="D308">
         <v>0</v>
@@ -10452,13 +10596,13 @@
     </row>
     <row r="309" spans="1:8">
       <c r="A309" t="s">
-        <v>863</v>
+        <v>872</v>
       </c>
       <c r="B309" t="s">
-        <v>864</v>
+        <v>873</v>
       </c>
       <c r="C309" t="s">
-        <v>865</v>
+        <v>874</v>
       </c>
       <c r="D309">
         <v>0</v>
@@ -10475,10 +10619,10 @@
     </row>
     <row r="310" spans="1:8">
       <c r="A310" t="s">
-        <v>866</v>
+        <v>875</v>
       </c>
       <c r="B310" t="s">
-        <v>867</v>
+        <v>876</v>
       </c>
       <c r="C310" t="s">
         <v>53</v>
@@ -10501,13 +10645,13 @@
     </row>
     <row r="311" spans="1:8">
       <c r="A311" t="s">
-        <v>868</v>
+        <v>877</v>
       </c>
       <c r="B311" t="s">
-        <v>869</v>
+        <v>878</v>
       </c>
       <c r="C311" t="s">
-        <v>870</v>
+        <v>879</v>
       </c>
       <c r="D311">
         <v>0</v>
@@ -10524,13 +10668,13 @@
     </row>
     <row r="312" spans="1:8">
       <c r="A312" t="s">
-        <v>871</v>
+        <v>880</v>
       </c>
       <c r="B312" t="s">
-        <v>872</v>
+        <v>881</v>
       </c>
       <c r="C312" t="s">
-        <v>873</v>
+        <v>882</v>
       </c>
       <c r="D312">
         <v>0</v>
@@ -10547,13 +10691,13 @@
     </row>
     <row r="313" spans="1:8">
       <c r="A313" t="s">
-        <v>874</v>
+        <v>883</v>
       </c>
       <c r="B313" t="s">
-        <v>875</v>
+        <v>884</v>
       </c>
       <c r="C313" t="s">
-        <v>876</v>
+        <v>885</v>
       </c>
       <c r="D313">
         <v>0</v>
@@ -10570,13 +10714,13 @@
     </row>
     <row r="314" spans="1:8">
       <c r="A314" t="s">
-        <v>877</v>
+        <v>886</v>
       </c>
       <c r="B314" t="s">
-        <v>878</v>
+        <v>887</v>
       </c>
       <c r="C314" t="s">
-        <v>879</v>
+        <v>888</v>
       </c>
       <c r="D314">
         <v>0</v>
@@ -10593,13 +10737,13 @@
     </row>
     <row r="315" spans="1:8">
       <c r="A315" t="s">
-        <v>880</v>
+        <v>889</v>
       </c>
       <c r="B315" t="s">
-        <v>881</v>
+        <v>890</v>
       </c>
       <c r="C315" t="s">
-        <v>882</v>
+        <v>891</v>
       </c>
       <c r="D315">
         <v>0</v>
@@ -10616,13 +10760,13 @@
     </row>
     <row r="316" spans="1:8">
       <c r="A316" t="s">
-        <v>883</v>
+        <v>892</v>
       </c>
       <c r="B316" t="s">
-        <v>884</v>
+        <v>893</v>
       </c>
       <c r="C316" t="s">
-        <v>885</v>
+        <v>894</v>
       </c>
       <c r="D316">
         <v>0</v>
@@ -10639,13 +10783,13 @@
     </row>
     <row r="317" spans="1:8">
       <c r="A317" t="s">
-        <v>886</v>
+        <v>895</v>
       </c>
       <c r="B317" t="s">
-        <v>887</v>
+        <v>896</v>
       </c>
       <c r="C317" t="s">
-        <v>888</v>
+        <v>897</v>
       </c>
       <c r="D317">
         <v>0</v>
@@ -10662,13 +10806,13 @@
     </row>
     <row r="318" spans="1:8">
       <c r="A318" t="s">
-        <v>889</v>
+        <v>898</v>
       </c>
       <c r="B318" t="s">
-        <v>890</v>
+        <v>899</v>
       </c>
       <c r="C318" t="s">
-        <v>891</v>
+        <v>900</v>
       </c>
       <c r="D318">
         <v>0</v>
@@ -10685,13 +10829,13 @@
     </row>
     <row r="319" spans="1:8">
       <c r="A319" t="s">
-        <v>892</v>
+        <v>901</v>
       </c>
       <c r="B319" t="s">
-        <v>893</v>
+        <v>902</v>
       </c>
       <c r="C319" t="s">
-        <v>894</v>
+        <v>903</v>
       </c>
       <c r="D319">
         <v>0</v>
@@ -10708,13 +10852,13 @@
     </row>
     <row r="320" spans="1:8">
       <c r="A320" t="s">
-        <v>895</v>
+        <v>904</v>
       </c>
       <c r="B320" t="s">
-        <v>896</v>
+        <v>905</v>
       </c>
       <c r="C320" t="s">
-        <v>897</v>
+        <v>906</v>
       </c>
       <c r="D320">
         <v>0</v>
@@ -10731,13 +10875,13 @@
     </row>
     <row r="321" spans="1:7">
       <c r="A321" t="s">
-        <v>898</v>
+        <v>907</v>
       </c>
       <c r="B321" t="s">
-        <v>899</v>
+        <v>908</v>
       </c>
       <c r="C321" t="s">
-        <v>900</v>
+        <v>909</v>
       </c>
       <c r="D321">
         <v>0</v>
@@ -10754,13 +10898,13 @@
     </row>
     <row r="322" spans="1:7">
       <c r="A322" t="s">
-        <v>901</v>
+        <v>910</v>
       </c>
       <c r="B322" t="s">
-        <v>902</v>
+        <v>911</v>
       </c>
       <c r="C322" t="s">
-        <v>903</v>
+        <v>912</v>
       </c>
       <c r="D322">
         <v>0</v>
@@ -10777,13 +10921,13 @@
     </row>
     <row r="323" spans="1:7">
       <c r="A323" t="s">
-        <v>904</v>
+        <v>913</v>
       </c>
       <c r="B323" t="s">
-        <v>905</v>
+        <v>914</v>
       </c>
       <c r="C323" t="s">
-        <v>906</v>
+        <v>915</v>
       </c>
       <c r="D323">
         <v>0</v>
@@ -10800,13 +10944,13 @@
     </row>
     <row r="324" spans="1:7">
       <c r="A324" t="s">
-        <v>907</v>
+        <v>916</v>
       </c>
       <c r="B324" t="s">
-        <v>908</v>
+        <v>917</v>
       </c>
       <c r="C324" t="s">
-        <v>909</v>
+        <v>918</v>
       </c>
       <c r="D324">
         <v>0</v>
@@ -10823,13 +10967,13 @@
     </row>
     <row r="325" spans="1:7">
       <c r="A325" t="s">
-        <v>910</v>
+        <v>919</v>
       </c>
       <c r="B325" t="s">
-        <v>911</v>
+        <v>920</v>
       </c>
       <c r="C325" t="s">
-        <v>912</v>
+        <v>921</v>
       </c>
       <c r="D325">
         <v>0</v>
@@ -10846,13 +10990,13 @@
     </row>
     <row r="326" spans="1:7">
       <c r="A326" t="s">
-        <v>913</v>
+        <v>922</v>
       </c>
       <c r="B326" t="s">
-        <v>914</v>
+        <v>923</v>
       </c>
       <c r="C326" t="s">
-        <v>914</v>
+        <v>923</v>
       </c>
       <c r="D326">
         <v>1</v>
@@ -10869,13 +11013,13 @@
     </row>
     <row r="327" spans="1:7">
       <c r="A327" t="s">
-        <v>915</v>
+        <v>924</v>
       </c>
       <c r="B327" t="s">
-        <v>916</v>
+        <v>925</v>
       </c>
       <c r="C327" t="s">
-        <v>917</v>
+        <v>926</v>
       </c>
       <c r="D327">
         <v>0</v>

--- a/HE/W_in_progress/AnalisiCodeGPT.xlsx
+++ b/HE/W_in_progress/AnalisiCodeGPT.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28224"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BD4C6E2-73BB-421E-85BD-A6B4966594FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95340D39-3610-42DF-A9C8-691BBBF39B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="927">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="969">
   <si>
     <t>IN</t>
   </si>
@@ -1266,6 +1266,9 @@
     <t>component clock_mod8 port ( clock : in STD_LOGIC; reset : in STD_LOGIC; enable : in STD_LOGIC; counter : out STD_LOGIC_VECTOR (2 downto 0); enable_count : out STD_LOGIC_VECTOR (3 downto 0)); end component;</t>
   </si>
   <si>
+    <t>Parametro in più ma va bene</t>
+  </si>
+  <si>
     <t>component abox is made up of data_in as input std_logic_vector of 4 bit and data_out as output std_logic_vector of 4 bit</t>
   </si>
   <si>
@@ -1287,6 +1290,9 @@
     <t>component cathodes_manager port ( dot : in STD_LOGIC_VECTOR (3 downto 0); cathodes_dot : out STD_LOGIC_VECTOR (7 downto 0)); end component;</t>
   </si>
   <si>
+    <t>Manca un parametro</t>
+  </si>
+  <si>
     <t>input_handler is a component with generic COUNT_MAX of type integer with default 500000, with signals row_sel, clk, reset as input std_logic_vector and std_logic signals respectively, key_out, col_sel, keypress_out as output std_logic_vector signals</t>
   </si>
   <si>
@@ -1314,6 +1320,9 @@
     <t>component read_pointer port ( rptr : in STD_LOGIC_VECTOR (2 downto 0); fifo_rd : out STD_LOGIC_VECTOR (2 downto 0)); fifo_rd &lt;= rptr(0); fifo_rd &lt;= fifo_rd(0); clk : in STD</t>
   </si>
   <si>
+    <t>I parametri sono sbagliati</t>
+  </si>
+  <si>
     <t>ROM is a component with RST, ADDR and DATA signals as described.</t>
   </si>
   <si>
@@ -1338,6 +1347,9 @@
     <t>button_debouncer_plaintext_btn: button_debouncer port map(clk_period =&gt; 10, btn_noise_time =&gt; 10000000, rst, clock, btn_plainText_in, t_btn_plainText);</t>
   </si>
   <si>
+    <t>Non fa l'stanziazione a button_dbouncer</t>
+  </si>
+  <si>
     <t>uut is an instance of Riconoscitore_Mealy with signal i mapped to signal i, CLK mapped to CLK, RST mapped to RST, Y mapped to Y</t>
   </si>
   <si>
@@ -1389,6 +1401,9 @@
     <t>myFA: myFA port map(OP_A =&gt; OP_A_RCA, OP_B =&gt; OP_B_RCA, CIN =&gt; CIN_RCA, S =&gt; S_int, COUT =&gt; cout_int);</t>
   </si>
   <si>
+    <t>I vettori non sono indicizzati</t>
+  </si>
+  <si>
     <t>debouncer is an instance of ButtonDebouncer with generics CLK_period set to 10, btn_noise_time set to 10000000, RST signal mapped to reset_n, CLK signal mapped to clock_in, BTN signal mapped to addr_strobe_in, CLEARED_BTN signal mapped to read_strobe</t>
   </si>
   <si>
@@ -1452,6 +1467,9 @@
     <t>constant constant x : std_logic_vector(6 downto 0) := "1000000";</t>
   </si>
   <si>
+    <t>Nome sbaliato ma va bene</t>
+  </si>
+  <si>
     <t>define a constant called TbClockB of type time initialized to 40 ns</t>
   </si>
   <si>
@@ -1491,6 +1509,9 @@
     <t>constant s : time := 550 ns; constant s : std_logic_vector(DAC_D_OUT_LEN - 1 downto 0);</t>
   </si>
   <si>
+    <t>Nome sbaliato e codice in più ma va bene</t>
+  </si>
+  <si>
     <t>Define a constant named TbClockB with type time and initialize to 40 ns</t>
   </si>
   <si>
@@ -1521,6 +1542,9 @@
     <t>for i in 0 to 4 generate inst_IDDR : IDDR generic(i) port(i) port(Q1 : in STD_LOGIC; Q2 : in STD_LOGIC; C : in STD_LOGIC; CE : in STD_LOGIC; D : in STD_LOGIC; R : in STD_LOGIC; S : in STD_LOGIC; I : in STD_LOGIC; O : in STD_LOGIC); end generate;</t>
   </si>
   <si>
+    <t>Non fa tutte le inizializzazioni</t>
+  </si>
+  <si>
     <t>gen_num is a for generate statement on variable N over LOOP_COUNT range that generates component rd_gen_inst2 that is an instance of fifo_rng with generic signals WIDTH initialized to 8, SEED initialized to TB_SEED+N and port signals CLK initialized to RD_CLK, RESET initialized to RESET, RANDOM_NUM initialized to elements of rand_num with indices from 8*(N+1)-1 down to 8*N, ENABLE initialized to pr_r_en</t>
   </si>
   <si>
@@ -1536,6 +1560,9 @@
     <t>signal round_keys: array (0 to 3) of dataArrayType;</t>
   </si>
   <si>
+    <t>Sbagliato</t>
+  </si>
+  <si>
     <t>Declare type hsv_function as an array with 256 elements of integer data type</t>
   </si>
   <si>
@@ -1545,6 +1572,9 @@
     <t>type hsv_function is array (0 to 255) of integer range 0 to 255;</t>
   </si>
   <si>
+    <t>Mette il range, ma va bene</t>
+  </si>
+  <si>
     <t>define an array type xhdl_17 with 64 elements of type std_logic</t>
   </si>
   <si>
@@ -1554,6 +1584,9 @@
     <t>type xhdl_17 is array (0 to 63) of std_logic_vector(31 downto 0);</t>
   </si>
   <si>
+    <t xml:space="preserve">Dichiara praticamente una matrice </t>
+  </si>
+  <si>
     <t>define an array hsv_function of 256 bit of integer</t>
   </si>
   <si>
@@ -1569,6 +1602,9 @@
     <t>outrotl(7 downto 1) &lt;= outrotl(6 downto 0) &amp; portArotl(7 downto 0) &amp; portArotl(7 downto 1);</t>
   </si>
   <si>
+    <t>non ho richiesto la AND</t>
+  </si>
+  <si>
     <t>access and display the fourth element of an array named x</t>
   </si>
   <si>
@@ -1602,6 +1638,9 @@
     <t>signal clock_multiplier : integer range 0 to 10000000;</t>
   </si>
   <si>
+    <t>Non ho chiesto un range</t>
+  </si>
+  <si>
     <t>the element of memory_ram with index address_a converted into n unsigned, increased by index and than converted into a standard integer, is set equal to he elements of data_in_a from the indices ((ram_word_size)*(index + 1) - 1) to ((ram_word_size)*index)</t>
   </si>
   <si>
@@ -1611,6 +1650,9 @@
     <t>memory_ram(index) &lt;= data_in_a(index - 1 downto 0);</t>
   </si>
   <si>
+    <t>Non fa le conversioni</t>
+  </si>
+  <si>
     <t>Create a 32x32 memory array matrix_mem, define a 32-bit signal row_data, and assign the contents of the 25th row of matrix_mem to row_data</t>
   </si>
   <si>
@@ -1629,6 +1671,9 @@
     <t>addr &lt;= ADR_I(10 downto 0) &amp; ADR_I(0) &amp; ADR_I(1);</t>
   </si>
   <si>
+    <t>Non ho chiesto una AND</t>
+  </si>
+  <si>
     <t>Define a 168-bit signal data_block, create a 21-bit signal eighth, and set eighth to bits 125 downto 105 of data_block</t>
   </si>
   <si>
@@ -1647,6 +1692,9 @@
     <t>ram_font: in std_logic_vector(unsigned(font_address)) port map(to_integer(unsigned(font_address)) =&gt; integer(font_width), to_integer(unsigned(font_address)) =&gt; integer(font_size));</t>
   </si>
   <si>
+    <t>Non fa l'assegnazione</t>
+  </si>
+  <si>
     <t>Define a 256-bit signal mega_packet, create a 64-bit signal quarter, and set quarter to bits 191 downto 128 of mega_packet</t>
   </si>
   <si>
@@ -1692,6 +1740,9 @@
     <t>shifted_data &lt;= data_in when shift_amount = "000", data_in when shift_amount = "001" else data_in(6 downto 0) &amp; '0' when shift_amount = "010" else data_in(5 downto 0) &amp; "00" when shift_amount = "011" else "----";</t>
   </si>
   <si>
+    <t>Ci sono delle And non richieste</t>
+  </si>
+  <si>
     <t>Use selected signal assignment to set signal y to '1000' when signal a is '00', '0100' when signal a is '01', '0010' when signal a is '10', and '0001' when signal a is '11'. Otherwise, set y to all don't care.</t>
   </si>
   <si>
@@ -1710,6 +1761,9 @@
     <t>clk_out &lt;= clk_in when clk_div_sel = "00", clk_div2 when clk_div_sel = "01", clk_div4 when clk_div_sel = "10", clk_div8;</t>
   </si>
   <si>
+    <t>Errori sintattici, ma idea buona</t>
+  </si>
+  <si>
     <t>Ensure 'data_valid' is never high when 'clock_enable' is low</t>
   </si>
   <si>
@@ -1728,6 +1782,9 @@
     <t>if rising_edge(clk) then if enable = '1' then output &lt;= '0'; else output &lt;= '1'; end if; end if;</t>
   </si>
   <si>
+    <t>Non fa l'assertion</t>
+  </si>
+  <si>
     <t>Ensure 'reset' pulse width is at least 10 ns</t>
   </si>
   <si>
@@ -1782,6 +1839,9 @@
     <t>entity half_adder is port ( A : in STD_LOGIC; B : in STD_LOGIC; Carry_In : in STD_LOGIC; Carry_Out : out STD_LOGIC; Carry_Out_nxt : out STD_LOGIC); end half_adder;</t>
   </si>
   <si>
+    <t>Roba in più però va bene</t>
+  </si>
+  <si>
     <t>define the entity of the half adder</t>
   </si>
   <si>
@@ -1794,6 +1854,9 @@
     <t>component multiplexer port (left_in : in STD_LOGIC; right_in : in STD_LOGIC; y : out STD_LOGIC); end component;</t>
   </si>
   <si>
+    <t>Ci può stare</t>
+  </si>
+  <si>
     <t>define the entity of a decoder with two inputs and 4 outputs</t>
   </si>
   <si>
@@ -1803,6 +1866,9 @@
     <t>entity decoder is port (a0 : in STD_LOGIC; a1 : in STD_LOGIC; y : out STD_LOGIC); end decoder;</t>
   </si>
   <si>
+    <t>non ci sono i 4 output</t>
+  </si>
+  <si>
     <t>define the entity for a multiplier 8 bit</t>
   </si>
   <si>
@@ -1812,6 +1878,9 @@
     <t>entity multiplier_8_out is port(clk : in STD_LOGIC; rst : in STD_LOGIC; enable : in STD_LOGIC; multiplier64 : in STD_LOGIC_VECTOR (7 downto 0); multiplier64_out : out STD_LOGIC_VECTOR (7 downto 0)); end multiplier_8_out;; entity multiplier64_out64 is port(clk, rst, enable, multiplier6464 : in STD_LOGIC_VECTOR (7 downto 0)); end multiplier64_8_out64;; end entity;</t>
   </si>
   <si>
+    <t>Non è il moltiplicatore che ho chiesto</t>
+  </si>
+  <si>
     <t>define the variable size of type integer with values from 10 to 10000 and initialize it to 1000</t>
   </si>
   <si>
@@ -1848,6 +1917,9 @@
     <t>SampledBits &lt;= SampledBits(SampledBits'length - 2 downto 0) &amp; RxD_i;</t>
   </si>
   <si>
+    <t>Più o meno ci sta</t>
+  </si>
+  <si>
     <t>right shift by 1 bit i_data_5_out and add the value of i_data_0</t>
   </si>
   <si>
@@ -1914,6 +1986,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; entity glitch_filter is Port ( Noise_In : in STD_LOGIC; Filtered_Out : out STD_LOGIC); end glitch_filter; architecture Behavioral of glitch_filter is signal noisy_in : STD_LOGIC := '0'; begin process (Noise_In) begin if rising_edge(Noise_In) then filtered_out &lt;= noisy_in; end if ; end process ; Filtered_Out &lt;= filtered_out; end Behavioral;</t>
   </si>
   <si>
+    <t>Più o meno c'è l'idea</t>
+  </si>
+  <si>
     <t>Implement a basic moving average filter with circular buffer</t>
   </si>
   <si>
@@ -1923,6 +1998,9 @@
     <t>process(clk) begin if rising_edge(clk) then if rst = '1' then sum &lt;= sum - buffer; else sum &lt;= sum + buffer; end if; end if; end process;</t>
   </si>
   <si>
+    <t>Non realizza una media mobile</t>
+  </si>
+  <si>
     <t>Implement a Manchester decoder using a process.</t>
   </si>
   <si>
@@ -1932,6 +2010,9 @@
     <t>process(clk) begin if rising_edge(clk) then if rst = '1' then if count = 0 then count &lt;= 0; else count &lt;= count + 1; end if; end if; end process;</t>
   </si>
   <si>
+    <t>Non è un  Manchester decoder</t>
+  </si>
+  <si>
     <t>Define a register of N-bit with the signals clock, reset, enable, and D (N-bit) as input and the signal Q (N-bit) as output.</t>
   </si>
   <si>
@@ -1941,6 +2022,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; entity register_n is Generic (N : natural := 8); Port ( Clock : in STD_LOGIC; Reset : in STD_LOGIC; Enable : in STD_LOGIC; D : in STD_LOGIC_VECTOR (N-1 downto 0); Q : out STD_LOGIC_VECTOR (N-1 downto 0)); end register_n; architecture Behavioral of register_n is signal reg : std_logic_vector(N-1 downto 0); begin process (Clock, Reset) begin if Reset = '1' then reg &lt;= (others =&gt; '0'); elsif rising_edge(Clock) then if Enable = '1' then reg &lt;= reg(N-2 downto 0) &amp; reg(N-1); elsif D = '1' then reg &lt;= reg(N-3 downto 0) &amp; reg(N-2); end if ; end if ; end process ; Q &lt;= reg; end Behavioral;</t>
   </si>
   <si>
+    <t>Un po ambiguo ma attinente</t>
+  </si>
+  <si>
     <t>Create a simple 4-bit comparator</t>
   </si>
   <si>
@@ -1950,6 +2034,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; entity 4-BitComparator is Generic(Bitwidth-1 downto 0); Port ( A : in STD_LOGIC_VECTOR (Bitwidth-1 downto 0); B : in STD_LOGIC_VECTOR (Bitwidth-1 downto 0); C : in STD_LOGIC_VECTOR (Bitwidth-1 downto 0); Sum : out STD_LOGIC_VECTOR (Bitwidth-1 downto 0); Carry_Out : out STD_LOGIC); end 4-BitComparator; architecture Behavioral of 4-BitComparator is begin process (A, B, C) variable carry : std_logic := '0'; begin if (A = '1') then Sum &lt;= '0'; Carry_Out &lt;= '1'; elsif (B = '1') then Sum &lt;= '1'; Carry_Out &lt;= '0'; elsif (C = '1') then Sum &lt;= '0'; Carry_Out &lt;= '1'; elsif (C = '0') then Sum &lt;= '0'; Carry_Out &lt;= '0'; else Sum &lt;= '1'; Carry_Out &lt;= '0'; end if ; end process ; end Behavioral;</t>
   </si>
   <si>
+    <t>Non è un comparatore</t>
+  </si>
+  <si>
     <t>Implement an SPI slave using a process.</t>
   </si>
   <si>
@@ -1965,6 +2052,9 @@
     <t>process(clk,rst)begin if rst='1'then count&lt;=0;elsif rising_edge(clk)then count&lt;=count+1;end if;end process;</t>
   </si>
   <si>
+    <t>Frequency counter, un po strano, ma frequency counter</t>
+  </si>
+  <si>
     <t>Write a parallel to serial converter of N-bit with the signals clk, parallel_in (N-bit), and load_en as input and the signal serial_out as output.</t>
   </si>
   <si>
@@ -1992,6 +2082,9 @@
     <t>process(clk) begin if rising_edge(clk) then if rst = '1' then memory_out &lt;= memory_in; elsif write = '1' then memory_out &lt;= memory_out + memory_in; end if; end if; end process;</t>
   </si>
   <si>
+    <t>Fa solo accumuli, non esegue operazioni di memoria</t>
+  </si>
+  <si>
     <t>Define a frequency divider with the signals clock, reset, and divide_ratio (N-bit) as input and the signal divided_clock as output.</t>
   </si>
   <si>
@@ -2001,6 +2094,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; entity FrequencyDivider is Generic(N : natural := 8); Port ( Clock : in STD_LOGIC; Reset : in STD_LOGIC; Divide_Ratio : in STD_LOGIC_VECTOR (N-1 downto 0); Divided_Clock : out STD_LOGIC); end FrequencyDivider; architecture Behavioral of FrequencyDivider is signal divided_clock, divided_reset : STD_LOGIC; begin process (Clock, Reset) begin if Reset = '1' then divided_clock &lt;= Clock; divided_reset &lt;= '0'; elsif rising_edge(Clock) then divided_clock &lt;= Clock(N-1); divided_reset &lt;= '0'; end if ; end process ; Divided_Reset &lt;= divided_reset; end Behavioral;</t>
   </si>
   <si>
+    <t>Non fa il divisore di frequenza</t>
+  </si>
+  <si>
     <t>Create a basic SPI (Serial Peripheral Interface) master with multiple slave select</t>
   </si>
   <si>
@@ -2010,6 +2106,9 @@
     <t>process(clk) begin if rising_edge(clk) then if rst = '1' then data_out &lt;= '0'; elsif enable = '1' then data_out &lt;= data_out + data_out - 1; end if; end if; end process;</t>
   </si>
   <si>
+    <t>Non gestisce il protocollo SPI</t>
+  </si>
+  <si>
     <t>Create a basic PWM (Pulse Width Modulation) generator with variable frequency</t>
   </si>
   <si>
@@ -2019,6 +2118,9 @@
     <t>process(clk) begin if rising_edge(clk) then if rst = '1' then pwm &lt;= '1'; elsif duty_cycle = 5 ns then pwm &lt;= '0'; end if; end if; end process;</t>
   </si>
   <si>
+    <t>Non ha logica sul duty cycle</t>
+  </si>
+  <si>
     <t>Generate a CRC checker of N-bit with the signals data_in (N-bit), received_CRC (M-bit), and polynomial (M-bit) as input and the signal CRC_match as output.</t>
   </si>
   <si>
@@ -2028,6 +2130,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; entity CRC_checker is Generic (N : natural := 8); Port ( Data_In : in STD_LOGIC_VECTOR (N-1 downto 0); Received_CRC : in STD_LOGIC_VECTOR (M-1 downto 0); Polynomial : in STD_LOGIC_VECTOR (M-1 downto 0); CRC_Match : out STD_LOGIC); end CRC_checker; architecture Behavioral of CRC_checker is begin process (Data_In, Received_CRC, Polynomial) variable temp : STD_LOGIC_VECTOR (N-1 downto 0); begin temp := Data_In; for i in 0 to N-1 loop temp(i) := received_CRC(i); if temp(i) = '1' then CRC_Match := '1'; else CRC_Match := '0'; end if ; end loop ; end process ; end Behavioral;</t>
   </si>
   <si>
+    <t>Non fa una verifica sul CRC</t>
+  </si>
+  <si>
     <t>Define a fixed-point divider of N-bit with the signals dividend (N-bit) and divisor (N-bit) as input and the signals quotient (N-bit) and remainder (N-bit) as output.</t>
   </si>
   <si>
@@ -2037,6 +2142,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; entity fixed_point_divider is Generic (N : natural := 8); Port (Dividend : in signed(N-1 downto 0); Divisor : in signed(N-1 downto 0); Quotient : out signed(N-1 downto 0)); end fixed_point_divider; architecture Behavioral of fixed_point_divider is signal quotient : unsigned(N-1 downto 0); signal remainder : unsigned(N-1 downto 0); begin process (Dividend, Divisor) begin if dividend = '1' then quotient &lt;= 0; remainder &lt;= 0; elsif divisor = '1' then quotient &lt;= quotient + 1; remainder &lt;= remainder + 1; end if ; end process ; Quotient &lt;= quotient; Remainder &lt;= remainder; end Behavioral;</t>
   </si>
   <si>
+    <t>Non effettua una divisione</t>
+  </si>
+  <si>
     <t>Write a 2-bit magnitude comparator with the signals A1, A0, B1, and B0 as input and the signals A_greater, A_equal, and A_smaller as output.</t>
   </si>
   <si>
@@ -2046,6 +2154,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; entity magnitude_comparator is Port ( A1 : in STD_LOGIC; A0 : in STD_LOGIC; B1 : in STD_LOGIC; B0 : in STD_LOGIC; A_greater : out STD_LOGIC; A_equal : out STD_LOGIC; A_smaller : out STD_LOGIC); end magnitude_comparator; architecture Behavioral of magnitude_comparator is begin process (A1, A0, B1, B0) variable temp : STD_LOGIC; begin temp := A1; temp := A0; if (A_greater = '1') then temp := A0; elsif (A_equal = '1') then temp := A1; else temp := A0; end if ; end if ; end process ; end Behavioral;</t>
   </si>
   <si>
+    <t>Non effettua il confronto</t>
+  </si>
+  <si>
     <t>Write a binary to gray converter of N-bit with the signal binary (N-bit) as input and the signal gray_code (N-bit) as output.</t>
   </si>
   <si>
@@ -2055,6 +2166,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; entity gray_to_gray is Generic (N : natural := 8); Port ( Binary : in STD_LOGIC_VECTOR (N-1 downto 0); Gray_Code : out STD_LOGIC_VECTOR (N-1 downto 0)); end gray_to_gray; architecture Behavioral of gray_to_gray is begin process (Binary) variable gray_code : std_logic_vector(N-1 downto 0); begin gray_code := binary(N); gray_code := gray_code(N); end process ; end Behavioral;</t>
   </si>
   <si>
+    <t>Non vi è la logica di conversione</t>
+  </si>
+  <si>
     <t>Implement a basic quadrature encoder interface</t>
   </si>
   <si>
@@ -2064,6 +2178,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; entity basic_quadrature_encoder is Port ( Clock : in STD_LOGIC; Reset : in STD_LOGIC; Shift_Register : in STD_LOGIC; Shift_Value : out STD_LOGIC_VECTOR (7 downto 0)); end basic_quadrature_encoder; architecture Behavioral of basic_quadrature_encoder is begin process (Clock, Reset) variable shift_reg : std_logic_vector(7 downto 0); begin if (Reset = '1') then shift_reg &lt;= (others =&gt; '0'); elsif (rising_edge(Clock)) then shift_reg &lt;= (others =&gt; '0'); elsif (rising_edge(Reset)) then shift_reg &lt;= (others =&gt; '0'); end if ; end process ; end Behavioral;</t>
   </si>
   <si>
+    <t>Non è un quadrature encoder</t>
+  </si>
+  <si>
     <t>Define a debouncer with the signal noisy_button as input and the signal clean_button_pulse as output.</t>
   </si>
   <si>
@@ -2073,6 +2190,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; entity debouncer is Port ( noisy_button : in STD_LOGIC; clean_button_pulse : out STD_LOGIC); end debouncer; architecture Behavioral of debouncer is begin process (noisy_button) variable temp : STD_LOGIC := '0'; begin if (noisy_button = '1') then temp := '1'; elsif (rising_edge(noisy_button)) then temp := '0'; end if ; end process ; end Behavioral;</t>
   </si>
   <si>
+    <t>Non è un debouncer</t>
+  </si>
+  <si>
     <t>Define a Johnson ring counter of N-bit with the signals clock and reset as input and the signal count (N-bit) as output.</t>
   </si>
   <si>
@@ -2082,6 +2202,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; entity JohnsonRingCounter is Generic(N : natural := 8); Port ( Clock : in STD_LOGIC; Reset : in STD_LOGIC; Count : out STD_LOGIC_VECTOR (N-1 downto 0)); end JohnsonRingCounter; architecture Behavioral of JohnsonRingCounter is signal count : std_logic_vector(N-1 downto 0); begin process (Clock, Reset) begin if Reset = '1' then count &lt;= (others =&gt; '0'); elsif rising_edge(Clock) then if Count = '1' then count &lt;= count + 1; end if ; end if ; end process ; end Behavioral;</t>
   </si>
   <si>
+    <t>Può andare</t>
+  </si>
+  <si>
     <t>Define a pulse generator circuit with the signals clk, reset, and pulse_width (N-bit) as input and the signal pulse_out as output.</t>
   </si>
   <si>
@@ -2797,6 +2920,9 @@
   </si>
   <si>
     <t>scl_en_i : t_scl; entity Encoder_onBoard is port(switch : in STD_LOGIC_VECTOR(9 downto 0); led : out STD_LOGIC_VECTOR(3 downto 0); catodi : out STD_LOGIC_VECTOR(7 downto 0)); end Encoder_onBoard;</t>
+  </si>
+  <si>
+    <t>Mancano gli anodi e sbagliata l'assegnazione</t>
   </si>
   <si>
     <t>set i_cs_re_tk to '1' when i_cs_cpy signal is '0' and i_cs signal is '1', otherwise set it to '0'; define a variable named limit of type integer with range 0 to 255, then initialize it to 255</t>
@@ -3184,8 +3310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="G142" sqref="G142"/>
+    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="H245" sqref="H245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6754,18 +6880,21 @@
         <v>0.84267290900735303</v>
       </c>
       <c r="G143">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H143" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B144" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C144" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -6782,10 +6911,10 @@
     </row>
     <row r="145" spans="1:8">
       <c r="A145" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B145" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C145" t="s">
         <v>53</v>
@@ -6808,13 +6937,13 @@
     </row>
     <row r="146" spans="1:8">
       <c r="A146" t="s">
+        <v>417</v>
+      </c>
+      <c r="B146" t="s">
         <v>416</v>
       </c>
-      <c r="B146" t="s">
-        <v>415</v>
-      </c>
       <c r="C146" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -6828,16 +6957,19 @@
       <c r="G146">
         <v>0</v>
       </c>
+      <c r="H146" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B147" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C147" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D147">
         <v>0</v>
@@ -6851,16 +6983,19 @@
       <c r="G147">
         <v>0</v>
       </c>
+      <c r="H147" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B148" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C148" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D148">
         <v>0</v>
@@ -6874,16 +7009,19 @@
       <c r="G148">
         <v>0</v>
       </c>
+      <c r="H148" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B149" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C149" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -6897,16 +7035,19 @@
       <c r="G149">
         <v>0</v>
       </c>
+      <c r="H149" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B150" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C150" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -6920,13 +7061,16 @@
       <c r="G150">
         <v>0</v>
       </c>
+      <c r="H150" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B151" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C151" t="s">
         <v>53</v>
@@ -6949,13 +7093,13 @@
     </row>
     <row r="152" spans="1:8">
       <c r="A152" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B152" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C152" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="D152">
         <v>0</v>
@@ -6969,16 +7113,19 @@
       <c r="G152">
         <v>0</v>
       </c>
+      <c r="H152" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B153" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="C153" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="D153">
         <v>0</v>
@@ -6992,16 +7139,19 @@
       <c r="G153">
         <v>0</v>
       </c>
+      <c r="H153" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="B154" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C154" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="D154">
         <v>0</v>
@@ -7013,18 +7163,21 @@
         <v>0.75595238095238104</v>
       </c>
       <c r="G154">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H154" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B155" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C155" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="D155">
         <v>0</v>
@@ -7036,15 +7189,15 @@
         <v>0.94106158088235292</v>
       </c>
       <c r="G155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B156" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C156" t="s">
         <v>53</v>
@@ -7067,13 +7220,13 @@
     </row>
     <row r="157" spans="1:8">
       <c r="A157" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B157" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C157" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="D157">
         <v>0</v>
@@ -7085,18 +7238,21 @@
         <v>0.8829428067523305</v>
       </c>
       <c r="G157">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H157" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="158" spans="1:8">
       <c r="A158" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B158" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="C158" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="D158">
         <v>0</v>
@@ -7110,16 +7266,19 @@
       <c r="G158">
         <v>0</v>
       </c>
+      <c r="H158" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="B159" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="C159" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="D159">
         <v>0</v>
@@ -7133,16 +7292,19 @@
       <c r="G159">
         <v>0</v>
       </c>
+      <c r="H159" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="160" spans="1:8">
       <c r="A160" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="B160" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="C160" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="D160">
         <v>0</v>
@@ -7156,16 +7318,19 @@
       <c r="G160">
         <v>0</v>
       </c>
+      <c r="H160" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="B161" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="C161" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="D161">
         <v>0</v>
@@ -7177,18 +7342,18 @@
         <v>0.82942097026604067</v>
       </c>
       <c r="G161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="B162" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="C162" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="D162">
         <v>1</v>
@@ -7205,13 +7370,13 @@
     </row>
     <row r="163" spans="1:8">
       <c r="A163" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="B163" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="C163" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="D163">
         <v>0</v>
@@ -7225,13 +7390,16 @@
       <c r="G163">
         <v>0</v>
       </c>
+      <c r="H163" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="B164" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="C164" t="s">
         <v>53</v>
@@ -7254,10 +7422,10 @@
     </row>
     <row r="165" spans="1:8">
       <c r="A165" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="B165" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="C165" t="s">
         <v>53</v>
@@ -7280,13 +7448,13 @@
     </row>
     <row r="166" spans="1:8">
       <c r="A166" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="B166" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="C166" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -7298,18 +7466,21 @@
         <v>0.92580078388971487</v>
       </c>
       <c r="G166">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H166" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="B167" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="C167" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="D167">
         <v>0</v>
@@ -7321,18 +7492,21 @@
         <v>0.5066964285714286</v>
       </c>
       <c r="G167">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H167" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="B168" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="C168" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="D168">
         <v>1</v>
@@ -7349,13 +7523,13 @@
     </row>
     <row r="169" spans="1:8">
       <c r="A169" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="B169" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="C169" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="D169">
         <v>0</v>
@@ -7369,16 +7543,19 @@
       <c r="G169">
         <v>0</v>
       </c>
+      <c r="H169" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="170" spans="1:8">
       <c r="A170" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="B170" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="C170" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="D170">
         <v>1</v>
@@ -7395,13 +7572,13 @@
     </row>
     <row r="171" spans="1:8">
       <c r="A171" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="B171" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="C171" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="D171">
         <v>0</v>
@@ -7413,18 +7590,21 @@
         <v>0.61887254901960786</v>
       </c>
       <c r="G171">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H171" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="172" spans="1:8">
       <c r="A172" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="B172" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="C172" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="D172">
         <v>0</v>
@@ -7436,18 +7616,21 @@
         <v>0.58796296296296291</v>
       </c>
       <c r="G172">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H172" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="173" spans="1:8">
       <c r="A173" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="B173" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="C173" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="D173">
         <v>1</v>
@@ -7464,13 +7647,13 @@
     </row>
     <row r="174" spans="1:8">
       <c r="A174" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="B174" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="C174" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="D174">
         <v>0</v>
@@ -7482,18 +7665,18 @@
         <v>0.93197278911564618</v>
       </c>
       <c r="G174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
       <c r="A175" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="B175" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="C175" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="D175">
         <v>0</v>
@@ -7507,16 +7690,19 @@
       <c r="G175">
         <v>0</v>
       </c>
+      <c r="H175" t="s">
+        <v>503</v>
+      </c>
     </row>
     <row r="176" spans="1:8">
       <c r="A176" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="B176" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="C176" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="D176">
         <v>0</v>
@@ -7530,16 +7716,19 @@
       <c r="G176">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:7">
+      <c r="H176" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="B177" t="s">
         <v>135</v>
       </c>
       <c r="C177" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="D177">
         <v>0</v>
@@ -7553,16 +7742,19 @@
       <c r="G177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:7">
+      <c r="H177" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="B178" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="C178" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="D178">
         <v>0</v>
@@ -7574,18 +7766,21 @@
         <v>0.94982078853046592</v>
       </c>
       <c r="G178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H178" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="B179" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="C179" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="D179">
         <v>0</v>
@@ -7599,16 +7794,19 @@
       <c r="G179">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:7">
+      <c r="H179" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="B180" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="C180" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="D180">
         <v>0</v>
@@ -7620,18 +7818,21 @@
         <v>0.57736280487804881</v>
       </c>
       <c r="G180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H180" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="B181" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="C181" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="D181">
         <v>0</v>
@@ -7645,16 +7846,19 @@
       <c r="G181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:7">
+      <c r="H181" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="B182" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="C182" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="D182">
         <v>0</v>
@@ -7668,16 +7872,19 @@
       <c r="G182">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:7">
+      <c r="H182" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="B183" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="C183" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="D183">
         <v>1</v>
@@ -7692,15 +7899,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:8">
       <c r="A184" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="B184" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="C184" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="D184">
         <v>0</v>
@@ -7714,16 +7921,19 @@
       <c r="G184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:7">
+      <c r="H184" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
       <c r="A185" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="B185" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="C185" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="D185">
         <v>0</v>
@@ -7737,16 +7947,19 @@
       <c r="G185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:7">
+      <c r="H185" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
       <c r="A186" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="B186" t="s">
-        <v>524</v>
+        <v>537</v>
       </c>
       <c r="C186" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="D186">
         <v>0</v>
@@ -7760,16 +7973,19 @@
       <c r="G186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:7">
+      <c r="H186" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
       <c r="A187" t="s">
-        <v>526</v>
+        <v>540</v>
       </c>
       <c r="B187" t="s">
-        <v>527</v>
+        <v>541</v>
       </c>
       <c r="C187" t="s">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="D187">
         <v>0</v>
@@ -7783,16 +7999,19 @@
       <c r="G187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:7">
+      <c r="H187" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
       <c r="A188" t="s">
-        <v>529</v>
+        <v>543</v>
       </c>
       <c r="B188" t="s">
-        <v>530</v>
+        <v>544</v>
       </c>
       <c r="C188" t="s">
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="D188">
         <v>0</v>
@@ -7806,16 +8025,19 @@
       <c r="G188">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:7">
+      <c r="H188" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
       <c r="A189" t="s">
-        <v>532</v>
+        <v>547</v>
       </c>
       <c r="B189" t="s">
-        <v>533</v>
+        <v>548</v>
       </c>
       <c r="C189" t="s">
-        <v>534</v>
+        <v>549</v>
       </c>
       <c r="D189">
         <v>0</v>
@@ -7827,18 +8049,18 @@
         <v>0.95918875251342128</v>
       </c>
       <c r="G189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
       <c r="A190" t="s">
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="B190" t="s">
-        <v>536</v>
+        <v>551</v>
       </c>
       <c r="C190" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="D190">
         <v>0</v>
@@ -7852,16 +8074,19 @@
       <c r="G190">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:7">
+      <c r="H190" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
       <c r="A191" t="s">
-        <v>538</v>
+        <v>554</v>
       </c>
       <c r="B191" t="s">
-        <v>539</v>
+        <v>555</v>
       </c>
       <c r="C191" t="s">
-        <v>539</v>
+        <v>555</v>
       </c>
       <c r="D191">
         <v>1</v>
@@ -7876,15 +8101,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:8">
       <c r="A192" t="s">
-        <v>540</v>
+        <v>556</v>
       </c>
       <c r="B192" t="s">
-        <v>541</v>
+        <v>557</v>
       </c>
       <c r="C192" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="D192">
         <v>0</v>
@@ -7896,15 +8121,15 @@
         <v>0.93275935374149654</v>
       </c>
       <c r="G192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
       <c r="A193" t="s">
-        <v>543</v>
+        <v>559</v>
       </c>
       <c r="B193" t="s">
-        <v>544</v>
+        <v>560</v>
       </c>
       <c r="C193" t="s">
         <v>53</v>
@@ -7927,13 +8152,13 @@
     </row>
     <row r="194" spans="1:8">
       <c r="A194" t="s">
-        <v>545</v>
+        <v>561</v>
       </c>
       <c r="B194" t="s">
-        <v>546</v>
+        <v>562</v>
       </c>
       <c r="C194" t="s">
-        <v>547</v>
+        <v>563</v>
       </c>
       <c r="D194">
         <v>0</v>
@@ -7945,15 +8170,15 @@
         <v>0.96408975112678819</v>
       </c>
       <c r="G194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
       <c r="A195" t="s">
-        <v>548</v>
+        <v>564</v>
       </c>
       <c r="B195" t="s">
-        <v>549</v>
+        <v>565</v>
       </c>
       <c r="C195" t="s">
         <v>53</v>
@@ -7976,13 +8201,13 @@
     </row>
     <row r="196" spans="1:8">
       <c r="A196" t="s">
-        <v>550</v>
+        <v>566</v>
       </c>
       <c r="B196" t="s">
-        <v>551</v>
+        <v>567</v>
       </c>
       <c r="C196" t="s">
-        <v>552</v>
+        <v>568</v>
       </c>
       <c r="D196">
         <v>0</v>
@@ -7996,16 +8221,19 @@
       <c r="G196">
         <v>0</v>
       </c>
+      <c r="H196" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="197" spans="1:8">
       <c r="A197" t="s">
-        <v>553</v>
+        <v>570</v>
       </c>
       <c r="B197" t="s">
-        <v>554</v>
+        <v>571</v>
       </c>
       <c r="C197" t="s">
-        <v>555</v>
+        <v>572</v>
       </c>
       <c r="D197">
         <v>0</v>
@@ -8019,16 +8247,19 @@
       <c r="G197">
         <v>0</v>
       </c>
+      <c r="H197" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="198" spans="1:8">
       <c r="A198" t="s">
-        <v>556</v>
+        <v>573</v>
       </c>
       <c r="B198" t="s">
-        <v>557</v>
+        <v>574</v>
       </c>
       <c r="C198" t="s">
-        <v>558</v>
+        <v>575</v>
       </c>
       <c r="D198">
         <v>0</v>
@@ -8040,18 +8271,21 @@
         <v>0.81297573151443236</v>
       </c>
       <c r="G198">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H198" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="199" spans="1:8">
       <c r="A199" t="s">
-        <v>559</v>
+        <v>577</v>
       </c>
       <c r="B199" t="s">
-        <v>560</v>
+        <v>578</v>
       </c>
       <c r="C199" t="s">
-        <v>561</v>
+        <v>579</v>
       </c>
       <c r="D199">
         <v>0</v>
@@ -8065,16 +8299,19 @@
       <c r="G199">
         <v>0</v>
       </c>
+      <c r="H199" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="200" spans="1:8">
       <c r="A200" t="s">
-        <v>562</v>
+        <v>580</v>
       </c>
       <c r="B200" t="s">
-        <v>563</v>
+        <v>581</v>
       </c>
       <c r="C200" t="s">
-        <v>564</v>
+        <v>582</v>
       </c>
       <c r="D200">
         <v>0</v>
@@ -8088,16 +8325,19 @@
       <c r="G200">
         <v>0</v>
       </c>
+      <c r="H200" t="s">
+        <v>583</v>
+      </c>
     </row>
     <row r="201" spans="1:8">
       <c r="A201" t="s">
-        <v>565</v>
+        <v>584</v>
       </c>
       <c r="B201" t="s">
-        <v>566</v>
+        <v>585</v>
       </c>
       <c r="C201" t="s">
-        <v>567</v>
+        <v>586</v>
       </c>
       <c r="D201">
         <v>0</v>
@@ -8111,16 +8351,19 @@
       <c r="G201">
         <v>0</v>
       </c>
+      <c r="H201" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="202" spans="1:8">
       <c r="A202" t="s">
-        <v>568</v>
+        <v>587</v>
       </c>
       <c r="B202" t="s">
-        <v>569</v>
+        <v>588</v>
       </c>
       <c r="C202" t="s">
-        <v>570</v>
+        <v>589</v>
       </c>
       <c r="D202">
         <v>0</v>
@@ -8134,16 +8377,19 @@
       <c r="G202">
         <v>0</v>
       </c>
+      <c r="H202" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="203" spans="1:8">
       <c r="A203" t="s">
-        <v>571</v>
+        <v>590</v>
       </c>
       <c r="B203" t="s">
-        <v>572</v>
+        <v>591</v>
       </c>
       <c r="C203" t="s">
-        <v>573</v>
+        <v>592</v>
       </c>
       <c r="D203">
         <v>0</v>
@@ -8157,16 +8403,19 @@
       <c r="G203">
         <v>0</v>
       </c>
+      <c r="H203" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="204" spans="1:8">
       <c r="A204" t="s">
-        <v>574</v>
+        <v>593</v>
       </c>
       <c r="B204" t="s">
-        <v>575</v>
+        <v>594</v>
       </c>
       <c r="C204" t="s">
-        <v>576</v>
+        <v>595</v>
       </c>
       <c r="D204">
         <v>0</v>
@@ -8180,16 +8429,19 @@
       <c r="G204">
         <v>0</v>
       </c>
+      <c r="H204" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="205" spans="1:8">
       <c r="A205" t="s">
-        <v>577</v>
+        <v>596</v>
       </c>
       <c r="B205" t="s">
-        <v>578</v>
+        <v>597</v>
       </c>
       <c r="C205" t="s">
-        <v>579</v>
+        <v>598</v>
       </c>
       <c r="D205">
         <v>0</v>
@@ -8203,16 +8455,19 @@
       <c r="G205">
         <v>0</v>
       </c>
+      <c r="H205" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="206" spans="1:8">
       <c r="A206" t="s">
-        <v>580</v>
+        <v>599</v>
       </c>
       <c r="B206" t="s">
-        <v>581</v>
+        <v>600</v>
       </c>
       <c r="C206" t="s">
-        <v>582</v>
+        <v>601</v>
       </c>
       <c r="D206">
         <v>0</v>
@@ -8224,18 +8479,21 @@
         <v>0.64655172413793105</v>
       </c>
       <c r="G206">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H206" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="207" spans="1:8">
       <c r="A207" t="s">
-        <v>583</v>
+        <v>603</v>
       </c>
       <c r="B207" t="s">
-        <v>581</v>
+        <v>600</v>
       </c>
       <c r="C207" t="s">
-        <v>582</v>
+        <v>601</v>
       </c>
       <c r="D207">
         <v>0</v>
@@ -8247,18 +8505,21 @@
         <v>0.64655172413793105</v>
       </c>
       <c r="G207">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H207" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="208" spans="1:8">
       <c r="A208" t="s">
-        <v>584</v>
+        <v>604</v>
       </c>
       <c r="B208" t="s">
-        <v>585</v>
+        <v>605</v>
       </c>
       <c r="C208" t="s">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="D208">
         <v>0</v>
@@ -8270,18 +8531,21 @@
         <v>0.72436363636363632</v>
       </c>
       <c r="G208">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H208" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="209" spans="1:8">
       <c r="A209" t="s">
-        <v>587</v>
+        <v>608</v>
       </c>
       <c r="B209" t="s">
-        <v>588</v>
+        <v>609</v>
       </c>
       <c r="C209" t="s">
-        <v>589</v>
+        <v>610</v>
       </c>
       <c r="D209">
         <v>0</v>
@@ -8295,16 +8559,19 @@
       <c r="G209">
         <v>0</v>
       </c>
+      <c r="H209" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="210" spans="1:8">
       <c r="A210" t="s">
-        <v>590</v>
+        <v>612</v>
       </c>
       <c r="B210" t="s">
-        <v>591</v>
+        <v>613</v>
       </c>
       <c r="C210" t="s">
-        <v>592</v>
+        <v>614</v>
       </c>
       <c r="D210">
         <v>0</v>
@@ -8318,16 +8585,19 @@
       <c r="G210">
         <v>0</v>
       </c>
+      <c r="H210" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="211" spans="1:8">
       <c r="A211" t="s">
-        <v>593</v>
+        <v>616</v>
       </c>
       <c r="B211" t="s">
-        <v>594</v>
+        <v>617</v>
       </c>
       <c r="C211" t="s">
-        <v>594</v>
+        <v>617</v>
       </c>
       <c r="D211">
         <v>1</v>
@@ -8344,13 +8614,13 @@
     </row>
     <row r="212" spans="1:8">
       <c r="A212" t="s">
-        <v>595</v>
+        <v>618</v>
       </c>
       <c r="B212" t="s">
-        <v>596</v>
+        <v>619</v>
       </c>
       <c r="C212" t="s">
-        <v>596</v>
+        <v>619</v>
       </c>
       <c r="D212">
         <v>1</v>
@@ -8367,13 +8637,13 @@
     </row>
     <row r="213" spans="1:8">
       <c r="A213" t="s">
-        <v>597</v>
+        <v>620</v>
       </c>
       <c r="B213" t="s">
-        <v>598</v>
+        <v>621</v>
       </c>
       <c r="C213" t="s">
-        <v>599</v>
+        <v>622</v>
       </c>
       <c r="D213">
         <v>0</v>
@@ -8387,16 +8657,19 @@
       <c r="G213">
         <v>0</v>
       </c>
+      <c r="H213" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="214" spans="1:8">
       <c r="A214" t="s">
-        <v>600</v>
+        <v>623</v>
       </c>
       <c r="B214" t="s">
-        <v>601</v>
+        <v>624</v>
       </c>
       <c r="C214" t="s">
-        <v>601</v>
+        <v>624</v>
       </c>
       <c r="D214">
         <v>1</v>
@@ -8413,13 +8686,13 @@
     </row>
     <row r="215" spans="1:8">
       <c r="A215" t="s">
-        <v>602</v>
+        <v>625</v>
       </c>
       <c r="B215" t="s">
-        <v>603</v>
+        <v>626</v>
       </c>
       <c r="C215" t="s">
-        <v>604</v>
+        <v>627</v>
       </c>
       <c r="D215">
         <v>0</v>
@@ -8431,18 +8704,21 @@
         <v>0.92688081149619617</v>
       </c>
       <c r="G215">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H215" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="216" spans="1:8">
       <c r="A216" t="s">
-        <v>605</v>
+        <v>629</v>
       </c>
       <c r="B216" t="s">
-        <v>606</v>
+        <v>630</v>
       </c>
       <c r="C216" t="s">
-        <v>606</v>
+        <v>630</v>
       </c>
       <c r="D216">
         <v>1</v>
@@ -8459,13 +8735,13 @@
     </row>
     <row r="217" spans="1:8">
       <c r="A217" t="s">
-        <v>607</v>
+        <v>631</v>
       </c>
       <c r="B217" t="s">
-        <v>608</v>
+        <v>632</v>
       </c>
       <c r="C217" t="s">
-        <v>609</v>
+        <v>633</v>
       </c>
       <c r="D217">
         <v>0</v>
@@ -8479,16 +8755,19 @@
       <c r="G217">
         <v>0</v>
       </c>
+      <c r="H217" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="218" spans="1:8">
       <c r="A218" t="s">
-        <v>610</v>
+        <v>634</v>
       </c>
       <c r="B218" t="s">
-        <v>611</v>
+        <v>635</v>
       </c>
       <c r="C218" t="s">
-        <v>611</v>
+        <v>635</v>
       </c>
       <c r="D218">
         <v>1</v>
@@ -8505,13 +8784,13 @@
     </row>
     <row r="219" spans="1:8">
       <c r="A219" t="s">
-        <v>612</v>
+        <v>636</v>
       </c>
       <c r="B219" t="s">
-        <v>613</v>
+        <v>637</v>
       </c>
       <c r="C219" t="s">
-        <v>613</v>
+        <v>637</v>
       </c>
       <c r="D219">
         <v>1</v>
@@ -8528,13 +8807,13 @@
     </row>
     <row r="220" spans="1:8">
       <c r="A220" t="s">
-        <v>614</v>
+        <v>638</v>
       </c>
       <c r="B220" t="s">
-        <v>615</v>
+        <v>639</v>
       </c>
       <c r="C220" t="s">
-        <v>615</v>
+        <v>639</v>
       </c>
       <c r="D220">
         <v>1</v>
@@ -8551,10 +8830,10 @@
     </row>
     <row r="221" spans="1:8">
       <c r="A221" t="s">
-        <v>616</v>
+        <v>640</v>
       </c>
       <c r="B221" t="s">
-        <v>617</v>
+        <v>641</v>
       </c>
       <c r="C221" t="s">
         <v>53</v>
@@ -8577,13 +8856,13 @@
     </row>
     <row r="222" spans="1:8">
       <c r="A222" t="s">
-        <v>618</v>
+        <v>642</v>
       </c>
       <c r="B222" t="s">
-        <v>619</v>
+        <v>643</v>
       </c>
       <c r="C222" t="s">
-        <v>620</v>
+        <v>644</v>
       </c>
       <c r="D222">
         <v>0</v>
@@ -8595,18 +8874,18 @@
         <v>0.98148148148148151</v>
       </c>
       <c r="G222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:8">
       <c r="A223" t="s">
-        <v>621</v>
+        <v>645</v>
       </c>
       <c r="B223" t="s">
-        <v>622</v>
+        <v>646</v>
       </c>
       <c r="C223" t="s">
-        <v>623</v>
+        <v>647</v>
       </c>
       <c r="D223">
         <v>0</v>
@@ -8618,18 +8897,18 @@
         <v>0.75000000000000011</v>
       </c>
       <c r="G223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:8">
       <c r="A224" t="s">
-        <v>624</v>
+        <v>648</v>
       </c>
       <c r="B224" t="s">
-        <v>625</v>
+        <v>649</v>
       </c>
       <c r="C224" t="s">
-        <v>626</v>
+        <v>650</v>
       </c>
       <c r="D224">
         <v>0</v>
@@ -8641,18 +8920,21 @@
         <v>0.74799494219653184</v>
       </c>
       <c r="G224">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H224" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="225" spans="1:8">
       <c r="A225" t="s">
-        <v>627</v>
+        <v>652</v>
       </c>
       <c r="B225" t="s">
-        <v>628</v>
+        <v>653</v>
       </c>
       <c r="C225" t="s">
-        <v>629</v>
+        <v>654</v>
       </c>
       <c r="D225">
         <v>0</v>
@@ -8666,16 +8948,19 @@
       <c r="G225">
         <v>0</v>
       </c>
+      <c r="H225" t="s">
+        <v>655</v>
+      </c>
     </row>
     <row r="226" spans="1:8">
       <c r="A226" t="s">
-        <v>630</v>
+        <v>656</v>
       </c>
       <c r="B226" t="s">
-        <v>631</v>
+        <v>657</v>
       </c>
       <c r="C226" t="s">
-        <v>632</v>
+        <v>658</v>
       </c>
       <c r="D226">
         <v>0</v>
@@ -8689,16 +8974,19 @@
       <c r="G226">
         <v>0</v>
       </c>
+      <c r="H226" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="227" spans="1:8">
       <c r="A227" t="s">
-        <v>633</v>
+        <v>660</v>
       </c>
       <c r="B227" t="s">
-        <v>634</v>
+        <v>661</v>
       </c>
       <c r="C227" t="s">
-        <v>635</v>
+        <v>662</v>
       </c>
       <c r="D227">
         <v>0</v>
@@ -8710,18 +8998,21 @@
         <v>0.67824669807608662</v>
       </c>
       <c r="G227">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H227" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="228" spans="1:8">
       <c r="A228" t="s">
-        <v>636</v>
+        <v>664</v>
       </c>
       <c r="B228" t="s">
-        <v>637</v>
+        <v>665</v>
       </c>
       <c r="C228" t="s">
-        <v>638</v>
+        <v>666</v>
       </c>
       <c r="D228">
         <v>0</v>
@@ -8735,13 +9026,16 @@
       <c r="G228">
         <v>0</v>
       </c>
+      <c r="H228" t="s">
+        <v>667</v>
+      </c>
     </row>
     <row r="229" spans="1:8">
       <c r="A229" t="s">
-        <v>639</v>
+        <v>668</v>
       </c>
       <c r="B229" t="s">
-        <v>640</v>
+        <v>669</v>
       </c>
       <c r="C229" t="s">
         <v>53</v>
@@ -8764,13 +9058,13 @@
     </row>
     <row r="230" spans="1:8">
       <c r="A230" t="s">
-        <v>641</v>
+        <v>670</v>
       </c>
       <c r="B230" t="s">
-        <v>642</v>
+        <v>671</v>
       </c>
       <c r="C230" t="s">
-        <v>643</v>
+        <v>672</v>
       </c>
       <c r="D230">
         <v>0</v>
@@ -8782,18 +9076,21 @@
         <v>0.62203487013952297</v>
       </c>
       <c r="G230">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H230" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="231" spans="1:8">
       <c r="A231" t="s">
-        <v>644</v>
+        <v>674</v>
       </c>
       <c r="B231" t="s">
-        <v>645</v>
+        <v>675</v>
       </c>
       <c r="C231" t="s">
-        <v>646</v>
+        <v>676</v>
       </c>
       <c r="D231">
         <v>0</v>
@@ -8807,16 +9104,19 @@
       <c r="G231">
         <v>0</v>
       </c>
+      <c r="H231" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="232" spans="1:8">
       <c r="A232" t="s">
-        <v>647</v>
+        <v>677</v>
       </c>
       <c r="B232" t="s">
-        <v>648</v>
+        <v>678</v>
       </c>
       <c r="C232" t="s">
-        <v>649</v>
+        <v>679</v>
       </c>
       <c r="D232">
         <v>0</v>
@@ -8830,16 +9130,19 @@
       <c r="G232">
         <v>0</v>
       </c>
+      <c r="H232" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="233" spans="1:8">
       <c r="A233" t="s">
-        <v>650</v>
+        <v>680</v>
       </c>
       <c r="B233" t="s">
-        <v>651</v>
+        <v>681</v>
       </c>
       <c r="C233" t="s">
-        <v>652</v>
+        <v>682</v>
       </c>
       <c r="D233">
         <v>0</v>
@@ -8853,16 +9156,19 @@
       <c r="G233">
         <v>0</v>
       </c>
+      <c r="H233" t="s">
+        <v>683</v>
+      </c>
     </row>
     <row r="234" spans="1:8">
       <c r="A234" t="s">
-        <v>653</v>
+        <v>684</v>
       </c>
       <c r="B234" t="s">
-        <v>654</v>
+        <v>685</v>
       </c>
       <c r="C234" t="s">
-        <v>655</v>
+        <v>686</v>
       </c>
       <c r="D234">
         <v>0</v>
@@ -8876,16 +9182,19 @@
       <c r="G234">
         <v>0</v>
       </c>
+      <c r="H234" t="s">
+        <v>687</v>
+      </c>
     </row>
     <row r="235" spans="1:8">
       <c r="A235" t="s">
-        <v>656</v>
+        <v>688</v>
       </c>
       <c r="B235" t="s">
-        <v>657</v>
+        <v>689</v>
       </c>
       <c r="C235" t="s">
-        <v>658</v>
+        <v>690</v>
       </c>
       <c r="D235">
         <v>0</v>
@@ -8899,16 +9208,19 @@
       <c r="G235">
         <v>0</v>
       </c>
+      <c r="H235" t="s">
+        <v>691</v>
+      </c>
     </row>
     <row r="236" spans="1:8">
       <c r="A236" t="s">
-        <v>659</v>
+        <v>692</v>
       </c>
       <c r="B236" t="s">
-        <v>660</v>
+        <v>693</v>
       </c>
       <c r="C236" t="s">
-        <v>661</v>
+        <v>694</v>
       </c>
       <c r="D236">
         <v>0</v>
@@ -8922,16 +9234,19 @@
       <c r="G236">
         <v>0</v>
       </c>
+      <c r="H236" t="s">
+        <v>695</v>
+      </c>
     </row>
     <row r="237" spans="1:8">
       <c r="A237" t="s">
-        <v>662</v>
+        <v>696</v>
       </c>
       <c r="B237" t="s">
-        <v>663</v>
+        <v>697</v>
       </c>
       <c r="C237" t="s">
-        <v>664</v>
+        <v>698</v>
       </c>
       <c r="D237">
         <v>0</v>
@@ -8945,16 +9260,19 @@
       <c r="G237">
         <v>0</v>
       </c>
+      <c r="H237" t="s">
+        <v>699</v>
+      </c>
     </row>
     <row r="238" spans="1:8">
       <c r="A238" t="s">
-        <v>665</v>
+        <v>700</v>
       </c>
       <c r="B238" t="s">
-        <v>666</v>
+        <v>701</v>
       </c>
       <c r="C238" t="s">
-        <v>667</v>
+        <v>702</v>
       </c>
       <c r="D238">
         <v>0</v>
@@ -8968,16 +9286,19 @@
       <c r="G238">
         <v>0</v>
       </c>
+      <c r="H238" t="s">
+        <v>703</v>
+      </c>
     </row>
     <row r="239" spans="1:8">
       <c r="A239" t="s">
-        <v>668</v>
+        <v>704</v>
       </c>
       <c r="B239" t="s">
-        <v>669</v>
+        <v>705</v>
       </c>
       <c r="C239" t="s">
-        <v>670</v>
+        <v>706</v>
       </c>
       <c r="D239">
         <v>0</v>
@@ -8991,16 +9312,19 @@
       <c r="G239">
         <v>0</v>
       </c>
+      <c r="H239" t="s">
+        <v>707</v>
+      </c>
     </row>
     <row r="240" spans="1:8">
       <c r="A240" t="s">
-        <v>671</v>
+        <v>708</v>
       </c>
       <c r="B240" t="s">
-        <v>672</v>
+        <v>709</v>
       </c>
       <c r="C240" t="s">
-        <v>673</v>
+        <v>710</v>
       </c>
       <c r="D240">
         <v>0</v>
@@ -9014,16 +9338,19 @@
       <c r="G240">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:7">
+      <c r="H240" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
       <c r="A241" t="s">
-        <v>674</v>
+        <v>712</v>
       </c>
       <c r="B241" t="s">
-        <v>675</v>
+        <v>713</v>
       </c>
       <c r="C241" t="s">
-        <v>676</v>
+        <v>714</v>
       </c>
       <c r="D241">
         <v>0</v>
@@ -9037,16 +9364,19 @@
       <c r="G241">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:7">
+      <c r="H241" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
       <c r="A242" t="s">
-        <v>677</v>
+        <v>716</v>
       </c>
       <c r="B242" t="s">
-        <v>678</v>
+        <v>717</v>
       </c>
       <c r="C242" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="D242">
         <v>0</v>
@@ -9060,16 +9390,19 @@
       <c r="G242">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:7">
+      <c r="H242" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
       <c r="A243" t="s">
-        <v>680</v>
+        <v>720</v>
       </c>
       <c r="B243" t="s">
-        <v>681</v>
+        <v>721</v>
       </c>
       <c r="C243" t="s">
-        <v>682</v>
+        <v>722</v>
       </c>
       <c r="D243">
         <v>0</v>
@@ -9081,18 +9414,21 @@
         <v>0.74341696106277533</v>
       </c>
       <c r="G243">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H243" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
       <c r="A244" t="s">
-        <v>683</v>
+        <v>724</v>
       </c>
       <c r="B244" t="s">
-        <v>684</v>
+        <v>725</v>
       </c>
       <c r="C244" t="s">
-        <v>685</v>
+        <v>726</v>
       </c>
       <c r="D244">
         <v>0</v>
@@ -9107,15 +9443,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:8">
       <c r="A245" t="s">
-        <v>686</v>
+        <v>727</v>
       </c>
       <c r="B245" t="s">
-        <v>687</v>
+        <v>728</v>
       </c>
       <c r="C245" t="s">
-        <v>688</v>
+        <v>729</v>
       </c>
       <c r="D245">
         <v>0</v>
@@ -9130,15 +9466,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:8">
       <c r="A246" t="s">
-        <v>689</v>
+        <v>730</v>
       </c>
       <c r="B246" t="s">
-        <v>690</v>
+        <v>731</v>
       </c>
       <c r="C246" t="s">
-        <v>691</v>
+        <v>732</v>
       </c>
       <c r="D246">
         <v>0</v>
@@ -9153,15 +9489,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:8">
       <c r="A247" t="s">
-        <v>692</v>
+        <v>733</v>
       </c>
       <c r="B247" t="s">
-        <v>693</v>
+        <v>734</v>
       </c>
       <c r="C247" t="s">
-        <v>694</v>
+        <v>735</v>
       </c>
       <c r="D247">
         <v>0</v>
@@ -9176,15 +9512,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:8">
       <c r="A248" t="s">
-        <v>695</v>
+        <v>736</v>
       </c>
       <c r="B248" t="s">
-        <v>696</v>
+        <v>737</v>
       </c>
       <c r="C248" t="s">
-        <v>697</v>
+        <v>738</v>
       </c>
       <c r="D248">
         <v>0</v>
@@ -9199,15 +9535,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:8">
       <c r="A249" t="s">
-        <v>698</v>
+        <v>739</v>
       </c>
       <c r="B249" t="s">
-        <v>699</v>
+        <v>740</v>
       </c>
       <c r="C249" t="s">
-        <v>700</v>
+        <v>741</v>
       </c>
       <c r="D249">
         <v>0</v>
@@ -9222,15 +9558,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:8">
       <c r="A250" t="s">
-        <v>701</v>
+        <v>742</v>
       </c>
       <c r="B250" t="s">
-        <v>702</v>
+        <v>743</v>
       </c>
       <c r="C250" t="s">
-        <v>703</v>
+        <v>744</v>
       </c>
       <c r="D250">
         <v>0</v>
@@ -9245,15 +9581,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:8">
       <c r="A251" t="s">
-        <v>704</v>
+        <v>745</v>
       </c>
       <c r="B251" t="s">
-        <v>705</v>
+        <v>746</v>
       </c>
       <c r="C251" t="s">
-        <v>706</v>
+        <v>747</v>
       </c>
       <c r="D251">
         <v>0</v>
@@ -9268,15 +9604,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" spans="1:8">
       <c r="A252" t="s">
-        <v>707</v>
+        <v>748</v>
       </c>
       <c r="B252" t="s">
-        <v>708</v>
+        <v>749</v>
       </c>
       <c r="C252" t="s">
-        <v>709</v>
+        <v>750</v>
       </c>
       <c r="D252">
         <v>0</v>
@@ -9291,15 +9627,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:8">
       <c r="A253" t="s">
-        <v>710</v>
+        <v>751</v>
       </c>
       <c r="B253" t="s">
-        <v>711</v>
+        <v>752</v>
       </c>
       <c r="C253" t="s">
-        <v>712</v>
+        <v>753</v>
       </c>
       <c r="D253">
         <v>0</v>
@@ -9314,15 +9650,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:8">
       <c r="A254" t="s">
-        <v>713</v>
+        <v>754</v>
       </c>
       <c r="B254" t="s">
-        <v>714</v>
+        <v>755</v>
       </c>
       <c r="C254" t="s">
-        <v>715</v>
+        <v>756</v>
       </c>
       <c r="D254">
         <v>0</v>
@@ -9337,15 +9673,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:8">
       <c r="A255" t="s">
-        <v>716</v>
+        <v>757</v>
       </c>
       <c r="B255" t="s">
-        <v>717</v>
+        <v>758</v>
       </c>
       <c r="C255" t="s">
-        <v>718</v>
+        <v>759</v>
       </c>
       <c r="D255">
         <v>0</v>
@@ -9360,15 +9696,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:8">
       <c r="A256" t="s">
-        <v>719</v>
+        <v>760</v>
       </c>
       <c r="B256" t="s">
-        <v>720</v>
+        <v>761</v>
       </c>
       <c r="C256" t="s">
-        <v>721</v>
+        <v>762</v>
       </c>
       <c r="D256">
         <v>0</v>
@@ -9385,13 +9721,13 @@
     </row>
     <row r="257" spans="1:7">
       <c r="A257" t="s">
-        <v>722</v>
+        <v>763</v>
       </c>
       <c r="B257" t="s">
-        <v>723</v>
+        <v>764</v>
       </c>
       <c r="C257" t="s">
-        <v>724</v>
+        <v>765</v>
       </c>
       <c r="D257">
         <v>0</v>
@@ -9408,13 +9744,13 @@
     </row>
     <row r="258" spans="1:7">
       <c r="A258" t="s">
-        <v>725</v>
+        <v>766</v>
       </c>
       <c r="B258" t="s">
-        <v>726</v>
+        <v>767</v>
       </c>
       <c r="C258" t="s">
-        <v>727</v>
+        <v>768</v>
       </c>
       <c r="D258">
         <v>0</v>
@@ -9431,13 +9767,13 @@
     </row>
     <row r="259" spans="1:7">
       <c r="A259" t="s">
-        <v>728</v>
+        <v>769</v>
       </c>
       <c r="B259" t="s">
-        <v>729</v>
+        <v>770</v>
       </c>
       <c r="C259" t="s">
-        <v>730</v>
+        <v>771</v>
       </c>
       <c r="D259">
         <v>0</v>
@@ -9454,13 +9790,13 @@
     </row>
     <row r="260" spans="1:7">
       <c r="A260" t="s">
-        <v>731</v>
+        <v>772</v>
       </c>
       <c r="B260" t="s">
-        <v>732</v>
+        <v>773</v>
       </c>
       <c r="C260" t="s">
-        <v>733</v>
+        <v>774</v>
       </c>
       <c r="D260">
         <v>0</v>
@@ -9477,13 +9813,13 @@
     </row>
     <row r="261" spans="1:7">
       <c r="A261" t="s">
-        <v>734</v>
+        <v>775</v>
       </c>
       <c r="B261" t="s">
-        <v>735</v>
+        <v>776</v>
       </c>
       <c r="C261" t="s">
-        <v>736</v>
+        <v>777</v>
       </c>
       <c r="D261">
         <v>0</v>
@@ -9500,13 +9836,13 @@
     </row>
     <row r="262" spans="1:7">
       <c r="A262" t="s">
-        <v>737</v>
+        <v>778</v>
       </c>
       <c r="B262" t="s">
-        <v>738</v>
+        <v>779</v>
       </c>
       <c r="C262" t="s">
-        <v>739</v>
+        <v>780</v>
       </c>
       <c r="D262">
         <v>0</v>
@@ -9523,13 +9859,13 @@
     </row>
     <row r="263" spans="1:7">
       <c r="A263" t="s">
-        <v>740</v>
+        <v>781</v>
       </c>
       <c r="B263" t="s">
-        <v>741</v>
+        <v>782</v>
       </c>
       <c r="C263" t="s">
-        <v>742</v>
+        <v>783</v>
       </c>
       <c r="D263">
         <v>0</v>
@@ -9546,13 +9882,13 @@
     </row>
     <row r="264" spans="1:7">
       <c r="A264" t="s">
-        <v>743</v>
+        <v>784</v>
       </c>
       <c r="B264" t="s">
-        <v>744</v>
+        <v>785</v>
       </c>
       <c r="C264" t="s">
-        <v>745</v>
+        <v>786</v>
       </c>
       <c r="D264">
         <v>0</v>
@@ -9569,13 +9905,13 @@
     </row>
     <row r="265" spans="1:7">
       <c r="A265" t="s">
-        <v>746</v>
+        <v>787</v>
       </c>
       <c r="B265" t="s">
-        <v>747</v>
+        <v>788</v>
       </c>
       <c r="C265" t="s">
-        <v>748</v>
+        <v>789</v>
       </c>
       <c r="D265">
         <v>0</v>
@@ -9592,13 +9928,13 @@
     </row>
     <row r="266" spans="1:7">
       <c r="A266" t="s">
-        <v>749</v>
+        <v>790</v>
       </c>
       <c r="B266" t="s">
-        <v>750</v>
+        <v>791</v>
       </c>
       <c r="C266" t="s">
-        <v>751</v>
+        <v>792</v>
       </c>
       <c r="D266">
         <v>0</v>
@@ -9615,13 +9951,13 @@
     </row>
     <row r="267" spans="1:7">
       <c r="A267" t="s">
-        <v>752</v>
+        <v>793</v>
       </c>
       <c r="B267" t="s">
-        <v>753</v>
+        <v>794</v>
       </c>
       <c r="C267" t="s">
-        <v>754</v>
+        <v>795</v>
       </c>
       <c r="D267">
         <v>0</v>
@@ -9638,13 +9974,13 @@
     </row>
     <row r="268" spans="1:7">
       <c r="A268" t="s">
-        <v>755</v>
+        <v>796</v>
       </c>
       <c r="B268" t="s">
-        <v>756</v>
+        <v>797</v>
       </c>
       <c r="C268" t="s">
-        <v>757</v>
+        <v>798</v>
       </c>
       <c r="D268">
         <v>0</v>
@@ -9661,13 +9997,13 @@
     </row>
     <row r="269" spans="1:7">
       <c r="A269" t="s">
-        <v>758</v>
+        <v>799</v>
       </c>
       <c r="B269" t="s">
-        <v>759</v>
+        <v>800</v>
       </c>
       <c r="C269" t="s">
-        <v>760</v>
+        <v>801</v>
       </c>
       <c r="D269">
         <v>0</v>
@@ -9684,13 +10020,13 @@
     </row>
     <row r="270" spans="1:7">
       <c r="A270" t="s">
-        <v>761</v>
+        <v>802</v>
       </c>
       <c r="B270" t="s">
-        <v>762</v>
+        <v>803</v>
       </c>
       <c r="C270" t="s">
-        <v>763</v>
+        <v>804</v>
       </c>
       <c r="D270">
         <v>0</v>
@@ -9707,13 +10043,13 @@
     </row>
     <row r="271" spans="1:7">
       <c r="A271" t="s">
-        <v>764</v>
+        <v>805</v>
       </c>
       <c r="B271" t="s">
-        <v>765</v>
+        <v>806</v>
       </c>
       <c r="C271" t="s">
-        <v>766</v>
+        <v>807</v>
       </c>
       <c r="D271">
         <v>0</v>
@@ -9730,13 +10066,13 @@
     </row>
     <row r="272" spans="1:7">
       <c r="A272" t="s">
-        <v>767</v>
+        <v>808</v>
       </c>
       <c r="B272" t="s">
-        <v>768</v>
+        <v>809</v>
       </c>
       <c r="C272" t="s">
-        <v>769</v>
+        <v>810</v>
       </c>
       <c r="D272">
         <v>0</v>
@@ -9753,13 +10089,13 @@
     </row>
     <row r="273" spans="1:8">
       <c r="A273" t="s">
-        <v>770</v>
+        <v>811</v>
       </c>
       <c r="B273" t="s">
-        <v>771</v>
+        <v>812</v>
       </c>
       <c r="C273" t="s">
-        <v>772</v>
+        <v>813</v>
       </c>
       <c r="D273">
         <v>0</v>
@@ -9776,13 +10112,13 @@
     </row>
     <row r="274" spans="1:8">
       <c r="A274" t="s">
-        <v>773</v>
+        <v>814</v>
       </c>
       <c r="B274" t="s">
-        <v>774</v>
+        <v>815</v>
       </c>
       <c r="C274" t="s">
-        <v>775</v>
+        <v>816</v>
       </c>
       <c r="D274">
         <v>0</v>
@@ -9799,13 +10135,13 @@
     </row>
     <row r="275" spans="1:8">
       <c r="A275" t="s">
-        <v>776</v>
+        <v>817</v>
       </c>
       <c r="B275" t="s">
-        <v>777</v>
+        <v>818</v>
       </c>
       <c r="C275" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="D275">
         <v>0</v>
@@ -9822,13 +10158,13 @@
     </row>
     <row r="276" spans="1:8">
       <c r="A276" t="s">
-        <v>779</v>
+        <v>820</v>
       </c>
       <c r="B276" t="s">
-        <v>780</v>
+        <v>821</v>
       </c>
       <c r="C276" t="s">
-        <v>781</v>
+        <v>822</v>
       </c>
       <c r="D276">
         <v>0</v>
@@ -9845,13 +10181,13 @@
     </row>
     <row r="277" spans="1:8">
       <c r="A277" t="s">
-        <v>782</v>
+        <v>823</v>
       </c>
       <c r="B277" t="s">
-        <v>783</v>
+        <v>824</v>
       </c>
       <c r="C277" t="s">
-        <v>784</v>
+        <v>825</v>
       </c>
       <c r="D277">
         <v>0</v>
@@ -9868,13 +10204,13 @@
     </row>
     <row r="278" spans="1:8">
       <c r="A278" t="s">
-        <v>785</v>
+        <v>826</v>
       </c>
       <c r="B278" t="s">
-        <v>786</v>
+        <v>827</v>
       </c>
       <c r="C278" t="s">
-        <v>787</v>
+        <v>828</v>
       </c>
       <c r="D278">
         <v>0</v>
@@ -9891,10 +10227,10 @@
     </row>
     <row r="279" spans="1:8">
       <c r="A279" t="s">
-        <v>788</v>
+        <v>829</v>
       </c>
       <c r="B279" t="s">
-        <v>789</v>
+        <v>830</v>
       </c>
       <c r="C279" t="s">
         <v>53</v>
@@ -9917,13 +10253,13 @@
     </row>
     <row r="280" spans="1:8">
       <c r="A280" t="s">
-        <v>790</v>
+        <v>831</v>
       </c>
       <c r="B280" t="s">
-        <v>791</v>
+        <v>832</v>
       </c>
       <c r="C280" t="s">
-        <v>792</v>
+        <v>833</v>
       </c>
       <c r="D280">
         <v>0</v>
@@ -9940,13 +10276,13 @@
     </row>
     <row r="281" spans="1:8">
       <c r="A281" t="s">
-        <v>793</v>
+        <v>834</v>
       </c>
       <c r="B281" t="s">
-        <v>794</v>
+        <v>835</v>
       </c>
       <c r="C281" t="s">
-        <v>795</v>
+        <v>836</v>
       </c>
       <c r="D281">
         <v>0</v>
@@ -9963,13 +10299,13 @@
     </row>
     <row r="282" spans="1:8">
       <c r="A282" t="s">
-        <v>796</v>
+        <v>837</v>
       </c>
       <c r="B282" t="s">
-        <v>797</v>
+        <v>838</v>
       </c>
       <c r="C282" t="s">
-        <v>798</v>
+        <v>839</v>
       </c>
       <c r="D282">
         <v>0</v>
@@ -9986,13 +10322,13 @@
     </row>
     <row r="283" spans="1:8">
       <c r="A283" t="s">
-        <v>799</v>
+        <v>840</v>
       </c>
       <c r="B283" t="s">
-        <v>800</v>
+        <v>841</v>
       </c>
       <c r="C283" t="s">
-        <v>801</v>
+        <v>842</v>
       </c>
       <c r="D283">
         <v>0</v>
@@ -10009,13 +10345,13 @@
     </row>
     <row r="284" spans="1:8">
       <c r="A284" t="s">
-        <v>802</v>
+        <v>843</v>
       </c>
       <c r="B284" t="s">
-        <v>803</v>
+        <v>844</v>
       </c>
       <c r="C284" t="s">
-        <v>804</v>
+        <v>845</v>
       </c>
       <c r="D284">
         <v>0</v>
@@ -10032,13 +10368,13 @@
     </row>
     <row r="285" spans="1:8">
       <c r="A285" t="s">
-        <v>805</v>
+        <v>846</v>
       </c>
       <c r="B285" t="s">
-        <v>806</v>
+        <v>847</v>
       </c>
       <c r="C285" t="s">
-        <v>807</v>
+        <v>848</v>
       </c>
       <c r="D285">
         <v>0</v>
@@ -10055,13 +10391,13 @@
     </row>
     <row r="286" spans="1:8">
       <c r="A286" t="s">
-        <v>808</v>
+        <v>849</v>
       </c>
       <c r="B286" t="s">
-        <v>809</v>
+        <v>850</v>
       </c>
       <c r="C286" t="s">
-        <v>810</v>
+        <v>851</v>
       </c>
       <c r="D286">
         <v>0</v>
@@ -10078,13 +10414,13 @@
     </row>
     <row r="287" spans="1:8">
       <c r="A287" t="s">
-        <v>811</v>
+        <v>852</v>
       </c>
       <c r="B287" t="s">
-        <v>812</v>
+        <v>853</v>
       </c>
       <c r="C287" t="s">
-        <v>813</v>
+        <v>854</v>
       </c>
       <c r="D287">
         <v>0</v>
@@ -10101,13 +10437,13 @@
     </row>
     <row r="288" spans="1:8">
       <c r="A288" t="s">
-        <v>814</v>
+        <v>855</v>
       </c>
       <c r="B288" t="s">
-        <v>815</v>
+        <v>856</v>
       </c>
       <c r="C288" t="s">
-        <v>816</v>
+        <v>857</v>
       </c>
       <c r="D288">
         <v>0</v>
@@ -10124,10 +10460,10 @@
     </row>
     <row r="289" spans="1:8">
       <c r="A289" t="s">
-        <v>817</v>
+        <v>858</v>
       </c>
       <c r="B289" t="s">
-        <v>818</v>
+        <v>859</v>
       </c>
       <c r="C289" t="s">
         <v>53</v>
@@ -10150,13 +10486,13 @@
     </row>
     <row r="290" spans="1:8">
       <c r="A290" t="s">
-        <v>819</v>
+        <v>860</v>
       </c>
       <c r="B290" t="s">
-        <v>820</v>
+        <v>861</v>
       </c>
       <c r="C290" t="s">
-        <v>821</v>
+        <v>862</v>
       </c>
       <c r="D290">
         <v>0</v>
@@ -10173,13 +10509,13 @@
     </row>
     <row r="291" spans="1:8">
       <c r="A291" t="s">
-        <v>822</v>
+        <v>863</v>
       </c>
       <c r="B291" t="s">
-        <v>823</v>
+        <v>864</v>
       </c>
       <c r="C291" t="s">
-        <v>824</v>
+        <v>865</v>
       </c>
       <c r="D291">
         <v>0</v>
@@ -10196,13 +10532,13 @@
     </row>
     <row r="292" spans="1:8">
       <c r="A292" t="s">
-        <v>825</v>
+        <v>866</v>
       </c>
       <c r="B292" t="s">
-        <v>826</v>
+        <v>867</v>
       </c>
       <c r="C292" t="s">
-        <v>827</v>
+        <v>868</v>
       </c>
       <c r="D292">
         <v>0</v>
@@ -10219,13 +10555,13 @@
     </row>
     <row r="293" spans="1:8">
       <c r="A293" t="s">
-        <v>828</v>
+        <v>869</v>
       </c>
       <c r="B293" t="s">
-        <v>829</v>
+        <v>870</v>
       </c>
       <c r="C293" t="s">
-        <v>829</v>
+        <v>870</v>
       </c>
       <c r="D293">
         <v>1</v>
@@ -10242,13 +10578,13 @@
     </row>
     <row r="294" spans="1:8">
       <c r="A294" t="s">
-        <v>830</v>
+        <v>871</v>
       </c>
       <c r="B294" t="s">
-        <v>831</v>
+        <v>872</v>
       </c>
       <c r="C294" t="s">
-        <v>832</v>
+        <v>873</v>
       </c>
       <c r="D294">
         <v>0</v>
@@ -10265,13 +10601,13 @@
     </row>
     <row r="295" spans="1:8">
       <c r="A295" t="s">
-        <v>833</v>
+        <v>874</v>
       </c>
       <c r="B295" t="s">
-        <v>834</v>
+        <v>875</v>
       </c>
       <c r="C295" t="s">
-        <v>835</v>
+        <v>876</v>
       </c>
       <c r="D295">
         <v>0</v>
@@ -10288,13 +10624,13 @@
     </row>
     <row r="296" spans="1:8">
       <c r="A296" t="s">
-        <v>836</v>
+        <v>877</v>
       </c>
       <c r="B296" t="s">
-        <v>837</v>
+        <v>878</v>
       </c>
       <c r="C296" t="s">
-        <v>838</v>
+        <v>879</v>
       </c>
       <c r="D296">
         <v>0</v>
@@ -10311,10 +10647,10 @@
     </row>
     <row r="297" spans="1:8">
       <c r="A297" t="s">
-        <v>839</v>
+        <v>880</v>
       </c>
       <c r="B297" t="s">
-        <v>840</v>
+        <v>881</v>
       </c>
       <c r="C297" t="s">
         <v>53</v>
@@ -10337,13 +10673,13 @@
     </row>
     <row r="298" spans="1:8">
       <c r="A298" t="s">
-        <v>841</v>
+        <v>882</v>
       </c>
       <c r="B298" t="s">
-        <v>842</v>
+        <v>883</v>
       </c>
       <c r="C298" t="s">
-        <v>843</v>
+        <v>884</v>
       </c>
       <c r="D298">
         <v>0</v>
@@ -10360,10 +10696,10 @@
     </row>
     <row r="299" spans="1:8">
       <c r="A299" t="s">
-        <v>844</v>
+        <v>885</v>
       </c>
       <c r="B299" t="s">
-        <v>845</v>
+        <v>886</v>
       </c>
       <c r="C299" t="s">
         <v>53</v>
@@ -10386,13 +10722,13 @@
     </row>
     <row r="300" spans="1:8">
       <c r="A300" t="s">
-        <v>846</v>
+        <v>887</v>
       </c>
       <c r="B300" t="s">
-        <v>847</v>
+        <v>888</v>
       </c>
       <c r="C300" t="s">
-        <v>848</v>
+        <v>889</v>
       </c>
       <c r="D300">
         <v>0</v>
@@ -10409,13 +10745,13 @@
     </row>
     <row r="301" spans="1:8">
       <c r="A301" t="s">
-        <v>849</v>
+        <v>890</v>
       </c>
       <c r="B301" t="s">
-        <v>850</v>
+        <v>891</v>
       </c>
       <c r="C301" t="s">
-        <v>851</v>
+        <v>892</v>
       </c>
       <c r="D301">
         <v>0</v>
@@ -10432,10 +10768,10 @@
     </row>
     <row r="302" spans="1:8">
       <c r="A302" t="s">
-        <v>852</v>
+        <v>893</v>
       </c>
       <c r="B302" t="s">
-        <v>853</v>
+        <v>894</v>
       </c>
       <c r="C302" t="s">
         <v>53</v>
@@ -10458,13 +10794,13 @@
     </row>
     <row r="303" spans="1:8">
       <c r="A303" t="s">
-        <v>854</v>
+        <v>895</v>
       </c>
       <c r="B303" t="s">
-        <v>855</v>
+        <v>896</v>
       </c>
       <c r="C303" t="s">
-        <v>856</v>
+        <v>897</v>
       </c>
       <c r="D303">
         <v>0</v>
@@ -10481,13 +10817,13 @@
     </row>
     <row r="304" spans="1:8">
       <c r="A304" t="s">
-        <v>857</v>
+        <v>898</v>
       </c>
       <c r="B304" t="s">
-        <v>858</v>
+        <v>899</v>
       </c>
       <c r="C304" t="s">
-        <v>859</v>
+        <v>900</v>
       </c>
       <c r="D304">
         <v>0</v>
@@ -10504,13 +10840,13 @@
     </row>
     <row r="305" spans="1:8">
       <c r="A305" t="s">
-        <v>860</v>
+        <v>901</v>
       </c>
       <c r="B305" t="s">
-        <v>861</v>
+        <v>902</v>
       </c>
       <c r="C305" t="s">
-        <v>862</v>
+        <v>903</v>
       </c>
       <c r="D305">
         <v>0</v>
@@ -10527,13 +10863,13 @@
     </row>
     <row r="306" spans="1:8">
       <c r="A306" t="s">
-        <v>863</v>
+        <v>904</v>
       </c>
       <c r="B306" t="s">
-        <v>864</v>
+        <v>905</v>
       </c>
       <c r="C306" t="s">
-        <v>865</v>
+        <v>906</v>
       </c>
       <c r="D306">
         <v>0</v>
@@ -10550,13 +10886,13 @@
     </row>
     <row r="307" spans="1:8">
       <c r="A307" t="s">
-        <v>866</v>
+        <v>907</v>
       </c>
       <c r="B307" t="s">
-        <v>867</v>
+        <v>908</v>
       </c>
       <c r="C307" t="s">
-        <v>868</v>
+        <v>909</v>
       </c>
       <c r="D307">
         <v>0</v>
@@ -10573,13 +10909,13 @@
     </row>
     <row r="308" spans="1:8">
       <c r="A308" t="s">
-        <v>869</v>
+        <v>910</v>
       </c>
       <c r="B308" t="s">
-        <v>870</v>
+        <v>911</v>
       </c>
       <c r="C308" t="s">
-        <v>871</v>
+        <v>912</v>
       </c>
       <c r="D308">
         <v>0</v>
@@ -10596,13 +10932,13 @@
     </row>
     <row r="309" spans="1:8">
       <c r="A309" t="s">
-        <v>872</v>
+        <v>913</v>
       </c>
       <c r="B309" t="s">
-        <v>873</v>
+        <v>914</v>
       </c>
       <c r="C309" t="s">
-        <v>874</v>
+        <v>915</v>
       </c>
       <c r="D309">
         <v>0</v>
@@ -10619,10 +10955,10 @@
     </row>
     <row r="310" spans="1:8">
       <c r="A310" t="s">
-        <v>875</v>
+        <v>916</v>
       </c>
       <c r="B310" t="s">
-        <v>876</v>
+        <v>917</v>
       </c>
       <c r="C310" t="s">
         <v>53</v>
@@ -10645,13 +10981,13 @@
     </row>
     <row r="311" spans="1:8">
       <c r="A311" t="s">
-        <v>877</v>
+        <v>918</v>
       </c>
       <c r="B311" t="s">
-        <v>878</v>
+        <v>919</v>
       </c>
       <c r="C311" t="s">
-        <v>879</v>
+        <v>920</v>
       </c>
       <c r="D311">
         <v>0</v>
@@ -10668,13 +11004,13 @@
     </row>
     <row r="312" spans="1:8">
       <c r="A312" t="s">
-        <v>880</v>
+        <v>921</v>
       </c>
       <c r="B312" t="s">
-        <v>881</v>
+        <v>922</v>
       </c>
       <c r="C312" t="s">
-        <v>882</v>
+        <v>923</v>
       </c>
       <c r="D312">
         <v>0</v>
@@ -10691,13 +11027,13 @@
     </row>
     <row r="313" spans="1:8">
       <c r="A313" t="s">
-        <v>883</v>
+        <v>924</v>
       </c>
       <c r="B313" t="s">
-        <v>884</v>
+        <v>925</v>
       </c>
       <c r="C313" t="s">
-        <v>885</v>
+        <v>926</v>
       </c>
       <c r="D313">
         <v>0</v>
@@ -10714,13 +11050,13 @@
     </row>
     <row r="314" spans="1:8">
       <c r="A314" t="s">
-        <v>886</v>
+        <v>927</v>
       </c>
       <c r="B314" t="s">
-        <v>887</v>
+        <v>928</v>
       </c>
       <c r="C314" t="s">
-        <v>888</v>
+        <v>929</v>
       </c>
       <c r="D314">
         <v>0</v>
@@ -10737,13 +11073,13 @@
     </row>
     <row r="315" spans="1:8">
       <c r="A315" t="s">
-        <v>889</v>
+        <v>930</v>
       </c>
       <c r="B315" t="s">
-        <v>890</v>
+        <v>931</v>
       </c>
       <c r="C315" t="s">
-        <v>891</v>
+        <v>932</v>
       </c>
       <c r="D315">
         <v>0</v>
@@ -10760,13 +11096,13 @@
     </row>
     <row r="316" spans="1:8">
       <c r="A316" t="s">
-        <v>892</v>
+        <v>933</v>
       </c>
       <c r="B316" t="s">
-        <v>893</v>
+        <v>934</v>
       </c>
       <c r="C316" t="s">
-        <v>894</v>
+        <v>935</v>
       </c>
       <c r="D316">
         <v>0</v>
@@ -10783,13 +11119,13 @@
     </row>
     <row r="317" spans="1:8">
       <c r="A317" t="s">
-        <v>895</v>
+        <v>936</v>
       </c>
       <c r="B317" t="s">
-        <v>896</v>
+        <v>937</v>
       </c>
       <c r="C317" t="s">
-        <v>897</v>
+        <v>938</v>
       </c>
       <c r="D317">
         <v>0</v>
@@ -10806,13 +11142,13 @@
     </row>
     <row r="318" spans="1:8">
       <c r="A318" t="s">
-        <v>898</v>
+        <v>939</v>
       </c>
       <c r="B318" t="s">
-        <v>899</v>
+        <v>940</v>
       </c>
       <c r="C318" t="s">
-        <v>900</v>
+        <v>941</v>
       </c>
       <c r="D318">
         <v>0</v>
@@ -10829,13 +11165,13 @@
     </row>
     <row r="319" spans="1:8">
       <c r="A319" t="s">
-        <v>901</v>
+        <v>942</v>
       </c>
       <c r="B319" t="s">
-        <v>902</v>
+        <v>943</v>
       </c>
       <c r="C319" t="s">
-        <v>903</v>
+        <v>944</v>
       </c>
       <c r="D319">
         <v>0</v>
@@ -10852,13 +11188,13 @@
     </row>
     <row r="320" spans="1:8">
       <c r="A320" t="s">
-        <v>904</v>
+        <v>945</v>
       </c>
       <c r="B320" t="s">
-        <v>905</v>
+        <v>946</v>
       </c>
       <c r="C320" t="s">
-        <v>906</v>
+        <v>947</v>
       </c>
       <c r="D320">
         <v>0</v>
@@ -10873,15 +11209,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:7">
+    <row r="321" spans="1:8">
       <c r="A321" t="s">
-        <v>907</v>
+        <v>948</v>
       </c>
       <c r="B321" t="s">
-        <v>908</v>
+        <v>949</v>
       </c>
       <c r="C321" t="s">
-        <v>909</v>
+        <v>950</v>
       </c>
       <c r="D321">
         <v>0</v>
@@ -10896,15 +11232,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:7">
+    <row r="322" spans="1:8">
       <c r="A322" t="s">
-        <v>910</v>
+        <v>951</v>
       </c>
       <c r="B322" t="s">
-        <v>911</v>
+        <v>952</v>
       </c>
       <c r="C322" t="s">
-        <v>912</v>
+        <v>953</v>
       </c>
       <c r="D322">
         <v>0</v>
@@ -10919,15 +11255,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:7">
+    <row r="323" spans="1:8">
       <c r="A323" t="s">
-        <v>913</v>
+        <v>954</v>
       </c>
       <c r="B323" t="s">
-        <v>914</v>
+        <v>955</v>
       </c>
       <c r="C323" t="s">
-        <v>915</v>
+        <v>956</v>
       </c>
       <c r="D323">
         <v>0</v>
@@ -10942,15 +11278,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:7">
+    <row r="324" spans="1:8">
       <c r="A324" t="s">
-        <v>916</v>
+        <v>957</v>
       </c>
       <c r="B324" t="s">
-        <v>917</v>
+        <v>958</v>
       </c>
       <c r="C324" t="s">
-        <v>918</v>
+        <v>959</v>
       </c>
       <c r="D324">
         <v>0</v>
@@ -10965,15 +11301,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:7">
+    <row r="325" spans="1:8">
       <c r="A325" t="s">
-        <v>919</v>
+        <v>960</v>
       </c>
       <c r="B325" t="s">
-        <v>920</v>
+        <v>961</v>
       </c>
       <c r="C325" t="s">
-        <v>921</v>
+        <v>962</v>
       </c>
       <c r="D325">
         <v>0</v>
@@ -10987,16 +11323,19 @@
       <c r="G325">
         <v>0</v>
       </c>
-    </row>
-    <row r="326" spans="1:7">
+      <c r="H325" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8">
       <c r="A326" t="s">
-        <v>922</v>
+        <v>964</v>
       </c>
       <c r="B326" t="s">
-        <v>923</v>
+        <v>965</v>
       </c>
       <c r="C326" t="s">
-        <v>923</v>
+        <v>965</v>
       </c>
       <c r="D326">
         <v>1</v>
@@ -11011,15 +11350,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:7">
+    <row r="327" spans="1:8">
       <c r="A327" t="s">
-        <v>924</v>
+        <v>966</v>
       </c>
       <c r="B327" t="s">
-        <v>925</v>
+        <v>967</v>
       </c>
       <c r="C327" t="s">
-        <v>926</v>
+        <v>968</v>
       </c>
       <c r="D327">
         <v>0</v>
@@ -11032,6 +11371,9 @@
       </c>
       <c r="G327">
         <v>0</v>
+      </c>
+      <c r="H327" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/HE/W_in_progress/AnalisiCodeGPT.xlsx
+++ b/HE/W_in_progress/AnalisiCodeGPT.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28224"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95340D39-3610-42DF-A9C8-691BBBF39B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{593FB464-7EC6-4870-B613-74B3C57B8767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="969">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="985">
   <si>
     <t>IN</t>
   </si>
@@ -2214,6 +2214,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; entity PulseGenerator is Generic ( N : natural := 8 ); Port ( Clk : in STD_LOGIC; Reset : in STD_LOGIC; Pulse_Width : in STD_LOGIC_VECTOR (N-1 downto 0); Pulse_Out : out STD_LOGIC_VECTOR (N-1 downto 0)); end PulseGenerator; architecture Behavioral of PulseGenerator is signal pulse_out : STD_LOGIC_VECTOR (N-1 downto 0); begin process (Clk, Reset) begin if Reset = '1' then pulse_out &lt;= (others =&gt; '0'); elsif rising_edge(Clk) then if Pulse_Width = '1' then pulse_out &lt;= Pulse_Out(N-1 downto 0); else pulse_out &lt;= Pulse_Out(N-2 downto 0); end if ; end if ; end process ; end Behavioral;</t>
   </si>
   <si>
+    <t>Non è un generatore di impulsi</t>
+  </si>
+  <si>
     <t>Define a magnitude comparator of K-bit with the signals A (K-bit) and B (K-bit) as input and the signals A_GT_B, A_EQ_B, and A_LT_B as output.</t>
   </si>
   <si>
@@ -2223,6 +2226,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; entity magnitude_comparator is Port ( A : in STD_LOGIC; B : in STD_LOGIC; A_GT_B : out STD_LOGIC; A_EQ_B : out STD_LOGIC; A_LT_B : out STD_LOGIC; A_LT_B : out STD_LOGIC); end magnitude_comparator; architecture Behavioral of magnitude_comparator is begin process (A, B) variable temp : STD_LOGIC := '0'; begin temp := A; if (A_GT_B = '1') then temp := A_GT_B; if (A_EQ_B = '1') then temp := A_EQ_B; if (A_LT_B = '1') then temp := A_LT_B; if (A_LT_B = '1') then temp := A_LT_B; end if ; end if ; end process ; end Behavioral;</t>
   </si>
   <si>
+    <t>Non è un comparatore di magnitude</t>
+  </si>
+  <si>
     <t>Define a pseudo-random number generator of N-bit with the signals clock and seed_value (N-bit) as input and the signal random_number (N-bit) as output.</t>
   </si>
   <si>
@@ -2232,6 +2238,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; entity pseudo_random_generator is Generic (N : natural := 8); Port ( Clock : in STD_LOGIC; Seed_Value : in STD_LOGIC_VECTOR (N-1 downto 0); Random_Number : out STD_LOGIC_VECTOR (N-1 downto 0)); end pseudo_random_generator; architecture Behavioral of pseudo_random_generator is begin process (Clock, Seed_Value) variable temp : STD_LOGIC_VECTOR (N-1 downto 0); begin if (rising_edge(Clock)) then temp := Seed_Value; if (temp = '1') then temp := '0'; end if ; end if ; end process ; Random_Number &lt;= temp; end Behavioral;</t>
   </si>
   <si>
+    <t>Non genera numeri pseudo casuali</t>
+  </si>
+  <si>
     <t>Create a configurable clock divider</t>
   </si>
   <si>
@@ -2241,6 +2250,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; entity clock_divider is Port ( Clock : in STD_LOGIC; Divisore : in STD_LOGIC; Divisore_cu : in STD_LOGIC; Divisore_cu : in STD_LOGIC; Clock_Out : out STD_LOGIC; Divisore_Out : out STD_LOGIC); end clock_divider; architecture Behavioral of clock_divider is signal clock_out_temp : STD_LOGIC := '0'; begin process (Clock, Divisore, Divisore_cu) begin if (Clock = '1') then clock_out &lt;= '1'; elsif (Divisore = '1') then divisore_cu &lt;= '0'; divisore_cu &lt;= '0'; end if ; end process ; end Behavioral;</t>
   </si>
   <si>
+    <t>Non un divisore di frequenza</t>
+  </si>
+  <si>
     <t>Write an astable multivibrator with the signals clk and reset as input and the signal oscillating_out as output.</t>
   </si>
   <si>
@@ -2250,6 +2262,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; entity Multivibrator is Generic (clk : in STD_LOGIC; reset : in STD_LOGIC; oscillating_out : out STD_LOGIC); end Multivibrator; architecture Behavioral of Multivibrator is signal clk_temp : STD_LOGIC := '0'; signal oscillating_out_temp : STD_LOGIC := '0'; begin process (clk, reset) begin if reset = '1' then clk_temp &lt;= '0'; elsif rising_edge(clk) then if reset = '0' then oscillating_out_temp &lt;= '0'; elsif oscillating_out_temp = '1' then oscillating_out_temp &lt;= '0'; end if ; end if ; end process ; end Behavioral;</t>
   </si>
   <si>
+    <t>Non è un oscillatore (multivibratore)</t>
+  </si>
+  <si>
     <t>Define a rotating priority encoder with the signal request (N-bit) as input and the signals grant (log2N-bit), valid, and rotation_bit as output.</t>
   </si>
   <si>
@@ -2259,6 +2274,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; entity PriorityEncoder is Generic (N : natural := 8); Port ( Request : in STD_LOGIC_VECTOR (N-1 downto 0); Grant : in STD_LOGIC_VECTOR (log2(N)-1 downto 0); Valid : out STD_LOGIC_VECTOR (log2(N)-1 downto 0)); end PriorityEncoder; architecture Behavioral of PriorityEncoder is begin process (Request) variable temp : unsigned(N-1 downto 0); begin if Request = '1' then temp := unsigned(N); grant &lt;= '0'; valid &lt;= '1'; rotation_bit &lt;= '1'; end if ; end process ; end Behavioral;</t>
   </si>
   <si>
+    <t>Varie incoerenze, non è un priority encoder</t>
+  </si>
+  <si>
     <t>Generate a floating-point adder of N-bit with the signals A (N-bit) and B (N-bit) as input and the signal sum (N-bit) as output.</t>
   </si>
   <si>
@@ -2268,6 +2286,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; entity FloatingPointAdder is Generic ( N : natural := 8 ); Port ( A : in STD_LOGIC_VECTOR (N-1 downto 0); B : in STD_LOGIC_VECTOR (N-1 downto 0); Sum : out STD_LOGIC_VECTOR (N-1 downto 0)); end FloatingPointAdder; architecture Behavioral of FloatingPointAdder is begin Sum &lt;= A * B; end Behavioral;</t>
   </si>
   <si>
+    <t>Non effettua la somma tra numeri in virgola mobile</t>
+  </si>
+  <si>
     <t>Design a 4-bit digital comparator</t>
   </si>
   <si>
@@ -2286,6 +2307,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; entity 2-to-1_Multiplexer is Port ( Data0 : in STD_LOGIC; Data1 : in STD_LOGIC; Select : in STD_LOGIC; Data_Out : out STD_LOGIC); end 2-to-1_Multiplexer; architecture Behavioral of 2-to-1_Multiplexer is begin Data_Out &lt;= Data0 when Select = '1' else '0'; end Behavioral;</t>
   </si>
   <si>
+    <t>non un vero multiplexer</t>
+  </si>
+  <si>
     <t>Implement an SPI master using a process.</t>
   </si>
   <si>
@@ -2295,6 +2319,9 @@
     <t>process(clk_period, reset_period, reset_value) begin if rising_edge(clk_period) then if reset_period = '1' then clock &lt;= '0'; reset &lt;= '1'; elsif reset_period = '0' then clock &lt;= '0'; reset &lt;= '0'; end if; end if; end process;</t>
   </si>
   <si>
+    <t>Non è un master SPI</t>
+  </si>
+  <si>
     <t>Detect falling edge of a signal using a process.</t>
   </si>
   <si>
@@ -2313,6 +2340,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; entity UniversalShiftRegister is Generic ( P : natural := 8 ); Port ( Clock : in STD_LOGIC; ShiftEnable : in STD_LOGIC; ShiftDirection : in STD_LOGIC; SerialIn : in STD_LOGIC; ParallelOut : out STD_LOGIC; SerialOut : out STD_LOGIC); end UniversalShiftRegister; architecture Behavioral of UniversalShiftRegister is signal shift_reg : std_logic_vector(P-1 downto 0); begin process (Clock, ShiftEnable, ShiftDirection) begin if ShiftEnable = '1' then shift_reg &lt;= (others =&gt; '0'); elsif ShiftDirection = '1' then shift_reg &lt;= (others =&gt; '0'); elsif ShiftDirection = '0' then shift_reg &lt;= (others =&gt; '0'); end if ; end process ; parallel_out &lt;= shift_reg(P-1 downto 0); serial_out &lt;= shift_reg(P-2 downto 0); end Behavioral;</t>
   </si>
   <si>
+    <t>Non vi è alcuna logica di shift</t>
+  </si>
+  <si>
     <t>Implement a basic priority encoder</t>
   </si>
   <si>
@@ -2331,6 +2361,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; entity ring_counter is Generic (N : natural := 8); Port ( Clock : in STD_LOGIC; Reset : in STD_LOGIC; Ring_Count : out STD_LOGIC_VECTOR (N-1 downto 0)); end ring_counter; architecture Behavioral of ring_counter is signal ring_count : std_logic_vector(N-1 downto 0); begin process (Clock, Reset) begin if Reset = '1' then ring_count &lt;= (others =&gt; '0'); elsif rising_edge(Clock) then ring_count &lt;= ring_count + 1; end if ; end process ; end Behavioral;</t>
   </si>
   <si>
+    <t>Non si comporta in maniera circolare</t>
+  </si>
+  <si>
     <t>Implement a binary to BCD converter</t>
   </si>
   <si>
@@ -2340,6 +2373,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; entity BCDConverter is Generic (log2B-1 downto 0) Port ( A : in STD_LOGIC_VECTOR (log2B-1 downto 0); B : in STD_LOGIC_VECTOR (log2B-1 downto 0); BCD : out STD_LOGIC_VECTOR (log2B-1 downto 0)); end BCDConverter; architecture Behavioral of BCDConverter is begin process (A, B) variable temp : STD_LOGIC_VECTOR (log2B-1 downto 0); begin temp := A; BCD(log2B-1 downto 0) := temp; BCD(log2B-1 downto 0) := temp; end process ; end Behavioral;</t>
   </si>
   <si>
+    <t>Non fa la conversione</t>
+  </si>
+  <si>
     <t>Create a pulse generator that outputs a single pulse every N clock cycles</t>
   </si>
   <si>
@@ -2349,6 +2385,9 @@
     <t>component pulse_generator is port ( clock_frequency_in : in STD_LOGIC_VECTOR (0 to 100); pulse_frequency_out : in STD_LOGIC_VECTOR (0 to 100); pulse_frequency_out &lt;= clock_frequency_in + 1; pulse_frequency_out &lt;= pulse_frequency_out - 1 ); end component;</t>
   </si>
   <si>
+    <t>Non è quello che ho chiesto</t>
+  </si>
+  <si>
     <t>Define a binary to BCD converter of (N/3)+1-digit with the signal binary_value (N-bit) as input and the signal BCD_value ((N/3)+1-digit) as output.</t>
   </si>
   <si>
@@ -2367,6 +2406,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; entity Dual_Port_RAM is Generic ( K : natural := 8; L : natural := 16 ); Port ( Clock : in STD_LOGIC; Write_Enable : in STD_LOGIC; Read_Enable : in STD_LOGIC; Write_Address : in STD_LOGIC_VECTOR (log2K-1 downto 0); Read_Address : in STD_LOGIC_VECTOR (log2K-1 downto 0); Data_In : in STD_LOGIC_VECTOR (L-1 downto 0); Data_Out : out STD_LOGIC_VECTOR (L-1 downto 0)); end Dual_Port_RAM; architecture Behavioral of Dual_Port_RAM is signal Data_In, Data_Out_L, Data_In_L, Data_Out_L_L, Data_Out_L_L_in : STD_LOGIC_VECTOR (L-1 downto 0); begin process (Clock, Write_Enable, Read_Enable, Write_Address, Read_Address) begin if Write_Address = '1' then Data_In &lt;= Data_In_L; Data_Out_L &lt;= Data_Out_L_L; Data_Out_L_L &lt;= Data_Out_L_L_in; end if ; end process ; Data_Out &lt;= Data_In; Data_Out_L &lt;= Data_Out; end Behavioral;</t>
   </si>
   <si>
+    <t>Non ci sono alcune cose. ma l'idea tutto sommato c'è</t>
+  </si>
+  <si>
     <t>Generate a dual-port memory of K x L with the signals clock, write, address_w (log2K-bit), address_r (log2K-bit), and data_write (L-bit) as input and the signal data_read (L-bit) as output.</t>
   </si>
   <si>
@@ -2376,6 +2418,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; entity Dual_Port_Memory is Generic ( K : natural := 8; L : natural := 16 ); Port ( Clock : in STD_LOGIC; Write : in STD_LOGIC; Address_W : in STD_LOGIC_VECTOR (log2K-1 downto 0); Address_R : in STD_LOGIC_VECTOR (log2K-1 downto 0); Data_Write : in STD_LOGIC_VECTOR (L-1 downto 0); Data_Read : out STD_LOGIC_VECTOR (L-1 downto 0)); end Dual_Port_Memory; architecture Behavioral of Dual_Port_Memory is signal data_read : STD_LOGIC_VECTOR (L-1 downto 0); begin process (Clock, Write) begin if rising_edge(Clock) then if Write = '1' then Data_Read &lt;= Data_Write; Data_Write &lt;= Data_Write + 1; elsif Write = '0' then Data_Read &lt;= Data_Write - 1; Data_Write &lt;= Data_Write - 1; end if ; end if ; end process ; Data_Read &lt;= Data_Read + 1; end Behavioral;</t>
   </si>
   <si>
+    <t>Più o meno</t>
+  </si>
+  <si>
     <t>Create a 4-bit binary counter that increments on each clock pulse and resets asynchronously</t>
   </si>
   <si>
@@ -2383,6 +2428,9 @@
   </si>
   <si>
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; entity binary_counter is Port ( Clock : in STD_LOGIC; Increment : in STD_LOGIC; Reset : in STD_LOGIC; Data : out STD_LOGIC_VECTOR (3 downto 0)); end binary_counter; architecture Behavioral of binary_counter is signal count : unsigned(3 downto 0) := (others =&gt; '0'); begin process (Clock, Increment) begin if rising_edge(Clock) then if Reset = '1' then count &lt;= (others =&gt; '0'); elsif Count = unsigned(3 downto 0) then count &lt;= (others =&gt; '0'); end if ; end if ; end process ; Data &lt;= count; end Behavioral;</t>
+  </si>
+  <si>
+    <t>Non incrementa il contatore</t>
   </si>
   <si>
     <t>Define a finite impulse response filter of N-bit with the signals clock, reset, data_in (N-bit), and coefficients (M x N-bit) as input and the signal filtered_output (N-bit) as output.</t>
@@ -3310,8 +3358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="H245" sqref="H245"/>
+    <sheetView tabSelected="1" topLeftCell="A243" workbookViewId="0">
+      <selection activeCell="H264" sqref="H264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9442,16 +9490,19 @@
       <c r="G244">
         <v>0</v>
       </c>
+      <c r="H244" t="s">
+        <v>727</v>
+      </c>
     </row>
     <row r="245" spans="1:8">
       <c r="A245" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B245" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C245" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D245">
         <v>0</v>
@@ -9465,16 +9516,19 @@
       <c r="G245">
         <v>0</v>
       </c>
+      <c r="H245" t="s">
+        <v>731</v>
+      </c>
     </row>
     <row r="246" spans="1:8">
       <c r="A246" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="B246" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="C246" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="D246">
         <v>0</v>
@@ -9488,16 +9542,19 @@
       <c r="G246">
         <v>0</v>
       </c>
+      <c r="H246" t="s">
+        <v>735</v>
+      </c>
     </row>
     <row r="247" spans="1:8">
       <c r="A247" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="B247" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="C247" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="D247">
         <v>0</v>
@@ -9511,16 +9568,19 @@
       <c r="G247">
         <v>0</v>
       </c>
+      <c r="H247" t="s">
+        <v>739</v>
+      </c>
     </row>
     <row r="248" spans="1:8">
       <c r="A248" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="B248" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="C248" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="D248">
         <v>0</v>
@@ -9534,16 +9594,19 @@
       <c r="G248">
         <v>0</v>
       </c>
+      <c r="H248" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="249" spans="1:8">
       <c r="A249" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="B249" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="C249" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="D249">
         <v>0</v>
@@ -9557,16 +9620,19 @@
       <c r="G249">
         <v>0</v>
       </c>
+      <c r="H249" t="s">
+        <v>747</v>
+      </c>
     </row>
     <row r="250" spans="1:8">
       <c r="A250" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
       <c r="B250" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="C250" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="D250">
         <v>0</v>
@@ -9580,16 +9646,19 @@
       <c r="G250">
         <v>0</v>
       </c>
+      <c r="H250" t="s">
+        <v>751</v>
+      </c>
     </row>
     <row r="251" spans="1:8">
       <c r="A251" t="s">
-        <v>745</v>
+        <v>752</v>
       </c>
       <c r="B251" t="s">
-        <v>746</v>
+        <v>753</v>
       </c>
       <c r="C251" t="s">
-        <v>747</v>
+        <v>754</v>
       </c>
       <c r="D251">
         <v>0</v>
@@ -9603,16 +9672,19 @@
       <c r="G251">
         <v>0</v>
       </c>
+      <c r="H251" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="252" spans="1:8">
       <c r="A252" t="s">
-        <v>748</v>
+        <v>755</v>
       </c>
       <c r="B252" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
       <c r="C252" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
       <c r="D252">
         <v>0</v>
@@ -9626,16 +9698,19 @@
       <c r="G252">
         <v>0</v>
       </c>
+      <c r="H252" t="s">
+        <v>758</v>
+      </c>
     </row>
     <row r="253" spans="1:8">
       <c r="A253" t="s">
-        <v>751</v>
+        <v>759</v>
       </c>
       <c r="B253" t="s">
-        <v>752</v>
+        <v>760</v>
       </c>
       <c r="C253" t="s">
-        <v>753</v>
+        <v>761</v>
       </c>
       <c r="D253">
         <v>0</v>
@@ -9649,16 +9724,19 @@
       <c r="G253">
         <v>0</v>
       </c>
+      <c r="H253" t="s">
+        <v>762</v>
+      </c>
     </row>
     <row r="254" spans="1:8">
       <c r="A254" t="s">
-        <v>754</v>
+        <v>763</v>
       </c>
       <c r="B254" t="s">
-        <v>755</v>
+        <v>764</v>
       </c>
       <c r="C254" t="s">
-        <v>756</v>
+        <v>765</v>
       </c>
       <c r="D254">
         <v>0</v>
@@ -9672,16 +9750,19 @@
       <c r="G254">
         <v>0</v>
       </c>
+      <c r="H254" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="255" spans="1:8">
       <c r="A255" t="s">
-        <v>757</v>
+        <v>766</v>
       </c>
       <c r="B255" t="s">
-        <v>758</v>
+        <v>767</v>
       </c>
       <c r="C255" t="s">
-        <v>759</v>
+        <v>768</v>
       </c>
       <c r="D255">
         <v>0</v>
@@ -9695,16 +9776,19 @@
       <c r="G255">
         <v>0</v>
       </c>
+      <c r="H255" t="s">
+        <v>769</v>
+      </c>
     </row>
     <row r="256" spans="1:8">
       <c r="A256" t="s">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="B256" t="s">
-        <v>761</v>
+        <v>771</v>
       </c>
       <c r="C256" t="s">
-        <v>762</v>
+        <v>772</v>
       </c>
       <c r="D256">
         <v>0</v>
@@ -9718,16 +9802,19 @@
       <c r="G256">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:7">
+      <c r="H256" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
       <c r="A257" t="s">
-        <v>763</v>
+        <v>773</v>
       </c>
       <c r="B257" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="C257" t="s">
-        <v>765</v>
+        <v>775</v>
       </c>
       <c r="D257">
         <v>0</v>
@@ -9741,16 +9828,19 @@
       <c r="G257">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:7">
+      <c r="H257" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
       <c r="A258" t="s">
-        <v>766</v>
+        <v>777</v>
       </c>
       <c r="B258" t="s">
-        <v>767</v>
+        <v>778</v>
       </c>
       <c r="C258" t="s">
-        <v>768</v>
+        <v>779</v>
       </c>
       <c r="D258">
         <v>0</v>
@@ -9764,16 +9854,19 @@
       <c r="G258">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:7">
+      <c r="H258" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
       <c r="A259" t="s">
-        <v>769</v>
+        <v>781</v>
       </c>
       <c r="B259" t="s">
-        <v>770</v>
+        <v>782</v>
       </c>
       <c r="C259" t="s">
-        <v>771</v>
+        <v>783</v>
       </c>
       <c r="D259">
         <v>0</v>
@@ -9787,16 +9880,19 @@
       <c r="G259">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:7">
+      <c r="H259" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
       <c r="A260" t="s">
-        <v>772</v>
+        <v>785</v>
       </c>
       <c r="B260" t="s">
-        <v>773</v>
+        <v>786</v>
       </c>
       <c r="C260" t="s">
-        <v>774</v>
+        <v>787</v>
       </c>
       <c r="D260">
         <v>0</v>
@@ -9810,16 +9906,19 @@
       <c r="G260">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:7">
+      <c r="H260" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
       <c r="A261" t="s">
-        <v>775</v>
+        <v>788</v>
       </c>
       <c r="B261" t="s">
-        <v>776</v>
+        <v>789</v>
       </c>
       <c r="C261" t="s">
-        <v>777</v>
+        <v>790</v>
       </c>
       <c r="D261">
         <v>0</v>
@@ -9831,18 +9930,21 @@
         <v>0.52194715692300564</v>
       </c>
       <c r="G261">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H261" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
       <c r="A262" t="s">
-        <v>778</v>
+        <v>792</v>
       </c>
       <c r="B262" t="s">
-        <v>779</v>
+        <v>793</v>
       </c>
       <c r="C262" t="s">
-        <v>780</v>
+        <v>794</v>
       </c>
       <c r="D262">
         <v>0</v>
@@ -9854,18 +9956,21 @@
         <v>0.60069532508803947</v>
       </c>
       <c r="G262">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H262" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
       <c r="A263" t="s">
-        <v>781</v>
+        <v>796</v>
       </c>
       <c r="B263" t="s">
-        <v>782</v>
+        <v>797</v>
       </c>
       <c r="C263" t="s">
-        <v>783</v>
+        <v>798</v>
       </c>
       <c r="D263">
         <v>0</v>
@@ -9879,16 +9984,19 @@
       <c r="G263">
         <v>0</v>
       </c>
-    </row>
-    <row r="264" spans="1:7">
+      <c r="H263" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
       <c r="A264" t="s">
-        <v>784</v>
+        <v>800</v>
       </c>
       <c r="B264" t="s">
-        <v>785</v>
+        <v>801</v>
       </c>
       <c r="C264" t="s">
-        <v>786</v>
+        <v>802</v>
       </c>
       <c r="D264">
         <v>0</v>
@@ -9903,15 +10011,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" spans="1:8">
       <c r="A265" t="s">
-        <v>787</v>
+        <v>803</v>
       </c>
       <c r="B265" t="s">
-        <v>788</v>
+        <v>804</v>
       </c>
       <c r="C265" t="s">
-        <v>789</v>
+        <v>805</v>
       </c>
       <c r="D265">
         <v>0</v>
@@ -9926,15 +10034,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266" spans="1:8">
       <c r="A266" t="s">
-        <v>790</v>
+        <v>806</v>
       </c>
       <c r="B266" t="s">
-        <v>791</v>
+        <v>807</v>
       </c>
       <c r="C266" t="s">
-        <v>792</v>
+        <v>808</v>
       </c>
       <c r="D266">
         <v>0</v>
@@ -9949,15 +10057,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" spans="1:8">
       <c r="A267" t="s">
-        <v>793</v>
+        <v>809</v>
       </c>
       <c r="B267" t="s">
-        <v>794</v>
+        <v>810</v>
       </c>
       <c r="C267" t="s">
-        <v>795</v>
+        <v>811</v>
       </c>
       <c r="D267">
         <v>0</v>
@@ -9972,15 +10080,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" spans="1:8">
       <c r="A268" t="s">
-        <v>796</v>
+        <v>812</v>
       </c>
       <c r="B268" t="s">
-        <v>797</v>
+        <v>813</v>
       </c>
       <c r="C268" t="s">
-        <v>798</v>
+        <v>814</v>
       </c>
       <c r="D268">
         <v>0</v>
@@ -9995,15 +10103,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:7">
+    <row r="269" spans="1:8">
       <c r="A269" t="s">
-        <v>799</v>
+        <v>815</v>
       </c>
       <c r="B269" t="s">
-        <v>800</v>
+        <v>816</v>
       </c>
       <c r="C269" t="s">
-        <v>801</v>
+        <v>817</v>
       </c>
       <c r="D269">
         <v>0</v>
@@ -10018,15 +10126,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270" spans="1:8">
       <c r="A270" t="s">
-        <v>802</v>
+        <v>818</v>
       </c>
       <c r="B270" t="s">
-        <v>803</v>
+        <v>819</v>
       </c>
       <c r="C270" t="s">
-        <v>804</v>
+        <v>820</v>
       </c>
       <c r="D270">
         <v>0</v>
@@ -10041,15 +10149,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" spans="1:8">
       <c r="A271" t="s">
-        <v>805</v>
+        <v>821</v>
       </c>
       <c r="B271" t="s">
-        <v>806</v>
+        <v>822</v>
       </c>
       <c r="C271" t="s">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="D271">
         <v>0</v>
@@ -10064,15 +10172,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" spans="1:8">
       <c r="A272" t="s">
-        <v>808</v>
+        <v>824</v>
       </c>
       <c r="B272" t="s">
-        <v>809</v>
+        <v>825</v>
       </c>
       <c r="C272" t="s">
-        <v>810</v>
+        <v>826</v>
       </c>
       <c r="D272">
         <v>0</v>
@@ -10089,13 +10197,13 @@
     </row>
     <row r="273" spans="1:8">
       <c r="A273" t="s">
-        <v>811</v>
+        <v>827</v>
       </c>
       <c r="B273" t="s">
-        <v>812</v>
+        <v>828</v>
       </c>
       <c r="C273" t="s">
-        <v>813</v>
+        <v>829</v>
       </c>
       <c r="D273">
         <v>0</v>
@@ -10112,13 +10220,13 @@
     </row>
     <row r="274" spans="1:8">
       <c r="A274" t="s">
-        <v>814</v>
+        <v>830</v>
       </c>
       <c r="B274" t="s">
-        <v>815</v>
+        <v>831</v>
       </c>
       <c r="C274" t="s">
-        <v>816</v>
+        <v>832</v>
       </c>
       <c r="D274">
         <v>0</v>
@@ -10135,13 +10243,13 @@
     </row>
     <row r="275" spans="1:8">
       <c r="A275" t="s">
-        <v>817</v>
+        <v>833</v>
       </c>
       <c r="B275" t="s">
-        <v>818</v>
+        <v>834</v>
       </c>
       <c r="C275" t="s">
-        <v>819</v>
+        <v>835</v>
       </c>
       <c r="D275">
         <v>0</v>
@@ -10158,13 +10266,13 @@
     </row>
     <row r="276" spans="1:8">
       <c r="A276" t="s">
-        <v>820</v>
+        <v>836</v>
       </c>
       <c r="B276" t="s">
-        <v>821</v>
+        <v>837</v>
       </c>
       <c r="C276" t="s">
-        <v>822</v>
+        <v>838</v>
       </c>
       <c r="D276">
         <v>0</v>
@@ -10181,13 +10289,13 @@
     </row>
     <row r="277" spans="1:8">
       <c r="A277" t="s">
-        <v>823</v>
+        <v>839</v>
       </c>
       <c r="B277" t="s">
-        <v>824</v>
+        <v>840</v>
       </c>
       <c r="C277" t="s">
-        <v>825</v>
+        <v>841</v>
       </c>
       <c r="D277">
         <v>0</v>
@@ -10204,13 +10312,13 @@
     </row>
     <row r="278" spans="1:8">
       <c r="A278" t="s">
-        <v>826</v>
+        <v>842</v>
       </c>
       <c r="B278" t="s">
-        <v>827</v>
+        <v>843</v>
       </c>
       <c r="C278" t="s">
-        <v>828</v>
+        <v>844</v>
       </c>
       <c r="D278">
         <v>0</v>
@@ -10227,10 +10335,10 @@
     </row>
     <row r="279" spans="1:8">
       <c r="A279" t="s">
-        <v>829</v>
+        <v>845</v>
       </c>
       <c r="B279" t="s">
-        <v>830</v>
+        <v>846</v>
       </c>
       <c r="C279" t="s">
         <v>53</v>
@@ -10253,13 +10361,13 @@
     </row>
     <row r="280" spans="1:8">
       <c r="A280" t="s">
-        <v>831</v>
+        <v>847</v>
       </c>
       <c r="B280" t="s">
-        <v>832</v>
+        <v>848</v>
       </c>
       <c r="C280" t="s">
-        <v>833</v>
+        <v>849</v>
       </c>
       <c r="D280">
         <v>0</v>
@@ -10276,13 +10384,13 @@
     </row>
     <row r="281" spans="1:8">
       <c r="A281" t="s">
-        <v>834</v>
+        <v>850</v>
       </c>
       <c r="B281" t="s">
-        <v>835</v>
+        <v>851</v>
       </c>
       <c r="C281" t="s">
-        <v>836</v>
+        <v>852</v>
       </c>
       <c r="D281">
         <v>0</v>
@@ -10299,13 +10407,13 @@
     </row>
     <row r="282" spans="1:8">
       <c r="A282" t="s">
-        <v>837</v>
+        <v>853</v>
       </c>
       <c r="B282" t="s">
-        <v>838</v>
+        <v>854</v>
       </c>
       <c r="C282" t="s">
-        <v>839</v>
+        <v>855</v>
       </c>
       <c r="D282">
         <v>0</v>
@@ -10322,13 +10430,13 @@
     </row>
     <row r="283" spans="1:8">
       <c r="A283" t="s">
-        <v>840</v>
+        <v>856</v>
       </c>
       <c r="B283" t="s">
-        <v>841</v>
+        <v>857</v>
       </c>
       <c r="C283" t="s">
-        <v>842</v>
+        <v>858</v>
       </c>
       <c r="D283">
         <v>0</v>
@@ -10345,13 +10453,13 @@
     </row>
     <row r="284" spans="1:8">
       <c r="A284" t="s">
-        <v>843</v>
+        <v>859</v>
       </c>
       <c r="B284" t="s">
-        <v>844</v>
+        <v>860</v>
       </c>
       <c r="C284" t="s">
-        <v>845</v>
+        <v>861</v>
       </c>
       <c r="D284">
         <v>0</v>
@@ -10368,13 +10476,13 @@
     </row>
     <row r="285" spans="1:8">
       <c r="A285" t="s">
-        <v>846</v>
+        <v>862</v>
       </c>
       <c r="B285" t="s">
-        <v>847</v>
+        <v>863</v>
       </c>
       <c r="C285" t="s">
-        <v>848</v>
+        <v>864</v>
       </c>
       <c r="D285">
         <v>0</v>
@@ -10391,13 +10499,13 @@
     </row>
     <row r="286" spans="1:8">
       <c r="A286" t="s">
-        <v>849</v>
+        <v>865</v>
       </c>
       <c r="B286" t="s">
-        <v>850</v>
+        <v>866</v>
       </c>
       <c r="C286" t="s">
-        <v>851</v>
+        <v>867</v>
       </c>
       <c r="D286">
         <v>0</v>
@@ -10414,13 +10522,13 @@
     </row>
     <row r="287" spans="1:8">
       <c r="A287" t="s">
-        <v>852</v>
+        <v>868</v>
       </c>
       <c r="B287" t="s">
-        <v>853</v>
+        <v>869</v>
       </c>
       <c r="C287" t="s">
-        <v>854</v>
+        <v>870</v>
       </c>
       <c r="D287">
         <v>0</v>
@@ -10437,13 +10545,13 @@
     </row>
     <row r="288" spans="1:8">
       <c r="A288" t="s">
-        <v>855</v>
+        <v>871</v>
       </c>
       <c r="B288" t="s">
-        <v>856</v>
+        <v>872</v>
       </c>
       <c r="C288" t="s">
-        <v>857</v>
+        <v>873</v>
       </c>
       <c r="D288">
         <v>0</v>
@@ -10460,10 +10568,10 @@
     </row>
     <row r="289" spans="1:8">
       <c r="A289" t="s">
-        <v>858</v>
+        <v>874</v>
       </c>
       <c r="B289" t="s">
-        <v>859</v>
+        <v>875</v>
       </c>
       <c r="C289" t="s">
         <v>53</v>
@@ -10486,13 +10594,13 @@
     </row>
     <row r="290" spans="1:8">
       <c r="A290" t="s">
-        <v>860</v>
+        <v>876</v>
       </c>
       <c r="B290" t="s">
-        <v>861</v>
+        <v>877</v>
       </c>
       <c r="C290" t="s">
-        <v>862</v>
+        <v>878</v>
       </c>
       <c r="D290">
         <v>0</v>
@@ -10509,13 +10617,13 @@
     </row>
     <row r="291" spans="1:8">
       <c r="A291" t="s">
-        <v>863</v>
+        <v>879</v>
       </c>
       <c r="B291" t="s">
-        <v>864</v>
+        <v>880</v>
       </c>
       <c r="C291" t="s">
-        <v>865</v>
+        <v>881</v>
       </c>
       <c r="D291">
         <v>0</v>
@@ -10532,13 +10640,13 @@
     </row>
     <row r="292" spans="1:8">
       <c r="A292" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="B292" t="s">
-        <v>867</v>
+        <v>883</v>
       </c>
       <c r="C292" t="s">
-        <v>868</v>
+        <v>884</v>
       </c>
       <c r="D292">
         <v>0</v>
@@ -10555,13 +10663,13 @@
     </row>
     <row r="293" spans="1:8">
       <c r="A293" t="s">
-        <v>869</v>
+        <v>885</v>
       </c>
       <c r="B293" t="s">
-        <v>870</v>
+        <v>886</v>
       </c>
       <c r="C293" t="s">
-        <v>870</v>
+        <v>886</v>
       </c>
       <c r="D293">
         <v>1</v>
@@ -10578,13 +10686,13 @@
     </row>
     <row r="294" spans="1:8">
       <c r="A294" t="s">
-        <v>871</v>
+        <v>887</v>
       </c>
       <c r="B294" t="s">
-        <v>872</v>
+        <v>888</v>
       </c>
       <c r="C294" t="s">
-        <v>873</v>
+        <v>889</v>
       </c>
       <c r="D294">
         <v>0</v>
@@ -10601,13 +10709,13 @@
     </row>
     <row r="295" spans="1:8">
       <c r="A295" t="s">
-        <v>874</v>
+        <v>890</v>
       </c>
       <c r="B295" t="s">
-        <v>875</v>
+        <v>891</v>
       </c>
       <c r="C295" t="s">
-        <v>876</v>
+        <v>892</v>
       </c>
       <c r="D295">
         <v>0</v>
@@ -10624,13 +10732,13 @@
     </row>
     <row r="296" spans="1:8">
       <c r="A296" t="s">
-        <v>877</v>
+        <v>893</v>
       </c>
       <c r="B296" t="s">
-        <v>878</v>
+        <v>894</v>
       </c>
       <c r="C296" t="s">
-        <v>879</v>
+        <v>895</v>
       </c>
       <c r="D296">
         <v>0</v>
@@ -10647,10 +10755,10 @@
     </row>
     <row r="297" spans="1:8">
       <c r="A297" t="s">
-        <v>880</v>
+        <v>896</v>
       </c>
       <c r="B297" t="s">
-        <v>881</v>
+        <v>897</v>
       </c>
       <c r="C297" t="s">
         <v>53</v>
@@ -10673,13 +10781,13 @@
     </row>
     <row r="298" spans="1:8">
       <c r="A298" t="s">
-        <v>882</v>
+        <v>898</v>
       </c>
       <c r="B298" t="s">
-        <v>883</v>
+        <v>899</v>
       </c>
       <c r="C298" t="s">
-        <v>884</v>
+        <v>900</v>
       </c>
       <c r="D298">
         <v>0</v>
@@ -10696,10 +10804,10 @@
     </row>
     <row r="299" spans="1:8">
       <c r="A299" t="s">
-        <v>885</v>
+        <v>901</v>
       </c>
       <c r="B299" t="s">
-        <v>886</v>
+        <v>902</v>
       </c>
       <c r="C299" t="s">
         <v>53</v>
@@ -10722,13 +10830,13 @@
     </row>
     <row r="300" spans="1:8">
       <c r="A300" t="s">
-        <v>887</v>
+        <v>903</v>
       </c>
       <c r="B300" t="s">
-        <v>888</v>
+        <v>904</v>
       </c>
       <c r="C300" t="s">
-        <v>889</v>
+        <v>905</v>
       </c>
       <c r="D300">
         <v>0</v>
@@ -10745,13 +10853,13 @@
     </row>
     <row r="301" spans="1:8">
       <c r="A301" t="s">
-        <v>890</v>
+        <v>906</v>
       </c>
       <c r="B301" t="s">
-        <v>891</v>
+        <v>907</v>
       </c>
       <c r="C301" t="s">
-        <v>892</v>
+        <v>908</v>
       </c>
       <c r="D301">
         <v>0</v>
@@ -10768,10 +10876,10 @@
     </row>
     <row r="302" spans="1:8">
       <c r="A302" t="s">
-        <v>893</v>
+        <v>909</v>
       </c>
       <c r="B302" t="s">
-        <v>894</v>
+        <v>910</v>
       </c>
       <c r="C302" t="s">
         <v>53</v>
@@ -10794,13 +10902,13 @@
     </row>
     <row r="303" spans="1:8">
       <c r="A303" t="s">
-        <v>895</v>
+        <v>911</v>
       </c>
       <c r="B303" t="s">
-        <v>896</v>
+        <v>912</v>
       </c>
       <c r="C303" t="s">
-        <v>897</v>
+        <v>913</v>
       </c>
       <c r="D303">
         <v>0</v>
@@ -10817,13 +10925,13 @@
     </row>
     <row r="304" spans="1:8">
       <c r="A304" t="s">
-        <v>898</v>
+        <v>914</v>
       </c>
       <c r="B304" t="s">
-        <v>899</v>
+        <v>915</v>
       </c>
       <c r="C304" t="s">
-        <v>900</v>
+        <v>916</v>
       </c>
       <c r="D304">
         <v>0</v>
@@ -10840,13 +10948,13 @@
     </row>
     <row r="305" spans="1:8">
       <c r="A305" t="s">
-        <v>901</v>
+        <v>917</v>
       </c>
       <c r="B305" t="s">
-        <v>902</v>
+        <v>918</v>
       </c>
       <c r="C305" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
       <c r="D305">
         <v>0</v>
@@ -10863,13 +10971,13 @@
     </row>
     <row r="306" spans="1:8">
       <c r="A306" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
       <c r="B306" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
       <c r="C306" t="s">
-        <v>906</v>
+        <v>922</v>
       </c>
       <c r="D306">
         <v>0</v>
@@ -10886,13 +10994,13 @@
     </row>
     <row r="307" spans="1:8">
       <c r="A307" t="s">
-        <v>907</v>
+        <v>923</v>
       </c>
       <c r="B307" t="s">
-        <v>908</v>
+        <v>924</v>
       </c>
       <c r="C307" t="s">
-        <v>909</v>
+        <v>925</v>
       </c>
       <c r="D307">
         <v>0</v>
@@ -10909,13 +11017,13 @@
     </row>
     <row r="308" spans="1:8">
       <c r="A308" t="s">
-        <v>910</v>
+        <v>926</v>
       </c>
       <c r="B308" t="s">
-        <v>911</v>
+        <v>927</v>
       </c>
       <c r="C308" t="s">
-        <v>912</v>
+        <v>928</v>
       </c>
       <c r="D308">
         <v>0</v>
@@ -10932,13 +11040,13 @@
     </row>
     <row r="309" spans="1:8">
       <c r="A309" t="s">
-        <v>913</v>
+        <v>929</v>
       </c>
       <c r="B309" t="s">
-        <v>914</v>
+        <v>930</v>
       </c>
       <c r="C309" t="s">
-        <v>915</v>
+        <v>931</v>
       </c>
       <c r="D309">
         <v>0</v>
@@ -10955,10 +11063,10 @@
     </row>
     <row r="310" spans="1:8">
       <c r="A310" t="s">
-        <v>916</v>
+        <v>932</v>
       </c>
       <c r="B310" t="s">
-        <v>917</v>
+        <v>933</v>
       </c>
       <c r="C310" t="s">
         <v>53</v>
@@ -10981,13 +11089,13 @@
     </row>
     <row r="311" spans="1:8">
       <c r="A311" t="s">
-        <v>918</v>
+        <v>934</v>
       </c>
       <c r="B311" t="s">
-        <v>919</v>
+        <v>935</v>
       </c>
       <c r="C311" t="s">
-        <v>920</v>
+        <v>936</v>
       </c>
       <c r="D311">
         <v>0</v>
@@ -11004,13 +11112,13 @@
     </row>
     <row r="312" spans="1:8">
       <c r="A312" t="s">
-        <v>921</v>
+        <v>937</v>
       </c>
       <c r="B312" t="s">
-        <v>922</v>
+        <v>938</v>
       </c>
       <c r="C312" t="s">
-        <v>923</v>
+        <v>939</v>
       </c>
       <c r="D312">
         <v>0</v>
@@ -11027,13 +11135,13 @@
     </row>
     <row r="313" spans="1:8">
       <c r="A313" t="s">
-        <v>924</v>
+        <v>940</v>
       </c>
       <c r="B313" t="s">
-        <v>925</v>
+        <v>941</v>
       </c>
       <c r="C313" t="s">
-        <v>926</v>
+        <v>942</v>
       </c>
       <c r="D313">
         <v>0</v>
@@ -11050,13 +11158,13 @@
     </row>
     <row r="314" spans="1:8">
       <c r="A314" t="s">
-        <v>927</v>
+        <v>943</v>
       </c>
       <c r="B314" t="s">
-        <v>928</v>
+        <v>944</v>
       </c>
       <c r="C314" t="s">
-        <v>929</v>
+        <v>945</v>
       </c>
       <c r="D314">
         <v>0</v>
@@ -11073,13 +11181,13 @@
     </row>
     <row r="315" spans="1:8">
       <c r="A315" t="s">
-        <v>930</v>
+        <v>946</v>
       </c>
       <c r="B315" t="s">
-        <v>931</v>
+        <v>947</v>
       </c>
       <c r="C315" t="s">
-        <v>932</v>
+        <v>948</v>
       </c>
       <c r="D315">
         <v>0</v>
@@ -11096,13 +11204,13 @@
     </row>
     <row r="316" spans="1:8">
       <c r="A316" t="s">
-        <v>933</v>
+        <v>949</v>
       </c>
       <c r="B316" t="s">
-        <v>934</v>
+        <v>950</v>
       </c>
       <c r="C316" t="s">
-        <v>935</v>
+        <v>951</v>
       </c>
       <c r="D316">
         <v>0</v>
@@ -11119,13 +11227,13 @@
     </row>
     <row r="317" spans="1:8">
       <c r="A317" t="s">
-        <v>936</v>
+        <v>952</v>
       </c>
       <c r="B317" t="s">
-        <v>937</v>
+        <v>953</v>
       </c>
       <c r="C317" t="s">
-        <v>938</v>
+        <v>954</v>
       </c>
       <c r="D317">
         <v>0</v>
@@ -11142,13 +11250,13 @@
     </row>
     <row r="318" spans="1:8">
       <c r="A318" t="s">
-        <v>939</v>
+        <v>955</v>
       </c>
       <c r="B318" t="s">
-        <v>940</v>
+        <v>956</v>
       </c>
       <c r="C318" t="s">
-        <v>941</v>
+        <v>957</v>
       </c>
       <c r="D318">
         <v>0</v>
@@ -11165,13 +11273,13 @@
     </row>
     <row r="319" spans="1:8">
       <c r="A319" t="s">
-        <v>942</v>
+        <v>958</v>
       </c>
       <c r="B319" t="s">
-        <v>943</v>
+        <v>959</v>
       </c>
       <c r="C319" t="s">
-        <v>944</v>
+        <v>960</v>
       </c>
       <c r="D319">
         <v>0</v>
@@ -11188,13 +11296,13 @@
     </row>
     <row r="320" spans="1:8">
       <c r="A320" t="s">
-        <v>945</v>
+        <v>961</v>
       </c>
       <c r="B320" t="s">
-        <v>946</v>
+        <v>962</v>
       </c>
       <c r="C320" t="s">
-        <v>947</v>
+        <v>963</v>
       </c>
       <c r="D320">
         <v>0</v>
@@ -11211,13 +11319,13 @@
     </row>
     <row r="321" spans="1:8">
       <c r="A321" t="s">
-        <v>948</v>
+        <v>964</v>
       </c>
       <c r="B321" t="s">
-        <v>949</v>
+        <v>965</v>
       </c>
       <c r="C321" t="s">
-        <v>950</v>
+        <v>966</v>
       </c>
       <c r="D321">
         <v>0</v>
@@ -11234,13 +11342,13 @@
     </row>
     <row r="322" spans="1:8">
       <c r="A322" t="s">
-        <v>951</v>
+        <v>967</v>
       </c>
       <c r="B322" t="s">
-        <v>952</v>
+        <v>968</v>
       </c>
       <c r="C322" t="s">
-        <v>953</v>
+        <v>969</v>
       </c>
       <c r="D322">
         <v>0</v>
@@ -11257,13 +11365,13 @@
     </row>
     <row r="323" spans="1:8">
       <c r="A323" t="s">
-        <v>954</v>
+        <v>970</v>
       </c>
       <c r="B323" t="s">
-        <v>955</v>
+        <v>971</v>
       </c>
       <c r="C323" t="s">
-        <v>956</v>
+        <v>972</v>
       </c>
       <c r="D323">
         <v>0</v>
@@ -11280,13 +11388,13 @@
     </row>
     <row r="324" spans="1:8">
       <c r="A324" t="s">
-        <v>957</v>
+        <v>973</v>
       </c>
       <c r="B324" t="s">
-        <v>958</v>
+        <v>974</v>
       </c>
       <c r="C324" t="s">
-        <v>959</v>
+        <v>975</v>
       </c>
       <c r="D324">
         <v>0</v>
@@ -11303,13 +11411,13 @@
     </row>
     <row r="325" spans="1:8">
       <c r="A325" t="s">
-        <v>960</v>
+        <v>976</v>
       </c>
       <c r="B325" t="s">
-        <v>961</v>
+        <v>977</v>
       </c>
       <c r="C325" t="s">
-        <v>962</v>
+        <v>978</v>
       </c>
       <c r="D325">
         <v>0</v>
@@ -11324,18 +11432,18 @@
         <v>0</v>
       </c>
       <c r="H325" t="s">
-        <v>963</v>
+        <v>979</v>
       </c>
     </row>
     <row r="326" spans="1:8">
       <c r="A326" t="s">
-        <v>964</v>
+        <v>980</v>
       </c>
       <c r="B326" t="s">
-        <v>965</v>
+        <v>981</v>
       </c>
       <c r="C326" t="s">
-        <v>965</v>
+        <v>981</v>
       </c>
       <c r="D326">
         <v>1</v>
@@ -11352,13 +11460,13 @@
     </row>
     <row r="327" spans="1:8">
       <c r="A327" t="s">
-        <v>966</v>
+        <v>982</v>
       </c>
       <c r="B327" t="s">
-        <v>967</v>
+        <v>983</v>
       </c>
       <c r="C327" t="s">
-        <v>968</v>
+        <v>984</v>
       </c>
       <c r="D327">
         <v>0</v>

--- a/HE/W_in_progress/AnalisiCodeGPT.xlsx
+++ b/HE/W_in_progress/AnalisiCodeGPT.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28224"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{593FB464-7EC6-4870-B613-74B3C57B8767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DB1C564-68DA-4A95-9EE9-C64242F8A7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="985">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="1010">
   <si>
     <t>IN</t>
   </si>
@@ -2442,6 +2442,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; entity FiniteFrequencyFilter is Generic ( N : natural := 8 ); Port ( Clock : in STD_LOGIC; Reset : in STD_LOGIC; Data_In : in STD_LOGIC_VECTOR (N-1 downto 0); Coefficients : in STD_LOGIC_VECTOR (M x N-1 downto 0); Filtered_Output : out STD_LOGIC_VECTOR (N-1 downto 0)); end FiniteFrequencyFilter; architecture Behavioral of FiniteFrequencyFilter is signal Filtered_Output : STD_LOGIC_VECTOR (N-1 downto 0); begin process (Clock, Reset) begin if Reset = '1' then Filtered_Output &lt;= Data_In; elsif rising_edge(Clock) then Filtered_Output &lt;= Filtered_In; end if ; end process ; Filtered_Output &lt;= Filtered_Output + Coefficients; end Behavioral;</t>
   </si>
   <si>
+    <t>non è un filtro FIR</t>
+  </si>
+  <si>
     <t>Implement a basic clock gating circuit</t>
   </si>
   <si>
@@ -2460,6 +2463,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; entity FloatingPointMultiplier is Generic ( N : natural := 8 ); Port ( A : in STD_LOGIC_VECTOR (N-1 downto 0); B : in STD_LOGIC_VECTOR (N-1 downto 0); Product : out STD_LOGIC_VECTOR (N-1 downto 0)); end FloatingPointMultiplier; architecture Behavioral of FloatingPointMultiplier is begin Product &lt;= A * B; end Behavioral;</t>
   </si>
   <si>
+    <t>Struttura di base c'è, non precisissimo ma va bene</t>
+  </si>
+  <si>
     <t>Define a BCD to binary converter of (N/3)+1-digit with the signal BCD_value ((N/3)+1-digit) as input and the signal binary_value (N-bit) as output.</t>
   </si>
   <si>
@@ -2469,6 +2475,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; entity BCD_to_BinaryConverter is Generic (N : natural := 8); Port ( BCD_Value : in std_logic_vector (N/3)+1-digit ); end BCD_to_BinaryConverter; architecture Behavioral of BCD_to_BinaryConverter is signal binary_value : std_logic_vector (N-1 downto 0); begin process (BCD_Value) begin if rising_edge(BCD_Value) then binary_value &lt;= (others =&gt; '0'); elsif BCD_Value = '1' then binary_value &lt;= (others =&gt; '0'); elsif BCD_Value = '0' then binary_value &lt;= '0'; end if ; end process ; Binary_Value &lt;= binary_value; end Behavioral;</t>
   </si>
   <si>
+    <t>Manca la logica di conversione</t>
+  </si>
+  <si>
     <t>Create a basic frequency meter</t>
   </si>
   <si>
@@ -2478,6 +2487,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; entity basic_frequency_meter is Port ( Clock : in STD_LOGIC; Reset : in STD_LOGIC; Duty_Cycle : in STD_LOGIC_VECTOR (1 downto 0); Data : out STD_LOGIC_VECTOR (7 downto 0)); end basic_frequency_meter; architecture Behavioral of basic_frequency_meter is signal count : integer range 0 to 7 := 0; begin process (Clock, Reset) begin if Reset = '1' then count &lt;= 0; elsif rising_edge(Clock) then if Count = 7 then count &lt;= 0; end if ; Data &lt;= '0'; end if ; end process ; end Behavioral;</t>
   </si>
   <si>
+    <t>Non è un misuratore di frequenza</t>
+  </si>
+  <si>
     <t>Write a digital differentiator of N-bit with the signals clk and input_data (N-bit) as input and the signal differentiated_data (N-bit) as output.</t>
   </si>
   <si>
@@ -2487,6 +2499,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; entity Digital_Differentiator is Generic(N : natural := 8); Port ( Clk : in STD_LOGIC; Input_Data : in STD_LOGIC_VECTOR (N-1 downto 0); Differentiated_Data : out STD_LOGIC_VECTOR (N-1 downto 0)); end Digital_Differentiator; architecture Behavioral of Digital_Differentiator is signal temp : STD_LOGIC_VECTOR (N-1 downto 0); begin process (Clk, Input_Data) begin if rising_edge(Clk) then temp := Input_Data; Differentiated_Data &lt;= temp; end if ; end process ; end Behavioral;</t>
   </si>
   <si>
+    <t>Non fa la differenziazione</t>
+  </si>
+  <si>
     <t>Define a digital integrator of N-bit with the signals clock, reset, and data_in (N-bit) as input and the signal integrated_output (N-bit) as output.</t>
   </si>
   <si>
@@ -2496,6 +2511,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; entity DigitalIntegrator is Generic(N : natural := 8); Port ( Clock : in STD_LOGIC; Reset : in STD_LOGIC; Data_In : in STD_LOGIC_VECTOR (N-1 downto 0); Integrated_Output : out STD_LOGIC_VECTOR (N-1 downto 0)); end DigitalIntegrator; architecture Behavioral of DigitalIntegrator is signal integrated_output : STD_LOGIC_VECTOR (N-1 downto 0); begin process (Clock, Reset) begin if Reset = '1' then integrated_output &lt;= Data_In; elsif rising_edge(Clock) then integrated_output &lt;= integrated_in; end if ; end process ; integrated_output &lt;= integrated_out; end Behavioral;</t>
   </si>
   <si>
+    <t>Non effettua l'integrazione</t>
+  </si>
+  <si>
     <t>Define a CRC generator of N-bit with the signals data_in (N-bit) and polynomial (M-bit) as input and the signal CRC_value (M-bit) as output.</t>
   </si>
   <si>
@@ -2505,6 +2523,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; entity CRC_Generator is Generic (N : natural := 8); Port ( Data_In : in STD_LOGIC_VECTOR (N-1 downto 0); Polynomial : in STD_LOGIC_VECTOR (M-1 downto 0); CRC_Value : out STD_LOGIC_VECTOR (M-1 downto 0)); end CRC_Generator; architecture Behavioral of CRC_Generator is begin process (Data_In, Polynomial) variable temp : STD_LOGIC_VECTOR (M-1 downto 0); begin temp := Polynomial; for i in 0 to N-1 loop temp(i) := Data_In(i); if temp(i) = '1' then temp(i) := '0'; else temp(i) := '1'; end if ; end loop ; CRC_Value &lt;= temp; end process ; end Behavioral;</t>
   </si>
   <si>
+    <t>Non implementa un calcolo del CRC valido</t>
+  </si>
+  <si>
     <t>Generate a priority encoder of 2^M-to-M with the signal requests (2^M-bit) as input and the signals encoded (M-bit) and valid as output.</t>
   </si>
   <si>
@@ -2514,6 +2535,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; entity PriorityEncoder is Generic (2^M-1 downto 0) Port ( Requests : in STD_LOGIC_VECTOR (2**M-1 downto 0); Encoded : out STD_LOGIC_VECTOR (M-1 downto 0)); end PriorityEncoder; architecture Behavioral of PriorityEncoder is begin Encoded &lt;= Requests(2**M-1 downto 0); Valid &lt;= Requests(M-1 downto 0); end Behavioral;</t>
   </si>
   <si>
+    <t>Non è un priority encoder</t>
+  </si>
+  <si>
     <t>Define an unsigned divider of N-bit with the signals dividend (N-bit) and divisor (N-bit) as input and the signals quotient (N-bit) and remainder (N-bit) as output.</t>
   </si>
   <si>
@@ -2523,6 +2547,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; entity unsigned_divider is Generic(N : natural := 8); Port (Dividend : in signed(N-1 downto 0); Divisor : in signed(N-1 downto 0); Quotient : out signed(N-1 downto 0)); end unsigned_divider; architecture Behavioral of unsigned_divider is begin process (Dividend, Divisor) variable quotient : unsigned(N-1 downto 0); variable remainder : unsigned(N-1 downto 0); begin quotient := quotient + divisor; remainder := remainder + dividend; end process ; end Behavioral;</t>
   </si>
   <si>
+    <t>Non c'è la logica di divisione</t>
+  </si>
+  <si>
     <t>Implement a basic I2C master controller</t>
   </si>
   <si>
@@ -2532,6 +2559,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; entity I2C_master is Generic ( Clock : in STD_LOGIC; Reset : in STD_LOGIC; Data_In : in STD_LOGIC_VECTOR (1 downto 0); Data_Out : out STD_LOGIC_VECTOR (1 downto 0)); end I2C_master; architecture Behavioral of I2C_master is signal data_out : STD_LOGIC_VECTOR (1 downto 0); begin process (Clock, Reset) begin if Reset = '1' then Data_Out &lt;= '0'; elsif rising_edge(Clock) then Data_Out &lt;= '1'; elsif Data_In = '1' then Data_Out &lt;= '0'; end if ; end process ; end Behavioral;</t>
   </si>
   <si>
+    <t>Non viene gestito il protocollo</t>
+  </si>
+  <si>
     <t>Create a basic DDS (Direct Digital Synthesis) waveform generator</t>
   </si>
   <si>
@@ -2541,6 +2571,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; entity DDS is Generic ( Clock : in STD_LOGIC; Reset : in STD_LOGIC; Data_In : in STD_LOGIC_VECTOR (1 downto 0); Data_Out : out STD_LOGIC_VECTOR (1 downto 0)); end DDS; architecture Behavioral of DDS is begin process (Clock, Reset) variable temp : STD_LOGIC_VECTOR (1 downto 0); begin temp := (others =&gt; '0'); for i in 0 to 15 loop temp(i) := (others =&gt; '0'); if temp(i) = '1' then temp(i) := '0'; end if ; end loop ; Data_Out &lt;= temp; end process ; end Behavioral;</t>
   </si>
   <si>
+    <t>Non è un DDS</t>
+  </si>
+  <si>
     <t>Write a comparator circuit of K-bit with the signals value1 (K-bit) and value2 (K-bit) as input and the signals greater, equal, and smaller as output.</t>
   </si>
   <si>
@@ -2550,6 +2583,9 @@
     <t>library IEEE; use IEEE.STD_LOGIC_1164.ALL; entity ComparatorCircuit is Generic ( K : natural := 8 ); Port ( Value1 : in STD_LOGIC_VECTOR (K-1 downto 0); Value2 : in STD_LOGIC_VECTOR (K-1 downto 0); Greater : out STD_LOGIC; Equal : out STD_LOGIC); Smaller : out STD_LOGIC; end ComparatorCircuit; architecture Behavioral of ComparatorCircuit is begin Greater &lt;= value1(K-1 downto 0); Equal &lt;= value2(K-1 downto 0); Smaller &lt;= value1(K-1 downto 0); end Behavioral;</t>
   </si>
   <si>
+    <t>Non fa la comparazione</t>
+  </si>
+  <si>
     <t>if rising edge of clk_i; when the case is other_st; set cathodes_dot signal to the concatenation of cathodes and the complement of dot signal</t>
   </si>
   <si>
@@ -2559,6 +2595,9 @@
     <t>case clk_i is when other_st =&gt; cathodes_dot &lt;= dot; when other_st =&gt; cathodes &lt;= cathodes_dot &amp; dot;</t>
   </si>
   <si>
+    <t>Non fa la if iniziale</t>
+  </si>
+  <si>
     <t>declare a signal t_tick_o of type std_logic; S signal is set to the result of an XOR operation between CIN and the XOR operation between OP_A and OP_B.</t>
   </si>
   <si>
@@ -2568,6 +2607,9 @@
     <t>signal t_tick_o : std_logic; S &lt;= CIN or OP_A or OP_B;</t>
   </si>
   <si>
+    <t>Ho chiesto una xor e non una or</t>
+  </si>
+  <si>
     <t>plaintext64 is a std_logic_vector signal of 64 bit initialized to all 0; data_out_reg, data_out_nxt are std_logic signals</t>
   </si>
   <si>
@@ -2610,6 +2652,9 @@
     <t>constant CLK_DIV : integer := 100; constant PRVA : std_logic_vector(DAC_D_OUT_LEN - 1 downto 0);</t>
   </si>
   <si>
+    <t>manca la seconda parte</t>
+  </si>
+  <si>
     <t>i_cs_re_tk is a signal of type std_logic used for something related to rising edge and timekeeping; define an output std_logic_vector of 8 bit called anodes</t>
   </si>
   <si>
@@ -2688,6 +2733,9 @@
     <t>if rising_edge(clk_i) then if( rst_n_i = '0') then i_bit_counter &lt;= DAC_D_IN_LEN - 1; i_cmd_state &lt;= idle_st; i_done &lt;= '0'; i_cs &lt;= '1'; i_sda &lt;= '0'; i_ldac &lt;= '1'; i_ldac_cnt &lt;= 0; end if; end if; end if;</t>
   </si>
   <si>
+    <t>Mancano le ultime richieste</t>
+  </si>
+  <si>
     <t>define the constant count_max_value of type integer and initialize it to CLKIN_freq divided by CLKOUT_freq minus 1; set sda_o signal to i_sda when rst_n_i signal is high, otherwise set it to low</t>
   </si>
   <si>
@@ -2703,6 +2751,9 @@
     <t>wait for 100 ns; wait for 10 ns; signal a : std_logic_vector(0); wait for 10 ns; signal rst_n : std_logic := '1';</t>
   </si>
   <si>
+    <t>manca il process</t>
+  </si>
+  <si>
     <t>unita_operativa is a component with X, Y as input std_logic_vectors of 8 bits, clock, reset as input std_logic signals, loadAQ, shift, loadM, sub, selM, selAQ, selF, count_in as input std_logic signals, count as output std_logic_vector of 3 bits, P as output std_logic_vector of 16 bits; set the first bit of signal_19 to signal_20; map signal done_o to the output port t_done</t>
   </si>
   <si>
@@ -2760,6 +2811,9 @@
     <t>signal current_state : state := secondo;</t>
   </si>
   <si>
+    <t>mancanodelle richieste</t>
+  </si>
+  <si>
     <t>Map sda_i to t_sda, which is an input signal of type std_logic; i_cmd_state is a signal of type cmd_state; component add_round_key is made up of round_key_in, data_in as input std_logic_vector of 64 bit and data_out as output std_logic_vector of 64 bit</t>
   </si>
   <si>
@@ -2775,6 +2829,9 @@
     <t>process(clk_process) begin if rising_edge(clk_process) then if enable = '0' then TbClockA &lt;= count_reg when '0' else count_reg + 1; end if; end if; end process; shift_register &lt;= series_series(count_reg - 1 downto 0);</t>
   </si>
   <si>
+    <t>Non fa le wait</t>
+  </si>
+  <si>
     <t>map data_2_o to t_dac_val_2; if bits 21-14 of BAR signal are equal to hexadecimal '2B'; Use the select statement with GPIO_enable signal to determine whether to output data from GPIO_write signal or keep it high impedance (Z).Report an error message with failure severity if the output signal does not equal '0'</t>
   </si>
   <si>
@@ -2784,6 +2841,9 @@
     <t>data_2_o =&gt; t_dac_val_2; if BAR(21 downto 14) = x"2B" then ; end if; if GPIO_enable = GPIO_write then ; end if; report an error;</t>
   </si>
   <si>
+    <t>Mancano delle richieste</t>
+  </si>
+  <si>
     <t>declare control as a std_logic_vector signal with 2 bit initialized to all '0'; reg_key_in is an input std_logic_vector of 80 bit</t>
   </si>
   <si>
@@ -2820,6 +2880,9 @@
     <t>signal enable : std_logic := '1'; when '0' =&gt; b0 when '1' else a1 when '1' else '-' when others; component counter is port(clk : in std_logic; en : in std_logic; rst : in std_logic; count : in std_logic_vector(3 downto 0); end component;; signal counter : std_logic := '1';</t>
   </si>
   <si>
+    <t>Mancano delle cose di struttura, ma va bene</t>
+  </si>
+  <si>
     <t>Wait until s0_arready is high; enable is an input signal of type std_logic; This is an behavioral architecture for the entity named counter.</t>
   </si>
   <si>
@@ -2844,6 +2907,9 @@
     <t>signal temp_selF : std_logic; case flag_code is when FLAG_1 =&gt; temp_selF(2); when FLAG_2 =&gt; temp_selF(3); when FLAG_3 =&gt; temp_selF(4); when FLAG_4 =&gt; temp_selF(5); when others =&gt; temp_selF &lt;= '0';</t>
   </si>
   <si>
+    <t>Roba in più ma va bene</t>
+  </si>
+  <si>
     <t>u1 is a std_logic signal initialized to '0'; the signal output_val is set to the AND operation between val1 and val2; if the bit 21 to 14 of bar signal are equal to the hexadecimal value "2B"</t>
   </si>
   <si>
@@ -2880,6 +2946,9 @@
     <t>entity TbClockA is port ( clock_in : in STD_LOGIC; reset_in : in STD_LOGIC; addr_strobe_in : in STD_LOGIC; anodes_out : out STD_LOGIC_VECTOR (7 downto 0); cathodes_out : out STD_LOGIC_VECTOR (7 downto 0)); end TbClockA; signal temp_stop_cu : std_logic := 0;; signal temp_stop_cu : std_logic := '0';</t>
   </si>
   <si>
+    <t>Nome sbagliato, ma dichiarazione fatta bene</t>
+  </si>
+  <si>
     <t>Define an entity named ripple_carry with input signals X and Y each of size 8 bits, s_in as a single bit input signal, c_out as a single bit output signal, and Z as an output std_logic_vector of size 8 bits; using the selected signal assignment, the signal c.a_request.be is set to c.sys_master_ctrl_out.be when the signal c.b_request_complete is equal to '1', r.b_request.be when the signal c.b_request_complete is equal to '0', otherwise 'X'; define the ieee standard library</t>
   </si>
   <si>
@@ -2898,6 +2967,9 @@
     <t>i_start_counter &lt;= START_DLY - 1; i_start_counter &lt;= i_start_counter + 1; t_start &lt;= '0'; y &lt;= a0 when ciao = '0' else a1 when ciao = '1' else '-'; end i_start_counter;</t>
   </si>
   <si>
+    <t>Non fa la if</t>
+  </si>
+  <si>
     <t>Generate two signals clkena with two bits, set both bits to '1' if clk2xen is not equal to 0; round_key_temp is a std_logic_vector signal of 64 bit; define the component sbox</t>
   </si>
   <si>
@@ -2950,6 +3022,9 @@
   </si>
   <si>
     <t>case a is when "00" =&gt; y &lt;= "1000"; when "01" =&gt; y &lt;= "0100"; when "10" =&gt; y &lt;= "0010"; when "11" =&gt; y &lt;= "0001"; when others =&gt; y &lt;= (others =&gt; '0'); end case; reg_count_nxt &lt;= clock_multiplier - 1;</t>
+  </si>
+  <si>
+    <t>Ultima richiesta non soddisfatta</t>
   </si>
   <si>
     <t>Set data_1_o output to i_data_1_out when rst_n_i is high, otherwise set it to all '0'; set the signal x to the concatenation of signals y and z; i_data_3_out is a std_logic_vector of DOUT_LEN bits</t>
@@ -3358,8 +3433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A243" workbookViewId="0">
-      <selection activeCell="H264" sqref="H264"/>
+    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
+      <selection activeCell="J327" sqref="J327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10010,16 +10085,19 @@
       <c r="G264">
         <v>0</v>
       </c>
+      <c r="H264" t="s">
+        <v>803</v>
+      </c>
     </row>
     <row r="265" spans="1:8">
       <c r="A265" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B265" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C265" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D265">
         <v>0</v>
@@ -10033,16 +10111,19 @@
       <c r="G265">
         <v>0</v>
       </c>
+      <c r="H265" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="266" spans="1:8">
       <c r="A266" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B266" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C266" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="D266">
         <v>0</v>
@@ -10054,18 +10135,21 @@
         <v>0.4997417355371902</v>
       </c>
       <c r="G266">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H266" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="267" spans="1:8">
       <c r="A267" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="B267" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="C267" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="D267">
         <v>0</v>
@@ -10079,16 +10163,19 @@
       <c r="G267">
         <v>0</v>
       </c>
+      <c r="H267" t="s">
+        <v>814</v>
+      </c>
     </row>
     <row r="268" spans="1:8">
       <c r="A268" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="B268" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="C268" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="D268">
         <v>0</v>
@@ -10102,16 +10189,19 @@
       <c r="G268">
         <v>0</v>
       </c>
+      <c r="H268" t="s">
+        <v>818</v>
+      </c>
     </row>
     <row r="269" spans="1:8">
       <c r="A269" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="B269" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="C269" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="D269">
         <v>0</v>
@@ -10125,16 +10215,19 @@
       <c r="G269">
         <v>0</v>
       </c>
+      <c r="H269" t="s">
+        <v>822</v>
+      </c>
     </row>
     <row r="270" spans="1:8">
       <c r="A270" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="B270" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="C270" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="D270">
         <v>0</v>
@@ -10148,16 +10241,19 @@
       <c r="G270">
         <v>0</v>
       </c>
+      <c r="H270" t="s">
+        <v>826</v>
+      </c>
     </row>
     <row r="271" spans="1:8">
       <c r="A271" t="s">
-        <v>821</v>
+        <v>827</v>
       </c>
       <c r="B271" t="s">
-        <v>822</v>
+        <v>828</v>
       </c>
       <c r="C271" t="s">
-        <v>823</v>
+        <v>829</v>
       </c>
       <c r="D271">
         <v>0</v>
@@ -10171,16 +10267,19 @@
       <c r="G271">
         <v>0</v>
       </c>
+      <c r="H271" t="s">
+        <v>830</v>
+      </c>
     </row>
     <row r="272" spans="1:8">
       <c r="A272" t="s">
-        <v>824</v>
+        <v>831</v>
       </c>
       <c r="B272" t="s">
-        <v>825</v>
+        <v>832</v>
       </c>
       <c r="C272" t="s">
-        <v>826</v>
+        <v>833</v>
       </c>
       <c r="D272">
         <v>0</v>
@@ -10194,16 +10293,19 @@
       <c r="G272">
         <v>0</v>
       </c>
+      <c r="H272" t="s">
+        <v>834</v>
+      </c>
     </row>
     <row r="273" spans="1:8">
       <c r="A273" t="s">
-        <v>827</v>
+        <v>835</v>
       </c>
       <c r="B273" t="s">
-        <v>828</v>
+        <v>836</v>
       </c>
       <c r="C273" t="s">
-        <v>829</v>
+        <v>837</v>
       </c>
       <c r="D273">
         <v>0</v>
@@ -10217,16 +10319,19 @@
       <c r="G273">
         <v>0</v>
       </c>
+      <c r="H273" t="s">
+        <v>838</v>
+      </c>
     </row>
     <row r="274" spans="1:8">
       <c r="A274" t="s">
-        <v>830</v>
+        <v>839</v>
       </c>
       <c r="B274" t="s">
-        <v>831</v>
+        <v>840</v>
       </c>
       <c r="C274" t="s">
-        <v>832</v>
+        <v>841</v>
       </c>
       <c r="D274">
         <v>0</v>
@@ -10240,16 +10345,19 @@
       <c r="G274">
         <v>0</v>
       </c>
+      <c r="H274" t="s">
+        <v>842</v>
+      </c>
     </row>
     <row r="275" spans="1:8">
       <c r="A275" t="s">
-        <v>833</v>
+        <v>843</v>
       </c>
       <c r="B275" t="s">
-        <v>834</v>
+        <v>844</v>
       </c>
       <c r="C275" t="s">
-        <v>835</v>
+        <v>845</v>
       </c>
       <c r="D275">
         <v>0</v>
@@ -10263,16 +10371,19 @@
       <c r="G275">
         <v>0</v>
       </c>
+      <c r="H275" t="s">
+        <v>846</v>
+      </c>
     </row>
     <row r="276" spans="1:8">
       <c r="A276" t="s">
-        <v>836</v>
+        <v>847</v>
       </c>
       <c r="B276" t="s">
-        <v>837</v>
+        <v>848</v>
       </c>
       <c r="C276" t="s">
-        <v>838</v>
+        <v>849</v>
       </c>
       <c r="D276">
         <v>0</v>
@@ -10286,16 +10397,19 @@
       <c r="G276">
         <v>0</v>
       </c>
+      <c r="H276" t="s">
+        <v>850</v>
+      </c>
     </row>
     <row r="277" spans="1:8">
       <c r="A277" t="s">
-        <v>839</v>
+        <v>851</v>
       </c>
       <c r="B277" t="s">
-        <v>840</v>
+        <v>852</v>
       </c>
       <c r="C277" t="s">
-        <v>841</v>
+        <v>853</v>
       </c>
       <c r="D277">
         <v>0</v>
@@ -10309,16 +10423,19 @@
       <c r="G277">
         <v>0</v>
       </c>
+      <c r="H277" t="s">
+        <v>854</v>
+      </c>
     </row>
     <row r="278" spans="1:8">
       <c r="A278" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
       <c r="B278" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
       <c r="C278" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
       <c r="D278">
         <v>0</v>
@@ -10332,13 +10449,16 @@
       <c r="G278">
         <v>0</v>
       </c>
+      <c r="H278" t="s">
+        <v>858</v>
+      </c>
     </row>
     <row r="279" spans="1:8">
       <c r="A279" t="s">
-        <v>845</v>
+        <v>859</v>
       </c>
       <c r="B279" t="s">
-        <v>846</v>
+        <v>860</v>
       </c>
       <c r="C279" t="s">
         <v>53</v>
@@ -10361,13 +10481,13 @@
     </row>
     <row r="280" spans="1:8">
       <c r="A280" t="s">
-        <v>847</v>
+        <v>861</v>
       </c>
       <c r="B280" t="s">
-        <v>848</v>
+        <v>862</v>
       </c>
       <c r="C280" t="s">
-        <v>849</v>
+        <v>863</v>
       </c>
       <c r="D280">
         <v>0</v>
@@ -10379,18 +10499,21 @@
         <v>0.74125709678503038</v>
       </c>
       <c r="G280">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H280" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="281" spans="1:8">
       <c r="A281" t="s">
-        <v>850</v>
+        <v>864</v>
       </c>
       <c r="B281" t="s">
-        <v>851</v>
+        <v>865</v>
       </c>
       <c r="C281" t="s">
-        <v>852</v>
+        <v>866</v>
       </c>
       <c r="D281">
         <v>0</v>
@@ -10404,16 +10527,19 @@
       <c r="G281">
         <v>0</v>
       </c>
+      <c r="H281" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="282" spans="1:8">
       <c r="A282" t="s">
-        <v>853</v>
+        <v>867</v>
       </c>
       <c r="B282" t="s">
-        <v>854</v>
+        <v>868</v>
       </c>
       <c r="C282" t="s">
-        <v>855</v>
+        <v>869</v>
       </c>
       <c r="D282">
         <v>0</v>
@@ -10425,18 +10551,18 @@
         <v>0.95492485549132944</v>
       </c>
       <c r="G282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:8">
       <c r="A283" t="s">
-        <v>856</v>
+        <v>870</v>
       </c>
       <c r="B283" t="s">
-        <v>857</v>
+        <v>871</v>
       </c>
       <c r="C283" t="s">
-        <v>858</v>
+        <v>872</v>
       </c>
       <c r="D283">
         <v>0</v>
@@ -10450,16 +10576,19 @@
       <c r="G283">
         <v>0</v>
       </c>
+      <c r="H283" t="s">
+        <v>873</v>
+      </c>
     </row>
     <row r="284" spans="1:8">
       <c r="A284" t="s">
-        <v>859</v>
+        <v>874</v>
       </c>
       <c r="B284" t="s">
-        <v>860</v>
+        <v>875</v>
       </c>
       <c r="C284" t="s">
-        <v>861</v>
+        <v>876</v>
       </c>
       <c r="D284">
         <v>0</v>
@@ -10473,16 +10602,19 @@
       <c r="G284">
         <v>0</v>
       </c>
+      <c r="H284" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="285" spans="1:8">
       <c r="A285" t="s">
-        <v>862</v>
+        <v>877</v>
       </c>
       <c r="B285" t="s">
-        <v>863</v>
+        <v>878</v>
       </c>
       <c r="C285" t="s">
-        <v>864</v>
+        <v>879</v>
       </c>
       <c r="D285">
         <v>0</v>
@@ -10496,16 +10628,19 @@
       <c r="G285">
         <v>0</v>
       </c>
+      <c r="H285" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="286" spans="1:8">
       <c r="A286" t="s">
-        <v>865</v>
+        <v>880</v>
       </c>
       <c r="B286" t="s">
-        <v>866</v>
+        <v>881</v>
       </c>
       <c r="C286" t="s">
-        <v>867</v>
+        <v>882</v>
       </c>
       <c r="D286">
         <v>0</v>
@@ -10519,16 +10654,19 @@
       <c r="G286">
         <v>0</v>
       </c>
+      <c r="H286" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="287" spans="1:8">
       <c r="A287" t="s">
-        <v>868</v>
+        <v>883</v>
       </c>
       <c r="B287" t="s">
-        <v>869</v>
+        <v>884</v>
       </c>
       <c r="C287" t="s">
-        <v>870</v>
+        <v>885</v>
       </c>
       <c r="D287">
         <v>0</v>
@@ -10542,16 +10680,19 @@
       <c r="G287">
         <v>0</v>
       </c>
+      <c r="H287" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="288" spans="1:8">
       <c r="A288" t="s">
-        <v>871</v>
+        <v>886</v>
       </c>
       <c r="B288" t="s">
-        <v>872</v>
+        <v>887</v>
       </c>
       <c r="C288" t="s">
-        <v>873</v>
+        <v>888</v>
       </c>
       <c r="D288">
         <v>0</v>
@@ -10565,13 +10706,16 @@
       <c r="G288">
         <v>0</v>
       </c>
+      <c r="H288" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="289" spans="1:8">
       <c r="A289" t="s">
-        <v>874</v>
+        <v>889</v>
       </c>
       <c r="B289" t="s">
-        <v>875</v>
+        <v>890</v>
       </c>
       <c r="C289" t="s">
         <v>53</v>
@@ -10594,13 +10738,13 @@
     </row>
     <row r="290" spans="1:8">
       <c r="A290" t="s">
-        <v>876</v>
+        <v>891</v>
       </c>
       <c r="B290" t="s">
-        <v>877</v>
+        <v>892</v>
       </c>
       <c r="C290" t="s">
-        <v>878</v>
+        <v>893</v>
       </c>
       <c r="D290">
         <v>0</v>
@@ -10614,16 +10758,19 @@
       <c r="G290">
         <v>0</v>
       </c>
+      <c r="H290" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="291" spans="1:8">
       <c r="A291" t="s">
-        <v>879</v>
+        <v>894</v>
       </c>
       <c r="B291" t="s">
-        <v>880</v>
+        <v>895</v>
       </c>
       <c r="C291" t="s">
-        <v>881</v>
+        <v>896</v>
       </c>
       <c r="D291">
         <v>0</v>
@@ -10635,18 +10782,18 @@
         <v>0.9443483275663207</v>
       </c>
       <c r="G291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8">
       <c r="A292" t="s">
-        <v>882</v>
+        <v>897</v>
       </c>
       <c r="B292" t="s">
-        <v>883</v>
+        <v>898</v>
       </c>
       <c r="C292" t="s">
-        <v>884</v>
+        <v>899</v>
       </c>
       <c r="D292">
         <v>0</v>
@@ -10660,16 +10807,19 @@
       <c r="G292">
         <v>0</v>
       </c>
+      <c r="H292" t="s">
+        <v>900</v>
+      </c>
     </row>
     <row r="293" spans="1:8">
       <c r="A293" t="s">
-        <v>885</v>
+        <v>901</v>
       </c>
       <c r="B293" t="s">
-        <v>886</v>
+        <v>902</v>
       </c>
       <c r="C293" t="s">
-        <v>886</v>
+        <v>902</v>
       </c>
       <c r="D293">
         <v>1</v>
@@ -10686,13 +10836,13 @@
     </row>
     <row r="294" spans="1:8">
       <c r="A294" t="s">
-        <v>887</v>
+        <v>903</v>
       </c>
       <c r="B294" t="s">
-        <v>888</v>
+        <v>904</v>
       </c>
       <c r="C294" t="s">
-        <v>889</v>
+        <v>905</v>
       </c>
       <c r="D294">
         <v>0</v>
@@ -10706,16 +10856,19 @@
       <c r="G294">
         <v>0</v>
       </c>
+      <c r="H294" t="s">
+        <v>906</v>
+      </c>
     </row>
     <row r="295" spans="1:8">
       <c r="A295" t="s">
-        <v>890</v>
+        <v>907</v>
       </c>
       <c r="B295" t="s">
-        <v>891</v>
+        <v>908</v>
       </c>
       <c r="C295" t="s">
-        <v>892</v>
+        <v>909</v>
       </c>
       <c r="D295">
         <v>0</v>
@@ -10729,16 +10882,19 @@
       <c r="G295">
         <v>0</v>
       </c>
+      <c r="H295" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="296" spans="1:8">
       <c r="A296" t="s">
-        <v>893</v>
+        <v>910</v>
       </c>
       <c r="B296" t="s">
-        <v>894</v>
+        <v>911</v>
       </c>
       <c r="C296" t="s">
-        <v>895</v>
+        <v>912</v>
       </c>
       <c r="D296">
         <v>0</v>
@@ -10752,13 +10908,16 @@
       <c r="G296">
         <v>0</v>
       </c>
+      <c r="H296" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="297" spans="1:8">
       <c r="A297" t="s">
-        <v>896</v>
+        <v>913</v>
       </c>
       <c r="B297" t="s">
-        <v>897</v>
+        <v>914</v>
       </c>
       <c r="C297" t="s">
         <v>53</v>
@@ -10781,13 +10940,13 @@
     </row>
     <row r="298" spans="1:8">
       <c r="A298" t="s">
-        <v>898</v>
+        <v>915</v>
       </c>
       <c r="B298" t="s">
-        <v>899</v>
+        <v>916</v>
       </c>
       <c r="C298" t="s">
-        <v>900</v>
+        <v>917</v>
       </c>
       <c r="D298">
         <v>0</v>
@@ -10801,13 +10960,16 @@
       <c r="G298">
         <v>0</v>
       </c>
+      <c r="H298" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="299" spans="1:8">
       <c r="A299" t="s">
-        <v>901</v>
+        <v>918</v>
       </c>
       <c r="B299" t="s">
-        <v>902</v>
+        <v>919</v>
       </c>
       <c r="C299" t="s">
         <v>53</v>
@@ -10830,13 +10992,13 @@
     </row>
     <row r="300" spans="1:8">
       <c r="A300" t="s">
-        <v>903</v>
+        <v>920</v>
       </c>
       <c r="B300" t="s">
-        <v>904</v>
+        <v>921</v>
       </c>
       <c r="C300" t="s">
-        <v>905</v>
+        <v>922</v>
       </c>
       <c r="D300">
         <v>0</v>
@@ -10850,16 +11012,19 @@
       <c r="G300">
         <v>0</v>
       </c>
+      <c r="H300" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="301" spans="1:8">
       <c r="A301" t="s">
-        <v>906</v>
+        <v>923</v>
       </c>
       <c r="B301" t="s">
-        <v>907</v>
+        <v>924</v>
       </c>
       <c r="C301" t="s">
-        <v>908</v>
+        <v>925</v>
       </c>
       <c r="D301">
         <v>0</v>
@@ -10873,13 +11038,16 @@
       <c r="G301">
         <v>0</v>
       </c>
+      <c r="H301" t="s">
+        <v>926</v>
+      </c>
     </row>
     <row r="302" spans="1:8">
       <c r="A302" t="s">
-        <v>909</v>
+        <v>927</v>
       </c>
       <c r="B302" t="s">
-        <v>910</v>
+        <v>928</v>
       </c>
       <c r="C302" t="s">
         <v>53</v>
@@ -10902,13 +11070,13 @@
     </row>
     <row r="303" spans="1:8">
       <c r="A303" t="s">
-        <v>911</v>
+        <v>929</v>
       </c>
       <c r="B303" t="s">
-        <v>912</v>
+        <v>930</v>
       </c>
       <c r="C303" t="s">
-        <v>913</v>
+        <v>931</v>
       </c>
       <c r="D303">
         <v>0</v>
@@ -10922,16 +11090,19 @@
       <c r="G303">
         <v>0</v>
       </c>
+      <c r="H303" t="s">
+        <v>932</v>
+      </c>
     </row>
     <row r="304" spans="1:8">
       <c r="A304" t="s">
-        <v>914</v>
+        <v>933</v>
       </c>
       <c r="B304" t="s">
-        <v>915</v>
+        <v>934</v>
       </c>
       <c r="C304" t="s">
-        <v>916</v>
+        <v>935</v>
       </c>
       <c r="D304">
         <v>0</v>
@@ -10945,16 +11116,19 @@
       <c r="G304">
         <v>0</v>
       </c>
+      <c r="H304" t="s">
+        <v>936</v>
+      </c>
     </row>
     <row r="305" spans="1:8">
       <c r="A305" t="s">
-        <v>917</v>
+        <v>937</v>
       </c>
       <c r="B305" t="s">
-        <v>918</v>
+        <v>938</v>
       </c>
       <c r="C305" t="s">
-        <v>919</v>
+        <v>939</v>
       </c>
       <c r="D305">
         <v>0</v>
@@ -10968,16 +11142,19 @@
       <c r="G305">
         <v>0</v>
       </c>
+      <c r="H305" t="s">
+        <v>936</v>
+      </c>
     </row>
     <row r="306" spans="1:8">
       <c r="A306" t="s">
-        <v>920</v>
+        <v>940</v>
       </c>
       <c r="B306" t="s">
-        <v>921</v>
+        <v>941</v>
       </c>
       <c r="C306" t="s">
-        <v>922</v>
+        <v>942</v>
       </c>
       <c r="D306">
         <v>0</v>
@@ -10991,16 +11168,19 @@
       <c r="G306">
         <v>0</v>
       </c>
+      <c r="H306" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="307" spans="1:8">
       <c r="A307" t="s">
-        <v>923</v>
+        <v>943</v>
       </c>
       <c r="B307" t="s">
-        <v>924</v>
+        <v>944</v>
       </c>
       <c r="C307" t="s">
-        <v>925</v>
+        <v>945</v>
       </c>
       <c r="D307">
         <v>0</v>
@@ -11014,16 +11194,19 @@
       <c r="G307">
         <v>0</v>
       </c>
+      <c r="H307" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="308" spans="1:8">
       <c r="A308" t="s">
-        <v>926</v>
+        <v>946</v>
       </c>
       <c r="B308" t="s">
-        <v>927</v>
+        <v>947</v>
       </c>
       <c r="C308" t="s">
-        <v>928</v>
+        <v>948</v>
       </c>
       <c r="D308">
         <v>0</v>
@@ -11035,18 +11218,21 @@
         <v>0.61783047343251962</v>
       </c>
       <c r="G308">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H308" t="s">
+        <v>949</v>
       </c>
     </row>
     <row r="309" spans="1:8">
       <c r="A309" t="s">
-        <v>929</v>
+        <v>950</v>
       </c>
       <c r="B309" t="s">
-        <v>930</v>
+        <v>951</v>
       </c>
       <c r="C309" t="s">
-        <v>931</v>
+        <v>952</v>
       </c>
       <c r="D309">
         <v>0</v>
@@ -11060,13 +11246,16 @@
       <c r="G309">
         <v>0</v>
       </c>
+      <c r="H309" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="310" spans="1:8">
       <c r="A310" t="s">
-        <v>932</v>
+        <v>953</v>
       </c>
       <c r="B310" t="s">
-        <v>933</v>
+        <v>954</v>
       </c>
       <c r="C310" t="s">
         <v>53</v>
@@ -11089,13 +11278,13 @@
     </row>
     <row r="311" spans="1:8">
       <c r="A311" t="s">
-        <v>934</v>
+        <v>955</v>
       </c>
       <c r="B311" t="s">
-        <v>935</v>
+        <v>956</v>
       </c>
       <c r="C311" t="s">
-        <v>936</v>
+        <v>957</v>
       </c>
       <c r="D311">
         <v>0</v>
@@ -11107,18 +11296,21 @@
         <v>0.68142446290683267</v>
       </c>
       <c r="G311">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H311" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="312" spans="1:8">
       <c r="A312" t="s">
-        <v>937</v>
+        <v>959</v>
       </c>
       <c r="B312" t="s">
-        <v>938</v>
+        <v>960</v>
       </c>
       <c r="C312" t="s">
-        <v>939</v>
+        <v>961</v>
       </c>
       <c r="D312">
         <v>0</v>
@@ -11132,16 +11324,19 @@
       <c r="G312">
         <v>0</v>
       </c>
+      <c r="H312" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="313" spans="1:8">
       <c r="A313" t="s">
-        <v>940</v>
+        <v>962</v>
       </c>
       <c r="B313" t="s">
-        <v>941</v>
+        <v>963</v>
       </c>
       <c r="C313" t="s">
-        <v>942</v>
+        <v>964</v>
       </c>
       <c r="D313">
         <v>0</v>
@@ -11153,18 +11348,18 @@
         <v>0.99993750000000003</v>
       </c>
       <c r="G313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:8">
       <c r="A314" t="s">
-        <v>943</v>
+        <v>965</v>
       </c>
       <c r="B314" t="s">
-        <v>944</v>
+        <v>966</v>
       </c>
       <c r="C314" t="s">
-        <v>945</v>
+        <v>967</v>
       </c>
       <c r="D314">
         <v>0</v>
@@ -11178,16 +11373,19 @@
       <c r="G314">
         <v>0</v>
       </c>
+      <c r="H314" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="315" spans="1:8">
       <c r="A315" t="s">
-        <v>946</v>
+        <v>968</v>
       </c>
       <c r="B315" t="s">
-        <v>947</v>
+        <v>969</v>
       </c>
       <c r="C315" t="s">
-        <v>948</v>
+        <v>970</v>
       </c>
       <c r="D315">
         <v>0</v>
@@ -11199,18 +11397,21 @@
         <v>0.93186712099431501</v>
       </c>
       <c r="G315">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H315" t="s">
+        <v>971</v>
       </c>
     </row>
     <row r="316" spans="1:8">
       <c r="A316" t="s">
-        <v>949</v>
+        <v>972</v>
       </c>
       <c r="B316" t="s">
-        <v>950</v>
+        <v>973</v>
       </c>
       <c r="C316" t="s">
-        <v>951</v>
+        <v>974</v>
       </c>
       <c r="D316">
         <v>0</v>
@@ -11224,16 +11425,19 @@
       <c r="G316">
         <v>0</v>
       </c>
+      <c r="H316" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="317" spans="1:8">
       <c r="A317" t="s">
-        <v>952</v>
+        <v>975</v>
       </c>
       <c r="B317" t="s">
-        <v>953</v>
+        <v>976</v>
       </c>
       <c r="C317" t="s">
-        <v>954</v>
+        <v>977</v>
       </c>
       <c r="D317">
         <v>0</v>
@@ -11247,16 +11451,19 @@
       <c r="G317">
         <v>0</v>
       </c>
+      <c r="H317" t="s">
+        <v>978</v>
+      </c>
     </row>
     <row r="318" spans="1:8">
       <c r="A318" t="s">
-        <v>955</v>
+        <v>979</v>
       </c>
       <c r="B318" t="s">
-        <v>956</v>
+        <v>980</v>
       </c>
       <c r="C318" t="s">
-        <v>957</v>
+        <v>981</v>
       </c>
       <c r="D318">
         <v>0</v>
@@ -11270,16 +11477,19 @@
       <c r="G318">
         <v>0</v>
       </c>
+      <c r="H318" t="s">
+        <v>978</v>
+      </c>
     </row>
     <row r="319" spans="1:8">
       <c r="A319" t="s">
-        <v>958</v>
+        <v>982</v>
       </c>
       <c r="B319" t="s">
-        <v>959</v>
+        <v>983</v>
       </c>
       <c r="C319" t="s">
-        <v>960</v>
+        <v>984</v>
       </c>
       <c r="D319">
         <v>0</v>
@@ -11293,16 +11503,19 @@
       <c r="G319">
         <v>0</v>
       </c>
+      <c r="H319" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="320" spans="1:8">
       <c r="A320" t="s">
-        <v>961</v>
+        <v>985</v>
       </c>
       <c r="B320" t="s">
-        <v>962</v>
+        <v>986</v>
       </c>
       <c r="C320" t="s">
-        <v>963</v>
+        <v>987</v>
       </c>
       <c r="D320">
         <v>0</v>
@@ -11316,16 +11529,19 @@
       <c r="G320">
         <v>0</v>
       </c>
+      <c r="H320" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="321" spans="1:8">
       <c r="A321" t="s">
-        <v>964</v>
+        <v>988</v>
       </c>
       <c r="B321" t="s">
-        <v>965</v>
+        <v>989</v>
       </c>
       <c r="C321" t="s">
-        <v>966</v>
+        <v>990</v>
       </c>
       <c r="D321">
         <v>0</v>
@@ -11339,16 +11555,19 @@
       <c r="G321">
         <v>0</v>
       </c>
+      <c r="H321" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="322" spans="1:8">
       <c r="A322" t="s">
-        <v>967</v>
+        <v>991</v>
       </c>
       <c r="B322" t="s">
-        <v>968</v>
+        <v>992</v>
       </c>
       <c r="C322" t="s">
-        <v>969</v>
+        <v>993</v>
       </c>
       <c r="D322">
         <v>0</v>
@@ -11362,16 +11581,19 @@
       <c r="G322">
         <v>0</v>
       </c>
+      <c r="H322" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="323" spans="1:8">
       <c r="A323" t="s">
-        <v>970</v>
+        <v>994</v>
       </c>
       <c r="B323" t="s">
-        <v>971</v>
+        <v>995</v>
       </c>
       <c r="C323" t="s">
-        <v>972</v>
+        <v>996</v>
       </c>
       <c r="D323">
         <v>0</v>
@@ -11385,16 +11607,19 @@
       <c r="G323">
         <v>0</v>
       </c>
+      <c r="H323" t="s">
+        <v>997</v>
+      </c>
     </row>
     <row r="324" spans="1:8">
       <c r="A324" t="s">
-        <v>973</v>
+        <v>998</v>
       </c>
       <c r="B324" t="s">
-        <v>974</v>
+        <v>999</v>
       </c>
       <c r="C324" t="s">
-        <v>975</v>
+        <v>1000</v>
       </c>
       <c r="D324">
         <v>0</v>
@@ -11408,16 +11633,19 @@
       <c r="G324">
         <v>0</v>
       </c>
+      <c r="H324" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="325" spans="1:8">
       <c r="A325" t="s">
-        <v>976</v>
+        <v>1001</v>
       </c>
       <c r="B325" t="s">
-        <v>977</v>
+        <v>1002</v>
       </c>
       <c r="C325" t="s">
-        <v>978</v>
+        <v>1003</v>
       </c>
       <c r="D325">
         <v>0</v>
@@ -11432,18 +11660,18 @@
         <v>0</v>
       </c>
       <c r="H325" t="s">
-        <v>979</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="326" spans="1:8">
       <c r="A326" t="s">
-        <v>980</v>
+        <v>1005</v>
       </c>
       <c r="B326" t="s">
-        <v>981</v>
+        <v>1006</v>
       </c>
       <c r="C326" t="s">
-        <v>981</v>
+        <v>1006</v>
       </c>
       <c r="D326">
         <v>1</v>
@@ -11460,13 +11688,13 @@
     </row>
     <row r="327" spans="1:8">
       <c r="A327" t="s">
-        <v>982</v>
+        <v>1007</v>
       </c>
       <c r="B327" t="s">
-        <v>983</v>
+        <v>1008</v>
       </c>
       <c r="C327" t="s">
-        <v>984</v>
+        <v>1009</v>
       </c>
       <c r="D327">
         <v>0</v>

--- a/HE/W_in_progress/AnalisiCodeGPT.xlsx
+++ b/HE/W_in_progress/AnalisiCodeGPT.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28224"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13BDDDFE-2490-4503-9E8C-DE6F80FB0E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcd\Desktop\Tesi\Work\repo\Tesi_Generatore_VHDL\HE\W_in_progress\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A28CE6-0288-4440-B7F8-548BA276342A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3444" yWindow="1752" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="1493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1891" uniqueCount="1494">
   <si>
     <t>IN</t>
   </si>
@@ -4510,13 +4515,16 @@
   </si>
   <si>
     <t>0.09999999520000023</t>
+  </si>
+  <si>
+    <t>SBERT_M</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4580,7 +4588,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4880,20 +4888,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L327"/>
+  <dimension ref="A1:M327"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" customWidth="1"/>
+    <col min="3" max="3" width="28.5546875" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4925,13 +4934,16 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -4963,13 +4975,16 @@
         <v>16</v>
       </c>
       <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2" t="s">
+        <v>0.3665517270565033</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -5001,13 +5016,16 @@
         <v>22</v>
       </c>
       <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3" t="s">
+        <v>0.54714179039001465</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -5039,13 +5057,16 @@
         <v>27</v>
       </c>
       <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4" t="s">
+        <v>0.6917722225189209</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -5077,13 +5098,16 @@
         <v>33</v>
       </c>
       <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5" t="s">
+        <v>0.23028382658958441</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -5115,13 +5139,16 @@
         <v>38</v>
       </c>
       <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6" t="s">
+        <v>0.66243666410446167</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -5153,13 +5180,16 @@
         <v>43</v>
       </c>
       <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7" t="s">
+        <v>0.98538511991500854</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -5191,10 +5221,13 @@
         <v>48</v>
       </c>
       <c r="K8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.99999988079071045</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -5226,13 +5259,16 @@
         <v>52</v>
       </c>
       <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9" t="s">
+        <v>0.94016361236572266</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -5264,13 +5300,16 @@
         <v>58</v>
       </c>
       <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10" t="s">
+        <v>0.93074440956115723</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -5302,13 +5341,16 @@
         <v>63</v>
       </c>
       <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11" t="s">
+        <v>0.87436372041702271</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>64</v>
       </c>
@@ -5340,13 +5382,16 @@
         <v>68</v>
       </c>
       <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12" t="s">
+        <v>0.61113494634628296</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>69</v>
       </c>
@@ -5378,13 +5423,16 @@
         <v>73</v>
       </c>
       <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13" t="s">
+        <v>0.60743439197540283</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>75</v>
       </c>
@@ -5416,13 +5464,16 @@
         <v>79</v>
       </c>
       <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14" t="s">
+        <v>0.81473928689956665</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>81</v>
       </c>
@@ -5454,13 +5505,16 @@
         <v>16</v>
       </c>
       <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15" t="s">
+        <v>0.19348993897438049</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>85</v>
       </c>
@@ -5492,10 +5546,13 @@
         <v>89</v>
       </c>
       <c r="K16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.99999988079071045</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>90</v>
       </c>
@@ -5527,10 +5584,13 @@
         <v>94</v>
       </c>
       <c r="K17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.98839724063873291</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>95</v>
       </c>
@@ -5562,13 +5622,16 @@
         <v>99</v>
       </c>
       <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18" t="s">
+        <v>0.67551982402801514</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>100</v>
       </c>
@@ -5600,13 +5663,16 @@
         <v>104</v>
       </c>
       <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19" t="s">
+        <v>0.91271829605102539</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>106</v>
       </c>
@@ -5638,10 +5704,13 @@
         <v>48</v>
       </c>
       <c r="K20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.99999994039535522</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>108</v>
       </c>
@@ -5673,13 +5742,16 @@
         <v>112</v>
       </c>
       <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21" t="s">
+        <v>0.65207427740097046</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>114</v>
       </c>
@@ -5711,13 +5783,16 @@
         <v>117</v>
       </c>
       <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22" t="s">
+        <v>0.5798652172088623</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>118</v>
       </c>
@@ -5749,13 +5824,16 @@
         <v>121</v>
       </c>
       <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23" t="s">
+        <v>0.91833770275115967</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>123</v>
       </c>
@@ -5787,13 +5865,16 @@
         <v>127</v>
       </c>
       <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24" t="s">
+        <v>0.82156026363372803</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>128</v>
       </c>
@@ -5825,10 +5906,13 @@
         <v>48</v>
       </c>
       <c r="K25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>0.99999982118606567</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>130</v>
       </c>
@@ -5860,13 +5944,16 @@
         <v>134</v>
       </c>
       <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26" t="s">
+        <v>0.63774555921554565</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>135</v>
       </c>
@@ -5898,13 +5985,16 @@
         <v>139</v>
       </c>
       <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27" t="s">
+        <v>0.60679936408996582</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>141</v>
       </c>
@@ -5936,13 +6026,16 @@
         <v>145</v>
       </c>
       <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28" t="s">
+        <v>0.53882449865341187</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>147</v>
       </c>
@@ -5974,10 +6067,13 @@
         <v>151</v>
       </c>
       <c r="K29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+        <v>0.99744904041290283</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>152</v>
       </c>
@@ -6011,8 +6107,11 @@
       <c r="K30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="L30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>154</v>
       </c>
@@ -6044,10 +6143,13 @@
         <v>158</v>
       </c>
       <c r="K31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>159</v>
       </c>
@@ -6079,10 +6181,13 @@
         <v>94</v>
       </c>
       <c r="K32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+        <v>0.99010831117630005</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>163</v>
       </c>
@@ -6114,10 +6219,13 @@
         <v>48</v>
       </c>
       <c r="K33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>165</v>
       </c>
@@ -6151,8 +6259,11 @@
       <c r="K34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="L34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>167</v>
       </c>
@@ -6186,8 +6297,11 @@
       <c r="K35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="L35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>169</v>
       </c>
@@ -6219,10 +6333,13 @@
         <v>158</v>
       </c>
       <c r="K36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+        <v>1.0000002384185791</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>173</v>
       </c>
@@ -6256,8 +6373,11 @@
       <c r="K37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="L37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>175</v>
       </c>
@@ -6289,10 +6409,13 @@
         <v>48</v>
       </c>
       <c r="K38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
+        <v>0.99999994039535522</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>177</v>
       </c>
@@ -6324,10 +6447,13 @@
         <v>181</v>
       </c>
       <c r="K39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+        <v>0.97683119773864746</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>182</v>
       </c>
@@ -6359,10 +6485,13 @@
         <v>94</v>
       </c>
       <c r="K40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+        <v>0.92204391956329346</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>186</v>
       </c>
@@ -6394,13 +6523,16 @@
         <v>190</v>
       </c>
       <c r="K41">
-        <v>1</v>
-      </c>
-      <c r="L41" t="s">
+        <v>0.76133871078491211</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>192</v>
       </c>
@@ -6432,10 +6564,13 @@
         <v>48</v>
       </c>
       <c r="K42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
+        <v>0.99999994039535522</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>194</v>
       </c>
@@ -6467,13 +6602,16 @@
         <v>198</v>
       </c>
       <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43" t="s">
+        <v>0.81148171424865723</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>200</v>
       </c>
@@ -6505,10 +6643,13 @@
         <v>204</v>
       </c>
       <c r="K44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>205</v>
       </c>
@@ -6540,10 +6681,13 @@
         <v>48</v>
       </c>
       <c r="K45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>207</v>
       </c>
@@ -6575,13 +6719,16 @@
         <v>190</v>
       </c>
       <c r="K46">
-        <v>1</v>
-      </c>
-      <c r="L46" t="s">
+        <v>0.76133525371551514</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>211</v>
       </c>
@@ -6613,13 +6760,16 @@
         <v>214</v>
       </c>
       <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47" t="s">
+        <v>0.72210758924484253</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>216</v>
       </c>
@@ -6651,13 +6801,16 @@
         <v>16</v>
       </c>
       <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48" t="s">
+        <v>0.16048386693000791</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>219</v>
       </c>
@@ -6691,8 +6844,11 @@
       <c r="K49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:12">
+      <c r="L49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>223</v>
       </c>
@@ -6726,8 +6882,11 @@
       <c r="K50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:12">
+      <c r="L50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>225</v>
       </c>
@@ -6759,10 +6918,13 @@
         <v>229</v>
       </c>
       <c r="K51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
+        <v>0.99603056907653809</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>230</v>
       </c>
@@ -6796,8 +6958,11 @@
       <c r="K52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:12">
+      <c r="L52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>234</v>
       </c>
@@ -6829,13 +6994,16 @@
         <v>237</v>
       </c>
       <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53" t="s">
+        <v>0.85540342330932617</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>239</v>
       </c>
@@ -6867,13 +7035,16 @@
         <v>16</v>
       </c>
       <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54" t="s">
+        <v>9.4669409096240997E-2</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>242</v>
       </c>
@@ -6905,10 +7076,13 @@
         <v>48</v>
       </c>
       <c r="K55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>244</v>
       </c>
@@ -6940,13 +7114,16 @@
         <v>248</v>
       </c>
       <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56" t="s">
+        <v>0.659248948097229</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>250</v>
       </c>
@@ -6978,13 +7155,16 @@
         <v>254</v>
       </c>
       <c r="K57">
-        <v>1</v>
-      </c>
-      <c r="L57" t="s">
+        <v>0.92647957801818848</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>256</v>
       </c>
@@ -7018,8 +7198,11 @@
       <c r="K58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:12">
+      <c r="L58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>258</v>
       </c>
@@ -7053,8 +7236,11 @@
       <c r="K59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:12">
+      <c r="L59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>260</v>
       </c>
@@ -7086,13 +7272,16 @@
         <v>264</v>
       </c>
       <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60" t="s">
+        <v>0.84841626882553101</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>265</v>
       </c>
@@ -7124,10 +7313,13 @@
         <v>158</v>
       </c>
       <c r="K61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
+        <v>0.99999988079071045</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>268</v>
       </c>
@@ -7159,10 +7351,13 @@
         <v>48</v>
       </c>
       <c r="K62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
+        <v>0.99999982118606567</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>270</v>
       </c>
@@ -7194,10 +7389,13 @@
         <v>48</v>
       </c>
       <c r="K63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
+        <v>0.99999982118606567</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>272</v>
       </c>
@@ -7229,10 +7427,13 @@
         <v>112</v>
       </c>
       <c r="K64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
+        <v>1.0000002384185791</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>276</v>
       </c>
@@ -7264,10 +7465,13 @@
         <v>48</v>
       </c>
       <c r="K65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>277</v>
       </c>
@@ -7299,13 +7503,16 @@
         <v>281</v>
       </c>
       <c r="K66">
-        <v>0</v>
-      </c>
-      <c r="L66" t="s">
+        <v>0.94495195150375366</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>283</v>
       </c>
@@ -7339,8 +7546,11 @@
       <c r="K67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:12">
+      <c r="L67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>287</v>
       </c>
@@ -7372,13 +7582,16 @@
         <v>291</v>
       </c>
       <c r="K68">
-        <v>0</v>
-      </c>
-      <c r="L68" t="s">
+        <v>0.57813656330108643</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>293</v>
       </c>
@@ -7410,13 +7623,16 @@
         <v>16</v>
       </c>
       <c r="K69">
-        <v>0</v>
-      </c>
-      <c r="L69" t="s">
+        <v>9.5208406448364258E-2</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>296</v>
       </c>
@@ -7448,13 +7664,16 @@
         <v>300</v>
       </c>
       <c r="K70">
-        <v>1</v>
-      </c>
-      <c r="L70" t="s">
+        <v>0.93591952323913574</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>302</v>
       </c>
@@ -7486,13 +7705,16 @@
         <v>16</v>
       </c>
       <c r="K71">
-        <v>0</v>
-      </c>
-      <c r="L71" t="s">
+        <v>0.1978824436664581</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>305</v>
       </c>
@@ -7524,13 +7746,16 @@
         <v>16</v>
       </c>
       <c r="K72">
-        <v>1</v>
-      </c>
-      <c r="L72" t="s">
+        <v>0.33035963773727423</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>310</v>
       </c>
@@ -7562,10 +7787,13 @@
         <v>16</v>
       </c>
       <c r="K73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12">
+        <v>0.19282302260398859</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>313</v>
       </c>
@@ -7597,13 +7825,16 @@
         <v>317</v>
       </c>
       <c r="K74">
-        <v>0</v>
-      </c>
-      <c r="L74" t="s">
+        <v>0.97448790073394775</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>319</v>
       </c>
@@ -7635,13 +7866,16 @@
         <v>99</v>
       </c>
       <c r="K75">
-        <v>0</v>
-      </c>
-      <c r="L75" t="s">
+        <v>0.72824180126190186</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>323</v>
       </c>
@@ -7673,13 +7907,16 @@
         <v>326</v>
       </c>
       <c r="K76">
-        <v>0</v>
-      </c>
-      <c r="L76" t="s">
+        <v>0.85357773303985596</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>327</v>
       </c>
@@ -7711,13 +7948,16 @@
         <v>331</v>
       </c>
       <c r="K77">
-        <v>0</v>
-      </c>
-      <c r="L77" t="s">
+        <v>0.89448678493499756</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>332</v>
       </c>
@@ -7749,10 +7989,13 @@
         <v>48</v>
       </c>
       <c r="K78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>334</v>
       </c>
@@ -7784,10 +8027,13 @@
         <v>16</v>
       </c>
       <c r="K79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12">
+        <v>0.18045149743556979</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>337</v>
       </c>
@@ -7819,13 +8065,16 @@
         <v>16</v>
       </c>
       <c r="K80">
-        <v>1</v>
-      </c>
-      <c r="L80" t="s">
+        <v>0.33035963773727423</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="M80" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>338</v>
       </c>
@@ -7857,13 +8106,16 @@
         <v>342</v>
       </c>
       <c r="K81">
-        <v>0</v>
-      </c>
-      <c r="L81" t="s">
+        <v>0.20661526918411249</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>344</v>
       </c>
@@ -7895,10 +8147,13 @@
         <v>16</v>
       </c>
       <c r="K82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12">
+        <v>0.1167659759521484</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>347</v>
       </c>
@@ -7930,10 +8185,13 @@
         <v>254</v>
       </c>
       <c r="K83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12">
+        <v>0.95160752534866333</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>351</v>
       </c>
@@ -7965,13 +8223,16 @@
         <v>355</v>
       </c>
       <c r="K84">
-        <v>0</v>
-      </c>
-      <c r="L84" t="s">
+        <v>0.73887789249420166</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>357</v>
       </c>
@@ -8003,10 +8264,13 @@
         <v>48</v>
       </c>
       <c r="K85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12">
+        <v>0.9999997615814209</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>359</v>
       </c>
@@ -8038,13 +8302,16 @@
         <v>79</v>
       </c>
       <c r="K86">
-        <v>0</v>
-      </c>
-      <c r="L86" t="s">
+        <v>0.86970192193984985</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>363</v>
       </c>
@@ -8076,13 +8343,16 @@
         <v>16</v>
       </c>
       <c r="K87">
-        <v>0</v>
-      </c>
-      <c r="L87" t="s">
+        <v>0.11763130128383641</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>366</v>
       </c>
@@ -8114,13 +8384,16 @@
         <v>370</v>
       </c>
       <c r="K88">
-        <v>0</v>
-      </c>
-      <c r="L88" t="s">
+        <v>0.78641307353973389</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>371</v>
       </c>
@@ -8152,13 +8425,16 @@
         <v>375</v>
       </c>
       <c r="K89">
-        <v>0</v>
-      </c>
-      <c r="L89" t="s">
+        <v>0.99585515260696411</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>376</v>
       </c>
@@ -8190,13 +8466,16 @@
         <v>380</v>
       </c>
       <c r="K90">
-        <v>1</v>
-      </c>
-      <c r="L90" t="s">
+        <v>0.92000120878219604</v>
+      </c>
+      <c r="L90">
+        <v>1</v>
+      </c>
+      <c r="M90" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>381</v>
       </c>
@@ -8228,13 +8507,16 @@
         <v>127</v>
       </c>
       <c r="K91">
-        <v>1</v>
-      </c>
-      <c r="L91" t="s">
+        <v>0.82516956329345703</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>385</v>
       </c>
@@ -8266,13 +8548,16 @@
         <v>389</v>
       </c>
       <c r="K92">
-        <v>0</v>
-      </c>
-      <c r="L92" t="s">
+        <v>0.85121840238571167</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>376</v>
       </c>
@@ -8304,13 +8589,16 @@
         <v>380</v>
       </c>
       <c r="K93">
-        <v>1</v>
-      </c>
-      <c r="L93" t="s">
+        <v>0.92000120878219604</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>390</v>
       </c>
@@ -8342,10 +8630,13 @@
         <v>48</v>
       </c>
       <c r="K94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12">
+        <v>0.99999988079071045</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>392</v>
       </c>
@@ -8377,13 +8668,16 @@
         <v>355</v>
       </c>
       <c r="K95">
-        <v>1</v>
-      </c>
-      <c r="L95" t="s">
+        <v>0.70721948146820068</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="M95" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>396</v>
       </c>
@@ -8415,10 +8709,13 @@
         <v>48</v>
       </c>
       <c r="K96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>398</v>
       </c>
@@ -8450,13 +8747,16 @@
         <v>94</v>
       </c>
       <c r="K97">
-        <v>0</v>
-      </c>
-      <c r="L97" t="s">
+        <v>0.98745405673980713</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>402</v>
       </c>
@@ -8488,13 +8788,16 @@
         <v>405</v>
       </c>
       <c r="K98">
-        <v>1</v>
-      </c>
-      <c r="L98" t="s">
+        <v>0.89240527153015137</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>407</v>
       </c>
@@ -8526,10 +8829,13 @@
         <v>48</v>
       </c>
       <c r="K99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:12">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>408</v>
       </c>
@@ -8561,13 +8867,16 @@
         <v>412</v>
       </c>
       <c r="K100">
-        <v>0</v>
-      </c>
-      <c r="L100" t="s">
+        <v>0.72576296329498291</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>413</v>
       </c>
@@ -8599,13 +8908,16 @@
         <v>355</v>
       </c>
       <c r="K101">
-        <v>1</v>
-      </c>
-      <c r="L101" t="s">
+        <v>0.90108776092529297</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
+      <c r="M101" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="102" spans="1:12">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>417</v>
       </c>
@@ -8637,13 +8949,16 @@
         <v>94</v>
       </c>
       <c r="K102">
-        <v>0</v>
-      </c>
-      <c r="L102" t="s">
+        <v>0.97292149066925049</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>422</v>
       </c>
@@ -8675,13 +8990,16 @@
         <v>426</v>
       </c>
       <c r="K103">
-        <v>0</v>
-      </c>
-      <c r="L103" t="s">
+        <v>0.57245719432830811</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="104" spans="1:12">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>427</v>
       </c>
@@ -8713,13 +9031,16 @@
         <v>431</v>
       </c>
       <c r="K104">
-        <v>1</v>
-      </c>
-      <c r="L104" t="s">
+        <v>0.92757701873779297</v>
+      </c>
+      <c r="L104">
+        <v>1</v>
+      </c>
+      <c r="M104" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="105" spans="1:12">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>432</v>
       </c>
@@ -8751,13 +9072,16 @@
         <v>16</v>
       </c>
       <c r="K105">
-        <v>0</v>
-      </c>
-      <c r="L105" t="s">
+        <v>0.13670575618743899</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="106" spans="1:12">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>435</v>
       </c>
@@ -8789,13 +9113,16 @@
         <v>439</v>
       </c>
       <c r="K106">
-        <v>0</v>
-      </c>
-      <c r="L106" t="s">
+        <v>0.87353670597076416</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="107" spans="1:12">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>441</v>
       </c>
@@ -8827,13 +9154,16 @@
         <v>68</v>
       </c>
       <c r="K107">
-        <v>0</v>
-      </c>
-      <c r="L107" t="s">
+        <v>0.71534281969070435</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="108" spans="1:12">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>445</v>
       </c>
@@ -8865,13 +9195,16 @@
         <v>449</v>
       </c>
       <c r="K108">
-        <v>0</v>
-      </c>
-      <c r="L108" t="s">
+        <v>0.9962770938873291</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="109" spans="1:12">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>451</v>
       </c>
@@ -8903,13 +9236,16 @@
         <v>455</v>
       </c>
       <c r="K109">
-        <v>1</v>
-      </c>
-      <c r="L109" t="s">
+        <v>0.9605327844619751</v>
+      </c>
+      <c r="L109">
+        <v>1</v>
+      </c>
+      <c r="M109" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="110" spans="1:12">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>456</v>
       </c>
@@ -8941,13 +9277,16 @@
         <v>460</v>
       </c>
       <c r="K110">
-        <v>0</v>
-      </c>
-      <c r="L110" t="s">
+        <v>0.7674446702003479</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="111" spans="1:12">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>461</v>
       </c>
@@ -8979,10 +9318,13 @@
         <v>465</v>
       </c>
       <c r="K111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12">
+        <v>0.98724985122680664</v>
+      </c>
+      <c r="L111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>466</v>
       </c>
@@ -9014,13 +9356,16 @@
         <v>470</v>
       </c>
       <c r="K112">
-        <v>0</v>
-      </c>
-      <c r="L112" t="s">
+        <v>0.86532938480377197</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="113" spans="1:12">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>461</v>
       </c>
@@ -9052,13 +9397,16 @@
         <v>465</v>
       </c>
       <c r="K113">
-        <v>0</v>
-      </c>
-      <c r="L113" t="s">
+        <v>0.98724985122680664</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="114" spans="1:12">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>473</v>
       </c>
@@ -9090,13 +9438,16 @@
         <v>477</v>
       </c>
       <c r="K114">
-        <v>0</v>
-      </c>
-      <c r="L114" t="s">
+        <v>0.89484584331512451</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="115" spans="1:12">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>478</v>
       </c>
@@ -9130,8 +9481,11 @@
       <c r="K115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:12">
+      <c r="L115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>480</v>
       </c>
@@ -9163,13 +9517,16 @@
         <v>484</v>
       </c>
       <c r="K116">
-        <v>0</v>
-      </c>
-      <c r="L116" t="s">
+        <v>0.99663197994232178</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="117" spans="1:12">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>485</v>
       </c>
@@ -9201,13 +9558,16 @@
         <v>16</v>
       </c>
       <c r="K117">
-        <v>0</v>
-      </c>
-      <c r="L117" t="s">
+        <v>0.1249964982271194</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="118" spans="1:12">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>488</v>
       </c>
@@ -9239,13 +9599,16 @@
         <v>491</v>
       </c>
       <c r="K118">
-        <v>0</v>
-      </c>
-      <c r="L118" t="s">
+        <v>0.50507521629333496</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="119" spans="1:12">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>492</v>
       </c>
@@ -9277,13 +9640,16 @@
         <v>496</v>
       </c>
       <c r="K119">
-        <v>0</v>
-      </c>
-      <c r="L119" t="s">
+        <v>0.92471504211425781</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="120" spans="1:12">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>497</v>
       </c>
@@ -9315,10 +9681,13 @@
         <v>501</v>
       </c>
       <c r="K120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12">
+        <v>0.96795636415481567</v>
+      </c>
+      <c r="L120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>502</v>
       </c>
@@ -9350,13 +9719,16 @@
         <v>484</v>
       </c>
       <c r="K121">
-        <v>0</v>
-      </c>
-      <c r="L121" t="s">
+        <v>0.99638569355010986</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="122" spans="1:12">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>504</v>
       </c>
@@ -9390,8 +9762,11 @@
       <c r="K122">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:12">
+      <c r="L122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>509</v>
       </c>
@@ -9423,13 +9798,16 @@
         <v>16</v>
       </c>
       <c r="K123">
-        <v>0</v>
-      </c>
-      <c r="L123" t="s">
+        <v>0.11882726848125461</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="124" spans="1:12">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>511</v>
       </c>
@@ -9461,13 +9839,16 @@
         <v>515</v>
       </c>
       <c r="K124">
-        <v>0</v>
-      </c>
-      <c r="L124" t="s">
+        <v>0.37647292017936712</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="125" spans="1:12">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>516</v>
       </c>
@@ -9499,13 +9880,16 @@
         <v>16</v>
       </c>
       <c r="K125">
-        <v>0</v>
-      </c>
-      <c r="L125" t="s">
+        <v>0.17578981816768649</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="126" spans="1:12">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>519</v>
       </c>
@@ -9537,13 +9921,16 @@
         <v>523</v>
       </c>
       <c r="K126">
-        <v>1</v>
-      </c>
-      <c r="L126" t="s">
+        <v>0.83736979961395264</v>
+      </c>
+      <c r="L126">
+        <v>1</v>
+      </c>
+      <c r="M126" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="127" spans="1:12">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>524</v>
       </c>
@@ -9575,13 +9962,16 @@
         <v>528</v>
       </c>
       <c r="K127">
-        <v>0</v>
-      </c>
-      <c r="L127" t="s">
+        <v>0.83266878128051758</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="128" spans="1:12">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>529</v>
       </c>
@@ -9613,13 +10003,16 @@
         <v>533</v>
       </c>
       <c r="K128">
-        <v>0</v>
-      </c>
-      <c r="L128" t="s">
+        <v>0.88875812292098999</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="129" spans="1:12">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>534</v>
       </c>
@@ -9651,13 +10044,16 @@
         <v>538</v>
       </c>
       <c r="K129">
-        <v>0</v>
-      </c>
-      <c r="L129" t="s">
+        <v>0.94277840852737427</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="130" spans="1:12">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>539</v>
       </c>
@@ -9689,13 +10085,16 @@
         <v>542</v>
       </c>
       <c r="K130">
-        <v>0</v>
-      </c>
-      <c r="L130" t="s">
+        <v>0.86489248275756836</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="131" spans="1:12">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>543</v>
       </c>
@@ -9727,13 +10126,16 @@
         <v>547</v>
       </c>
       <c r="K131">
-        <v>0</v>
-      </c>
-      <c r="L131" t="s">
+        <v>0.84768891334533691</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="132" spans="1:12">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>548</v>
       </c>
@@ -9765,13 +10167,16 @@
         <v>552</v>
       </c>
       <c r="K132">
-        <v>0</v>
-      </c>
-      <c r="L132" t="s">
+        <v>0.91955757141113281</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="133" spans="1:12">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>553</v>
       </c>
@@ -9803,13 +10208,16 @@
         <v>557</v>
       </c>
       <c r="K133">
-        <v>0</v>
-      </c>
-      <c r="L133" t="s">
+        <v>0.78110891580581665</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="134" spans="1:12">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>558</v>
       </c>
@@ -9841,13 +10249,16 @@
         <v>561</v>
       </c>
       <c r="K134">
-        <v>0</v>
-      </c>
-      <c r="L134" t="s">
+        <v>0.76568573713302612</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="135" spans="1:12">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>562</v>
       </c>
@@ -9879,13 +10290,16 @@
         <v>566</v>
       </c>
       <c r="K135">
-        <v>1</v>
-      </c>
-      <c r="L135" t="s">
+        <v>0.70650219917297363</v>
+      </c>
+      <c r="L135">
+        <v>1</v>
+      </c>
+      <c r="M135" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="136" spans="1:12">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>568</v>
       </c>
@@ -9917,13 +10331,16 @@
         <v>16</v>
       </c>
       <c r="K136">
-        <v>0</v>
-      </c>
-      <c r="L136" t="s">
+        <v>0.14523144066333771</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+      <c r="M136" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="137" spans="1:12">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>571</v>
       </c>
@@ -9955,13 +10372,16 @@
         <v>575</v>
       </c>
       <c r="K137">
-        <v>0</v>
-      </c>
-      <c r="L137" t="s">
+        <v>0.56674337387084961</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="138" spans="1:12">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>577</v>
       </c>
@@ -9993,10 +10413,13 @@
         <v>581</v>
       </c>
       <c r="K138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12">
+        <v>1.0000002384185791</v>
+      </c>
+      <c r="L138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>582</v>
       </c>
@@ -10028,10 +10451,13 @@
         <v>586</v>
       </c>
       <c r="K139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12">
+        <v>0.85981130599975586</v>
+      </c>
+      <c r="L139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>587</v>
       </c>
@@ -10063,10 +10489,13 @@
         <v>591</v>
       </c>
       <c r="K140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12">
+        <v>0.99461233615875244</v>
+      </c>
+      <c r="L140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>592</v>
       </c>
@@ -10100,8 +10529,11 @@
       <c r="K141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:12">
+      <c r="L141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>597</v>
       </c>
@@ -10135,8 +10567,11 @@
       <c r="K142">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:12">
+      <c r="L142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>599</v>
       </c>
@@ -10168,13 +10603,16 @@
         <v>603</v>
       </c>
       <c r="K143">
-        <v>1</v>
-      </c>
-      <c r="L143" t="s">
+        <v>0.96445393562316895</v>
+      </c>
+      <c r="L143">
+        <v>1</v>
+      </c>
+      <c r="M143" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="144" spans="1:12">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>605</v>
       </c>
@@ -10206,10 +10644,13 @@
         <v>609</v>
       </c>
       <c r="K144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12">
+        <v>0.75247341394424438</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>610</v>
       </c>
@@ -10241,13 +10682,16 @@
         <v>16</v>
       </c>
       <c r="K145">
-        <v>0</v>
-      </c>
-      <c r="L145" t="s">
+        <v>9.0331152081489563E-2</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="M145" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="146" spans="1:12">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>613</v>
       </c>
@@ -10279,13 +10723,16 @@
         <v>151</v>
       </c>
       <c r="K146">
-        <v>0</v>
-      </c>
-      <c r="L146" t="s">
+        <v>0.98922932147979736</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="147" spans="1:12">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>617</v>
       </c>
@@ -10317,13 +10764,16 @@
         <v>621</v>
       </c>
       <c r="K147">
-        <v>0</v>
-      </c>
-      <c r="L147" t="s">
+        <v>0.86127763986587524</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="148" spans="1:12">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>622</v>
       </c>
@@ -10355,13 +10805,16 @@
         <v>626</v>
       </c>
       <c r="K148">
-        <v>0</v>
-      </c>
-      <c r="L148" t="s">
+        <v>0.6958194375038147</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="M148" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="149" spans="1:12">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>627</v>
       </c>
@@ -10393,13 +10846,16 @@
         <v>631</v>
       </c>
       <c r="K149">
-        <v>0</v>
-      </c>
-      <c r="L149" t="s">
+        <v>0.93368065357208252</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="150" spans="1:12">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>633</v>
       </c>
@@ -10431,13 +10887,16 @@
         <v>637</v>
       </c>
       <c r="K150">
-        <v>0</v>
-      </c>
-      <c r="L150" t="s">
+        <v>0.6279447078704834</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+      <c r="M150" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="151" spans="1:12">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>638</v>
       </c>
@@ -10469,13 +10928,16 @@
         <v>16</v>
       </c>
       <c r="K151">
-        <v>0</v>
-      </c>
-      <c r="L151" t="s">
+        <v>7.845190167427063E-2</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+      <c r="M151" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="152" spans="1:12">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>641</v>
       </c>
@@ -10507,13 +10969,16 @@
         <v>645</v>
       </c>
       <c r="K152">
-        <v>0</v>
-      </c>
-      <c r="L152" t="s">
+        <v>0.96169817447662354</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+      <c r="M152" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="153" spans="1:12">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>647</v>
       </c>
@@ -10545,13 +11010,16 @@
         <v>651</v>
       </c>
       <c r="K153">
-        <v>0</v>
-      </c>
-      <c r="L153" t="s">
+        <v>0.63003087043762207</v>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+      <c r="M153" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="154" spans="1:12">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>652</v>
       </c>
@@ -10583,13 +11051,16 @@
         <v>656</v>
       </c>
       <c r="K154">
-        <v>1</v>
-      </c>
-      <c r="L154" t="s">
+        <v>0.86667895317077637</v>
+      </c>
+      <c r="L154">
+        <v>1</v>
+      </c>
+      <c r="M154" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="155" spans="1:12">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>657</v>
       </c>
@@ -10621,10 +11092,13 @@
         <v>660</v>
       </c>
       <c r="K155">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12">
+        <v>0.92546296119689941</v>
+      </c>
+      <c r="L155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>661</v>
       </c>
@@ -10656,13 +11130,16 @@
         <v>16</v>
       </c>
       <c r="K156">
-        <v>0</v>
-      </c>
-      <c r="L156" t="s">
+        <v>-1.3177715241909031E-2</v>
+      </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
+      <c r="M156" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="157" spans="1:12">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>664</v>
       </c>
@@ -10694,13 +11171,16 @@
         <v>667</v>
       </c>
       <c r="K157">
-        <v>1</v>
-      </c>
-      <c r="L157" t="s">
+        <v>0.95521247386932373</v>
+      </c>
+      <c r="L157">
+        <v>1</v>
+      </c>
+      <c r="M157" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="158" spans="1:12">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>668</v>
       </c>
@@ -10732,13 +11212,16 @@
         <v>672</v>
       </c>
       <c r="K158">
-        <v>0</v>
-      </c>
-      <c r="L158" t="s">
+        <v>0.94148856401443481</v>
+      </c>
+      <c r="L158">
+        <v>0</v>
+      </c>
+      <c r="M158" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="159" spans="1:12">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>674</v>
       </c>
@@ -10770,13 +11253,16 @@
         <v>678</v>
       </c>
       <c r="K159">
-        <v>0</v>
-      </c>
-      <c r="L159" t="s">
+        <v>0.78443390130996704</v>
+      </c>
+      <c r="L159">
+        <v>0</v>
+      </c>
+      <c r="M159" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="160" spans="1:12">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>679</v>
       </c>
@@ -10808,13 +11294,16 @@
         <v>683</v>
       </c>
       <c r="K160">
-        <v>0</v>
-      </c>
-      <c r="L160" t="s">
+        <v>0.78173106908798218</v>
+      </c>
+      <c r="L160">
+        <v>0</v>
+      </c>
+      <c r="M160" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="161" spans="1:12">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>684</v>
       </c>
@@ -10846,10 +11335,13 @@
         <v>687</v>
       </c>
       <c r="K161">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12">
+        <v>1.0000002384185791</v>
+      </c>
+      <c r="L161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>688</v>
       </c>
@@ -10881,10 +11373,13 @@
         <v>48</v>
       </c>
       <c r="K162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>690</v>
       </c>
@@ -10916,13 +11411,16 @@
         <v>127</v>
       </c>
       <c r="K163">
-        <v>0</v>
-      </c>
-      <c r="L163" t="s">
+        <v>0.85428780317306519</v>
+      </c>
+      <c r="L163">
+        <v>0</v>
+      </c>
+      <c r="M163" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="164" spans="1:12">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>694</v>
       </c>
@@ -10954,13 +11452,16 @@
         <v>16</v>
       </c>
       <c r="K164">
-        <v>0</v>
-      </c>
-      <c r="L164" t="s">
+        <v>0.2339652627706528</v>
+      </c>
+      <c r="L164">
+        <v>0</v>
+      </c>
+      <c r="M164" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="165" spans="1:12">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>697</v>
       </c>
@@ -10992,13 +11493,16 @@
         <v>16</v>
       </c>
       <c r="K165">
-        <v>0</v>
-      </c>
-      <c r="L165" t="s">
+        <v>0.2233441174030304</v>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+      <c r="M165" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="166" spans="1:12">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>699</v>
       </c>
@@ -11030,13 +11534,16 @@
         <v>703</v>
       </c>
       <c r="K166">
-        <v>1</v>
-      </c>
-      <c r="L166" t="s">
+        <v>0.94327104091644287</v>
+      </c>
+      <c r="L166">
+        <v>1</v>
+      </c>
+      <c r="M166" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="167" spans="1:12">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>705</v>
       </c>
@@ -11068,13 +11575,16 @@
         <v>709</v>
       </c>
       <c r="K167">
-        <v>1</v>
-      </c>
-      <c r="L167" t="s">
+        <v>0.70632827281951904</v>
+      </c>
+      <c r="L167">
+        <v>1</v>
+      </c>
+      <c r="M167" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="168" spans="1:12">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>710</v>
       </c>
@@ -11108,8 +11618,11 @@
       <c r="K168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:12">
+      <c r="L168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>712</v>
       </c>
@@ -11141,13 +11654,16 @@
         <v>716</v>
       </c>
       <c r="K169">
-        <v>0</v>
-      </c>
-      <c r="L169" t="s">
+        <v>0.56620395183563232</v>
+      </c>
+      <c r="L169">
+        <v>0</v>
+      </c>
+      <c r="M169" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="170" spans="1:12">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>717</v>
       </c>
@@ -11181,8 +11697,11 @@
       <c r="K170">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:12">
+      <c r="L170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>719</v>
       </c>
@@ -11214,13 +11733,16 @@
         <v>723</v>
       </c>
       <c r="K171">
-        <v>1</v>
-      </c>
-      <c r="L171" t="s">
+        <v>0.43476772308349609</v>
+      </c>
+      <c r="L171">
+        <v>1</v>
+      </c>
+      <c r="M171" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="172" spans="1:12">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>725</v>
       </c>
@@ -11252,13 +11774,16 @@
         <v>723</v>
       </c>
       <c r="K172">
-        <v>1</v>
-      </c>
-      <c r="L172" t="s">
+        <v>0.63464450836181641</v>
+      </c>
+      <c r="L172">
+        <v>1</v>
+      </c>
+      <c r="M172" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="173" spans="1:12">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>728</v>
       </c>
@@ -11292,8 +11817,11 @@
       <c r="K173">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:12">
+      <c r="L173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>730</v>
       </c>
@@ -11325,10 +11853,13 @@
         <v>703</v>
       </c>
       <c r="K174">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12">
+        <v>0.95187598466873169</v>
+      </c>
+      <c r="L174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>734</v>
       </c>
@@ -11360,13 +11891,16 @@
         <v>738</v>
       </c>
       <c r="K175">
-        <v>0</v>
-      </c>
-      <c r="L175" t="s">
+        <v>0.64777880907058716</v>
+      </c>
+      <c r="L175">
+        <v>0</v>
+      </c>
+      <c r="M175" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="176" spans="1:12">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>740</v>
       </c>
@@ -11398,13 +11932,16 @@
         <v>744</v>
       </c>
       <c r="K176">
-        <v>0</v>
-      </c>
-      <c r="L176" t="s">
+        <v>0.76768314838409424</v>
+      </c>
+      <c r="L176">
+        <v>0</v>
+      </c>
+      <c r="M176" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="177" spans="1:12">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>745</v>
       </c>
@@ -11436,13 +11973,16 @@
         <v>748</v>
       </c>
       <c r="K177">
-        <v>0</v>
-      </c>
-      <c r="L177" t="s">
+        <v>0.950156569480896</v>
+      </c>
+      <c r="L177">
+        <v>0</v>
+      </c>
+      <c r="M177" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="178" spans="1:12">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>750</v>
       </c>
@@ -11474,13 +12014,16 @@
         <v>158</v>
       </c>
       <c r="K178">
-        <v>1</v>
-      </c>
-      <c r="L178" t="s">
+        <v>0.98609340190887451</v>
+      </c>
+      <c r="L178">
+        <v>1</v>
+      </c>
+      <c r="M178" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="179" spans="1:12">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>755</v>
       </c>
@@ -11512,13 +12055,16 @@
         <v>758</v>
       </c>
       <c r="K179">
-        <v>0</v>
-      </c>
-      <c r="L179" t="s">
+        <v>0.95234251022338867</v>
+      </c>
+      <c r="L179">
+        <v>0</v>
+      </c>
+      <c r="M179" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="180" spans="1:12">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>760</v>
       </c>
@@ -11550,13 +12096,16 @@
         <v>763</v>
       </c>
       <c r="K180">
-        <v>1</v>
-      </c>
-      <c r="L180" t="s">
+        <v>0.84276366233825684</v>
+      </c>
+      <c r="L180">
+        <v>1</v>
+      </c>
+      <c r="M180" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="181" spans="1:12">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>764</v>
       </c>
@@ -11588,13 +12137,16 @@
         <v>768</v>
       </c>
       <c r="K181">
-        <v>0</v>
-      </c>
-      <c r="L181" t="s">
+        <v>0.97644394636154175</v>
+      </c>
+      <c r="L181">
+        <v>0</v>
+      </c>
+      <c r="M181" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="182" spans="1:12">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>770</v>
       </c>
@@ -11626,13 +12178,16 @@
         <v>16</v>
       </c>
       <c r="K182">
-        <v>0</v>
-      </c>
-      <c r="L182" t="s">
+        <v>0.3325202465057373</v>
+      </c>
+      <c r="L182">
+        <v>0</v>
+      </c>
+      <c r="M182" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="183" spans="1:12">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>774</v>
       </c>
@@ -11666,8 +12221,11 @@
       <c r="K183">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:12">
+      <c r="L183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>776</v>
       </c>
@@ -11699,13 +12257,16 @@
         <v>780</v>
       </c>
       <c r="K184">
-        <v>0</v>
-      </c>
-      <c r="L184" t="s">
+        <v>0.84431761503219604</v>
+      </c>
+      <c r="L184">
+        <v>0</v>
+      </c>
+      <c r="M184" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="185" spans="1:12">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>781</v>
       </c>
@@ -11737,13 +12298,16 @@
         <v>784</v>
       </c>
       <c r="K185">
-        <v>0</v>
-      </c>
-      <c r="L185" t="s">
+        <v>0.8697516918182373</v>
+      </c>
+      <c r="L185">
+        <v>0</v>
+      </c>
+      <c r="M185" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="186" spans="1:12">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>786</v>
       </c>
@@ -11775,13 +12339,16 @@
         <v>790</v>
       </c>
       <c r="K186">
-        <v>0</v>
-      </c>
-      <c r="L186" t="s">
+        <v>0.81140351295471191</v>
+      </c>
+      <c r="L186">
+        <v>0</v>
+      </c>
+      <c r="M186" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="187" spans="1:12">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>792</v>
       </c>
@@ -11813,13 +12380,16 @@
         <v>291</v>
       </c>
       <c r="K187">
-        <v>0</v>
-      </c>
-      <c r="L187" t="s">
+        <v>0.86135345697402954</v>
+      </c>
+      <c r="L187">
+        <v>0</v>
+      </c>
+      <c r="M187" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="188" spans="1:12">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>796</v>
       </c>
@@ -11851,13 +12421,16 @@
         <v>800</v>
       </c>
       <c r="K188">
-        <v>0</v>
-      </c>
-      <c r="L188" t="s">
+        <v>0.84410715103149414</v>
+      </c>
+      <c r="L188">
+        <v>0</v>
+      </c>
+      <c r="M188" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="189" spans="1:12">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>802</v>
       </c>
@@ -11889,10 +12462,13 @@
         <v>806</v>
       </c>
       <c r="K189">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:12">
+        <v>0.99595606327056885</v>
+      </c>
+      <c r="L189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>807</v>
       </c>
@@ -11924,13 +12500,16 @@
         <v>16</v>
       </c>
       <c r="K190">
-        <v>0</v>
-      </c>
-      <c r="L190" t="s">
+        <v>0.81023865938186646</v>
+      </c>
+      <c r="L190">
+        <v>0</v>
+      </c>
+      <c r="M190" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="191" spans="1:12">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>812</v>
       </c>
@@ -11964,8 +12543,11 @@
       <c r="K191">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:12">
+      <c r="L191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>814</v>
       </c>
@@ -11997,10 +12579,13 @@
         <v>818</v>
       </c>
       <c r="K192">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:12">
+        <v>0.96763086318969727</v>
+      </c>
+      <c r="L192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>819</v>
       </c>
@@ -12032,13 +12617,16 @@
         <v>16</v>
       </c>
       <c r="K193">
-        <v>0</v>
-      </c>
-      <c r="L193" t="s">
+        <v>4.1713863611221307E-2</v>
+      </c>
+      <c r="L193">
+        <v>0</v>
+      </c>
+      <c r="M193" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="194" spans="1:12">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>822</v>
       </c>
@@ -12070,10 +12658,13 @@
         <v>484</v>
       </c>
       <c r="K194">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:12">
+        <v>0.91628068685531616</v>
+      </c>
+      <c r="L194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>825</v>
       </c>
@@ -12105,13 +12696,16 @@
         <v>16</v>
       </c>
       <c r="K195">
-        <v>0</v>
-      </c>
-      <c r="L195" t="s">
+        <v>9.0700723230838776E-2</v>
+      </c>
+      <c r="L195">
+        <v>0</v>
+      </c>
+      <c r="M195" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="196" spans="1:12">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>828</v>
       </c>
@@ -12143,13 +12737,16 @@
         <v>832</v>
       </c>
       <c r="K196">
-        <v>0</v>
-      </c>
-      <c r="L196" t="s">
+        <v>0.85070198774337769</v>
+      </c>
+      <c r="L196">
+        <v>0</v>
+      </c>
+      <c r="M196" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="197" spans="1:12">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>834</v>
       </c>
@@ -12181,13 +12778,16 @@
         <v>838</v>
       </c>
       <c r="K197">
-        <v>0</v>
-      </c>
-      <c r="L197" t="s">
+        <v>0.67185533046722412</v>
+      </c>
+      <c r="L197">
+        <v>0</v>
+      </c>
+      <c r="M197" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="198" spans="1:12">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>839</v>
       </c>
@@ -12219,13 +12819,16 @@
         <v>89</v>
       </c>
       <c r="K198">
-        <v>1</v>
-      </c>
-      <c r="L198" t="s">
+        <v>0.81232905387878418</v>
+      </c>
+      <c r="L198">
+        <v>1</v>
+      </c>
+      <c r="M198" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="199" spans="1:12">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>844</v>
       </c>
@@ -12257,13 +12860,16 @@
         <v>547</v>
       </c>
       <c r="K199">
-        <v>0</v>
-      </c>
-      <c r="L199" t="s">
+        <v>0.79351091384887695</v>
+      </c>
+      <c r="L199">
+        <v>0</v>
+      </c>
+      <c r="M199" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="200" spans="1:12">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>848</v>
       </c>
@@ -12295,13 +12901,16 @@
         <v>852</v>
       </c>
       <c r="K200">
-        <v>0</v>
-      </c>
-      <c r="L200" t="s">
+        <v>0.5090528130531311</v>
+      </c>
+      <c r="L200">
+        <v>0</v>
+      </c>
+      <c r="M200" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="201" spans="1:12">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>854</v>
       </c>
@@ -12333,13 +12942,16 @@
         <v>858</v>
       </c>
       <c r="K201">
-        <v>0</v>
-      </c>
-      <c r="L201" t="s">
+        <v>0.7769199013710022</v>
+      </c>
+      <c r="L201">
+        <v>0</v>
+      </c>
+      <c r="M201" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="202" spans="1:12">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>859</v>
       </c>
@@ -12371,13 +12983,16 @@
         <v>780</v>
       </c>
       <c r="K202">
-        <v>0</v>
-      </c>
-      <c r="L202" t="s">
+        <v>0.44656002521514893</v>
+      </c>
+      <c r="L202">
+        <v>0</v>
+      </c>
+      <c r="M202" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="203" spans="1:12">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>863</v>
       </c>
@@ -12409,13 +13024,16 @@
         <v>867</v>
       </c>
       <c r="K203">
-        <v>0</v>
-      </c>
-      <c r="L203" t="s">
+        <v>0.3204343318939209</v>
+      </c>
+      <c r="L203">
+        <v>0</v>
+      </c>
+      <c r="M203" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="204" spans="1:12">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>868</v>
       </c>
@@ -12447,13 +13065,16 @@
         <v>872</v>
       </c>
       <c r="K204">
-        <v>0</v>
-      </c>
-      <c r="L204" t="s">
+        <v>0.51106822490692139</v>
+      </c>
+      <c r="L204">
+        <v>0</v>
+      </c>
+      <c r="M204" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="205" spans="1:12">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>873</v>
       </c>
@@ -12485,13 +13106,16 @@
         <v>877</v>
       </c>
       <c r="K205">
-        <v>0</v>
-      </c>
-      <c r="L205" t="s">
+        <v>0.77586245536804199</v>
+      </c>
+      <c r="L205">
+        <v>0</v>
+      </c>
+      <c r="M205" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="206" spans="1:12">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>878</v>
       </c>
@@ -12523,13 +13147,16 @@
         <v>882</v>
       </c>
       <c r="K206">
-        <v>1</v>
-      </c>
-      <c r="L206" t="s">
+        <v>0.89885497093200684</v>
+      </c>
+      <c r="L206">
+        <v>1</v>
+      </c>
+      <c r="M206" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="207" spans="1:12">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>884</v>
       </c>
@@ -12561,13 +13188,16 @@
         <v>882</v>
       </c>
       <c r="K207">
-        <v>1</v>
-      </c>
-      <c r="L207" t="s">
+        <v>0.89885497093200684</v>
+      </c>
+      <c r="L207">
+        <v>1</v>
+      </c>
+      <c r="M207" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="208" spans="1:12">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>885</v>
       </c>
@@ -12599,13 +13229,16 @@
         <v>889</v>
       </c>
       <c r="K208">
-        <v>1</v>
-      </c>
-      <c r="L208" t="s">
+        <v>0.77659702301025391</v>
+      </c>
+      <c r="L208">
+        <v>1</v>
+      </c>
+      <c r="M208" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="209" spans="1:12">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>891</v>
       </c>
@@ -12637,13 +13270,16 @@
         <v>895</v>
       </c>
       <c r="K209">
-        <v>0</v>
-      </c>
-      <c r="L209" t="s">
+        <v>0.88719761371612549</v>
+      </c>
+      <c r="L209">
+        <v>0</v>
+      </c>
+      <c r="M209" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="210" spans="1:12">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>897</v>
       </c>
@@ -12675,13 +13311,16 @@
         <v>901</v>
       </c>
       <c r="K210">
-        <v>0</v>
-      </c>
-      <c r="L210" t="s">
+        <v>0.66548776626586914</v>
+      </c>
+      <c r="L210">
+        <v>0</v>
+      </c>
+      <c r="M210" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="211" spans="1:12">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>903</v>
       </c>
@@ -12713,10 +13352,13 @@
         <v>48</v>
       </c>
       <c r="K211">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212" spans="1:12">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>905</v>
       </c>
@@ -12748,10 +13390,13 @@
         <v>48</v>
       </c>
       <c r="K212">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213" spans="1:12">
+        <v>0.99999994039535522</v>
+      </c>
+      <c r="L212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>907</v>
       </c>
@@ -12783,13 +13428,16 @@
         <v>73</v>
       </c>
       <c r="K213">
-        <v>0</v>
-      </c>
-      <c r="L213" t="s">
+        <v>0.85379576683044434</v>
+      </c>
+      <c r="L213">
+        <v>0</v>
+      </c>
+      <c r="M213" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="214" spans="1:12">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>911</v>
       </c>
@@ -12823,8 +13471,11 @@
       <c r="K214">
         <v>1</v>
       </c>
-    </row>
-    <row r="215" spans="1:12">
+      <c r="L214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>913</v>
       </c>
@@ -12856,13 +13507,16 @@
         <v>917</v>
       </c>
       <c r="K215">
-        <v>1</v>
-      </c>
-      <c r="L215" t="s">
+        <v>0.97030174732208252</v>
+      </c>
+      <c r="L215">
+        <v>1</v>
+      </c>
+      <c r="M215" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="216" spans="1:12">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>919</v>
       </c>
@@ -12896,8 +13550,11 @@
       <c r="K216">
         <v>1</v>
       </c>
-    </row>
-    <row r="217" spans="1:12">
+      <c r="L216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>921</v>
       </c>
@@ -12929,13 +13586,16 @@
         <v>925</v>
       </c>
       <c r="K217">
-        <v>0</v>
-      </c>
-      <c r="L217" t="s">
+        <v>0.94159382581710815</v>
+      </c>
+      <c r="L217">
+        <v>0</v>
+      </c>
+      <c r="M217" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="218" spans="1:12">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>926</v>
       </c>
@@ -12967,10 +13627,13 @@
         <v>48</v>
       </c>
       <c r="K218">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="1:12">
+        <v>1.00000011920929</v>
+      </c>
+      <c r="L218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>928</v>
       </c>
@@ -13004,8 +13667,11 @@
       <c r="K219">
         <v>1</v>
       </c>
-    </row>
-    <row r="220" spans="1:12">
+      <c r="L219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>930</v>
       </c>
@@ -13037,10 +13703,13 @@
         <v>48</v>
       </c>
       <c r="K220">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221" spans="1:12">
+        <v>0.99999988079071045</v>
+      </c>
+      <c r="L220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>932</v>
       </c>
@@ -13072,13 +13741,16 @@
         <v>16</v>
       </c>
       <c r="K221">
-        <v>0</v>
-      </c>
-      <c r="L221" t="s">
+        <v>0.14731824398040769</v>
+      </c>
+      <c r="L221">
+        <v>0</v>
+      </c>
+      <c r="M221" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="222" spans="1:12">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>935</v>
       </c>
@@ -13110,10 +13782,13 @@
         <v>938</v>
       </c>
       <c r="K222">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223" spans="1:12">
+        <v>0.97753298282623291</v>
+      </c>
+      <c r="L222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>939</v>
       </c>
@@ -13145,10 +13820,13 @@
         <v>942</v>
       </c>
       <c r="K223">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224" spans="1:12">
+        <v>0.9533231258392334</v>
+      </c>
+      <c r="L223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>943</v>
       </c>
@@ -13180,13 +13858,16 @@
         <v>947</v>
       </c>
       <c r="K224">
-        <v>1</v>
-      </c>
-      <c r="L224" t="s">
+        <v>0.95343309640884399</v>
+      </c>
+      <c r="L224">
+        <v>1</v>
+      </c>
+      <c r="M224" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="225" spans="1:12">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>949</v>
       </c>
@@ -13218,13 +13899,16 @@
         <v>953</v>
       </c>
       <c r="K225">
-        <v>0</v>
-      </c>
-      <c r="L225" t="s">
+        <v>0.91417026519775391</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="226" spans="1:12">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>955</v>
       </c>
@@ -13256,13 +13940,16 @@
         <v>959</v>
       </c>
       <c r="K226">
-        <v>0</v>
-      </c>
-      <c r="L226" t="s">
+        <v>0.74158370494842529</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+      <c r="M226" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="227" spans="1:12">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>961</v>
       </c>
@@ -13294,13 +13981,16 @@
         <v>965</v>
       </c>
       <c r="K227">
-        <v>1</v>
-      </c>
-      <c r="L227" t="s">
+        <v>0.9378160834312439</v>
+      </c>
+      <c r="L227">
+        <v>1</v>
+      </c>
+      <c r="M227" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="228" spans="1:12">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>967</v>
       </c>
@@ -13332,13 +14022,16 @@
         <v>971</v>
       </c>
       <c r="K228">
-        <v>0</v>
-      </c>
-      <c r="L228" t="s">
+        <v>0.50340676307678223</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+      <c r="M228" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="229" spans="1:12">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>973</v>
       </c>
@@ -13370,13 +14063,16 @@
         <v>16</v>
       </c>
       <c r="K229">
-        <v>0</v>
-      </c>
-      <c r="L229" t="s">
+        <v>0.22718539834022519</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+      <c r="M229" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="230" spans="1:12">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>976</v>
       </c>
@@ -13408,13 +14104,16 @@
         <v>112</v>
       </c>
       <c r="K230">
-        <v>1</v>
-      </c>
-      <c r="L230" t="s">
+        <v>0.94465839862823486</v>
+      </c>
+      <c r="L230">
+        <v>1</v>
+      </c>
+      <c r="M230" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="231" spans="1:12">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>981</v>
       </c>
@@ -13446,13 +14145,16 @@
         <v>985</v>
       </c>
       <c r="K231">
-        <v>0</v>
-      </c>
-      <c r="L231" t="s">
+        <v>0.7864919900894165</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="M231" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="232" spans="1:12">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>986</v>
       </c>
@@ -13484,13 +14186,16 @@
         <v>990</v>
       </c>
       <c r="K232">
-        <v>0</v>
-      </c>
-      <c r="L232" t="s">
+        <v>0.91501438617706299</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="233" spans="1:12">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>991</v>
       </c>
@@ -13522,13 +14227,16 @@
         <v>995</v>
       </c>
       <c r="K233">
-        <v>0</v>
-      </c>
-      <c r="L233" t="s">
+        <v>0.81241309642791748</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="234" spans="1:12">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>997</v>
       </c>
@@ -13560,13 +14268,16 @@
         <v>1001</v>
       </c>
       <c r="K234">
-        <v>0</v>
-      </c>
-      <c r="L234" t="s">
+        <v>0.93791145086288452</v>
+      </c>
+      <c r="L234">
+        <v>0</v>
+      </c>
+      <c r="M234" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="235" spans="1:12">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>1003</v>
       </c>
@@ -13598,13 +14309,16 @@
         <v>1007</v>
       </c>
       <c r="K235">
-        <v>0</v>
-      </c>
-      <c r="L235" t="s">
+        <v>0.67569237947463989</v>
+      </c>
+      <c r="L235">
+        <v>0</v>
+      </c>
+      <c r="M235" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="236" spans="1:12">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>1009</v>
       </c>
@@ -13636,13 +14350,16 @@
         <v>1013</v>
       </c>
       <c r="K236">
-        <v>0</v>
-      </c>
-      <c r="L236" t="s">
+        <v>0.91164529323577881</v>
+      </c>
+      <c r="L236">
+        <v>0</v>
+      </c>
+      <c r="M236" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="237" spans="1:12">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>1015</v>
       </c>
@@ -13674,13 +14391,16 @@
         <v>1019</v>
       </c>
       <c r="K237">
-        <v>0</v>
-      </c>
-      <c r="L237" t="s">
+        <v>0.94777965545654297</v>
+      </c>
+      <c r="L237">
+        <v>0</v>
+      </c>
+      <c r="M237" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="238" spans="1:12">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>1021</v>
       </c>
@@ -13712,13 +14432,16 @@
         <v>1025</v>
       </c>
       <c r="K238">
-        <v>0</v>
-      </c>
-      <c r="L238" t="s">
+        <v>0.93890470266342163</v>
+      </c>
+      <c r="L238">
+        <v>0</v>
+      </c>
+      <c r="M238" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="239" spans="1:12">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>1027</v>
       </c>
@@ -13750,13 +14473,16 @@
         <v>1031</v>
       </c>
       <c r="K239">
-        <v>0</v>
-      </c>
-      <c r="L239" t="s">
+        <v>0.94589352607727051</v>
+      </c>
+      <c r="L239">
+        <v>0</v>
+      </c>
+      <c r="M239" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="240" spans="1:12">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>1033</v>
       </c>
@@ -13788,13 +14514,16 @@
         <v>1037</v>
       </c>
       <c r="K240">
-        <v>0</v>
-      </c>
-      <c r="L240" t="s">
+        <v>0.92280083894729614</v>
+      </c>
+      <c r="L240">
+        <v>0</v>
+      </c>
+      <c r="M240" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="241" spans="1:12">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>1039</v>
       </c>
@@ -13826,13 +14555,16 @@
         <v>1043</v>
       </c>
       <c r="K241">
-        <v>0</v>
-      </c>
-      <c r="L241" t="s">
+        <v>0.50698202848434448</v>
+      </c>
+      <c r="L241">
+        <v>0</v>
+      </c>
+      <c r="M241" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="242" spans="1:12">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>1045</v>
       </c>
@@ -13864,13 +14596,16 @@
         <v>1049</v>
       </c>
       <c r="K242">
-        <v>0</v>
-      </c>
-      <c r="L242" t="s">
+        <v>0.93260890245437622</v>
+      </c>
+      <c r="L242">
+        <v>0</v>
+      </c>
+      <c r="M242" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="243" spans="1:12">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>1051</v>
       </c>
@@ -13902,13 +14637,16 @@
         <v>1055</v>
       </c>
       <c r="K243">
-        <v>1</v>
-      </c>
-      <c r="L243" t="s">
+        <v>0.95968592166900635</v>
+      </c>
+      <c r="L243">
+        <v>1</v>
+      </c>
+      <c r="M243" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="244" spans="1:12">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>1057</v>
       </c>
@@ -13940,13 +14678,16 @@
         <v>1061</v>
       </c>
       <c r="K244">
-        <v>0</v>
-      </c>
-      <c r="L244" t="s">
+        <v>0.94642001390457153</v>
+      </c>
+      <c r="L244">
+        <v>0</v>
+      </c>
+      <c r="M244" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="245" spans="1:12">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>1063</v>
       </c>
@@ -13978,13 +14719,16 @@
         <v>1067</v>
       </c>
       <c r="K245">
-        <v>0</v>
-      </c>
-      <c r="L245" t="s">
+        <v>0.92945420742034912</v>
+      </c>
+      <c r="L245">
+        <v>0</v>
+      </c>
+      <c r="M245" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="246" spans="1:12">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>1069</v>
       </c>
@@ -14016,13 +14760,16 @@
         <v>1073</v>
       </c>
       <c r="K246">
-        <v>0</v>
-      </c>
-      <c r="L246" t="s">
+        <v>0.8863559365272522</v>
+      </c>
+      <c r="L246">
+        <v>0</v>
+      </c>
+      <c r="M246" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="247" spans="1:12">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>1075</v>
       </c>
@@ -14054,13 +14801,16 @@
         <v>1079</v>
       </c>
       <c r="K247">
-        <v>0</v>
-      </c>
-      <c r="L247" t="s">
+        <v>0.54786407947540283</v>
+      </c>
+      <c r="L247">
+        <v>0</v>
+      </c>
+      <c r="M247" t="s">
         <v>1080</v>
       </c>
     </row>
-    <row r="248" spans="1:12">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>1081</v>
       </c>
@@ -14092,13 +14842,16 @@
         <v>1084</v>
       </c>
       <c r="K248">
-        <v>0</v>
-      </c>
-      <c r="L248" t="s">
+        <v>0.75269365310668945</v>
+      </c>
+      <c r="L248">
+        <v>0</v>
+      </c>
+      <c r="M248" t="s">
         <v>1085</v>
       </c>
     </row>
-    <row r="249" spans="1:12">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>1086</v>
       </c>
@@ -14130,13 +14883,16 @@
         <v>1090</v>
       </c>
       <c r="K249">
-        <v>0</v>
-      </c>
-      <c r="L249" t="s">
+        <v>0.91633951663970947</v>
+      </c>
+      <c r="L249">
+        <v>0</v>
+      </c>
+      <c r="M249" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="250" spans="1:12">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>1092</v>
       </c>
@@ -14168,13 +14924,16 @@
         <v>1096</v>
       </c>
       <c r="K250">
-        <v>0</v>
-      </c>
-      <c r="L250" t="s">
+        <v>0.93792009353637695</v>
+      </c>
+      <c r="L250">
+        <v>0</v>
+      </c>
+      <c r="M250" t="s">
         <v>1097</v>
       </c>
     </row>
-    <row r="251" spans="1:12">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>1098</v>
       </c>
@@ -14206,13 +14965,16 @@
         <v>1102</v>
       </c>
       <c r="K251">
-        <v>0</v>
-      </c>
-      <c r="L251" t="s">
+        <v>0.78103500604629517</v>
+      </c>
+      <c r="L251">
+        <v>0</v>
+      </c>
+      <c r="M251" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="252" spans="1:12">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>1103</v>
       </c>
@@ -14244,13 +15006,16 @@
         <v>1107</v>
       </c>
       <c r="K252">
-        <v>0</v>
-      </c>
-      <c r="L252" t="s">
+        <v>0.83039319515228271</v>
+      </c>
+      <c r="L252">
+        <v>0</v>
+      </c>
+      <c r="M252" t="s">
         <v>1108</v>
       </c>
     </row>
-    <row r="253" spans="1:12">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>1109</v>
       </c>
@@ -14282,13 +15047,16 @@
         <v>1113</v>
       </c>
       <c r="K253">
-        <v>0</v>
-      </c>
-      <c r="L253" t="s">
+        <v>0.7055402398109436</v>
+      </c>
+      <c r="L253">
+        <v>0</v>
+      </c>
+      <c r="M253" t="s">
         <v>1114</v>
       </c>
     </row>
-    <row r="254" spans="1:12">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>1115</v>
       </c>
@@ -14320,13 +15088,16 @@
         <v>1119</v>
       </c>
       <c r="K254">
-        <v>0</v>
-      </c>
-      <c r="L254" t="s">
+        <v>0.66833013296127319</v>
+      </c>
+      <c r="L254">
+        <v>0</v>
+      </c>
+      <c r="M254" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="255" spans="1:12">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>1120</v>
       </c>
@@ -14358,13 +15129,16 @@
         <v>1124</v>
       </c>
       <c r="K255">
-        <v>0</v>
-      </c>
-      <c r="L255" t="s">
+        <v>0.95919430255889893</v>
+      </c>
+      <c r="L255">
+        <v>0</v>
+      </c>
+      <c r="M255" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="256" spans="1:12">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>1126</v>
       </c>
@@ -14396,13 +15170,16 @@
         <v>1130</v>
       </c>
       <c r="K256">
-        <v>0</v>
-      </c>
-      <c r="L256" t="s">
+        <v>0.48271632194519037</v>
+      </c>
+      <c r="L256">
+        <v>0</v>
+      </c>
+      <c r="M256" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="257" spans="1:12">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>1131</v>
       </c>
@@ -14434,13 +15211,16 @@
         <v>1135</v>
       </c>
       <c r="K257">
-        <v>0</v>
-      </c>
-      <c r="L257" t="s">
+        <v>0.94874411821365356</v>
+      </c>
+      <c r="L257">
+        <v>0</v>
+      </c>
+      <c r="M257" t="s">
         <v>1136</v>
       </c>
     </row>
-    <row r="258" spans="1:12">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>1137</v>
       </c>
@@ -14472,13 +15252,16 @@
         <v>1141</v>
       </c>
       <c r="K258">
-        <v>0</v>
-      </c>
-      <c r="L258" t="s">
+        <v>0.72186112403869629</v>
+      </c>
+      <c r="L258">
+        <v>0</v>
+      </c>
+      <c r="M258" t="s">
         <v>1142</v>
       </c>
     </row>
-    <row r="259" spans="1:12">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>1143</v>
       </c>
@@ -14510,13 +15293,16 @@
         <v>1147</v>
       </c>
       <c r="K259">
-        <v>0</v>
-      </c>
-      <c r="L259" t="s">
+        <v>0.69165611267089844</v>
+      </c>
+      <c r="L259">
+        <v>0</v>
+      </c>
+      <c r="M259" t="s">
         <v>1148</v>
       </c>
     </row>
-    <row r="260" spans="1:12">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>1149</v>
       </c>
@@ -14548,13 +15334,16 @@
         <v>1153</v>
       </c>
       <c r="K260">
-        <v>0</v>
-      </c>
-      <c r="L260" t="s">
+        <v>0.95142823457717896</v>
+      </c>
+      <c r="L260">
+        <v>0</v>
+      </c>
+      <c r="M260" t="s">
         <v>1142</v>
       </c>
     </row>
-    <row r="261" spans="1:12">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>1154</v>
       </c>
@@ -14586,13 +15375,16 @@
         <v>1158</v>
       </c>
       <c r="K261">
-        <v>1</v>
-      </c>
-      <c r="L261" t="s">
+        <v>0.96219289302825928</v>
+      </c>
+      <c r="L261">
+        <v>1</v>
+      </c>
+      <c r="M261" t="s">
         <v>1159</v>
       </c>
     </row>
-    <row r="262" spans="1:12">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>1160</v>
       </c>
@@ -14624,13 +15416,16 @@
         <v>1164</v>
       </c>
       <c r="K262">
-        <v>1</v>
-      </c>
-      <c r="L262" t="s">
+        <v>0.96055066585540771</v>
+      </c>
+      <c r="L262">
+        <v>1</v>
+      </c>
+      <c r="M262" t="s">
         <v>1165</v>
       </c>
     </row>
-    <row r="263" spans="1:12">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>1166</v>
       </c>
@@ -14662,13 +15457,16 @@
         <v>1170</v>
       </c>
       <c r="K263">
-        <v>0</v>
-      </c>
-      <c r="L263" t="s">
+        <v>0.8215065598487854</v>
+      </c>
+      <c r="L263">
+        <v>0</v>
+      </c>
+      <c r="M263" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="264" spans="1:12">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>1172</v>
       </c>
@@ -14700,13 +15498,16 @@
         <v>1176</v>
       </c>
       <c r="K264">
-        <v>0</v>
-      </c>
-      <c r="L264" t="s">
+        <v>0.77605313062667847</v>
+      </c>
+      <c r="L264">
+        <v>0</v>
+      </c>
+      <c r="M264" t="s">
         <v>1177</v>
       </c>
     </row>
-    <row r="265" spans="1:12">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>1178</v>
       </c>
@@ -14738,13 +15539,16 @@
         <v>1182</v>
       </c>
       <c r="K265">
-        <v>0</v>
-      </c>
-      <c r="L265" t="s">
+        <v>0.38270580768585211</v>
+      </c>
+      <c r="L265">
+        <v>0</v>
+      </c>
+      <c r="M265" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="266" spans="1:12">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>1183</v>
       </c>
@@ -14776,13 +15580,16 @@
         <v>1187</v>
       </c>
       <c r="K266">
-        <v>1</v>
-      </c>
-      <c r="L266" t="s">
+        <v>0.82688862085342407</v>
+      </c>
+      <c r="L266">
+        <v>1</v>
+      </c>
+      <c r="M266" t="s">
         <v>1188</v>
       </c>
     </row>
-    <row r="267" spans="1:12">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>1189</v>
       </c>
@@ -14814,13 +15621,16 @@
         <v>1193</v>
       </c>
       <c r="K267">
-        <v>0</v>
-      </c>
-      <c r="L267" t="s">
+        <v>0.87468063831329346</v>
+      </c>
+      <c r="L267">
+        <v>0</v>
+      </c>
+      <c r="M267" t="s">
         <v>1194</v>
       </c>
     </row>
-    <row r="268" spans="1:12">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>1195</v>
       </c>
@@ -14852,13 +15662,16 @@
         <v>1199</v>
       </c>
       <c r="K268">
-        <v>0</v>
-      </c>
-      <c r="L268" t="s">
+        <v>0.65467846393585205</v>
+      </c>
+      <c r="L268">
+        <v>0</v>
+      </c>
+      <c r="M268" t="s">
         <v>1200</v>
       </c>
     </row>
-    <row r="269" spans="1:12">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>1201</v>
       </c>
@@ -14890,13 +15703,16 @@
         <v>1205</v>
       </c>
       <c r="K269">
-        <v>0</v>
-      </c>
-      <c r="L269" t="s">
+        <v>0.96315121650695801</v>
+      </c>
+      <c r="L269">
+        <v>0</v>
+      </c>
+      <c r="M269" t="s">
         <v>1206</v>
       </c>
     </row>
-    <row r="270" spans="1:12">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>1207</v>
       </c>
@@ -14928,13 +15744,16 @@
         <v>1211</v>
       </c>
       <c r="K270">
-        <v>0</v>
-      </c>
-      <c r="L270" t="s">
+        <v>0.88565903902053833</v>
+      </c>
+      <c r="L270">
+        <v>0</v>
+      </c>
+      <c r="M270" t="s">
         <v>1212</v>
       </c>
     </row>
-    <row r="271" spans="1:12">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>1213</v>
       </c>
@@ -14966,13 +15785,16 @@
         <v>1217</v>
       </c>
       <c r="K271">
-        <v>0</v>
-      </c>
-      <c r="L271" t="s">
+        <v>0.96407091617584229</v>
+      </c>
+      <c r="L271">
+        <v>0</v>
+      </c>
+      <c r="M271" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="272" spans="1:12">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>1219</v>
       </c>
@@ -15004,13 +15826,16 @@
         <v>1223</v>
       </c>
       <c r="K272">
-        <v>0</v>
-      </c>
-      <c r="L272" t="s">
+        <v>0.89116936922073364</v>
+      </c>
+      <c r="L272">
+        <v>0</v>
+      </c>
+      <c r="M272" t="s">
         <v>1224</v>
       </c>
     </row>
-    <row r="273" spans="1:12">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>1225</v>
       </c>
@@ -15042,13 +15867,16 @@
         <v>1229</v>
       </c>
       <c r="K273">
-        <v>0</v>
-      </c>
-      <c r="L273" t="s">
+        <v>0.92985010147094727</v>
+      </c>
+      <c r="L273">
+        <v>0</v>
+      </c>
+      <c r="M273" t="s">
         <v>1230</v>
       </c>
     </row>
-    <row r="274" spans="1:12">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>1231</v>
       </c>
@@ -15080,13 +15908,16 @@
         <v>1235</v>
       </c>
       <c r="K274">
-        <v>0</v>
-      </c>
-      <c r="L274" t="s">
+        <v>0.63223302364349365</v>
+      </c>
+      <c r="L274">
+        <v>0</v>
+      </c>
+      <c r="M274" t="s">
         <v>1236</v>
       </c>
     </row>
-    <row r="275" spans="1:12">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>1237</v>
       </c>
@@ -15118,13 +15949,16 @@
         <v>1241</v>
       </c>
       <c r="K275">
-        <v>0</v>
-      </c>
-      <c r="L275" t="s">
+        <v>0.62821435928344727</v>
+      </c>
+      <c r="L275">
+        <v>0</v>
+      </c>
+      <c r="M275" t="s">
         <v>1242</v>
       </c>
     </row>
-    <row r="276" spans="1:12">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>1243</v>
       </c>
@@ -15156,13 +15990,16 @@
         <v>1247</v>
       </c>
       <c r="K276">
-        <v>0</v>
-      </c>
-      <c r="L276" t="s">
+        <v>0.91547703742980957</v>
+      </c>
+      <c r="L276">
+        <v>0</v>
+      </c>
+      <c r="M276" t="s">
         <v>1248</v>
       </c>
     </row>
-    <row r="277" spans="1:12">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>1249</v>
       </c>
@@ -15194,13 +16031,16 @@
         <v>1253</v>
       </c>
       <c r="K277">
-        <v>0</v>
-      </c>
-      <c r="L277" t="s">
+        <v>0.71590864658355713</v>
+      </c>
+      <c r="L277">
+        <v>0</v>
+      </c>
+      <c r="M277" t="s">
         <v>1254</v>
       </c>
     </row>
-    <row r="278" spans="1:12">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>1255</v>
       </c>
@@ -15232,13 +16072,16 @@
         <v>1259</v>
       </c>
       <c r="K278">
-        <v>0</v>
-      </c>
-      <c r="L278" t="s">
+        <v>0.88678449392318726</v>
+      </c>
+      <c r="L278">
+        <v>0</v>
+      </c>
+      <c r="M278" t="s">
         <v>1260</v>
       </c>
     </row>
-    <row r="279" spans="1:12">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>1261</v>
       </c>
@@ -15270,13 +16113,16 @@
         <v>16</v>
       </c>
       <c r="K279">
-        <v>0</v>
-      </c>
-      <c r="L279" t="s">
+        <v>0.17387804388999939</v>
+      </c>
+      <c r="L279">
+        <v>0</v>
+      </c>
+      <c r="M279" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="280" spans="1:12">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>1264</v>
       </c>
@@ -15308,13 +16154,16 @@
         <v>237</v>
       </c>
       <c r="K280">
-        <v>1</v>
-      </c>
-      <c r="L280" t="s">
+        <v>0.92586255073547363</v>
+      </c>
+      <c r="L280">
+        <v>1</v>
+      </c>
+      <c r="M280" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="281" spans="1:12">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>1268</v>
       </c>
@@ -15346,13 +16195,16 @@
         <v>1272</v>
       </c>
       <c r="K281">
-        <v>0</v>
-      </c>
-      <c r="L281" t="s">
+        <v>0.65067660808563232</v>
+      </c>
+      <c r="L281">
+        <v>0</v>
+      </c>
+      <c r="M281" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="282" spans="1:12">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>1273</v>
       </c>
@@ -15384,10 +16236,13 @@
         <v>1277</v>
       </c>
       <c r="K282">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="283" spans="1:12">
+        <v>0.99774426221847534</v>
+      </c>
+      <c r="L282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>1278</v>
       </c>
@@ -15419,13 +16274,16 @@
         <v>1282</v>
       </c>
       <c r="K283">
-        <v>0</v>
-      </c>
-      <c r="L283" t="s">
+        <v>0.56596815586090088</v>
+      </c>
+      <c r="L283">
+        <v>0</v>
+      </c>
+      <c r="M283" t="s">
         <v>1283</v>
       </c>
     </row>
-    <row r="284" spans="1:12">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>1284</v>
       </c>
@@ -15457,13 +16315,16 @@
         <v>1288</v>
       </c>
       <c r="K284">
-        <v>0</v>
-      </c>
-      <c r="L284" t="s">
+        <v>0.88499832153320313</v>
+      </c>
+      <c r="L284">
+        <v>0</v>
+      </c>
+      <c r="M284" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="285" spans="1:12">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>1289</v>
       </c>
@@ -15495,13 +16356,16 @@
         <v>1293</v>
       </c>
       <c r="K285">
-        <v>0</v>
-      </c>
-      <c r="L285" t="s">
+        <v>0.7701411247253418</v>
+      </c>
+      <c r="L285">
+        <v>0</v>
+      </c>
+      <c r="M285" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="286" spans="1:12">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>1294</v>
       </c>
@@ -15533,13 +16397,16 @@
         <v>938</v>
       </c>
       <c r="K286">
-        <v>0</v>
-      </c>
-      <c r="L286" t="s">
+        <v>0.6705700159072876</v>
+      </c>
+      <c r="L286">
+        <v>0</v>
+      </c>
+      <c r="M286" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="287" spans="1:12">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>1298</v>
       </c>
@@ -15571,13 +16438,16 @@
         <v>291</v>
       </c>
       <c r="K287">
-        <v>0</v>
-      </c>
-      <c r="L287" t="s">
+        <v>0.87384605407714844</v>
+      </c>
+      <c r="L287">
+        <v>0</v>
+      </c>
+      <c r="M287" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="288" spans="1:12">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>1302</v>
       </c>
@@ -15609,13 +16479,16 @@
         <v>709</v>
       </c>
       <c r="K288">
-        <v>0</v>
-      </c>
-      <c r="L288" t="s">
+        <v>0.8863673210144043</v>
+      </c>
+      <c r="L288">
+        <v>0</v>
+      </c>
+      <c r="M288" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="289" spans="1:12">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>1306</v>
       </c>
@@ -15647,13 +16520,16 @@
         <v>16</v>
       </c>
       <c r="K289">
-        <v>0</v>
-      </c>
-      <c r="L289" t="s">
+        <v>0.1064815670251846</v>
+      </c>
+      <c r="L289">
+        <v>0</v>
+      </c>
+      <c r="M289" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="290" spans="1:12">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>1309</v>
       </c>
@@ -15685,13 +16561,16 @@
         <v>667</v>
       </c>
       <c r="K290">
-        <v>0</v>
-      </c>
-      <c r="L290" t="s">
+        <v>0.8823394775390625</v>
+      </c>
+      <c r="L290">
+        <v>0</v>
+      </c>
+      <c r="M290" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="291" spans="1:12">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>1313</v>
       </c>
@@ -15723,10 +16602,13 @@
         <v>703</v>
       </c>
       <c r="K291">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="292" spans="1:12">
+        <v>0.86392277479171753</v>
+      </c>
+      <c r="L291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>1317</v>
       </c>
@@ -15758,13 +16640,16 @@
         <v>1321</v>
       </c>
       <c r="K292">
-        <v>0</v>
-      </c>
-      <c r="L292" t="s">
+        <v>0.92320692539215088</v>
+      </c>
+      <c r="L292">
+        <v>0</v>
+      </c>
+      <c r="M292" t="s">
         <v>1322</v>
       </c>
     </row>
-    <row r="293" spans="1:12">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>1323</v>
       </c>
@@ -15796,10 +16681,13 @@
         <v>48</v>
       </c>
       <c r="K293">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="294" spans="1:12">
+        <v>0.99999994039535522</v>
+      </c>
+      <c r="L293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>1325</v>
       </c>
@@ -15831,13 +16719,16 @@
         <v>1329</v>
       </c>
       <c r="K294">
-        <v>0</v>
-      </c>
-      <c r="L294" t="s">
+        <v>0.78381901979446411</v>
+      </c>
+      <c r="L294">
+        <v>0</v>
+      </c>
+      <c r="M294" t="s">
         <v>1330</v>
       </c>
     </row>
-    <row r="295" spans="1:12">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>1331</v>
       </c>
@@ -15869,13 +16760,16 @@
         <v>1335</v>
       </c>
       <c r="K295">
-        <v>0</v>
-      </c>
-      <c r="L295" t="s">
+        <v>0.794761061668396</v>
+      </c>
+      <c r="L295">
+        <v>0</v>
+      </c>
+      <c r="M295" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="296" spans="1:12">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>1336</v>
       </c>
@@ -15907,13 +16801,16 @@
         <v>1340</v>
       </c>
       <c r="K296">
-        <v>0</v>
-      </c>
-      <c r="L296" t="s">
+        <v>0.82503986358642578</v>
+      </c>
+      <c r="L296">
+        <v>0</v>
+      </c>
+      <c r="M296" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="297" spans="1:12">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>1341</v>
       </c>
@@ -15945,13 +16842,16 @@
         <v>16</v>
       </c>
       <c r="K297">
-        <v>0</v>
-      </c>
-      <c r="L297" t="s">
+        <v>0.19653551280498499</v>
+      </c>
+      <c r="L297">
+        <v>0</v>
+      </c>
+      <c r="M297" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="298" spans="1:12">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>1344</v>
       </c>
@@ -15983,13 +16883,16 @@
         <v>1348</v>
       </c>
       <c r="K298">
-        <v>0</v>
-      </c>
-      <c r="L298" t="s">
+        <v>0.68507611751556396</v>
+      </c>
+      <c r="L298">
+        <v>0</v>
+      </c>
+      <c r="M298" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="299" spans="1:12">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>1349</v>
       </c>
@@ -16021,13 +16924,16 @@
         <v>16</v>
       </c>
       <c r="K299">
-        <v>0</v>
-      </c>
-      <c r="L299" t="s">
+        <v>0.13083711266517639</v>
+      </c>
+      <c r="L299">
+        <v>0</v>
+      </c>
+      <c r="M299" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="300" spans="1:12">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>1352</v>
       </c>
@@ -16059,13 +16965,16 @@
         <v>1356</v>
       </c>
       <c r="K300">
-        <v>0</v>
-      </c>
-      <c r="L300" t="s">
+        <v>0.89483577013015747</v>
+      </c>
+      <c r="L300">
+        <v>0</v>
+      </c>
+      <c r="M300" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="301" spans="1:12">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>1357</v>
       </c>
@@ -16097,13 +17006,16 @@
         <v>1361</v>
       </c>
       <c r="K301">
-        <v>0</v>
-      </c>
-      <c r="L301" t="s">
+        <v>0.84907913208007813</v>
+      </c>
+      <c r="L301">
+        <v>0</v>
+      </c>
+      <c r="M301" t="s">
         <v>1362</v>
       </c>
     </row>
-    <row r="302" spans="1:12">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>1363</v>
       </c>
@@ -16135,13 +17047,16 @@
         <v>16</v>
       </c>
       <c r="K302">
-        <v>0</v>
-      </c>
-      <c r="L302" t="s">
+        <v>0.1182386577129364</v>
+      </c>
+      <c r="L302">
+        <v>0</v>
+      </c>
+      <c r="M302" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="303" spans="1:12">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>1366</v>
       </c>
@@ -16173,13 +17088,16 @@
         <v>1370</v>
       </c>
       <c r="K303">
-        <v>0</v>
-      </c>
-      <c r="L303" t="s">
+        <v>0.75471067428588867</v>
+      </c>
+      <c r="L303">
+        <v>0</v>
+      </c>
+      <c r="M303" t="s">
         <v>1371</v>
       </c>
     </row>
-    <row r="304" spans="1:12">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>1372</v>
       </c>
@@ -16211,13 +17129,16 @@
         <v>1376</v>
       </c>
       <c r="K304">
-        <v>0</v>
-      </c>
-      <c r="L304" t="s">
+        <v>0.88577353954315186</v>
+      </c>
+      <c r="L304">
+        <v>0</v>
+      </c>
+      <c r="M304" t="s">
         <v>1377</v>
       </c>
     </row>
-    <row r="305" spans="1:12">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>1378</v>
       </c>
@@ -16249,13 +17170,16 @@
         <v>1382</v>
       </c>
       <c r="K305">
-        <v>0</v>
-      </c>
-      <c r="L305" t="s">
+        <v>0.89332795143127441</v>
+      </c>
+      <c r="L305">
+        <v>0</v>
+      </c>
+      <c r="M305" t="s">
         <v>1377</v>
       </c>
     </row>
-    <row r="306" spans="1:12">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>1383</v>
       </c>
@@ -16287,13 +17211,16 @@
         <v>1387</v>
       </c>
       <c r="K306">
-        <v>0</v>
-      </c>
-      <c r="L306" t="s">
+        <v>0.95131254196166992</v>
+      </c>
+      <c r="L306">
+        <v>0</v>
+      </c>
+      <c r="M306" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="307" spans="1:12">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>1388</v>
       </c>
@@ -16325,13 +17252,16 @@
         <v>1392</v>
       </c>
       <c r="K307">
-        <v>0</v>
-      </c>
-      <c r="L307" t="s">
+        <v>0.75879800319671631</v>
+      </c>
+      <c r="L307">
+        <v>0</v>
+      </c>
+      <c r="M307" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="308" spans="1:12">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>1393</v>
       </c>
@@ -16363,13 +17293,16 @@
         <v>1397</v>
       </c>
       <c r="K308">
-        <v>1</v>
-      </c>
-      <c r="L308" t="s">
+        <v>0.94872784614562988</v>
+      </c>
+      <c r="L308">
+        <v>1</v>
+      </c>
+      <c r="M308" t="s">
         <v>1398</v>
       </c>
     </row>
-    <row r="309" spans="1:12">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>1399</v>
       </c>
@@ -16401,13 +17334,16 @@
         <v>1403</v>
       </c>
       <c r="K309">
-        <v>0</v>
-      </c>
-      <c r="L309" t="s">
+        <v>0.69122064113616943</v>
+      </c>
+      <c r="L309">
+        <v>0</v>
+      </c>
+      <c r="M309" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="310" spans="1:12">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>1404</v>
       </c>
@@ -16439,13 +17375,16 @@
         <v>16</v>
       </c>
       <c r="K310">
-        <v>0</v>
-      </c>
-      <c r="L310" t="s">
+        <v>3.8756094872951508E-2</v>
+      </c>
+      <c r="L310">
+        <v>0</v>
+      </c>
+      <c r="M310" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="311" spans="1:12">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>1407</v>
       </c>
@@ -16477,13 +17416,16 @@
         <v>1411</v>
       </c>
       <c r="K311">
-        <v>1</v>
-      </c>
-      <c r="L311" t="s">
+        <v>0.95925581455230713</v>
+      </c>
+      <c r="L311">
+        <v>1</v>
+      </c>
+      <c r="M311" t="s">
         <v>1412</v>
       </c>
     </row>
-    <row r="312" spans="1:12">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>1413</v>
       </c>
@@ -16515,13 +17457,16 @@
         <v>1417</v>
       </c>
       <c r="K312">
-        <v>0</v>
-      </c>
-      <c r="L312" t="s">
+        <v>0.67634820938110352</v>
+      </c>
+      <c r="L312">
+        <v>0</v>
+      </c>
+      <c r="M312" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="313" spans="1:12">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>1418</v>
       </c>
@@ -16553,10 +17498,13 @@
         <v>1422</v>
       </c>
       <c r="K313">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="314" spans="1:12">
+        <v>0.99999994039535522</v>
+      </c>
+      <c r="L313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>1423</v>
       </c>
@@ -16588,13 +17536,16 @@
         <v>1427</v>
       </c>
       <c r="K314">
-        <v>0</v>
-      </c>
-      <c r="L314" t="s">
+        <v>0.85278195142745972</v>
+      </c>
+      <c r="L314">
+        <v>0</v>
+      </c>
+      <c r="M314" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="315" spans="1:12">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>1428</v>
       </c>
@@ -16626,13 +17577,16 @@
         <v>1432</v>
       </c>
       <c r="K315">
-        <v>1</v>
-      </c>
-      <c r="L315" t="s">
+        <v>0.83085393905639648</v>
+      </c>
+      <c r="L315">
+        <v>1</v>
+      </c>
+      <c r="M315" t="s">
         <v>1433</v>
       </c>
     </row>
-    <row r="316" spans="1:12">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>1434</v>
       </c>
@@ -16664,13 +17618,16 @@
         <v>1438</v>
       </c>
       <c r="K316">
-        <v>0</v>
-      </c>
-      <c r="L316" t="s">
+        <v>0.85825568437576294</v>
+      </c>
+      <c r="L316">
+        <v>0</v>
+      </c>
+      <c r="M316" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="317" spans="1:12">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>1439</v>
       </c>
@@ -16702,13 +17659,16 @@
         <v>1443</v>
       </c>
       <c r="K317">
-        <v>0</v>
-      </c>
-      <c r="L317" t="s">
+        <v>0.90212464332580566</v>
+      </c>
+      <c r="L317">
+        <v>0</v>
+      </c>
+      <c r="M317" t="s">
         <v>1444</v>
       </c>
     </row>
-    <row r="318" spans="1:12">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>1445</v>
       </c>
@@ -16740,13 +17700,16 @@
         <v>22</v>
       </c>
       <c r="K318">
-        <v>0</v>
-      </c>
-      <c r="L318" t="s">
+        <v>0.83237820863723755</v>
+      </c>
+      <c r="L318">
+        <v>0</v>
+      </c>
+      <c r="M318" t="s">
         <v>1444</v>
       </c>
     </row>
-    <row r="319" spans="1:12">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>1449</v>
       </c>
@@ -16778,13 +17741,16 @@
         <v>1453</v>
       </c>
       <c r="K319">
-        <v>0</v>
-      </c>
-      <c r="L319" t="s">
+        <v>0.9576869010925293</v>
+      </c>
+      <c r="L319">
+        <v>0</v>
+      </c>
+      <c r="M319" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="320" spans="1:12">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>1454</v>
       </c>
@@ -16816,13 +17782,16 @@
         <v>1458</v>
       </c>
       <c r="K320">
-        <v>0</v>
-      </c>
-      <c r="L320" t="s">
+        <v>0.96082007884979248</v>
+      </c>
+      <c r="L320">
+        <v>0</v>
+      </c>
+      <c r="M320" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="321" spans="1:12">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>1459</v>
       </c>
@@ -16854,13 +17823,16 @@
         <v>1463</v>
       </c>
       <c r="K321">
-        <v>0</v>
-      </c>
-      <c r="L321" t="s">
+        <v>0.76172316074371338</v>
+      </c>
+      <c r="L321">
+        <v>0</v>
+      </c>
+      <c r="M321" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="322" spans="1:12">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>1464</v>
       </c>
@@ -16892,13 +17864,16 @@
         <v>1468</v>
       </c>
       <c r="K322">
-        <v>0</v>
-      </c>
-      <c r="L322" t="s">
+        <v>0.86668884754180908</v>
+      </c>
+      <c r="L322">
+        <v>0</v>
+      </c>
+      <c r="M322" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="323" spans="1:12">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>1469</v>
       </c>
@@ -16930,13 +17905,16 @@
         <v>1473</v>
       </c>
       <c r="K323">
-        <v>0</v>
-      </c>
-      <c r="L323" t="s">
+        <v>0.91351592540740967</v>
+      </c>
+      <c r="L323">
+        <v>0</v>
+      </c>
+      <c r="M323" t="s">
         <v>1474</v>
       </c>
     </row>
-    <row r="324" spans="1:12">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>1475</v>
       </c>
@@ -16968,13 +17946,16 @@
         <v>1479</v>
       </c>
       <c r="K324">
-        <v>0</v>
-      </c>
-      <c r="L324" t="s">
+        <v>0.93372297286987305</v>
+      </c>
+      <c r="L324">
+        <v>0</v>
+      </c>
+      <c r="M324" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="325" spans="1:12">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>1480</v>
       </c>
@@ -17006,13 +17987,16 @@
         <v>1484</v>
       </c>
       <c r="K325">
-        <v>0</v>
-      </c>
-      <c r="L325" t="s">
+        <v>0.99472910165786743</v>
+      </c>
+      <c r="L325">
+        <v>0</v>
+      </c>
+      <c r="M325" t="s">
         <v>1485</v>
       </c>
     </row>
-    <row r="326" spans="1:12">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>1486</v>
       </c>
@@ -17044,10 +18028,13 @@
         <v>48</v>
       </c>
       <c r="K326">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="327" spans="1:12">
+        <v>0.99999994039535522</v>
+      </c>
+      <c r="L326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>1488</v>
       </c>
@@ -17079,9 +18066,12 @@
         <v>1492</v>
       </c>
       <c r="K327">
-        <v>0</v>
-      </c>
-      <c r="L327" t="s">
+        <v>0.53003406524658203</v>
+      </c>
+      <c r="L327">
+        <v>0</v>
+      </c>
+      <c r="M327" t="s">
         <v>215</v>
       </c>
     </row>

--- a/HE/W_in_progress/AnalisiCodeGPT.xlsx
+++ b/HE/W_in_progress/AnalisiCodeGPT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcd\Desktop\Tesi\Work\repo\Tesi_Generatore_VHDL\HE\W_in_progress\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcd\Desktop\Tesi\Work\repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A28CE6-0288-4440-B7F8-548BA276342A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB125EA-1351-4BBB-B6AC-B57E966F6B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3444" yWindow="1752" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1308" yWindow="3588" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1891" uniqueCount="1494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1892" uniqueCount="1495">
   <si>
     <t>IN</t>
   </si>
@@ -4518,6 +4518,9 @@
   </si>
   <si>
     <t>SBERT_M</t>
+  </si>
+  <si>
+    <t>WMD_M</t>
   </si>
 </sst>
 </file>
@@ -4888,10 +4891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M327"/>
+  <dimension ref="A1:N327"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4902,7 +4905,7 @@
     <col min="10" max="10" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4937,13 +4940,16 @@
         <v>1493</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>1494</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -4978,13 +4984,16 @@
         <v>0.3665517270565033</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2" t="s">
+        <v>0.37406835157421492</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -5019,13 +5028,16 @@
         <v>0.54714179039001465</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3" t="s">
+        <v>0.46433049441599761</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -5060,13 +5072,16 @@
         <v>0.6917722225189209</v>
       </c>
       <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4" t="s">
+        <v>0.52335563231111681</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -5101,13 +5116,16 @@
         <v>0.23028382658958441</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5" t="s">
+        <v>0.25585204218555258</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -5142,13 +5160,16 @@
         <v>0.66243666410446167</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6" t="s">
+        <v>0.69775372896090104</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -5183,13 +5204,16 @@
         <v>0.98538511991500854</v>
       </c>
       <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7" t="s">
+        <v>0.95832516253869249</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -5226,8 +5250,11 @@
       <c r="L8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -5262,13 +5289,16 @@
         <v>0.94016361236572266</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9" t="s">
+        <v>0.85254624225176578</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -5303,13 +5333,16 @@
         <v>0.93074440956115723</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10" t="s">
+        <v>0.92988132601752382</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -5344,13 +5377,16 @@
         <v>0.87436372041702271</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11" t="s">
+        <v>0.6337160588522639</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>64</v>
       </c>
@@ -5385,13 +5421,16 @@
         <v>0.61113494634628296</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12" t="s">
+        <v>0.48176655735839352</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>69</v>
       </c>
@@ -5426,13 +5465,16 @@
         <v>0.60743439197540283</v>
       </c>
       <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13" t="s">
+        <v>0.66034799055422944</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>75</v>
       </c>
@@ -5467,13 +5509,16 @@
         <v>0.81473928689956665</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14" t="s">
+        <v>0.64699087257352761</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>81</v>
       </c>
@@ -5508,13 +5553,16 @@
         <v>0.19348993897438049</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15" t="s">
+        <v>-0.27847073679346129</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>85</v>
       </c>
@@ -5549,10 +5597,13 @@
         <v>0.99999988079071045</v>
       </c>
       <c r="L16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.5119216738921214</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>90</v>
       </c>
@@ -5589,8 +5640,11 @@
       <c r="L17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>95</v>
       </c>
@@ -5625,13 +5679,16 @@
         <v>0.67551982402801514</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18" t="s">
+        <v>0.54626793316749733</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>100</v>
       </c>
@@ -5666,13 +5723,16 @@
         <v>0.91271829605102539</v>
       </c>
       <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19" t="s">
+        <v>0.87037768908616431</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>106</v>
       </c>
@@ -5709,8 +5769,11 @@
       <c r="L20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>108</v>
       </c>
@@ -5745,13 +5808,16 @@
         <v>0.65207427740097046</v>
       </c>
       <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21" t="s">
+        <v>0.76364988437663139</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>114</v>
       </c>
@@ -5786,13 +5852,16 @@
         <v>0.5798652172088623</v>
       </c>
       <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22" t="s">
+        <v>0.19909721472040759</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>118</v>
       </c>
@@ -5827,13 +5896,16 @@
         <v>0.91833770275115967</v>
       </c>
       <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23" t="s">
+        <v>0.88409575034948384</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>123</v>
       </c>
@@ -5868,13 +5940,16 @@
         <v>0.82156026363372803</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24" t="s">
+        <v>0.76970706003705192</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>128</v>
       </c>
@@ -5911,8 +5986,11 @@
       <c r="L25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>130</v>
       </c>
@@ -5947,13 +6025,16 @@
         <v>0.63774555921554565</v>
       </c>
       <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26" t="s">
+        <v>0.62422452045762089</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>135</v>
       </c>
@@ -5988,13 +6069,16 @@
         <v>0.60679936408996582</v>
       </c>
       <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27" t="s">
+        <v>0.60394378063988441</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>141</v>
       </c>
@@ -6029,13 +6113,16 @@
         <v>0.53882449865341187</v>
       </c>
       <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28" t="s">
+        <v>0.56695984630116614</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>147</v>
       </c>
@@ -6070,10 +6157,13 @@
         <v>0.99744904041290283</v>
       </c>
       <c r="L29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.99774820928738284</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>152</v>
       </c>
@@ -6110,8 +6200,11 @@
       <c r="L30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>154</v>
       </c>
@@ -6148,8 +6241,11 @@
       <c r="L31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>159</v>
       </c>
@@ -6186,8 +6282,11 @@
       <c r="L32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>163</v>
       </c>
@@ -6224,8 +6323,11 @@
       <c r="L33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>165</v>
       </c>
@@ -6262,8 +6364,11 @@
       <c r="L34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>167</v>
       </c>
@@ -6300,8 +6405,11 @@
       <c r="L35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>169</v>
       </c>
@@ -6338,8 +6446,11 @@
       <c r="L36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>173</v>
       </c>
@@ -6376,8 +6487,11 @@
       <c r="L37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>175</v>
       </c>
@@ -6414,8 +6528,11 @@
       <c r="L38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>177</v>
       </c>
@@ -6450,10 +6567,13 @@
         <v>0.97683119773864746</v>
       </c>
       <c r="L39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.4478576379630691</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>182</v>
       </c>
@@ -6488,10 +6608,13 @@
         <v>0.92204391956329346</v>
       </c>
       <c r="L40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.93104433588540636</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>186</v>
       </c>
@@ -6526,13 +6649,16 @@
         <v>0.76133871078491211</v>
       </c>
       <c r="L41">
-        <v>1</v>
-      </c>
-      <c r="M41" t="s">
+        <v>0.63598060218785291</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>192</v>
       </c>
@@ -6569,8 +6695,11 @@
       <c r="L42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>194</v>
       </c>
@@ -6605,13 +6734,16 @@
         <v>0.81148171424865723</v>
       </c>
       <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43" t="s">
+        <v>0.61408774634325214</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>200</v>
       </c>
@@ -6648,8 +6780,11 @@
       <c r="L44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>205</v>
       </c>
@@ -6686,8 +6821,11 @@
       <c r="L45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>207</v>
       </c>
@@ -6722,13 +6860,16 @@
         <v>0.76133525371551514</v>
       </c>
       <c r="L46">
-        <v>1</v>
-      </c>
-      <c r="M46" t="s">
+        <v>0.62128849725820623</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>211</v>
       </c>
@@ -6763,13 +6904,16 @@
         <v>0.72210758924484253</v>
       </c>
       <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47" t="s">
+        <v>0.7146559223586173</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>216</v>
       </c>
@@ -6804,13 +6948,16 @@
         <v>0.16048386693000791</v>
       </c>
       <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48" t="s">
+        <v>-0.24445335695257511</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>219</v>
       </c>
@@ -6847,8 +6994,11 @@
       <c r="L49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>223</v>
       </c>
@@ -6885,8 +7035,11 @@
       <c r="L50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>225</v>
       </c>
@@ -6921,10 +7074,13 @@
         <v>0.99603056907653809</v>
       </c>
       <c r="L51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.94838953136986937</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>230</v>
       </c>
@@ -6961,8 +7117,11 @@
       <c r="L52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>234</v>
       </c>
@@ -6997,13 +7156,16 @@
         <v>0.85540342330932617</v>
       </c>
       <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53" t="s">
+        <v>0.72802764800187991</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>239</v>
       </c>
@@ -7038,13 +7200,16 @@
         <v>9.4669409096240997E-2</v>
       </c>
       <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54" t="s">
+        <v>5.2207916170422093E-2</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>242</v>
       </c>
@@ -7081,8 +7246,11 @@
       <c r="L55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>244</v>
       </c>
@@ -7117,13 +7285,16 @@
         <v>0.659248948097229</v>
       </c>
       <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56" t="s">
+        <v>0.67060681896717633</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>250</v>
       </c>
@@ -7158,13 +7329,16 @@
         <v>0.92647957801818848</v>
       </c>
       <c r="L57">
-        <v>1</v>
-      </c>
-      <c r="M57" t="s">
+        <v>0.46153332773394801</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>256</v>
       </c>
@@ -7201,8 +7375,11 @@
       <c r="L58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>258</v>
       </c>
@@ -7239,8 +7416,11 @@
       <c r="L59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>260</v>
       </c>
@@ -7275,13 +7455,16 @@
         <v>0.84841626882553101</v>
       </c>
       <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="M60" t="s">
+        <v>0.5542638348472716</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>265</v>
       </c>
@@ -7318,8 +7501,11 @@
       <c r="L61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>268</v>
       </c>
@@ -7356,8 +7542,11 @@
       <c r="L62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>270</v>
       </c>
@@ -7394,8 +7583,11 @@
       <c r="L63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>272</v>
       </c>
@@ -7432,8 +7624,11 @@
       <c r="L64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>276</v>
       </c>
@@ -7470,8 +7665,11 @@
       <c r="L65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>277</v>
       </c>
@@ -7506,13 +7704,16 @@
         <v>0.94495195150375366</v>
       </c>
       <c r="L66">
-        <v>0</v>
-      </c>
-      <c r="M66" t="s">
+        <v>0.86017505735423905</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>283</v>
       </c>
@@ -7547,10 +7748,13 @@
         <v>1</v>
       </c>
       <c r="L67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.88295859628465578</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>287</v>
       </c>
@@ -7585,13 +7789,16 @@
         <v>0.57813656330108643</v>
       </c>
       <c r="L68">
-        <v>0</v>
-      </c>
-      <c r="M68" t="s">
+        <v>0.38735441116932201</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>293</v>
       </c>
@@ -7626,13 +7833,16 @@
         <v>9.5208406448364258E-2</v>
       </c>
       <c r="L69">
-        <v>0</v>
-      </c>
-      <c r="M69" t="s">
+        <v>-1.5404837603327779E-2</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>296</v>
       </c>
@@ -7667,13 +7877,16 @@
         <v>0.93591952323913574</v>
       </c>
       <c r="L70">
-        <v>1</v>
-      </c>
-      <c r="M70" t="s">
+        <v>0.86757101100811829</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>302</v>
       </c>
@@ -7708,13 +7921,16 @@
         <v>0.1978824436664581</v>
       </c>
       <c r="L71">
-        <v>0</v>
-      </c>
-      <c r="M71" t="s">
+        <v>-0.22325724837602801</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>305</v>
       </c>
@@ -7749,13 +7965,16 @@
         <v>0.33035963773727423</v>
       </c>
       <c r="L72">
-        <v>1</v>
-      </c>
-      <c r="M72" t="s">
+        <v>0.2357634746592987</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="N72" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>310</v>
       </c>
@@ -7790,10 +8009,13 @@
         <v>0.19282302260398859</v>
       </c>
       <c r="L73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+        <v>-0.11417184838727</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>313</v>
       </c>
@@ -7828,13 +8050,16 @@
         <v>0.97448790073394775</v>
       </c>
       <c r="L74">
-        <v>0</v>
-      </c>
-      <c r="M74" t="s">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>319</v>
       </c>
@@ -7869,13 +8094,16 @@
         <v>0.72824180126190186</v>
       </c>
       <c r="L75">
-        <v>0</v>
-      </c>
-      <c r="M75" t="s">
+        <v>0.4924897553262757</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>323</v>
       </c>
@@ -7910,13 +8138,16 @@
         <v>0.85357773303985596</v>
       </c>
       <c r="L76">
-        <v>0</v>
-      </c>
-      <c r="M76" t="s">
+        <v>0.65004698148734252</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>327</v>
       </c>
@@ -7951,13 +8182,16 @@
         <v>0.89448678493499756</v>
       </c>
       <c r="L77">
-        <v>0</v>
-      </c>
-      <c r="M77" t="s">
+        <v>0.70374214263886548</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>332</v>
       </c>
@@ -7994,8 +8228,11 @@
       <c r="L78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>334</v>
       </c>
@@ -8030,10 +8267,13 @@
         <v>0.18045149743556979</v>
       </c>
       <c r="L79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+        <v>-0.17771051198028351</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>337</v>
       </c>
@@ -8068,13 +8308,16 @@
         <v>0.33035963773727423</v>
       </c>
       <c r="L80">
-        <v>1</v>
-      </c>
-      <c r="M80" t="s">
+        <v>0.2357634746592987</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>338</v>
       </c>
@@ -8109,13 +8352,16 @@
         <v>0.20661526918411249</v>
       </c>
       <c r="L81">
-        <v>0</v>
-      </c>
-      <c r="M81" t="s">
+        <v>0.48536382108384019</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>344</v>
       </c>
@@ -8150,10 +8396,13 @@
         <v>0.1167659759521484</v>
       </c>
       <c r="L82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+        <v>-0.22295805078955899</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>347</v>
       </c>
@@ -8188,10 +8437,13 @@
         <v>0.95160752534866333</v>
       </c>
       <c r="L83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.83046702791232141</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>351</v>
       </c>
@@ -8226,13 +8478,16 @@
         <v>0.73887789249420166</v>
       </c>
       <c r="L84">
-        <v>0</v>
-      </c>
-      <c r="M84" t="s">
+        <v>0.50788545324319712</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>357</v>
       </c>
@@ -8269,8 +8524,11 @@
       <c r="L85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>359</v>
       </c>
@@ -8305,13 +8563,16 @@
         <v>0.86970192193984985</v>
       </c>
       <c r="L86">
-        <v>0</v>
-      </c>
-      <c r="M86" t="s">
+        <v>0.76908282484954693</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>363</v>
       </c>
@@ -8346,13 +8607,16 @@
         <v>0.11763130128383641</v>
       </c>
       <c r="L87">
-        <v>0</v>
-      </c>
-      <c r="M87" t="s">
+        <v>-0.22177171395626399</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>366</v>
       </c>
@@ -8387,13 +8651,16 @@
         <v>0.78641307353973389</v>
       </c>
       <c r="L88">
-        <v>0</v>
-      </c>
-      <c r="M88" t="s">
+        <v>0.79700469715587363</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>371</v>
       </c>
@@ -8428,13 +8695,16 @@
         <v>0.99585515260696411</v>
       </c>
       <c r="L89">
-        <v>0</v>
-      </c>
-      <c r="M89" t="s">
+        <v>1</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>376</v>
       </c>
@@ -8469,13 +8739,16 @@
         <v>0.92000120878219604</v>
       </c>
       <c r="L90">
-        <v>1</v>
-      </c>
-      <c r="M90" t="s">
+        <v>0.81914478724361928</v>
+      </c>
+      <c r="M90">
+        <v>1</v>
+      </c>
+      <c r="N90" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>381</v>
       </c>
@@ -8510,13 +8783,16 @@
         <v>0.82516956329345703</v>
       </c>
       <c r="L91">
-        <v>1</v>
-      </c>
-      <c r="M91" t="s">
+        <v>0.63460776043483946</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="N91" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>385</v>
       </c>
@@ -8551,13 +8827,16 @@
         <v>0.85121840238571167</v>
       </c>
       <c r="L92">
-        <v>0</v>
-      </c>
-      <c r="M92" t="s">
+        <v>0.48185733093739042</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>376</v>
       </c>
@@ -8592,13 +8871,16 @@
         <v>0.92000120878219604</v>
       </c>
       <c r="L93">
-        <v>1</v>
-      </c>
-      <c r="M93" t="s">
+        <v>0.81914478724361928</v>
+      </c>
+      <c r="M93">
+        <v>1</v>
+      </c>
+      <c r="N93" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>390</v>
       </c>
@@ -8635,8 +8917,11 @@
       <c r="L94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>392</v>
       </c>
@@ -8671,13 +8956,16 @@
         <v>0.70721948146820068</v>
       </c>
       <c r="L95">
-        <v>1</v>
-      </c>
-      <c r="M95" t="s">
+        <v>0.46334500727940009</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+      <c r="N95" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>396</v>
       </c>
@@ -8714,8 +9002,11 @@
       <c r="L96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>398</v>
       </c>
@@ -8750,13 +9041,16 @@
         <v>0.98745405673980713</v>
       </c>
       <c r="L97">
-        <v>0</v>
-      </c>
-      <c r="M97" t="s">
+        <v>0.94544523694605109</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>402</v>
       </c>
@@ -8791,13 +9085,16 @@
         <v>0.89240527153015137</v>
       </c>
       <c r="L98">
-        <v>1</v>
-      </c>
-      <c r="M98" t="s">
+        <v>0.86603063400755032</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+      <c r="N98" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>407</v>
       </c>
@@ -8834,8 +9131,11 @@
       <c r="L99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>408</v>
       </c>
@@ -8870,13 +9170,16 @@
         <v>0.72576296329498291</v>
       </c>
       <c r="L100">
-        <v>0</v>
-      </c>
-      <c r="M100" t="s">
+        <v>0.20341707417756741</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>413</v>
       </c>
@@ -8911,13 +9214,16 @@
         <v>0.90108776092529297</v>
       </c>
       <c r="L101">
-        <v>1</v>
-      </c>
-      <c r="M101" t="s">
+        <v>0.60814209501381744</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+      <c r="N101" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>417</v>
       </c>
@@ -8952,13 +9258,16 @@
         <v>0.97292149066925049</v>
       </c>
       <c r="L102">
-        <v>0</v>
-      </c>
-      <c r="M102" t="s">
+        <v>0.91605829444574161</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>422</v>
       </c>
@@ -8993,13 +9302,16 @@
         <v>0.57245719432830811</v>
       </c>
       <c r="L103">
-        <v>0</v>
-      </c>
-      <c r="M103" t="s">
+        <v>0.53373302551345048</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>427</v>
       </c>
@@ -9034,13 +9346,16 @@
         <v>0.92757701873779297</v>
       </c>
       <c r="L104">
-        <v>1</v>
-      </c>
-      <c r="M104" t="s">
+        <v>0.91001794405627101</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
+      <c r="N104" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>432</v>
       </c>
@@ -9075,13 +9390,16 @@
         <v>0.13670575618743899</v>
       </c>
       <c r="L105">
-        <v>0</v>
-      </c>
-      <c r="M105" t="s">
+        <v>-0.14564564725939741</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>435</v>
       </c>
@@ -9116,13 +9434,16 @@
         <v>0.87353670597076416</v>
       </c>
       <c r="L106">
-        <v>0</v>
-      </c>
-      <c r="M106" t="s">
+        <v>0.83868580855040731</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>441</v>
       </c>
@@ -9157,13 +9478,16 @@
         <v>0.71534281969070435</v>
       </c>
       <c r="L107">
-        <v>0</v>
-      </c>
-      <c r="M107" t="s">
+        <v>0.60338562690822162</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>445</v>
       </c>
@@ -9198,13 +9522,16 @@
         <v>0.9962770938873291</v>
       </c>
       <c r="L108">
-        <v>0</v>
-      </c>
-      <c r="M108" t="s">
+        <v>0.90716828557870222</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>451</v>
       </c>
@@ -9239,13 +9566,16 @@
         <v>0.9605327844619751</v>
       </c>
       <c r="L109">
-        <v>1</v>
-      </c>
-      <c r="M109" t="s">
+        <v>0.85328452783877928</v>
+      </c>
+      <c r="M109">
+        <v>1</v>
+      </c>
+      <c r="N109" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>456</v>
       </c>
@@ -9280,13 +9610,16 @@
         <v>0.7674446702003479</v>
       </c>
       <c r="L110">
-        <v>0</v>
-      </c>
-      <c r="M110" t="s">
+        <v>0.87705371083178885</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>461</v>
       </c>
@@ -9321,10 +9654,13 @@
         <v>0.98724985122680664</v>
       </c>
       <c r="L111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.9514781404415692</v>
+      </c>
+      <c r="M111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>466</v>
       </c>
@@ -9359,13 +9695,16 @@
         <v>0.86532938480377197</v>
       </c>
       <c r="L112">
-        <v>0</v>
-      </c>
-      <c r="M112" t="s">
+        <v>0.81697731154694697</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>461</v>
       </c>
@@ -9400,13 +9739,16 @@
         <v>0.98724985122680664</v>
       </c>
       <c r="L113">
-        <v>0</v>
-      </c>
-      <c r="M113" t="s">
+        <v>0.9514781404415692</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>473</v>
       </c>
@@ -9441,13 +9783,16 @@
         <v>0.89484584331512451</v>
       </c>
       <c r="L114">
-        <v>0</v>
-      </c>
-      <c r="M114" t="s">
+        <v>0.78515938413049435</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>478</v>
       </c>
@@ -9484,8 +9829,11 @@
       <c r="L115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>480</v>
       </c>
@@ -9520,13 +9868,16 @@
         <v>0.99663197994232178</v>
       </c>
       <c r="L116">
-        <v>0</v>
-      </c>
-      <c r="M116" t="s">
+        <v>0.93751101652885316</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>485</v>
       </c>
@@ -9561,13 +9912,16 @@
         <v>0.1249964982271194</v>
       </c>
       <c r="L117">
-        <v>0</v>
-      </c>
-      <c r="M117" t="s">
+        <v>-0.22008385990447629</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>488</v>
       </c>
@@ -9602,13 +9956,16 @@
         <v>0.50507521629333496</v>
       </c>
       <c r="L118">
-        <v>0</v>
-      </c>
-      <c r="M118" t="s">
+        <v>0.57284422188927797</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>492</v>
       </c>
@@ -9643,13 +10000,16 @@
         <v>0.92471504211425781</v>
       </c>
       <c r="L119">
-        <v>0</v>
-      </c>
-      <c r="M119" t="s">
+        <v>0.82342646841659495</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>497</v>
       </c>
@@ -9684,10 +10044,13 @@
         <v>0.96795636415481567</v>
       </c>
       <c r="L120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.93894545549611153</v>
+      </c>
+      <c r="M120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>502</v>
       </c>
@@ -9722,13 +10085,16 @@
         <v>0.99638569355010986</v>
       </c>
       <c r="L121">
-        <v>0</v>
-      </c>
-      <c r="M121" t="s">
+        <v>0.9420905491408329</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>504</v>
       </c>
@@ -9765,8 +10131,11 @@
       <c r="L122">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>509</v>
       </c>
@@ -9801,13 +10170,16 @@
         <v>0.11882726848125461</v>
       </c>
       <c r="L123">
-        <v>0</v>
-      </c>
-      <c r="M123" t="s">
+        <v>-0.16482387099639009</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>511</v>
       </c>
@@ -9842,13 +10214,16 @@
         <v>0.37647292017936712</v>
       </c>
       <c r="L124">
-        <v>0</v>
-      </c>
-      <c r="M124" t="s">
+        <v>0.41947924854018948</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>516</v>
       </c>
@@ -9883,13 +10258,16 @@
         <v>0.17578981816768649</v>
       </c>
       <c r="L125">
-        <v>0</v>
-      </c>
-      <c r="M125" t="s">
+        <v>-0.11036556901243991</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>519</v>
       </c>
@@ -9924,13 +10302,16 @@
         <v>0.83736979961395264</v>
       </c>
       <c r="L126">
-        <v>1</v>
-      </c>
-      <c r="M126" t="s">
+        <v>0.62543792343030136</v>
+      </c>
+      <c r="M126">
+        <v>1</v>
+      </c>
+      <c r="N126" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>524</v>
       </c>
@@ -9965,13 +10346,16 @@
         <v>0.83266878128051758</v>
       </c>
       <c r="L127">
-        <v>0</v>
-      </c>
-      <c r="M127" t="s">
+        <v>0.67149290943479423</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>529</v>
       </c>
@@ -10006,13 +10390,16 @@
         <v>0.88875812292098999</v>
       </c>
       <c r="L128">
-        <v>0</v>
-      </c>
-      <c r="M128" t="s">
+        <v>0.61079185249987633</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>534</v>
       </c>
@@ -10047,13 +10434,16 @@
         <v>0.94277840852737427</v>
       </c>
       <c r="L129">
-        <v>0</v>
-      </c>
-      <c r="M129" t="s">
+        <v>0.88910886714347059</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>539</v>
       </c>
@@ -10088,13 +10478,16 @@
         <v>0.86489248275756836</v>
       </c>
       <c r="L130">
-        <v>0</v>
-      </c>
-      <c r="M130" t="s">
+        <v>0.72259328779938936</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>543</v>
       </c>
@@ -10129,13 +10522,16 @@
         <v>0.84768891334533691</v>
       </c>
       <c r="L131">
-        <v>0</v>
-      </c>
-      <c r="M131" t="s">
+        <v>0.74417773176488033</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>548</v>
       </c>
@@ -10170,13 +10566,16 @@
         <v>0.91955757141113281</v>
       </c>
       <c r="L132">
-        <v>0</v>
-      </c>
-      <c r="M132" t="s">
+        <v>0.82909876050135289</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>553</v>
       </c>
@@ -10211,13 +10610,16 @@
         <v>0.78110891580581665</v>
       </c>
       <c r="L133">
-        <v>0</v>
-      </c>
-      <c r="M133" t="s">
+        <v>0.65469182079990174</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>558</v>
       </c>
@@ -10252,13 +10654,16 @@
         <v>0.76568573713302612</v>
       </c>
       <c r="L134">
-        <v>0</v>
-      </c>
-      <c r="M134" t="s">
+        <v>0.51800783012439844</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
+      </c>
+      <c r="N134" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>562</v>
       </c>
@@ -10293,13 +10698,16 @@
         <v>0.70650219917297363</v>
       </c>
       <c r="L135">
-        <v>1</v>
-      </c>
-      <c r="M135" t="s">
+        <v>0.62580147719549672</v>
+      </c>
+      <c r="M135">
+        <v>1</v>
+      </c>
+      <c r="N135" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>568</v>
       </c>
@@ -10334,13 +10742,16 @@
         <v>0.14523144066333771</v>
       </c>
       <c r="L136">
-        <v>0</v>
-      </c>
-      <c r="M136" t="s">
+        <v>-4.7988073768953532E-2</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>571</v>
       </c>
@@ -10375,13 +10786,16 @@
         <v>0.56674337387084961</v>
       </c>
       <c r="L137">
-        <v>0</v>
-      </c>
-      <c r="M137" t="s">
+        <v>0.38462556136127979</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>577</v>
       </c>
@@ -10418,8 +10832,11 @@
       <c r="L138">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>582</v>
       </c>
@@ -10454,10 +10871,13 @@
         <v>0.85981130599975586</v>
       </c>
       <c r="L139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.56086039368226581</v>
+      </c>
+      <c r="M139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>587</v>
       </c>
@@ -10492,10 +10912,13 @@
         <v>0.99461233615875244</v>
       </c>
       <c r="L140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.53543322133297089</v>
+      </c>
+      <c r="M140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>592</v>
       </c>
@@ -10530,10 +10953,13 @@
         <v>1</v>
       </c>
       <c r="L141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.99137721080210328</v>
+      </c>
+      <c r="M141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>597</v>
       </c>
@@ -10570,8 +10996,11 @@
       <c r="L142">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>599</v>
       </c>
@@ -10606,13 +11035,16 @@
         <v>0.96445393562316895</v>
       </c>
       <c r="L143">
-        <v>1</v>
-      </c>
-      <c r="M143" t="s">
+        <v>0.92817243698591356</v>
+      </c>
+      <c r="M143">
+        <v>1</v>
+      </c>
+      <c r="N143" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>605</v>
       </c>
@@ -10647,10 +11079,13 @@
         <v>0.75247341394424438</v>
       </c>
       <c r="L144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.8288590584629425</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>610</v>
       </c>
@@ -10685,13 +11120,16 @@
         <v>9.0331152081489563E-2</v>
       </c>
       <c r="L145">
-        <v>0</v>
-      </c>
-      <c r="M145" t="s">
+        <v>-0.2095886828283042</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>613</v>
       </c>
@@ -10726,13 +11164,16 @@
         <v>0.98922932147979736</v>
       </c>
       <c r="L146">
-        <v>0</v>
-      </c>
-      <c r="M146" t="s">
+        <v>0.67864234653118749</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>617</v>
       </c>
@@ -10767,13 +11208,16 @@
         <v>0.86127763986587524</v>
       </c>
       <c r="L147">
-        <v>0</v>
-      </c>
-      <c r="M147" t="s">
+        <v>0.60620952043246512</v>
+      </c>
+      <c r="M147">
+        <v>0</v>
+      </c>
+      <c r="N147" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>622</v>
       </c>
@@ -10808,13 +11252,16 @@
         <v>0.6958194375038147</v>
       </c>
       <c r="L148">
-        <v>0</v>
-      </c>
-      <c r="M148" t="s">
+        <v>0.52298808923195639</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>627</v>
       </c>
@@ -10849,13 +11296,16 @@
         <v>0.93368065357208252</v>
       </c>
       <c r="L149">
-        <v>0</v>
-      </c>
-      <c r="M149" t="s">
+        <v>0.58201594886836894</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+      <c r="N149" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>633</v>
       </c>
@@ -10890,13 +11340,16 @@
         <v>0.6279447078704834</v>
       </c>
       <c r="L150">
-        <v>0</v>
-      </c>
-      <c r="M150" t="s">
+        <v>0.60093129492381303</v>
+      </c>
+      <c r="M150">
+        <v>0</v>
+      </c>
+      <c r="N150" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>638</v>
       </c>
@@ -10931,13 +11384,16 @@
         <v>7.845190167427063E-2</v>
       </c>
       <c r="L151">
-        <v>0</v>
-      </c>
-      <c r="M151" t="s">
+        <v>-0.20094812529513911</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>641</v>
       </c>
@@ -10972,13 +11428,16 @@
         <v>0.96169817447662354</v>
       </c>
       <c r="L152">
-        <v>0</v>
-      </c>
-      <c r="M152" t="s">
+        <v>0.93937638743960128</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="N152" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>647</v>
       </c>
@@ -11013,13 +11472,16 @@
         <v>0.63003087043762207</v>
       </c>
       <c r="L153">
-        <v>0</v>
-      </c>
-      <c r="M153" t="s">
+        <v>0.64167989932308922</v>
+      </c>
+      <c r="M153">
+        <v>0</v>
+      </c>
+      <c r="N153" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>652</v>
       </c>
@@ -11054,13 +11516,16 @@
         <v>0.86667895317077637</v>
       </c>
       <c r="L154">
-        <v>1</v>
-      </c>
-      <c r="M154" t="s">
+        <v>0.47459154529023972</v>
+      </c>
+      <c r="M154">
+        <v>1</v>
+      </c>
+      <c r="N154" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>657</v>
       </c>
@@ -11095,10 +11560,13 @@
         <v>0.92546296119689941</v>
       </c>
       <c r="L155">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.952089022025841</v>
+      </c>
+      <c r="M155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>661</v>
       </c>
@@ -11133,13 +11601,16 @@
         <v>-1.3177715241909031E-2</v>
       </c>
       <c r="L156">
-        <v>0</v>
-      </c>
-      <c r="M156" t="s">
+        <v>-0.1848362674963944</v>
+      </c>
+      <c r="M156">
+        <v>0</v>
+      </c>
+      <c r="N156" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>664</v>
       </c>
@@ -11174,13 +11645,16 @@
         <v>0.95521247386932373</v>
       </c>
       <c r="L157">
-        <v>1</v>
-      </c>
-      <c r="M157" t="s">
+        <v>0.88221143171265226</v>
+      </c>
+      <c r="M157">
+        <v>1</v>
+      </c>
+      <c r="N157" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>668</v>
       </c>
@@ -11215,13 +11689,16 @@
         <v>0.94148856401443481</v>
       </c>
       <c r="L158">
-        <v>0</v>
-      </c>
-      <c r="M158" t="s">
+        <v>0.89938419097232847</v>
+      </c>
+      <c r="M158">
+        <v>0</v>
+      </c>
+      <c r="N158" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>674</v>
       </c>
@@ -11256,13 +11733,16 @@
         <v>0.78443390130996704</v>
       </c>
       <c r="L159">
-        <v>0</v>
-      </c>
-      <c r="M159" t="s">
+        <v>0.75394209806454082</v>
+      </c>
+      <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>679</v>
       </c>
@@ -11297,13 +11777,16 @@
         <v>0.78173106908798218</v>
       </c>
       <c r="L160">
-        <v>0</v>
-      </c>
-      <c r="M160" t="s">
+        <v>0.72048981118683009</v>
+      </c>
+      <c r="M160">
+        <v>0</v>
+      </c>
+      <c r="N160" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>684</v>
       </c>
@@ -11340,8 +11823,11 @@
       <c r="L161">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>688</v>
       </c>
@@ -11378,8 +11864,11 @@
       <c r="L162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>690</v>
       </c>
@@ -11414,13 +11903,16 @@
         <v>0.85428780317306519</v>
       </c>
       <c r="L163">
-        <v>0</v>
-      </c>
-      <c r="M163" t="s">
+        <v>0.81193355359439479</v>
+      </c>
+      <c r="M163">
+        <v>0</v>
+      </c>
+      <c r="N163" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>694</v>
       </c>
@@ -11455,13 +11947,16 @@
         <v>0.2339652627706528</v>
       </c>
       <c r="L164">
-        <v>0</v>
-      </c>
-      <c r="M164" t="s">
+        <v>-0.2425769194333913</v>
+      </c>
+      <c r="M164">
+        <v>0</v>
+      </c>
+      <c r="N164" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>697</v>
       </c>
@@ -11496,13 +11991,16 @@
         <v>0.2233441174030304</v>
       </c>
       <c r="L165">
-        <v>0</v>
-      </c>
-      <c r="M165" t="s">
+        <v>-0.2245298295431781</v>
+      </c>
+      <c r="M165">
+        <v>0</v>
+      </c>
+      <c r="N165" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>699</v>
       </c>
@@ -11537,13 +12035,16 @@
         <v>0.94327104091644287</v>
       </c>
       <c r="L166">
-        <v>1</v>
-      </c>
-      <c r="M166" t="s">
+        <v>0.86458261558066218</v>
+      </c>
+      <c r="M166">
+        <v>1</v>
+      </c>
+      <c r="N166" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>705</v>
       </c>
@@ -11578,13 +12079,16 @@
         <v>0.70632827281951904</v>
       </c>
       <c r="L167">
-        <v>1</v>
-      </c>
-      <c r="M167" t="s">
+        <v>0.70075627104725791</v>
+      </c>
+      <c r="M167">
+        <v>1</v>
+      </c>
+      <c r="N167" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>710</v>
       </c>
@@ -11621,8 +12125,11 @@
       <c r="L168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>712</v>
       </c>
@@ -11657,13 +12164,16 @@
         <v>0.56620395183563232</v>
       </c>
       <c r="L169">
-        <v>0</v>
-      </c>
-      <c r="M169" t="s">
+        <v>0.46344043134829871</v>
+      </c>
+      <c r="M169">
+        <v>0</v>
+      </c>
+      <c r="N169" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>717</v>
       </c>
@@ -11700,8 +12210,11 @@
       <c r="L170">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>719</v>
       </c>
@@ -11736,13 +12249,16 @@
         <v>0.43476772308349609</v>
       </c>
       <c r="L171">
-        <v>1</v>
-      </c>
-      <c r="M171" t="s">
+        <v>0.62558263152443838</v>
+      </c>
+      <c r="M171">
+        <v>1</v>
+      </c>
+      <c r="N171" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>725</v>
       </c>
@@ -11777,13 +12293,16 @@
         <v>0.63464450836181641</v>
       </c>
       <c r="L172">
-        <v>1</v>
-      </c>
-      <c r="M172" t="s">
+        <v>0.69685821844203355</v>
+      </c>
+      <c r="M172">
+        <v>1</v>
+      </c>
+      <c r="N172" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>728</v>
       </c>
@@ -11820,8 +12339,11 @@
       <c r="L173">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>730</v>
       </c>
@@ -11856,10 +12378,13 @@
         <v>0.95187598466873169</v>
       </c>
       <c r="L174">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.97403748073718899</v>
+      </c>
+      <c r="M174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>734</v>
       </c>
@@ -11894,13 +12419,16 @@
         <v>0.64777880907058716</v>
       </c>
       <c r="L175">
-        <v>0</v>
-      </c>
-      <c r="M175" t="s">
+        <v>0.50255310121043284</v>
+      </c>
+      <c r="M175">
+        <v>0</v>
+      </c>
+      <c r="N175" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>740</v>
       </c>
@@ -11935,13 +12463,16 @@
         <v>0.76768314838409424</v>
       </c>
       <c r="L176">
-        <v>0</v>
-      </c>
-      <c r="M176" t="s">
+        <v>0.24232944754119479</v>
+      </c>
+      <c r="M176">
+        <v>0</v>
+      </c>
+      <c r="N176" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>745</v>
       </c>
@@ -11976,13 +12507,16 @@
         <v>0.950156569480896</v>
       </c>
       <c r="L177">
-        <v>0</v>
-      </c>
-      <c r="M177" t="s">
+        <v>0.8043990408551045</v>
+      </c>
+      <c r="M177">
+        <v>0</v>
+      </c>
+      <c r="N177" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>750</v>
       </c>
@@ -12017,13 +12551,16 @@
         <v>0.98609340190887451</v>
       </c>
       <c r="L178">
-        <v>1</v>
-      </c>
-      <c r="M178" t="s">
+        <v>0.89145456110798338</v>
+      </c>
+      <c r="M178">
+        <v>1</v>
+      </c>
+      <c r="N178" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>755</v>
       </c>
@@ -12058,13 +12595,16 @@
         <v>0.95234251022338867</v>
       </c>
       <c r="L179">
-        <v>0</v>
-      </c>
-      <c r="M179" t="s">
+        <v>0.44931576594965872</v>
+      </c>
+      <c r="M179">
+        <v>0</v>
+      </c>
+      <c r="N179" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>760</v>
       </c>
@@ -12099,13 +12639,16 @@
         <v>0.84276366233825684</v>
       </c>
       <c r="L180">
-        <v>1</v>
-      </c>
-      <c r="M180" t="s">
+        <v>0.75963613745234182</v>
+      </c>
+      <c r="M180">
+        <v>1</v>
+      </c>
+      <c r="N180" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>764</v>
       </c>
@@ -12140,13 +12683,16 @@
         <v>0.97644394636154175</v>
       </c>
       <c r="L181">
-        <v>0</v>
-      </c>
-      <c r="M181" t="s">
+        <v>0.95836758460898863</v>
+      </c>
+      <c r="M181">
+        <v>0</v>
+      </c>
+      <c r="N181" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>770</v>
       </c>
@@ -12181,13 +12727,16 @@
         <v>0.3325202465057373</v>
       </c>
       <c r="L182">
-        <v>0</v>
-      </c>
-      <c r="M182" t="s">
+        <v>0.17451667033815901</v>
+      </c>
+      <c r="M182">
+        <v>0</v>
+      </c>
+      <c r="N182" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>774</v>
       </c>
@@ -12224,8 +12773,11 @@
       <c r="L183">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>776</v>
       </c>
@@ -12260,13 +12812,16 @@
         <v>0.84431761503219604</v>
       </c>
       <c r="L184">
-        <v>0</v>
-      </c>
-      <c r="M184" t="s">
+        <v>0.83025118990400626</v>
+      </c>
+      <c r="M184">
+        <v>0</v>
+      </c>
+      <c r="N184" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>781</v>
       </c>
@@ -12301,13 +12856,16 @@
         <v>0.8697516918182373</v>
       </c>
       <c r="L185">
-        <v>0</v>
-      </c>
-      <c r="M185" t="s">
+        <v>0.85492182646185677</v>
+      </c>
+      <c r="M185">
+        <v>0</v>
+      </c>
+      <c r="N185" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>786</v>
       </c>
@@ -12342,13 +12900,16 @@
         <v>0.81140351295471191</v>
       </c>
       <c r="L186">
-        <v>0</v>
-      </c>
-      <c r="M186" t="s">
+        <v>0.76966951139249151</v>
+      </c>
+      <c r="M186">
+        <v>0</v>
+      </c>
+      <c r="N186" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>792</v>
       </c>
@@ -12383,13 +12944,16 @@
         <v>0.86135345697402954</v>
       </c>
       <c r="L187">
-        <v>0</v>
-      </c>
-      <c r="M187" t="s">
+        <v>0.82534207477822652</v>
+      </c>
+      <c r="M187">
+        <v>0</v>
+      </c>
+      <c r="N187" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>796</v>
       </c>
@@ -12424,13 +12988,16 @@
         <v>0.84410715103149414</v>
       </c>
       <c r="L188">
-        <v>0</v>
-      </c>
-      <c r="M188" t="s">
+        <v>0.462063825831318</v>
+      </c>
+      <c r="M188">
+        <v>0</v>
+      </c>
+      <c r="N188" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>802</v>
       </c>
@@ -12465,10 +13032,13 @@
         <v>0.99595606327056885</v>
       </c>
       <c r="L189">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.95679203613165054</v>
+      </c>
+      <c r="M189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>807</v>
       </c>
@@ -12503,13 +13073,16 @@
         <v>0.81023865938186646</v>
       </c>
       <c r="L190">
-        <v>0</v>
-      </c>
-      <c r="M190" t="s">
+        <v>0.85146979506365172</v>
+      </c>
+      <c r="M190">
+        <v>0</v>
+      </c>
+      <c r="N190" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>812</v>
       </c>
@@ -12546,8 +13119,11 @@
       <c r="L191">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>814</v>
       </c>
@@ -12582,10 +13158,13 @@
         <v>0.96763086318969727</v>
       </c>
       <c r="L192">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.90562610552399636</v>
+      </c>
+      <c r="M192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>819</v>
       </c>
@@ -12620,13 +13199,16 @@
         <v>4.1713863611221307E-2</v>
       </c>
       <c r="L193">
-        <v>0</v>
-      </c>
-      <c r="M193" t="s">
+        <v>-0.23958320953337961</v>
+      </c>
+      <c r="M193">
+        <v>0</v>
+      </c>
+      <c r="N193" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>822</v>
       </c>
@@ -12661,10 +13243,13 @@
         <v>0.91628068685531616</v>
       </c>
       <c r="L194">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.97073717170814111</v>
+      </c>
+      <c r="M194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>825</v>
       </c>
@@ -12699,13 +13284,16 @@
         <v>9.0700723230838776E-2</v>
       </c>
       <c r="L195">
-        <v>0</v>
-      </c>
-      <c r="M195" t="s">
+        <v>-8.0236454117134537E-2</v>
+      </c>
+      <c r="M195">
+        <v>0</v>
+      </c>
+      <c r="N195" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>828</v>
       </c>
@@ -12740,13 +13328,16 @@
         <v>0.85070198774337769</v>
       </c>
       <c r="L196">
-        <v>0</v>
-      </c>
-      <c r="M196" t="s">
+        <v>0.85333607188619087</v>
+      </c>
+      <c r="M196">
+        <v>0</v>
+      </c>
+      <c r="N196" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>834</v>
       </c>
@@ -12781,13 +13372,16 @@
         <v>0.67185533046722412</v>
       </c>
       <c r="L197">
-        <v>0</v>
-      </c>
-      <c r="M197" t="s">
+        <v>0.8052767425698748</v>
+      </c>
+      <c r="M197">
+        <v>0</v>
+      </c>
+      <c r="N197" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>839</v>
       </c>
@@ -12822,13 +13416,16 @@
         <v>0.81232905387878418</v>
       </c>
       <c r="L198">
-        <v>1</v>
-      </c>
-      <c r="M198" t="s">
+        <v>0.814508511255428</v>
+      </c>
+      <c r="M198">
+        <v>1</v>
+      </c>
+      <c r="N198" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>844</v>
       </c>
@@ -12863,13 +13460,16 @@
         <v>0.79351091384887695</v>
       </c>
       <c r="L199">
-        <v>0</v>
-      </c>
-      <c r="M199" t="s">
+        <v>0.58737203889108258</v>
+      </c>
+      <c r="M199">
+        <v>0</v>
+      </c>
+      <c r="N199" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>848</v>
       </c>
@@ -12904,13 +13504,16 @@
         <v>0.5090528130531311</v>
       </c>
       <c r="L200">
-        <v>0</v>
-      </c>
-      <c r="M200" t="s">
+        <v>0.7650274107859022</v>
+      </c>
+      <c r="M200">
+        <v>0</v>
+      </c>
+      <c r="N200" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>854</v>
       </c>
@@ -12945,13 +13548,16 @@
         <v>0.7769199013710022</v>
       </c>
       <c r="L201">
-        <v>0</v>
-      </c>
-      <c r="M201" t="s">
+        <v>0.68771774137797792</v>
+      </c>
+      <c r="M201">
+        <v>0</v>
+      </c>
+      <c r="N201" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>859</v>
       </c>
@@ -12986,13 +13592,16 @@
         <v>0.44656002521514893</v>
       </c>
       <c r="L202">
-        <v>0</v>
-      </c>
-      <c r="M202" t="s">
+        <v>0.54157232117108567</v>
+      </c>
+      <c r="M202">
+        <v>0</v>
+      </c>
+      <c r="N202" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>863</v>
       </c>
@@ -13027,13 +13636,16 @@
         <v>0.3204343318939209</v>
       </c>
       <c r="L203">
-        <v>0</v>
-      </c>
-      <c r="M203" t="s">
+        <v>0.57051194766541946</v>
+      </c>
+      <c r="M203">
+        <v>0</v>
+      </c>
+      <c r="N203" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>868</v>
       </c>
@@ -13068,13 +13680,16 @@
         <v>0.51106822490692139</v>
       </c>
       <c r="L204">
-        <v>0</v>
-      </c>
-      <c r="M204" t="s">
+        <v>0.69819022633227124</v>
+      </c>
+      <c r="M204">
+        <v>0</v>
+      </c>
+      <c r="N204" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>873</v>
       </c>
@@ -13109,13 +13724,16 @@
         <v>0.77586245536804199</v>
       </c>
       <c r="L205">
-        <v>0</v>
-      </c>
-      <c r="M205" t="s">
+        <v>0.57861490175004304</v>
+      </c>
+      <c r="M205">
+        <v>0</v>
+      </c>
+      <c r="N205" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>878</v>
       </c>
@@ -13150,13 +13768,16 @@
         <v>0.89885497093200684</v>
       </c>
       <c r="L206">
-        <v>1</v>
-      </c>
-      <c r="M206" t="s">
+        <v>0.45568171773617627</v>
+      </c>
+      <c r="M206">
+        <v>1</v>
+      </c>
+      <c r="N206" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>884</v>
       </c>
@@ -13191,13 +13812,16 @@
         <v>0.89885497093200684</v>
       </c>
       <c r="L207">
-        <v>1</v>
-      </c>
-      <c r="M207" t="s">
+        <v>0.45568171773617627</v>
+      </c>
+      <c r="M207">
+        <v>1</v>
+      </c>
+      <c r="N207" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>885</v>
       </c>
@@ -13232,13 +13856,16 @@
         <v>0.77659702301025391</v>
       </c>
       <c r="L208">
-        <v>1</v>
-      </c>
-      <c r="M208" t="s">
+        <v>0.75994428827965343</v>
+      </c>
+      <c r="M208">
+        <v>1</v>
+      </c>
+      <c r="N208" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>891</v>
       </c>
@@ -13273,13 +13900,16 @@
         <v>0.88719761371612549</v>
       </c>
       <c r="L209">
-        <v>0</v>
-      </c>
-      <c r="M209" t="s">
+        <v>0.75608096103977318</v>
+      </c>
+      <c r="M209">
+        <v>0</v>
+      </c>
+      <c r="N209" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>897</v>
       </c>
@@ -13314,13 +13944,16 @@
         <v>0.66548776626586914</v>
       </c>
       <c r="L210">
-        <v>0</v>
-      </c>
-      <c r="M210" t="s">
+        <v>0.52930656159512934</v>
+      </c>
+      <c r="M210">
+        <v>0</v>
+      </c>
+      <c r="N210" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>903</v>
       </c>
@@ -13357,8 +13990,11 @@
       <c r="L211">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>905</v>
       </c>
@@ -13395,8 +14031,11 @@
       <c r="L212">
         <v>1</v>
       </c>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>907</v>
       </c>
@@ -13431,13 +14070,16 @@
         <v>0.85379576683044434</v>
       </c>
       <c r="L213">
-        <v>0</v>
-      </c>
-      <c r="M213" t="s">
+        <v>0.78494957139058574</v>
+      </c>
+      <c r="M213">
+        <v>0</v>
+      </c>
+      <c r="N213" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>911</v>
       </c>
@@ -13474,8 +14116,11 @@
       <c r="L214">
         <v>1</v>
       </c>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>913</v>
       </c>
@@ -13510,13 +14155,16 @@
         <v>0.97030174732208252</v>
       </c>
       <c r="L215">
-        <v>1</v>
-      </c>
-      <c r="M215" t="s">
+        <v>0.99407363159949025</v>
+      </c>
+      <c r="M215">
+        <v>1</v>
+      </c>
+      <c r="N215" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>919</v>
       </c>
@@ -13553,8 +14201,11 @@
       <c r="L216">
         <v>1</v>
       </c>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>921</v>
       </c>
@@ -13589,13 +14240,16 @@
         <v>0.94159382581710815</v>
       </c>
       <c r="L217">
-        <v>0</v>
-      </c>
-      <c r="M217" t="s">
+        <v>0.86859696140370046</v>
+      </c>
+      <c r="M217">
+        <v>0</v>
+      </c>
+      <c r="N217" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>926</v>
       </c>
@@ -13632,8 +14286,11 @@
       <c r="L218">
         <v>1</v>
       </c>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>928</v>
       </c>
@@ -13670,8 +14327,11 @@
       <c r="L219">
         <v>1</v>
       </c>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>930</v>
       </c>
@@ -13708,8 +14368,11 @@
       <c r="L220">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>932</v>
       </c>
@@ -13744,13 +14407,16 @@
         <v>0.14731824398040769</v>
       </c>
       <c r="L221">
-        <v>0</v>
-      </c>
-      <c r="M221" t="s">
+        <v>-0.22789797503802831</v>
+      </c>
+      <c r="M221">
+        <v>0</v>
+      </c>
+      <c r="N221" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>935</v>
       </c>
@@ -13787,8 +14453,11 @@
       <c r="L222">
         <v>1</v>
       </c>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>939</v>
       </c>
@@ -13823,10 +14492,13 @@
         <v>0.9533231258392334</v>
       </c>
       <c r="L223">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.88778209308890954</v>
+      </c>
+      <c r="M223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>943</v>
       </c>
@@ -13861,13 +14533,16 @@
         <v>0.95343309640884399</v>
       </c>
       <c r="L224">
-        <v>1</v>
-      </c>
-      <c r="M224" t="s">
+        <v>0.82983581366888071</v>
+      </c>
+      <c r="M224">
+        <v>1</v>
+      </c>
+      <c r="N224" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>949</v>
       </c>
@@ -13902,13 +14577,16 @@
         <v>0.91417026519775391</v>
       </c>
       <c r="L225">
-        <v>0</v>
-      </c>
-      <c r="M225" t="s">
+        <v>0.74287193843375166</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>955</v>
       </c>
@@ -13943,13 +14621,16 @@
         <v>0.74158370494842529</v>
       </c>
       <c r="L226">
-        <v>0</v>
-      </c>
-      <c r="M226" t="s">
+        <v>0.8562531782241023</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>961</v>
       </c>
@@ -13984,13 +14665,16 @@
         <v>0.9378160834312439</v>
       </c>
       <c r="L227">
-        <v>1</v>
-      </c>
-      <c r="M227" t="s">
+        <v>0.88273705473026964</v>
+      </c>
+      <c r="M227">
+        <v>1</v>
+      </c>
+      <c r="N227" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>967</v>
       </c>
@@ -14025,13 +14709,16 @@
         <v>0.50340676307678223</v>
       </c>
       <c r="L228">
-        <v>0</v>
-      </c>
-      <c r="M228" t="s">
+        <v>0.43501757401089131</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>973</v>
       </c>
@@ -14066,13 +14753,16 @@
         <v>0.22718539834022519</v>
       </c>
       <c r="L229">
-        <v>0</v>
-      </c>
-      <c r="M229" t="s">
+        <v>-0.20538145631798541</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>976</v>
       </c>
@@ -14107,13 +14797,16 @@
         <v>0.94465839862823486</v>
       </c>
       <c r="L230">
-        <v>1</v>
-      </c>
-      <c r="M230" t="s">
+        <v>0.90476293834493182</v>
+      </c>
+      <c r="M230">
+        <v>1</v>
+      </c>
+      <c r="N230" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>981</v>
       </c>
@@ -14148,13 +14841,16 @@
         <v>0.7864919900894165</v>
       </c>
       <c r="L231">
-        <v>0</v>
-      </c>
-      <c r="M231" t="s">
+        <v>0.76276357261763317</v>
+      </c>
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>986</v>
       </c>
@@ -14189,13 +14885,16 @@
         <v>0.91501438617706299</v>
       </c>
       <c r="L232">
-        <v>0</v>
-      </c>
-      <c r="M232" t="s">
+        <v>0.79226219011221466</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>991</v>
       </c>
@@ -14230,13 +14929,16 @@
         <v>0.81241309642791748</v>
       </c>
       <c r="L233">
-        <v>0</v>
-      </c>
-      <c r="M233" t="s">
+        <v>0.81131894815715733</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>997</v>
       </c>
@@ -14271,13 +14973,16 @@
         <v>0.93791145086288452</v>
       </c>
       <c r="L234">
-        <v>0</v>
-      </c>
-      <c r="M234" t="s">
+        <v>0.86279561673084837</v>
+      </c>
+      <c r="M234">
+        <v>0</v>
+      </c>
+      <c r="N234" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>1003</v>
       </c>
@@ -14312,13 +15017,16 @@
         <v>0.67569237947463989</v>
       </c>
       <c r="L235">
-        <v>0</v>
-      </c>
-      <c r="M235" t="s">
+        <v>0.76190196210096006</v>
+      </c>
+      <c r="M235">
+        <v>0</v>
+      </c>
+      <c r="N235" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>1009</v>
       </c>
@@ -14353,13 +15061,16 @@
         <v>0.91164529323577881</v>
       </c>
       <c r="L236">
-        <v>0</v>
-      </c>
-      <c r="M236" t="s">
+        <v>0.83390813694070098</v>
+      </c>
+      <c r="M236">
+        <v>0</v>
+      </c>
+      <c r="N236" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>1015</v>
       </c>
@@ -14394,13 +15105,16 @@
         <v>0.94777965545654297</v>
       </c>
       <c r="L237">
-        <v>0</v>
-      </c>
-      <c r="M237" t="s">
+        <v>0.67730708346264645</v>
+      </c>
+      <c r="M237">
+        <v>0</v>
+      </c>
+      <c r="N237" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>1021</v>
       </c>
@@ -14435,13 +15149,16 @@
         <v>0.93890470266342163</v>
       </c>
       <c r="L238">
-        <v>0</v>
-      </c>
-      <c r="M238" t="s">
+        <v>0.88793520489516975</v>
+      </c>
+      <c r="M238">
+        <v>0</v>
+      </c>
+      <c r="N238" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>1027</v>
       </c>
@@ -14476,13 +15193,16 @@
         <v>0.94589352607727051</v>
       </c>
       <c r="L239">
-        <v>0</v>
-      </c>
-      <c r="M239" t="s">
+        <v>0.72768920265071557</v>
+      </c>
+      <c r="M239">
+        <v>0</v>
+      </c>
+      <c r="N239" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>1033</v>
       </c>
@@ -14517,13 +15237,16 @@
         <v>0.92280083894729614</v>
       </c>
       <c r="L240">
-        <v>0</v>
-      </c>
-      <c r="M240" t="s">
+        <v>0.88648880064261826</v>
+      </c>
+      <c r="M240">
+        <v>0</v>
+      </c>
+      <c r="N240" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>1039</v>
       </c>
@@ -14558,13 +15281,16 @@
         <v>0.50698202848434448</v>
       </c>
       <c r="L241">
-        <v>0</v>
-      </c>
-      <c r="M241" t="s">
+        <v>0.6289712746649041</v>
+      </c>
+      <c r="M241">
+        <v>0</v>
+      </c>
+      <c r="N241" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>1045</v>
       </c>
@@ -14599,13 +15325,16 @@
         <v>0.93260890245437622</v>
       </c>
       <c r="L242">
-        <v>0</v>
-      </c>
-      <c r="M242" t="s">
+        <v>0.8352545142030553</v>
+      </c>
+      <c r="M242">
+        <v>0</v>
+      </c>
+      <c r="N242" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>1051</v>
       </c>
@@ -14640,13 +15369,16 @@
         <v>0.95968592166900635</v>
       </c>
       <c r="L243">
-        <v>1</v>
-      </c>
-      <c r="M243" t="s">
+        <v>0.9204220854780667</v>
+      </c>
+      <c r="M243">
+        <v>1</v>
+      </c>
+      <c r="N243" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>1057</v>
       </c>
@@ -14681,13 +15413,16 @@
         <v>0.94642001390457153</v>
       </c>
       <c r="L244">
-        <v>0</v>
-      </c>
-      <c r="M244" t="s">
+        <v>0.89460904505995198</v>
+      </c>
+      <c r="M244">
+        <v>0</v>
+      </c>
+      <c r="N244" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>1063</v>
       </c>
@@ -14722,13 +15457,16 @@
         <v>0.92945420742034912</v>
       </c>
       <c r="L245">
-        <v>0</v>
-      </c>
-      <c r="M245" t="s">
+        <v>0.87455921781326085</v>
+      </c>
+      <c r="M245">
+        <v>0</v>
+      </c>
+      <c r="N245" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>1069</v>
       </c>
@@ -14763,13 +15501,16 @@
         <v>0.8863559365272522</v>
       </c>
       <c r="L246">
-        <v>0</v>
-      </c>
-      <c r="M246" t="s">
+        <v>0.76614701875469415</v>
+      </c>
+      <c r="M246">
+        <v>0</v>
+      </c>
+      <c r="N246" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>1075</v>
       </c>
@@ -14804,13 +15545,16 @@
         <v>0.54786407947540283</v>
       </c>
       <c r="L247">
-        <v>0</v>
-      </c>
-      <c r="M247" t="s">
+        <v>0.6895851282753509</v>
+      </c>
+      <c r="M247">
+        <v>0</v>
+      </c>
+      <c r="N247" t="s">
         <v>1080</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>1081</v>
       </c>
@@ -14845,13 +15589,16 @@
         <v>0.75269365310668945</v>
       </c>
       <c r="L248">
-        <v>0</v>
-      </c>
-      <c r="M248" t="s">
+        <v>0.86245140088831074</v>
+      </c>
+      <c r="M248">
+        <v>0</v>
+      </c>
+      <c r="N248" t="s">
         <v>1085</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>1086</v>
       </c>
@@ -14886,13 +15633,16 @@
         <v>0.91633951663970947</v>
       </c>
       <c r="L249">
-        <v>0</v>
-      </c>
-      <c r="M249" t="s">
+        <v>0.89954157200399343</v>
+      </c>
+      <c r="M249">
+        <v>0</v>
+      </c>
+      <c r="N249" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>1092</v>
       </c>
@@ -14927,13 +15677,16 @@
         <v>0.93792009353637695</v>
       </c>
       <c r="L250">
-        <v>0</v>
-      </c>
-      <c r="M250" t="s">
+        <v>0.70148676912476338</v>
+      </c>
+      <c r="M250">
+        <v>0</v>
+      </c>
+      <c r="N250" t="s">
         <v>1097</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>1098</v>
       </c>
@@ -14968,13 +15721,16 @@
         <v>0.78103500604629517</v>
       </c>
       <c r="L251">
-        <v>0</v>
-      </c>
-      <c r="M251" t="s">
+        <v>0.4849648105456581</v>
+      </c>
+      <c r="M251">
+        <v>0</v>
+      </c>
+      <c r="N251" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>1103</v>
       </c>
@@ -15009,13 +15765,16 @@
         <v>0.83039319515228271</v>
       </c>
       <c r="L252">
-        <v>0</v>
-      </c>
-      <c r="M252" t="s">
+        <v>0.86270900578265097</v>
+      </c>
+      <c r="M252">
+        <v>0</v>
+      </c>
+      <c r="N252" t="s">
         <v>1108</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>1109</v>
       </c>
@@ -15050,13 +15809,16 @@
         <v>0.7055402398109436</v>
       </c>
       <c r="L253">
-        <v>0</v>
-      </c>
-      <c r="M253" t="s">
+        <v>0.75486914787711701</v>
+      </c>
+      <c r="M253">
+        <v>0</v>
+      </c>
+      <c r="N253" t="s">
         <v>1114</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>1115</v>
       </c>
@@ -15091,13 +15853,16 @@
         <v>0.66833013296127319</v>
       </c>
       <c r="L254">
-        <v>0</v>
-      </c>
-      <c r="M254" t="s">
+        <v>0.67655204265360092</v>
+      </c>
+      <c r="M254">
+        <v>0</v>
+      </c>
+      <c r="N254" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>1120</v>
       </c>
@@ -15132,13 +15897,16 @@
         <v>0.95919430255889893</v>
       </c>
       <c r="L255">
-        <v>0</v>
-      </c>
-      <c r="M255" t="s">
+        <v>0.9023683423151766</v>
+      </c>
+      <c r="M255">
+        <v>0</v>
+      </c>
+      <c r="N255" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>1126</v>
       </c>
@@ -15173,13 +15941,16 @@
         <v>0.48271632194519037</v>
       </c>
       <c r="L256">
-        <v>0</v>
-      </c>
-      <c r="M256" t="s">
+        <v>0.50382625220060895</v>
+      </c>
+      <c r="M256">
+        <v>0</v>
+      </c>
+      <c r="N256" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>1131</v>
       </c>
@@ -15214,13 +15985,16 @@
         <v>0.94874411821365356</v>
       </c>
       <c r="L257">
-        <v>0</v>
-      </c>
-      <c r="M257" t="s">
+        <v>0.81431435329742607</v>
+      </c>
+      <c r="M257">
+        <v>0</v>
+      </c>
+      <c r="N257" t="s">
         <v>1136</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>1137</v>
       </c>
@@ -15255,13 +16029,16 @@
         <v>0.72186112403869629</v>
       </c>
       <c r="L258">
-        <v>0</v>
-      </c>
-      <c r="M258" t="s">
+        <v>0.55362085703283659</v>
+      </c>
+      <c r="M258">
+        <v>0</v>
+      </c>
+      <c r="N258" t="s">
         <v>1142</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>1143</v>
       </c>
@@ -15296,13 +16073,16 @@
         <v>0.69165611267089844</v>
       </c>
       <c r="L259">
-        <v>0</v>
-      </c>
-      <c r="M259" t="s">
+        <v>0.66995301680647767</v>
+      </c>
+      <c r="M259">
+        <v>0</v>
+      </c>
+      <c r="N259" t="s">
         <v>1148</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>1149</v>
       </c>
@@ -15337,13 +16117,16 @@
         <v>0.95142823457717896</v>
       </c>
       <c r="L260">
-        <v>0</v>
-      </c>
-      <c r="M260" t="s">
+        <v>0.88483402135815958</v>
+      </c>
+      <c r="M260">
+        <v>0</v>
+      </c>
+      <c r="N260" t="s">
         <v>1142</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>1154</v>
       </c>
@@ -15378,13 +16161,16 @@
         <v>0.96219289302825928</v>
       </c>
       <c r="L261">
-        <v>1</v>
-      </c>
-      <c r="M261" t="s">
+        <v>0.78229669308017935</v>
+      </c>
+      <c r="M261">
+        <v>1</v>
+      </c>
+      <c r="N261" t="s">
         <v>1159</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>1160</v>
       </c>
@@ -15419,13 +16205,16 @@
         <v>0.96055066585540771</v>
       </c>
       <c r="L262">
-        <v>1</v>
-      </c>
-      <c r="M262" t="s">
+        <v>0.72394535476425692</v>
+      </c>
+      <c r="M262">
+        <v>1</v>
+      </c>
+      <c r="N262" t="s">
         <v>1165</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>1166</v>
       </c>
@@ -15460,13 +16249,16 @@
         <v>0.8215065598487854</v>
       </c>
       <c r="L263">
-        <v>0</v>
-      </c>
-      <c r="M263" t="s">
+        <v>0.76266129418712836</v>
+      </c>
+      <c r="M263">
+        <v>0</v>
+      </c>
+      <c r="N263" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>1172</v>
       </c>
@@ -15501,13 +16293,16 @@
         <v>0.77605313062667847</v>
       </c>
       <c r="L264">
-        <v>0</v>
-      </c>
-      <c r="M264" t="s">
+        <v>0.70860099335954918</v>
+      </c>
+      <c r="M264">
+        <v>0</v>
+      </c>
+      <c r="N264" t="s">
         <v>1177</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>1178</v>
       </c>
@@ -15542,13 +16337,16 @@
         <v>0.38270580768585211</v>
       </c>
       <c r="L265">
-        <v>0</v>
-      </c>
-      <c r="M265" t="s">
+        <v>0.44661548725091432</v>
+      </c>
+      <c r="M265">
+        <v>0</v>
+      </c>
+      <c r="N265" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>1183</v>
       </c>
@@ -15583,13 +16381,16 @@
         <v>0.82688862085342407</v>
       </c>
       <c r="L266">
-        <v>1</v>
-      </c>
-      <c r="M266" t="s">
+        <v>0.70503426206659947</v>
+      </c>
+      <c r="M266">
+        <v>1</v>
+      </c>
+      <c r="N266" t="s">
         <v>1188</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>1189</v>
       </c>
@@ -15624,13 +16425,16 @@
         <v>0.87468063831329346</v>
       </c>
       <c r="L267">
-        <v>0</v>
-      </c>
-      <c r="M267" t="s">
+        <v>0.73290241677595769</v>
+      </c>
+      <c r="M267">
+        <v>0</v>
+      </c>
+      <c r="N267" t="s">
         <v>1194</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>1195</v>
       </c>
@@ -15665,13 +16469,16 @@
         <v>0.65467846393585205</v>
       </c>
       <c r="L268">
-        <v>0</v>
-      </c>
-      <c r="M268" t="s">
+        <v>0.73464957333459968</v>
+      </c>
+      <c r="M268">
+        <v>0</v>
+      </c>
+      <c r="N268" t="s">
         <v>1200</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>1201</v>
       </c>
@@ -15706,13 +16513,16 @@
         <v>0.96315121650695801</v>
       </c>
       <c r="L269">
-        <v>0</v>
-      </c>
-      <c r="M269" t="s">
+        <v>0.94081772589192092</v>
+      </c>
+      <c r="M269">
+        <v>0</v>
+      </c>
+      <c r="N269" t="s">
         <v>1206</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>1207</v>
       </c>
@@ -15747,13 +16557,16 @@
         <v>0.88565903902053833</v>
       </c>
       <c r="L270">
-        <v>0</v>
-      </c>
-      <c r="M270" t="s">
+        <v>0.8109429186329451</v>
+      </c>
+      <c r="M270">
+        <v>0</v>
+      </c>
+      <c r="N270" t="s">
         <v>1212</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>1213</v>
       </c>
@@ -15788,13 +16601,16 @@
         <v>0.96407091617584229</v>
       </c>
       <c r="L271">
-        <v>0</v>
-      </c>
-      <c r="M271" t="s">
+        <v>0.70499700352539862</v>
+      </c>
+      <c r="M271">
+        <v>0</v>
+      </c>
+      <c r="N271" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>1219</v>
       </c>
@@ -15829,13 +16645,16 @@
         <v>0.89116936922073364</v>
       </c>
       <c r="L272">
-        <v>0</v>
-      </c>
-      <c r="M272" t="s">
+        <v>0.81739557378233196</v>
+      </c>
+      <c r="M272">
+        <v>0</v>
+      </c>
+      <c r="N272" t="s">
         <v>1224</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>1225</v>
       </c>
@@ -15870,13 +16689,16 @@
         <v>0.92985010147094727</v>
       </c>
       <c r="L273">
-        <v>0</v>
-      </c>
-      <c r="M273" t="s">
+        <v>0.88180564472494949</v>
+      </c>
+      <c r="M273">
+        <v>0</v>
+      </c>
+      <c r="N273" t="s">
         <v>1230</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>1231</v>
       </c>
@@ -15911,13 +16733,16 @@
         <v>0.63223302364349365</v>
       </c>
       <c r="L274">
-        <v>0</v>
-      </c>
-      <c r="M274" t="s">
+        <v>0.7074629860357744</v>
+      </c>
+      <c r="M274">
+        <v>0</v>
+      </c>
+      <c r="N274" t="s">
         <v>1236</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>1237</v>
       </c>
@@ -15952,13 +16777,16 @@
         <v>0.62821435928344727</v>
       </c>
       <c r="L275">
-        <v>0</v>
-      </c>
-      <c r="M275" t="s">
+        <v>0.61025135087721616</v>
+      </c>
+      <c r="M275">
+        <v>0</v>
+      </c>
+      <c r="N275" t="s">
         <v>1242</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>1243</v>
       </c>
@@ -15993,13 +16821,16 @@
         <v>0.91547703742980957</v>
       </c>
       <c r="L276">
-        <v>0</v>
-      </c>
-      <c r="M276" t="s">
+        <v>0.86219924023457994</v>
+      </c>
+      <c r="M276">
+        <v>0</v>
+      </c>
+      <c r="N276" t="s">
         <v>1248</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>1249</v>
       </c>
@@ -16034,13 +16865,16 @@
         <v>0.71590864658355713</v>
       </c>
       <c r="L277">
-        <v>0</v>
-      </c>
-      <c r="M277" t="s">
+        <v>0.81722212156021734</v>
+      </c>
+      <c r="M277">
+        <v>0</v>
+      </c>
+      <c r="N277" t="s">
         <v>1254</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>1255</v>
       </c>
@@ -16075,13 +16909,16 @@
         <v>0.88678449392318726</v>
       </c>
       <c r="L278">
-        <v>0</v>
-      </c>
-      <c r="M278" t="s">
+        <v>0.94032651256065625</v>
+      </c>
+      <c r="M278">
+        <v>0</v>
+      </c>
+      <c r="N278" t="s">
         <v>1260</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>1261</v>
       </c>
@@ -16116,13 +16953,16 @@
         <v>0.17387804388999939</v>
       </c>
       <c r="L279">
-        <v>0</v>
-      </c>
-      <c r="M279" t="s">
+        <v>-0.22888064047600201</v>
+      </c>
+      <c r="M279">
+        <v>0</v>
+      </c>
+      <c r="N279" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>1264</v>
       </c>
@@ -16157,13 +16997,16 @@
         <v>0.92586255073547363</v>
       </c>
       <c r="L280">
-        <v>1</v>
-      </c>
-      <c r="M280" t="s">
+        <v>0.79343098021218106</v>
+      </c>
+      <c r="M280">
+        <v>1</v>
+      </c>
+      <c r="N280" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>1268</v>
       </c>
@@ -16198,13 +17041,16 @@
         <v>0.65067660808563232</v>
       </c>
       <c r="L281">
-        <v>0</v>
-      </c>
-      <c r="M281" t="s">
+        <v>0.75792941770559152</v>
+      </c>
+      <c r="M281">
+        <v>0</v>
+      </c>
+      <c r="N281" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>1273</v>
       </c>
@@ -16239,10 +17085,13 @@
         <v>0.99774426221847534</v>
       </c>
       <c r="L282">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.99826296098605749</v>
+      </c>
+      <c r="M282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>1278</v>
       </c>
@@ -16277,13 +17126,16 @@
         <v>0.56596815586090088</v>
       </c>
       <c r="L283">
-        <v>0</v>
-      </c>
-      <c r="M283" t="s">
+        <v>0.55479836725461662</v>
+      </c>
+      <c r="M283">
+        <v>0</v>
+      </c>
+      <c r="N283" t="s">
         <v>1283</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>1284</v>
       </c>
@@ -16318,13 +17170,16 @@
         <v>0.88499832153320313</v>
       </c>
       <c r="L284">
-        <v>0</v>
-      </c>
-      <c r="M284" t="s">
+        <v>0.61397777825685229</v>
+      </c>
+      <c r="M284">
+        <v>0</v>
+      </c>
+      <c r="N284" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>1289</v>
       </c>
@@ -16359,13 +17214,16 @@
         <v>0.7701411247253418</v>
       </c>
       <c r="L285">
-        <v>0</v>
-      </c>
-      <c r="M285" t="s">
+        <v>0.77800657908404236</v>
+      </c>
+      <c r="M285">
+        <v>0</v>
+      </c>
+      <c r="N285" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>1294</v>
       </c>
@@ -16400,13 +17258,16 @@
         <v>0.6705700159072876</v>
       </c>
       <c r="L286">
-        <v>0</v>
-      </c>
-      <c r="M286" t="s">
+        <v>0.74484143860274155</v>
+      </c>
+      <c r="M286">
+        <v>0</v>
+      </c>
+      <c r="N286" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>1298</v>
       </c>
@@ -16441,13 +17302,16 @@
         <v>0.87384605407714844</v>
       </c>
       <c r="L287">
-        <v>0</v>
-      </c>
-      <c r="M287" t="s">
+        <v>0.74454190937313425</v>
+      </c>
+      <c r="M287">
+        <v>0</v>
+      </c>
+      <c r="N287" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>1302</v>
       </c>
@@ -16482,13 +17346,16 @@
         <v>0.8863673210144043</v>
       </c>
       <c r="L288">
-        <v>0</v>
-      </c>
-      <c r="M288" t="s">
+        <v>0.74850075746182443</v>
+      </c>
+      <c r="M288">
+        <v>0</v>
+      </c>
+      <c r="N288" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>1306</v>
       </c>
@@ -16523,13 +17390,16 @@
         <v>0.1064815670251846</v>
       </c>
       <c r="L289">
-        <v>0</v>
-      </c>
-      <c r="M289" t="s">
+        <v>-0.21090712313185839</v>
+      </c>
+      <c r="M289">
+        <v>0</v>
+      </c>
+      <c r="N289" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>1309</v>
       </c>
@@ -16564,13 +17434,16 @@
         <v>0.8823394775390625</v>
       </c>
       <c r="L290">
-        <v>0</v>
-      </c>
-      <c r="M290" t="s">
+        <v>0.87899748703880232</v>
+      </c>
+      <c r="M290">
+        <v>0</v>
+      </c>
+      <c r="N290" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>1313</v>
       </c>
@@ -16605,10 +17478,13 @@
         <v>0.86392277479171753</v>
       </c>
       <c r="L291">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.95337287144515004</v>
+      </c>
+      <c r="M291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>1317</v>
       </c>
@@ -16643,13 +17519,16 @@
         <v>0.92320692539215088</v>
       </c>
       <c r="L292">
-        <v>0</v>
-      </c>
-      <c r="M292" t="s">
+        <v>0.90079776734964834</v>
+      </c>
+      <c r="M292">
+        <v>0</v>
+      </c>
+      <c r="N292" t="s">
         <v>1322</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>1323</v>
       </c>
@@ -16686,8 +17565,11 @@
       <c r="L293">
         <v>1</v>
       </c>
-    </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>1325</v>
       </c>
@@ -16722,13 +17604,16 @@
         <v>0.78381901979446411</v>
       </c>
       <c r="L294">
-        <v>0</v>
-      </c>
-      <c r="M294" t="s">
+        <v>0.79825453865692841</v>
+      </c>
+      <c r="M294">
+        <v>0</v>
+      </c>
+      <c r="N294" t="s">
         <v>1330</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>1331</v>
       </c>
@@ -16763,13 +17648,16 @@
         <v>0.794761061668396</v>
       </c>
       <c r="L295">
-        <v>0</v>
-      </c>
-      <c r="M295" t="s">
+        <v>0.8565310039430456</v>
+      </c>
+      <c r="M295">
+        <v>0</v>
+      </c>
+      <c r="N295" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>1336</v>
       </c>
@@ -16804,13 +17692,16 @@
         <v>0.82503986358642578</v>
       </c>
       <c r="L296">
-        <v>0</v>
-      </c>
-      <c r="M296" t="s">
+        <v>0.53253880523175212</v>
+      </c>
+      <c r="M296">
+        <v>0</v>
+      </c>
+      <c r="N296" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>1341</v>
       </c>
@@ -16845,13 +17736,16 @@
         <v>0.19653551280498499</v>
       </c>
       <c r="L297">
-        <v>0</v>
-      </c>
-      <c r="M297" t="s">
+        <v>-0.22423828824126479</v>
+      </c>
+      <c r="M297">
+        <v>0</v>
+      </c>
+      <c r="N297" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>1344</v>
       </c>
@@ -16886,13 +17780,16 @@
         <v>0.68507611751556396</v>
       </c>
       <c r="L298">
-        <v>0</v>
-      </c>
-      <c r="M298" t="s">
+        <v>0.74453614464806483</v>
+      </c>
+      <c r="M298">
+        <v>0</v>
+      </c>
+      <c r="N298" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>1349</v>
       </c>
@@ -16927,13 +17824,16 @@
         <v>0.13083711266517639</v>
       </c>
       <c r="L299">
-        <v>0</v>
-      </c>
-      <c r="M299" t="s">
+        <v>-0.2024734296697841</v>
+      </c>
+      <c r="M299">
+        <v>0</v>
+      </c>
+      <c r="N299" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>1352</v>
       </c>
@@ -16968,13 +17868,16 @@
         <v>0.89483577013015747</v>
       </c>
       <c r="L300">
-        <v>0</v>
-      </c>
-      <c r="M300" t="s">
+        <v>0.88551280239168262</v>
+      </c>
+      <c r="M300">
+        <v>0</v>
+      </c>
+      <c r="N300" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>1357</v>
       </c>
@@ -17009,13 +17912,16 @@
         <v>0.84907913208007813</v>
       </c>
       <c r="L301">
-        <v>0</v>
-      </c>
-      <c r="M301" t="s">
+        <v>0.81263785686407686</v>
+      </c>
+      <c r="M301">
+        <v>0</v>
+      </c>
+      <c r="N301" t="s">
         <v>1362</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>1363</v>
       </c>
@@ -17050,13 +17956,16 @@
         <v>0.1182386577129364</v>
       </c>
       <c r="L302">
-        <v>0</v>
-      </c>
-      <c r="M302" t="s">
+        <v>-0.2213156437362698</v>
+      </c>
+      <c r="M302">
+        <v>0</v>
+      </c>
+      <c r="N302" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>1366</v>
       </c>
@@ -17091,13 +18000,16 @@
         <v>0.75471067428588867</v>
       </c>
       <c r="L303">
-        <v>0</v>
-      </c>
-      <c r="M303" t="s">
+        <v>0.78852750230610025</v>
+      </c>
+      <c r="M303">
+        <v>0</v>
+      </c>
+      <c r="N303" t="s">
         <v>1371</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>1372</v>
       </c>
@@ -17132,13 +18044,16 @@
         <v>0.88577353954315186</v>
       </c>
       <c r="L304">
-        <v>0</v>
-      </c>
-      <c r="M304" t="s">
+        <v>0.79825092256454466</v>
+      </c>
+      <c r="M304">
+        <v>0</v>
+      </c>
+      <c r="N304" t="s">
         <v>1377</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>1378</v>
       </c>
@@ -17173,13 +18088,16 @@
         <v>0.89332795143127441</v>
       </c>
       <c r="L305">
-        <v>0</v>
-      </c>
-      <c r="M305" t="s">
+        <v>0.72172180787916762</v>
+      </c>
+      <c r="M305">
+        <v>0</v>
+      </c>
+      <c r="N305" t="s">
         <v>1377</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>1383</v>
       </c>
@@ -17214,13 +18132,16 @@
         <v>0.95131254196166992</v>
       </c>
       <c r="L306">
-        <v>0</v>
-      </c>
-      <c r="M306" t="s">
+        <v>0.76563326782346131</v>
+      </c>
+      <c r="M306">
+        <v>0</v>
+      </c>
+      <c r="N306" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>1388</v>
       </c>
@@ -17255,13 +18176,16 @@
         <v>0.75879800319671631</v>
       </c>
       <c r="L307">
-        <v>0</v>
-      </c>
-      <c r="M307" t="s">
+        <v>0.76857354120948362</v>
+      </c>
+      <c r="M307">
+        <v>0</v>
+      </c>
+      <c r="N307" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>1393</v>
       </c>
@@ -17296,13 +18220,16 @@
         <v>0.94872784614562988</v>
       </c>
       <c r="L308">
-        <v>1</v>
-      </c>
-      <c r="M308" t="s">
+        <v>0.70442234477703147</v>
+      </c>
+      <c r="M308">
+        <v>1</v>
+      </c>
+      <c r="N308" t="s">
         <v>1398</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>1399</v>
       </c>
@@ -17337,13 +18264,16 @@
         <v>0.69122064113616943</v>
       </c>
       <c r="L309">
-        <v>0</v>
-      </c>
-      <c r="M309" t="s">
+        <v>0.83179368721096836</v>
+      </c>
+      <c r="M309">
+        <v>0</v>
+      </c>
+      <c r="N309" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>1404</v>
       </c>
@@ -17378,13 +18308,16 @@
         <v>3.8756094872951508E-2</v>
       </c>
       <c r="L310">
-        <v>0</v>
-      </c>
-      <c r="M310" t="s">
+        <v>-0.19171355093218351</v>
+      </c>
+      <c r="M310">
+        <v>0</v>
+      </c>
+      <c r="N310" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>1407</v>
       </c>
@@ -17419,13 +18352,16 @@
         <v>0.95925581455230713</v>
       </c>
       <c r="L311">
-        <v>1</v>
-      </c>
-      <c r="M311" t="s">
+        <v>0.80093493896830359</v>
+      </c>
+      <c r="M311">
+        <v>1</v>
+      </c>
+      <c r="N311" t="s">
         <v>1412</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>1413</v>
       </c>
@@ -17460,13 +18396,16 @@
         <v>0.67634820938110352</v>
       </c>
       <c r="L312">
-        <v>0</v>
-      </c>
-      <c r="M312" t="s">
+        <v>0.63719809428175411</v>
+      </c>
+      <c r="M312">
+        <v>0</v>
+      </c>
+      <c r="N312" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>1418</v>
       </c>
@@ -17501,10 +18440,13 @@
         <v>0.99999994039535522</v>
       </c>
       <c r="L313">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.87271543591439493</v>
+      </c>
+      <c r="M313">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>1423</v>
       </c>
@@ -17539,13 +18481,16 @@
         <v>0.85278195142745972</v>
       </c>
       <c r="L314">
-        <v>0</v>
-      </c>
-      <c r="M314" t="s">
+        <v>0.76394893186385204</v>
+      </c>
+      <c r="M314">
+        <v>0</v>
+      </c>
+      <c r="N314" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>1428</v>
       </c>
@@ -17580,13 +18525,16 @@
         <v>0.83085393905639648</v>
       </c>
       <c r="L315">
-        <v>1</v>
-      </c>
-      <c r="M315" t="s">
+        <v>0.91778540046484691</v>
+      </c>
+      <c r="M315">
+        <v>1</v>
+      </c>
+      <c r="N315" t="s">
         <v>1433</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>1434</v>
       </c>
@@ -17621,13 +18569,16 @@
         <v>0.85825568437576294</v>
       </c>
       <c r="L316">
-        <v>0</v>
-      </c>
-      <c r="M316" t="s">
+        <v>0.68192386844937936</v>
+      </c>
+      <c r="M316">
+        <v>0</v>
+      </c>
+      <c r="N316" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>1439</v>
       </c>
@@ -17662,13 +18613,16 @@
         <v>0.90212464332580566</v>
       </c>
       <c r="L317">
-        <v>0</v>
-      </c>
-      <c r="M317" t="s">
+        <v>0.8991318379337615</v>
+      </c>
+      <c r="M317">
+        <v>0</v>
+      </c>
+      <c r="N317" t="s">
         <v>1444</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>1445</v>
       </c>
@@ -17703,13 +18657,16 @@
         <v>0.83237820863723755</v>
       </c>
       <c r="L318">
-        <v>0</v>
-      </c>
-      <c r="M318" t="s">
+        <v>0.71321132262606457</v>
+      </c>
+      <c r="M318">
+        <v>0</v>
+      </c>
+      <c r="N318" t="s">
         <v>1444</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>1449</v>
       </c>
@@ -17744,13 +18701,16 @@
         <v>0.9576869010925293</v>
       </c>
       <c r="L319">
-        <v>0</v>
-      </c>
-      <c r="M319" t="s">
+        <v>0.81996215601765932</v>
+      </c>
+      <c r="M319">
+        <v>0</v>
+      </c>
+      <c r="N319" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>1454</v>
       </c>
@@ -17785,13 +18745,16 @@
         <v>0.96082007884979248</v>
       </c>
       <c r="L320">
-        <v>0</v>
-      </c>
-      <c r="M320" t="s">
+        <v>0.88725130788325557</v>
+      </c>
+      <c r="M320">
+        <v>0</v>
+      </c>
+      <c r="N320" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>1459</v>
       </c>
@@ -17826,13 +18789,16 @@
         <v>0.76172316074371338</v>
       </c>
       <c r="L321">
-        <v>0</v>
-      </c>
-      <c r="M321" t="s">
+        <v>0.67153037275022276</v>
+      </c>
+      <c r="M321">
+        <v>0</v>
+      </c>
+      <c r="N321" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>1464</v>
       </c>
@@ -17867,13 +18833,16 @@
         <v>0.86668884754180908</v>
       </c>
       <c r="L322">
-        <v>0</v>
-      </c>
-      <c r="M322" t="s">
+        <v>0.78296423162194528</v>
+      </c>
+      <c r="M322">
+        <v>0</v>
+      </c>
+      <c r="N322" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>1469</v>
       </c>
@@ -17908,13 +18877,16 @@
         <v>0.91351592540740967</v>
       </c>
       <c r="L323">
-        <v>0</v>
-      </c>
-      <c r="M323" t="s">
+        <v>0.91411891199631268</v>
+      </c>
+      <c r="M323">
+        <v>0</v>
+      </c>
+      <c r="N323" t="s">
         <v>1474</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>1475</v>
       </c>
@@ -17949,13 +18921,16 @@
         <v>0.93372297286987305</v>
       </c>
       <c r="L324">
-        <v>0</v>
-      </c>
-      <c r="M324" t="s">
+        <v>0.91488437019337221</v>
+      </c>
+      <c r="M324">
+        <v>0</v>
+      </c>
+      <c r="N324" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>1480</v>
       </c>
@@ -17990,13 +18965,16 @@
         <v>0.99472910165786743</v>
       </c>
       <c r="L325">
-        <v>0</v>
-      </c>
-      <c r="M325" t="s">
+        <v>0.93822148682299922</v>
+      </c>
+      <c r="M325">
+        <v>0</v>
+      </c>
+      <c r="N325" t="s">
         <v>1485</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>1486</v>
       </c>
@@ -18033,8 +19011,11 @@
       <c r="L326">
         <v>1</v>
       </c>
-    </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>1488</v>
       </c>
@@ -18069,9 +19050,12 @@
         <v>0.53003406524658203</v>
       </c>
       <c r="L327">
-        <v>0</v>
-      </c>
-      <c r="M327" t="s">
+        <v>0.60712592496762108</v>
+      </c>
+      <c r="M327">
+        <v>0</v>
+      </c>
+      <c r="N327" t="s">
         <v>215</v>
       </c>
     </row>
